--- a/기사데이터/토스/엑셀파일/news(토스, 2023.05.01~2023.05.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.05.01~2023.05.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2509 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2023.05.11.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>[시그널] 산은, '300억弗 투자' 무바달라 전담 조직 설치</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004189022?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>UEA투자협력센터 신설···일부 아부다비 파견무바달라의 국내 투자 사업 연결·유치에 전념무바달라측 상반기 방한 예정에 재계도 '관심'[서울경제] 지난 2월 15일 서울 여의도 KDB산업은행 본점에서 열린 제1차 UAE투자협력 네트워크 회의에서 참석자들이 기념촬영을 하고 있다./사진제공=산업은행KDB산업은행이 아랍에미레이트(UAE)의 최고위 국부펀드인 무바달라 투자 유치를 위한 전담 조직을 신설했다. 지난 1월 윤석열 대통령과 UAE의 실질적 통치자인 무함마드 빈 자이드 알나하얀을 만나 300억 달러(약 39조 7100억 원) 투자를 위한 양해각서를 체결한 이후 본격적인 후속작업을 이행하기 위해서다.11일 투자은행(IB)업계에 따르면 산은은 최근 서울 여의도 본점에 UAE투자협력센터라는 이름으로 산하에 3개 팀 10명 규모 조직을 신설했다. 세 명의 팀장 중 선임격인 최항석 팀장이 센터장 역할을 겸직한다.최 팀장은 직전까지 프로젝트금융(PF)본부내 3실 팀장을 맡아왔다. PF3실은 산은 내에서도 국내외 도시개발사업을 주력으로 해온 부서로 IB업계에서 실무 경험과 자격을 갖춘 인재풀로 여겨져왔다. 이와함께 영업기획을 맡던 진영준 팀장 등이 합류했다. 업계 관계자는 “기존에도 산은에 아부다비 사무소가 있지만, UAE 투자협력센터는 사실상 무바달라 투자 유치를 전담하는 조직”이라고 설명했다.산은은 2013년 아부다비 사무소를 설립하고 지난해부터 김경래 소장이 맡고 있다. 산은은 아부다비 사무소에도 UAE투자협력센터 팀원을 별도로 파견해 무바달라와 산은간 투자 유치 조율 실무를 맡기기로 했다. 실무 팀원 역시 중동 지역 유학 경험이 있는 것으로 파악됐다.무바달라는 7개 토후국이 연방을 형성한 UAE에서 맏형인 아부다비가 2002년 설립한 국영 투자회사로 아부다비투자청(ADIA), 두바이투자청(ICD)과 함께 UAE 3대 국부펀드다. 운용 자산이 총 2844억 달러(372조 원)에 달해 전 세계 국부펀드 중 13위에 올라 있다. 특히 무바달라는 운용 자산 규모가 아부다비투자청 등에 비해 작지만 왕실이 직접 관여하기 때문에 위상은 더 높다는 평가다. UAE 대통령으로 윤 대통령과 1월 정상회담을 한 아부다비 통치자인 무함마드 빈 자이드 알나하얀이 이사회 의장을 맡고 있다. 이 때문에 ADIA와 ICD 등의 투자 방향까지 이끄는 UAE의 실질적인 최고 투자기구다. 무바달라는 미국과 유럽·아시아·호주 등의 유망 산업에 투자하면서 석유 중심인 자국 내 경제와 투자처의 다변화를 추진하고 있다.무바달라는 이르면 상반기내 방한해 국내 투자 대상 기업인들을 만날 예정이며 산은이 이를 총괄해 협의를 진행하고 있다. 토스·카카오(035720) 등 국내 플랫폼 기업과 바이오·콘텐츠, 신재생에너지 기업 관계자들을 대거 만나 투자를 조율할 것으로 알려졌다. 앞서 대통령실은 무바달라의 투자 대상에 국내 원전과 방산, 수소·태양광 기업들도 대상이라고 밝혔다.무바달라는 지난해 5월 보톡스 제조사인 휴젤(145020)(145020)을 GS·IMM인베스트먼트 등과 1조 7200억 원에 공동 인수하기도 했다. 국내 사모펀드(PEF) 업계도 무바달라의 국내외 투자 행보에 깊은 관심을 보이고 있다. 국내 PEF 중에서는 MBK파트너스가 무바달라의 자금을 유치한 바 있으며, 스틱인베스트먼트와 SJL파트너스는 장기간 협력 관계를 유지하며 투자 유치 등의 기회를 모색하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2023.05.02.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>토스뱅크, ‘먼저 이자 받는 정기예금’ 1조원 돌파</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003272956?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>토스뱅크가 ‘먼저 이자 받는 정기예금’이 출시 약 33일 만에 판매액 1조원을 돌파했다고 2일 밝혔다. 먼저 이자 받는 정기예금은 3월 24일 출시 이후 나흘 만에 1000억원, 15일 만에 5000억원을 돌파해 일 평균 약 303억원씩 유입되는 등 빠른 성장세를 보이고 있다.‘먼저 이자 받는 정기예금’은 토스뱅크가 처음으로 선보인 정기예금 상품이다. 인터넷전문은행 최초로 가입과 동시에 이자를 먼저 제공한다. 금리는 연 3.5%(세전, 만기일에 세금 차감)로, 가입한도는 최소 100만 원에서 최대 10억원 까지다. 가입 기간도 3개월 또는 6개월로 짧게 유지해 고객 편의에 따라 운용할 수 있다는 장점이 있다.전체 가입 고객 데이터를 분석한 결과, 가입 기간을 3개월로 선택한 고객이 전체 고객의 약 67%에 달하며, 나머지 약 33%의 고객은 6개월 기간을 선택했다.연령대 분포를 보면 40대(30.5%)가 가장 높았으며, 50대 이상(26.8%), 30대(26.1%), 20대(15.6%) 10대(1.0%) 순으로 나타나는 것으로 확인됐다.‘먼저 이자 받는 정기예금’은 고객들이 가입하는 동시에 즉시 이자를 받는 차별화된 경험을 제공한다. 예로 1억원을 3개월간(92일 기준) 맡기는 고객은 세전 금액인 약 88만원을 즉시 받는다. 이에 먼저 이자를 받은 고객은 이를 즉시 재투자에 활용하는 등 자유롭게 불릴 수 있게 했다. 토스뱅크 관계자는 “그동안 고객들이 정기예금에 가입해도 만기일까지 이자금액을 투명하게 알지 못했던 반면 ‘먼저 받는 정기예금’은 고객들의 보다 투명하고 직관적으로 이자 혜택을 누릴 수 있도록 했다”고 말했다.권지예 기자 kwonjiye@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2023.05.02.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>토스뱅크, ‘먼저 이자 받는 정기예금’ 1조원 돌파</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002304135?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>이달 17일 부터 1인 1계좌 한도 해제…목적 따라 고객 원하는 수만큼 가입 가능토스뱅크 “고객 체감할 수 있는 혜택·금융서비스 제공토록 지속 노력할 것” ◆…토스뱅크의 '먼저 이자 받는 정기예금'이 출시 약 33일 만에 판매액 1조원을 돌파했다. 이미지=토스뱅크 제공토스뱅크는 '먼저 이자 받는 정기예금'이 출시 약 33일 만에 판매액 1조원을 돌파했다고 2일 밝혔다.   3월 24일 출시 이후 나흘 만에 1000억원, 15일 만에 5000억원을 돌파해 일 평균 약 303억씩 유입되는 등 빠른 성장세를 보이고 있다고 평가했다.   '먼저 이자 받는 정기예금'은 토스뱅크가 처음으로 선보인 정기예금 상품이다. 인터넷전문은행 최초로 가입과 동시에 이자를 먼저 제공한다. 금리는 연 3.5%(세전, 만기일에 세금 차감)로 가입한도는 최소 100만원에서 최대 10억원 까지다. 가입 기간도 3개월 또는 6개월로 짧게 유지해 고객 편의에 따라 운용할 수 있다는 장점이 있다.   전체 가입 고객 데이터를 분석한 결과 가입 기간을 3개월로 선택한 고객이 전체 고객의 약 67%에 달하며 나머지 약 33%의 고객은 6개월 기간을 선택했다. 또한 연령대 분포를 보면 40대(30.5%)가 가장 높았으며 50대 이상(26.8%), 30대(26.1%), 20대(15.6%) 10대(1.0%) 순으로 나타나는 것으로 확인됐다.   '먼저 이자 받는 정기예금'은 고객들이 가입하는 동시에 즉시 이자를 받는 차별화된 경험을 제공한다. 예로 1억원을 3개월간(92일 기준) 맡기는 고객은 세전 금액인 약 88만원을 즉시 받는다. 이에 먼저 이자를 받은 고객은 이를 즉시 재투자에 활용하는 등 자유롭게 불릴 수 있게 했다. 또 안정적인 예치와 함께 고금리 예금의 강점도 투명하게 체감하게 했다.   만기를 채운 고객은 '자동 재가입' 서비스를 통해 최대 3회까지 간편하게 재가입할 수 있다. 또한 중도해지도 고객이 원할 때 언제든 가능하다. 단 먼저 받은 이자에서 중도해지 이자(가입기간에 비례)를 제외한 금액이 원금에서 차감된다.   토스뱅크는 출범 이후 줄곧 '지금 이자 받기', '매달 내는 돈 낮추기', '상시금리인하요구권' 등 기존 금융권에서 시도되지 않았지만 고객의 관점에서 필요한 혜택과 서비스를 지속 선보이고 있다. '먼저 이자 받는 정기예금' 역시 이 같은 혁신의 연장에서 준비하고 기획했다.   토스뱅크 관계자는 "그동안 고객들이 정기예금에 가입해도 만기일까지 이자금액을 투명하게 알지 못했던 반면 '먼저 받는 정기예금'은 고객들의 보다 투명하고 직관적으로 이자 혜택을 누릴 수 있도록 했다"며 "토스뱅크는 앞으로도 고객이 즉각 체감할 수 있는 혜택과 금융 서비스를 제공할 수 있도록 지속 노력할 것"이라고 말했다.   한편 '먼저 이자 받는 정기예금'은 오는 17일부터 자금 운용의 유연성을 높여 달라는 고객의 니즈에 따라 1인 1계좌 가입제한을 없앨 예정이다. 이에 고객은 목돈 예치의 목적에 따라 계좌 개설 제한 없이 원하는 수만큼 정기예금에 가입할 수 있게 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2023.05.01.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>멕시코 관광버스, 15m 협곡으로 추락…18명 죽고 33명 부상</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011834161?sid=104</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>【 베라크루즈민간보호국 ·신화/뉴시스】버스 한 대가 2016년 1월10일 멕시코 베라크루즈에서 길 아래로 굴러떨어져 협곡에 처박혀있다. 멕시코 서부 나야리트주의 한 고속도로에서 30일 관광버스가 전복돼 최소 18명이 숨지고 33명이 다쳤다고 현지 당국이 1일 밝혔다. 2023.05.01.[멕시코시티=신화/뉴시스]유세진 기자 = 멕시코 서부 나야리트주의 한 고속도로에서 30일 관광버스가 전복돼 최소 18명이 숨지고 33명이 다쳤다고 현지 당국이 1일 밝혔다.나야리트주 법무장관실은 "차량이 15m 깊이의 협곡에 추락해 여성 11명과 남성 7명이 숨졌으며, 부상자들은 주 내 3개 병원으로 이송됐다"고 말했다.엔리케 알파로 할리스코 주지사는 관광버스가 할리스코 중심부의 틀라조물코를 출발, 승객들이 휴가를 보낼 계획이던 나야리트주 해변 목적지인 과야비토스로 향하던 중이었다고 확인했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2023.05.08.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>[Biz 톡] 참신한 상품 내놔도 他은행서 바로 베껴… 관행이라도 이건 좀…</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003762264?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>SH수협은행은 지난달 말 모바일 앱 전용 파킹통장 ‘Sh매일받는통장’을 출시하면서 ‘지금 이자받기’ 서비스를 선보였습니다. 통상 예금처럼 정해진 날이 아니라 고객이 원하는 날에 이자받기를 신청하면 전날까지 이자를 즉시 받는 서비스입니다. 사실 이 서비스는 지난해 3월 토스뱅크가 가장 먼저 선보여 인기를 끌었습니다. 그러자 케이뱅크와 카카오뱅크가 비슷한 서비스를 냈고, SH수협은행까지 따라간 것입니다.이처럼 한 회사가 참신한 상품이나 서비스를 내놓으면 경쟁사들이 따라 하는 일은 은행권에서 흔합니다. 가령 카카오뱅크가 2018년 내놓은 모임통장이 인기를 끌자 토스뱅크도 지난 2월 모임통장을 내놨습니다. 2015년 KB국민은행이 이른바 풍차돌리기(예금이나 적금의 만기를 쪼개 순차적으로 만기가 돌아오게 하는 것)용 적금을 내놨을 때도 다른 은행들이 비슷한 상품을 내놓아 베끼기 논란이 일었습니다.이런 관행은 ‘배타적 사용권’ 확보 경쟁이 치열한 보험 업계와 대조적입니다. 올해 다소 주춤하긴 하지만, 생명보험협회와 손해보험협회를 합쳐 매년 30~40건의 배타적 사용권 신청이 접수됩니다. 승인되면 3~6개월 독점적 판매권을 얻고, 이 기간 다른 회사는 유사 상품을 팔 수 없습니다.은행 업계에도 같은 제도가 있지만, 신청이 전무해 유명무실합니다. 한때 은행 업계엔 배타적 사용권 대신 사업 모델(BM) 특허를 활용하려는 움직임이 있었으나 역시 시들해졌습니다. 한 은행 관계자는 “특화 상품을 만들어 배타적 사용권이나 BM 특허를 얻어도 우회할 수 있는 방법이 얼마든지 있다”며 “은행이 ‘공공재’라는 인식 때문에 신상품 이익을 독점하려다 곱지 않은 시선을 받을 거라는 우려도 있다”고 했습니다.창의적인 상품 개발을 독려하기 위해 금융감독원은 지난해 배타적 사용권 제도 활성화 방안을 마련하겠다고 했지만, 업계 반응은 시큰둥합니다.새로운 금융 상품의 이익을 한 업체가 독점하는 것은 좋지 않지만, 그렇다고 보상이 전혀 없다면 누구도 힘들여 참신한 상품을 개발하려 하지 않겠죠. 은행 업계가 둘 사이에서 적절한 균형을 찾길 바랍니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2023.05.01.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>[VC 하우스 탐구]①우리벤처파트너스, KB인베스트먼트 턱밑 추격</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005252898?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>우리금융 15번째 자회사, 벤처투자 ‘선봉’KTB네트워크 DNA…해외 투자, 웹3.0 투자 적극적편집자주벤처투자 시장의 활력이 떨어진 가운데 정부가 투자를 촉진하기 위해 다양한 당근책을 내놓고 있다. 벤처투자 업계에선 아무리 좋은 정책도 벤처캐피탈(VC)이 움직이지 않으면 무용지물이라고 본다. 시장에선 자금 여력이 있는 주요 벤처캐피탈의 ‘역할론’이 고개를 들고 있다. 이들의 면면을 살펴보며 벤처투자 생태계를 짚어본다.우리벤처파트너스는 우리금융지주 계열 벤처캐피탈(VC)이다. 자체 설립이 아닌 인수·합병(M&amp;A) 케이스다. 3월31일 우리금융그룹은 다올인베스트먼트 인수 작업을 마무리했다. 이로써 우리금융지주(우리벤처파트너스), 신한금융지주(신한벤처투자), KB금융지주(KB인베스트먼트), 하나금융지주(하나벤처스) 등 4대 금융지주 모두 벤처캐피탈을 보유하게 됐다.우리금융은 우리벤처파트너스의 초대 수장으로 김창규 대표(사진)를 그대로 선임하면서 단독 체제로 전환했다. 김 대표의 임기는 2년이다. 애초 업계에선 다양한 설이 난무했지만, 결과적으로 벤처투자 전문가인 김 대표 체제를 그대로 유지하는 방향으로 정했다. 그의 존재감이 한몫했다는 평가가 나온다.김 대표는 1994년 KTB네트워크의 전신인 한국종합기술금융에 입사해 30년 역사를 함께한 산증인이다. 김 대표는 연세대 경제학과를 졸업하고 경제학 석사를 거쳐 동남리스에 입사한 후 경력을 틀어 벤처캐피탈리스트의 길을 걸었다. 이후 민영화로 KTB네트워크로 바뀐 후에도 꾸준히 자리를 지키며 역사를 써 내려갔다.‘KTB네트워크 사단’ 전문 인력 똘똘 뭉쳐김 대표는 ‘KTBN 7호 벤처투자조합(약정총액 682억원)’, ‘KTBN 14호 벤처투자조합(53억원)’, ‘KTBN 16호 벤처투자조합(1950억원)’ 등 KTB네트워크가 운용하는 주요 벤처펀드의 대표펀드매니저로 이름을 올렸다. 우리금융이 바로 대표를 교체할 수 없는 이유이기도 하다. 그만큼 맨파워가 강한 편이다.벤처캐피탈 업계에서 우리벤처파트너스의 존재감은 여전히 KTB로 통한다. 업계에서 이름을 날린 주요 벤처캐피탈리스트 대부분은 KTB네트워크 출신이다. 흔히 ‘KTB사단’이라 불리며 주요 딜을 주도하고 있다. 우리벤처파트너스 직전 다올인베스트먼트 시절에도 KTB라는 이름은 쉽게 떨어지지 않았다. 현재 구성원·출신들은 KTB라는 자부심이 상당하다.김 대표와 함께 이승호 전무, 신태광 상무 등 수십 년간 업계에 몸담은 베테랑 투자심사역들이 다수 포진해 있다. 김 대표를 비롯한 투자본부 인력은 총 19명이다. 관리본부 인력 18명까지 합치면 37명 규모다. 중소형 벤처캐피탈들이 관리본부 인력을 포함해 20명 안팎이라는 점을 고려하면 상당한 수준이다.‘벤처투자 30년’ 믿을맨 김창규 대표 체제 그동안 우아한형제들(배달의민족)·비바리퍼블리카(토스)·몰로코 등 유니콘 기업(기업 가치 1조원 이상 비상장사)을 키워냈다. 특히 2014년 배달의민족에 23억원을 투자한 후 2021년 625억원을 회수하면서 26배 수준의 차익을 실현하는 성과를 거뒀다. 이처럼 꾸준한 성과를 기록한 덕에 출자자(LP)들의 신뢰도 두텁다.현재 우리벤처파트너스 운용자산(AUM) 규모는 1조4593억원이다. 4대 금융지주 계열 VC 가운데 KB인베스트먼트(1조9025억원) 이어 2위를 자랑한다. KB인베스트먼트·우리벤처파트너스에 이어 신한벤처투자(1조3952억원), 하나벤처스(8260억원)가 뒤를 잇고 있다. 이 때문에 업계에선 우리벤처파트너스와 KB인베스트먼트와의 경쟁 구도에 주목한다.지난해 말 기준 우리벤처파트너스가 운용중인 사모펀드(PEF)는 2019년 결성한 ‘KTB GI PEF(100억원)’와 2012년 조성한 ‘KTB NHN China PEF(300억원)’가 전부다. 다른 운용사에 비해 PE 비중이 작은 편이다. 우리금융의 적극적인 자금 지원 속 우리벤처파트너스가 신규 벤처조합과 PEF를 동시에 늘린다면, KB인베스트먼트보다 앞설 수 있다는 관측이 나온다.우리벤처파트너스는 해외 투자에 박차를 가할 계획이다. 그동안 미국·태국·중국·싱가포르 등에 거점을 마련했다. 특히 싱가포르를 중심으로 인도·인도네시아 등 소비 시장이 큰 아시아 주요 신흥국을 집중적으로 공략할 예정이다. 또 블록체인 분야인 ‘웹3.0’에 관심을 쏟고 있다. 싱가포르 기반 웹3.0 전문 VC인 블록체인파운더스펀드에 LP로 참여한 배경이기도 하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2023.05.07.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>토스뱅크, 인터넷전문은행 최초 노란우산 가입서비스 오픈</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004187214?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>중소기업중앙회·토스뱅크, MZ세대 가입 촉진 위한 상호협력 추진[서울경제] 중소기업중앙회와 토스뱅크는 8일부터 인터넷전문은행 최초로 노란우산 가입대행서비스를 실시한다고 7일 밝혔다.이번 가입대행서비스 오픈으로 점포를 직접 방문하지 않고도 토스뱅크 모바일 앱으로 간편한 가입이 가능해 소기업·소상공인의 편의성이 높아질 것으로 예상된다.이는 양 기관이 지난해 10월 체결한 ‘소기업·소상공인 사회안전망 구축을 위한 노란우산 업무협약’의 후속 조치로, 토스뱅크의 합류로 국민은행, 기업은행, 농협, 신한은행 등 전국 16개 금융기관에서 노란우산 가입이 가능해졌다. 특히 이번 토스뱅크 포함으로 지금까지 상대적으로 가입률이 저조했던 젊은세대 가입이 증가할 것으로 예상되고 있다. 김기문 중기중앙회장은 “2030 등 젊은세대 사용자를 다수 보유한 토스뱅크가 노란우산 가입대행을 함으로서 상대적으로 가입률이 낮은 젊은세대의 유입이 촉진되고, 모바일 앱을 통해 쉽고 편리하게 가입이 가능해졌다는 데 큰 의미가 있다”고 말했다.한편 중기중앙회가 운영하는 노란우산은 2007년 출범 후 올해 4월 말 기준 재적가입자 168만명을 보유하고 있으며, 소기업·소상공인 가입자를 위한 다양한 복지서비스를 제공하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2023.05.01.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>[가정예배 365-5월 1일] 5월에는 사랑합시다</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001605059?sid=103</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>찬송 :   ‘사랑하는 주님 앞에’ 220장(통278)신앙고백 :  사도신경본문 :   고린도전서 13장 4절말씀 : 성경에서 가장 유명한 장이면서도 우리가 실제로 그 말씀대로 순종하며 살기에는 가장 어렵다고 생각해 외면하는 장이 바로 오늘 본문인 고린도전서 13장, ‘사랑’장이 아닐까 합니다. 왜 그렇게 됐을까요. 과연 하나님은 우리가 도저히 할 수 없는 사랑에 대한 명령을 왜 하신 걸까요. 고린도전서 13장은 우리가 범접할 수 없는 이상적인 내용으로 가득한 장일까요. 가정의 달 5월을 맞아 우리도 하나님이 말씀하시는 이 사랑을 행하는 삶에 도전해보는 건 어떨까요.우리가 고린도전서 13장에 대해 부담감을 느끼게 된 것은 어찌 보면 ‘사랑은’이라는 제목의 찬양 가사 때문입니다. ‘사랑은 언제나 오래 참고, 사랑은 언제나 온유하며’로 시작되는 이 찬양을 부를 때마다 우리는 마음속으로 ‘나는 못 해, 나는 절대 못 해’라는 거부감을 느끼게 됐던 게 사실입니다. 어떻게 사람이 언제나 오래 참고, 언제나 온유할 수 있단 말입니까.그런데 이 찬양의 가사가 성경을 그대로 옮긴 게 아니라는 걸 알고 계시나요? 오늘 본문 고린도전서 13장 4절은 “사랑은 오래 참고 사랑은 온유하며 시기하지 아니하며 사랑은 자랑하지 아니하며 교만하지 아니하며”라고 말합니다. ‘언제나’는 본문에 없습니다. 그래서 우리는 사랑할 때 ‘언제나’의 부담에서 자유로울 필요가 있습니다. 하나님이 우리에게 명령하신 사랑은 때로는 오래 참기도 합니다. 그리고 어떨 때는 온유하기도 합니다. 언제나 그러지 않아도 좋습니다.게다가 ‘오래 참고’의 헬라어 동사 ‘마크로뒤메오’는 본래 ‘체념하다, 포기하고 받아들이다’라는 뜻의 단어입니다. 우리는 가정에서 가족끼리 때로는 사이가 좋지 않을 때가 있습니다. 하지만 그럴 때라도 우리는 서로 때로는 체념하기도 하고 포기하고 받아들이고 살아갑니다. 성경은 이것이 바로 사랑이라고 말씀하십니다.또한 ‘온유하며’라고 번역된 헬라어 형용사 ‘크레스토스’는 ‘탁월한, 유용한’ 등의 뜻이 있는데 많은 성경학자는 ‘쓸모 있는’이라는 뜻으로 번역합니다. 이 말은 관계에 있어서 어떻게든 관계를 깨뜨리지 않고 잘 유지해가는 노력과 수고를 의미합니다. 직장 생활에서, 또는 일터와 삶의 자리에서 우리는 때로 잘 이해할 수 없는 사람들을 만납니다. 그래서 그런 사람을 사랑하라는 주님의 명령이 버거울 때도 있습니다. 하지만 관계를 유지하는 노력과 수고가 사랑입니다. 5월에는 ‘때론 오래 참고 온유하며’의 사랑으로 우리의 가족과 주변 사람들을 더욱 사랑합시다.기도 : 우리를 사랑하셔서 하나님의 형상대로 지으시고 우리를 위해 예수님을 보내주셔서 우리를 구원하신 하나님, 가정의 달 5월에 저희가 서로를 더욱 사랑하게 하소서. 더욱 견뎌주고 버텨주며 기다려주고 받아주게 하소서. 예수님 이름으로 기도드립니다. 아멘.주기도문홍융희 목사(부산 성민교회)약력=장로회신학대 신학과·신학대학원, 대학원 박사과정 졸업, 신학박사, 다음세대사역 전문 ‘분홍목사’, 부산극동방송 ‘콜링유’ 진행자, 2022 어린이다니엘기도회 강사 역임.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2023.05.01.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>서민 ‘급전 창구’ 카드론 연체 증가세… “부실위험 우려”</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003494707?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>“고금리에 원리금 상환 부담 가중”… 1분기 5개 카드사 모두 1% 넘어후불결제서비스 연체율도 급증… 토스 5%, 네이버파이낸셜 2.7%‘가계 신용위험’ 20년만에 최고치고금리 상황이 계속되면서 금융권의 부실 위험이 커지고 있다. 중·저신용자들의 급전 창구인 카드론의 연체율이 지속적으로 상승 흐름을 보였고 후불결제(BNPL) 연체율도 1년 사이 급증했다.● 5개 카드사 연체율 모두 1% 넘어 30일 금융권에 따르면 신한·삼성·KB국민·우리·하나 등 5개 카드사의 연체율이 올해 1분기(1∼3월)에도 증가 추세를 보였다. 삼성카드의 연체율은 1.10%를 기록하며 1%를 넘었다. 삼성카드 연체율이 1%를 넘긴 건 신종 코로나바이러스 감염증(코로나19)이 한창이던 2021년 1분기(1.0%) 이후 2년 만이다. 지난해 4분기까지는 0.86%로 양호한 흐름을 보였지만 3개월 만에 0.24%포인트 상승했다. 신한카드의 경우 1.37%로 2022년 4분기(1.04%)보다 0.33%포인트 올랐다. 같은 기간 우리카드는 1.21%에서 1.35%, KB국민카드는 0.92%에서 1.19%, 하나카드는 0.98%에서 1.14%로 증가했다.  연체기간 3개월 이상의 부실여신을 뜻하는 고정이하여신 비율도 증가 추세다. KB국민카드의 고정이하여신 비율은 1분기 기준 1.21%로, 지난해 4분기(0.96%)보다 0.25%포인트 높아졌다. 우리카드도 0.81%에서 0.98%로 올랐고, 신한카드도 0.92%에서 1.17%로 상승했다.  카드론은 주로 중·저신용자가 이용하고 다중채무인 경우가 많다. 최근 금리 상승으로 카드론 이용자의 원리금 상환 부담이 커지면서 연체율도 함께 늘어나는 것으로 분석된다. 카드사들의 조달 비용이 늘어나면서 카드론 금리는 지난해 말 16% 안팎으로 치솟기도 했다. ● 후불결제 서비스 연체율도 급증 국회 정무위원회 소속 최승재 국민의힘 의원이 금융감독원으로부터 제출받은 자료에 따르면 네이버파이낸셜, 카카오페이, 비바리퍼블리카(토스)의 후불결제 서비스 연체율도 큰 폭으로 증가했다. 특히 토스는 2022년 3월 서비스를 시작한 이후 1년 만에 연체율이 5.0%에 달했다. 전체 채권액은 320억 원 수준까지 늘어났고, 그중 연체 채권은 약 16억 원에 달했다. 토스의 후불결제 연체율은 후불결제와 유사한 서비스인 신용카드 연체율이 일반적으로 1% 수준인 것을 감안하면 5배나 높은 셈이다. 네이버파이낸셜의 경우 연체율이 2.7%로 전년 동기(1.26%) 대비 2배 이상으로 증가했다. 이용량이 적은 카카오페이 후불결제 연체율도 0.51%까지 올랐다.  후불결제는 신용카드처럼 먼저 구매하고 나중에 돈을 내는 결제 시스템이다. 일정 소득이 없어도 이용할 수 있기 때문에 신용카드를 발급받을 수 없는 학생이나 주부, 사회초년생들도 이용할 수 있고, 할부 수수료도 없다. 업체당 이용 한도가 30만 원으로 제한돼 있지만, 여러 업체를 중복해서 이용할 수 있다. 토스 관계자는 “대안 신용평가 모형 고도화, 연체 이력에 따른 이용 한도 조정 등을 통해 연체율 관리를 다각도로 진행하고 있다”고 밝혔다.  금융권의 부실 위험은 더욱 커질 것으로 전망된다. 앞서 한국은행이 발표한 ‘금융회사 대출행태 서베이’에 따르면 주택담보대출과 신용대출이 있는 가계에 대한 국내 은행의 2분기 가계 신용위험지수 전망치는 42로 1분기(39)보다 3포인트 상승했다. 이는 신용카드 연체가 급증하며 위험지수가 44까지 치솟았던 2003년 2, 3분기 후 최고치다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2023.05.09.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>이 ‘솔루션’으로 매출·단골 끌어 모으는 이커머스 사업주들</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000065403?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>이커머스몰 비용 및 기술력 문제 해결해 사업 운영 지원하는 솔루션 각광코로나19 특수로 단기간 내 급성장을 이룬 분야 중 으뜸은 이커머스 산업이다. 코로나19의 시작으로 뛰어든 이커머스 사업자들이 고객들에게 온라인에 최적화된 쇼핑 경험을 제공하기 위해 고군분투 중이다. 특히 매해 커지는 이커머스 시장에서 이커머스의 태생적 한계를 보완하거나 효율적인 운영을 돕기 위해 IT 기술력으로 무장한 솔루션들이 각광받고 있다. 비용 및 기술력 문제로 사업 운영에 어려움을 겪는 자영업자들을 지원하고, 소비자에게 양질의 서비스를 제공하며 사업 안정과 이커머스몰의 경쟁력 강화에 기여하는 솔루션은 무엇일까. 매출에 도움되는 ‘찐 리뷰’ 우선 골라주는 솔루션 인기리뷰가 구매전환율을 좌우하는 중요 요소로 자리 잡은 가운데, 광고성 거짓 리뷰로 이커머스 업계가 골머리를 앓고 있다. 제품과 관련 없는 거짓 리뷰들이 노출되며 신뢰도를 저하시키기 때문이다. 이런 문제를 해결하기 위해 구매전환율이 높은 리뷰를 분석해 자동으로 상위에 노출시켜주는 기능도 주목받고 있다. ‘브이리뷰’ 운영사 인덴트코퍼레이션이 선보인 ‘AI 리뷰 큐레이팅’ 기능은 상품별 영상, 사진, 텍스트 리뷰의 실제 구매전환율을 AI가 분석해 구매에 실질적인 도움을 준 후기를 가장 먼저 확인할 수 있도록 추천한다. 실제 소비자들의 행동 데이터를 기반으로 제작된 알고리즘으로 작동하는 만큼, 거짓광고 및 어뷰징 데이터의 리뷰 노출이 어렵다는 게 회사측의 설명이다.이 기능을 활용한 이커머스몰은 공간적인 제약 속에서도 상품 구매로 연결되는 영향력 있는 후기를 최상단에 자동 배치해 고객들의 구매를 촉진시키면서 매출을 발생시킬 수 있다. 인덴트코퍼레이션 측은 브이리뷰를 도입한 고객사에서 △구매의사전환율 14.7% △리뷰 수집율 470% 증가 수치를 기록했다고 발표하기도 했다. 스타일도 소비자 취향에 맞게 추천소비자 취향에 최적화된 스타일링을 제안해 매출을 발생시키는 솔루션도 인기다. 초개인화 AI(인공지능) 커머스 솔루션 '옴니커머스' 운영사 옴니어스는 이커머스 소비자들의 패션 취향을 분석해 코디 상품을 제안해 주는 'AI 스타일링 추천 서비스'를 지난 달 초 출시했다. 각 이커머스를 이용하는 고객들에게 맞춤 코디 세트를 자동 생성해 패션 스타일을 제안하는 이 서비스는 성능을 대폭 향상시킬 수 있는 자기지도학습 기반의 초거대 AI 기술을 적용했다. 최신 트렌드를 다룰 뿐 아니라, 패션 전문 집단의 스타일 코디 피드백을 반영 및 추천해 고객 만족도를 높여준다. 한편 옴니어스를 도입한 △더현대 △롯데온 △LF △지그재그 △에이블리 등의 구매 전환율(CVR) 및 상품 클릭률(CTR)이 증가했다는 반응이다.주문·재고 한 번에 통합 관리해주는 솔루션 중소 이커머스 사업자들의 고충을 해결해주는 솔루션도 주목받고 있다. 3월 테크타카에서 베타 출시한 ‘아르고 셀러’는 중소 규모의 이커머스 사업자들을 위한 주문·재고 통합 관리 솔루션이다. 그동안 재고관리, 배송관리 등을 각각의 채널에서 따로 관리해야 했던 번거로움을 아르고 셀러를 통해 통합관리할 수 있게 됐다.아르고 셀러 주문 관리 서비스는 네이버 스마트스토어, 쿠팡, 11번가, 지마켓, 옥션, 인터파크, 카카오 쇼핑하기, 아임웹, 카페24, 고도몰과 연동해 자동으로 주문을 수집하고, 관련 데이터를 대시보드로 제공한다. 동일한 상품이 다른 명칭으로 여러 판매채널에 흩어져 있어도, 하나의 상품정보(상품명·바코드)로 매핑할 수 있는 것이 특징이다.또 주문관리와 연동해 재고·출고 관리 서비스를 제공, 오출고나 패킹 실수를 방지할 수 있다. 주문이 처리되면 재고가 즉시 차감되고, 날짜별로 재고 변동 이력을 확인할 수 있다. CJ대한통운, 롯데택배, 한진택배에 원클릭으로 송장출력·배송접수를 진행할 수 있으며, 상반기 중으로 편의점 택배와 우체국 택배 또한 연동할 계획이다.클릭&amp;드래그로 웹사이트 제작마우스 클릭과 드래그 앤 드롭 만으로도 심미성 높은 웹사이트를 만들 수 있고, 네이버페이, 카카오페이, 토스페이 등 다양한 간편결제 서비스 연동이 가능한 솔루션 ‘아임웹’도 이커머스 시장에 뛰어드는 사업주들에게 인기다.아임웹은 여러 기업과 파트너십을 체결해 △패션 플랫폼에 상품 목록 연동 △물류 대행 서비스 연동 △챗봇 서비스 연동 등 이커머스몰 운영을 더욱 편리하게 해주는 여러 기능을 제공 중이다. 올 한 해 아임웹은 새롭게 이커머스 사업을 시작하거나 기존 사업을 확장하려는 고객들을 지원하기 위해 마케팅 도구를 대폭 개선하고 확장한다는 방침이다. 지난해 아임웹을 통해 한 달 평균 1만1000여 개 신규 사이트가 개설되면서 신규 이커머스몰 수가 크게 증가하기도 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2023.05.10.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>[족쇄 풀린 삼성카드]②존재감 없는 모니모의 1년</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000745593?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>마이데이터 부재로 서비스 확장성 부족통합 마케팅 플랫폼이라는 오명도삼성금융네트웍스가 플랫폼 구축에만 400억원을 쏟아부으며 야심 차게 선보인 '모니모'의 성과는 초라했다. 삼성 금융 이용 고객을 대상으로 할 수밖에 없어 확장성이 떨어진 영향이 컸다. 대주주 관련 규제로 앱 연계성·확장성의 열쇠인 마이데이터 사업권을 얻지 못한 게 뼈아팠다.삼성 금융계열사(생명·화재·증권·자산운용·카드)의 공동 브랜드 삼성금융네트웍스가 지난해 삼성 금융의 서비스를 한 곳에서 이용할 수 있는 통합 금융 플랫폼 모니모를 선보일 당시 시장 판도를 뒤흔들 것이라는 전망이 많았다.삼성 금융 통합앱 '모니모' 관련 이미지. [사진=삼성금융네트웍스]삼성 금융계열사 고객을 합하면 3천300만 명(중복포함)이고, 중복가입을 제외해도 2천500만 명으로 추산되는 매머드급 덩치여서다. 토스 2천100만 명, 카카오뱅크 1천800만 명, 우리은행 원뱅킹 1천900만 명, 국민은행 KB스타뱅킹 1천790만 명보다 많았다. 하지만 막상 뚜껑을 열고 보니 파급력이 크지 않았다.앱 통계 분석 업체 모바일인덱스에 따르면 모니모의 지난해 12월 기준 월간 활성화 이용자 수(MAU)는 약 212만8천780명에 그쳤다. 삼성 금융 계열사 전체 고객 수의 10% 수준에도 못 미친다. 같은 기간 토스와 카카오뱅크의 MAU는 각각 1천364만5천286명, 1천319만5천758명이었다.모니모 활성화 실패 요인으로는 마이데이터 서비스의 부재가 꼽힌다. 마이데이터는 개인 신용정보를 한곳에 모아 적합한 금융상품을 추천해 주는 등 자산·신용 관리를 도와주는 서비스다. 금융 소비자는 각 금융사 앱을 들어갈 필요 없이 마이데이터를 통해 본인 정보를 통합 조회·관리할 수 있다.반면 마이데이터 서비스가 불가능한 모니모에서는 삼성 금융과 제휴사의 서비스 이용만 가능하다. 출시 1년을 지나도 차별화 서비스가 없다 보니 통합 금융 플랫폼이 아니라 통합 마케팅플랫폼 수준이라는 평가를 받기도 했다.상황이 이렇다 보니 삼성 금융은 대주주 관련 규제가 풀리자마자 마이데이터 인가를 신청했다. 모니모 운영·개발 주축인 삼성카드는 지난달 17일 금융위원회로부터 마이데이터 예비인가를 받았고, 지난달 28일에는 본인가를 신청해 결과를 기다리고 있다.삼성카드가 마이데이터를 획득하면 본격적인 마이데이터 고도화가 이뤄질 것으로 보인다. 모니모에서는 삼성 금융 외 여러 금융사의 신용정보를 결합해 다양한 서비스를 제공할 수 있고, 이용자는 재무 상태 점검과 금융상품 가입, 주식거래 등이 가능해질 전망이다.삼성카드 관계자는 "마이데이터를 통해 고객에게 맞춤형 혜택과 다양한 서비스를 제공할 수 있을 것"이라며 "이를 바탕으로 삼성금융네트웍스의 모니모, 삼성카드 앱 등의 서비스가 한 단계 발전할 수 있을 것으로 기대한다"고 말했다.마이데이터 접목 효과에 대한 기대가 크지 않다는 분석도 있다. 지난 1년간 시장은 이미 다른 금융사와 빅테크 플랫폼이 선점했고, 보수적인 금융 산업 특성을 고려하면 후발주자로서 고객을 유인할 만한 큰 차별화 서비스도 내놓기 어려워서다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2023.05.02.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>'네카토'서 간편 실손보험 청구</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004839904?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>핀테크기업 보험청구 서비스제휴병원 진료서류 필요없어네이버, 카카오, 토스 등 핀테크 기업이 내놓은 ‘보험금 청구 서비스’가 주목받고 있다. 청구 절차가 간단한 데다 각 회사가 제휴한 병·의원과 약국에서는 서류조차 뗄 필요가 없기 때문이다.실손 보험금을 청구하기 위해서는 일반적으로 진료비 영수증과 약제비 영수증 등 증빙 서류를 제출해야 한다. 청구 금액이 10만원을 넘으면 통원확인서·진단서·처방전 중 하나를 추가로 내야 한다.하지만 핀테크 기업의 보험 청구 서비스는 제휴 의료기관을 방문할 경우 이 같은 부담이 없다. 서류 발급을 위해 병원에 굳이 방문하지 않아도 보험금 수령이 가능하다. 네이버페이는 병·의원, 약국 등 전국 4000여 개 의료기관과 제휴를 맺었다. 카카오페이는 서울대병원 등 전국 47개 대형 종합병원의 진료 내역 확인과 병원비 청구가 가능하다. 여러 보험사에 한꺼번에 청구할 수 있는 것도 장점이다. 네이버는 네이버 앱과 네이버페이 앱에서, 카카오는 카카오톡과 카카오페이 앱에서 각각 보험금 청구가 가능하다. 토스는 토스 앱을 통해 청구하면 된다.현재 국회에서는 보험 고객의 편의성을 높이기 위해 실손보험 청구 간소화 입법이 추진되고 있다. 병·의원에서 직접 중계기관에 전산화된 관련 자료를 전달하는 내용의 보험업법 개정안이 국회 정무위원회에 계류돼 있다.의료계에서는 보험사와 가입자 간 사적 계약인 실손보험을 두고 제3자인 의료기관에 보험금 지급을 위한 서류 전송을 의무화하는 건 부당하다는 주장을 내세웠지만, 여야 모두 실손보험 청구 간소화 필요성에 공감하고 있다. 최근 소비자단체도 해당 법안의 조속한 통과를 촉구했다. 한국소비자단체연합은 공동성명서를 통해 “4000만 국민의 불편 해소를 위해 실손보험 청구 간소화는 더 이상 늦출 수 없는 시급한 사안”이라고 밝혔다.핀테크업계도 해당 법안의 통과를 기대하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2023.05.12.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>클릭 몇번이면 싼 금리 갈아탄다, 세계 첫 대출이동 시스템 출범</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003763332?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>‘대환대출 인프라’ 31일 출범							오는 31일 세계 최초의 ‘대환대출 인프라’ 출범을 앞두고 금융업계의 긴장감이 높아지고 있다. 클릭 몇 번만 하면 더 유리한 상품으로 대출을 갈아탈 수 있는 시대가 열리면서 가계대출 시장에 지각 변동이 예상되기 때문이다.대환대출 인프라는 금융사들의 대출상품을 네이버, 카카오, 토스, 핀다 같은 온라인 플랫폼에서 비교한 후 더 낮은 금리의 상품으로 손쉽게 갈아탈 수 있는 시스템이다. 대출상품을 온라인으로 비교하는 서비스는 국내외에 이미 많지만, 온라인으로 대출 갈아타기까지 가능한 통합 시스템은 전 세계 최초다. 고객은 기존 대출의 원리금뿐 아니라 중도상환 가능 여부와 수수료까지 간편하게 파악할 수 있다. 은행과 저축은행, 카드, 캐피털사 등 53개 금융사와 23개 대출비교 플랫폼이 참여하기 때문에 사실상 모든 금융권의 대출이자를 한눈에 비교하고 10분 안에 유리한 상품으로 갈아탈 수 있게 되는 셈이다.										일단은 직장인 대출이나 마이너스통장, 카드론처럼 담보가 없어 대출 조건을 비교하기 쉬운 일반 신용대출이 대상이다. 이 가운데 중도상환수수료가 있는 상품은 대출 실행 기간에 상관없이 대출을 갈아탈 수 있고, 중도상환수수료가 없는 상품은 6개월이 경과한 이후 갈아탈 수 있도록 정해졌다. 금융위원회는 이런 범주에 드는 대출이 250조~270조원에 이르는 것으로 추정하고 있다. 금융위는 가계대출 중 76%를 차지하는 주택담보대출도 간편하게 비교하고 갈아탈 수 있는 시스템을 연내 출시할 계획이다. 금융사들은 이런 대환대출 인프라가 본격 가동하면 대출금리 경쟁과 머니무브가 급속하게 이뤄질 것으로 보고 대책 마련에 부심 중이다.6개월을 준비한 대환대출 인프라 가동을 앞두고 김주현 금융위원장은 12일 정부 서울청사에서 5대 은행장과 주요 플랫폼사 대표 등이 참석한 가운데 간담회를 가졌다. 이 자리에서 김 위원장은 “대환대출 인프라 구축의 목적이 소비자의 이익 증진인 만큼 과도한 수수료 부담을 소비자에게 지우거나 금융업계의 건전한 영업·시장 안정을 저해하는 행태가 나타나지 않도록 각별히 유의해 달라”고 당부했다.김주현 금융위원장이 12일 오전 서울 종로구 세종대로 정부서울청사에서 열린 대환대출 인프라 점검 간담회에서 모두 발언을 하고 있다. /뉴스1</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2023.05.03.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>질주하는 인뱅 3사…주담대 시장도 영토 확장</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011837829?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>기사내용 요약카카오·케이뱅크 주담대 금리, 시중은행보다 0.39~1.19%p 낮아모바일뱅킹 앱 편의성에 경쟁력 갖춘 신상품으로 고객유입 가속[서울=뉴시스] 김금보 기자 = 서울 강남 3구 아파트 가격이 오르는 등 서울 지역 하락 폭이 3주 연속 둔화세를 보이고 있다. 한국부동산원에 따르면 이번 주(24일 기준) 서울 아파트 가격은 지난주(-0.08%)보다 낙폭이 줄어든 0.07% 하락을 기록했다. 강남구는 이번 주 0.02% 올라 11개월 만에 반등, 노원구도 전주보다 0.04% 올라 약 1년 4개월 만의 반등을 보였다. 사진은 28일 서울 시내 아파트. 2023.04.28. kgb@newsis.com[서울=뉴시스] 이정필 기자 = 국내 인터넷전문은행 3사의 성장세가 점차 가파르게 이어지고 있다. 기존 시중은행과 차별화한 직관적인 이용 편의성에 주택담보대출 등 여수신 상품의 금리 경쟁력을 더하면서 고객 유입을 가속하는 모습이다.3일 은행연합회 공시에 따르면 KB국민·신한·하나·우리·NH농협 등 5대 시중은행이 3월 신규 취급한 주담대 평균금리는 4.48~5.23%로 집계됐다. 은행별로 농협 4.48%, 하나 4.59%, 국민 4.73%, 신한 4.82%, 우리 5.23% 순이다.카카오뱅크는 4.04%, 케이뱅크는 4.09%로 차이를 보였다. 0.39%포인트에서 많게는 1.19%포인트까지 낮은 수준이다. 실제 고객들 사이에서는 기존 시중은행 주담대를 인터넷은행으로 대환하면서 적용 금리를 1~2%포인트 넘게 내렸다는 사례가 나오고 있다.이 같은 금리 경쟁력을 앞세워 인터넷은행의 성장세는 속도를 더해가는 중이다. 카카오뱅크는 올해 1분기 영업수익 5605억원, 영업이익 1364억원, 당기순이익 1019억원을 올렸다고 이날 밝혔다.지난해 동기와 비교해 각각 65.6%, 54.3%, 52.5% 급증한 규모다. 전 분기 대비로도 각각 15.6%, 59%, 68.2% 늘었다.카카오뱅크의 고객 수는 3월말 기준 2118만명으로 집계됐다. 지난해 3월 1861만명 대비 약 14%(257만명) 증가한 규모다.주담대 상품은 출시 1년 만에 잔액 2조4000억원을 돌파했다. 올 1분기 신규 취급액은 1조4370억원으로 전 분기 7940억원 대비 약 81% 급증했다.카카오뱅크 관계자는 "은행연 공시에서 3월 취급한 신용대출 평균금리도 5.11%로 17개 은행 중 가장 낮았다"며 "고객들이 가장 자주 사용하는 주거래 은행으로 성장해 나가고 있다"고 강조했다.케이뱅크와 토스뱅크 역시 견조한 성장세를 보일 전망이다. 케이뱅크는 이달 중순, 토스뱅크는 이달 말 1분기 실적을 발표할 예정이다.앞서 케이뱅크는 2021년 흑자 전환한 데 이어 지난해 이익 규모를 대폭 확대했다. 2022년 당기순이익은 836억원으로 전년 225억원 대비 272% 급증했다. 이 기간 케이뱅크 가입자는 849만명으로 132만명 늘었다. 토스뱅크는 지난해 2644억원의 당기순손실을 기록했다. 순손실 중 대손충당금이 차지하는 비중이 70%로, 올해 하반기 흑자 전환을 달성하겠다는 각오다.지난해 순이자이익은 2174억원으로 전년 113억원 손실에서 대폭으로 턴어라운드했다. 올해 들어서는 2월까지 702억원의 이자이익을 냈다.토스뱅크 고객 수는 2021년 124만명에서 지난해 말 540만명을 돌파했다. 올해 3월에는 605만명으로 집계됐다.시중은행 관계자는 "직관적인 고객 이용 편의성이 강점인 인터넷은행들이 금리 경쟁력과 재미를 갖춘 여수신 상품을 계속해서 선보이며 빠른 성장세를 이어가고 있다"며 "모바일뱅킹 앱의 편리함은 기존 은행들이 많이 따라가고 있고, 궁극적으로는 업계가 개인화된 고객별 맞춤형 서비스 방향으로 가는 중"이라고 진단했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2023.05.08.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>‘금리 낮아도 OK’ 모임통장 이어 기록통장, 인터넷은행 효자 되나</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003222113?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>윤호영 카카오뱅크 대표이사가 18일 서울 여의도  페어몬트 앰배서더 호텔에서 개최한 기자간담회에서 기록통장 출시 등 올해 사업계획을 설명하고 있다.  카카오뱅크 제공카카오뱅크가 대표 상품인 ‘모임통장’에 이어 ‘기록통장’을 출시하는 등 수시입출식 통장 위주로 수신 상품의 진용을 확장하고 있다. 토스뱅크도 ‘모임통장’에 뛰어들며 저원가 예금시장에 뛰어들었다. 수시입출식 통장은 정기 예·적금에 비해 금리가 낮아, 은행 입장에선 저비용의 알짜 상품이다. 재미와 편의성을 앞세운 저금리 수신상품이 인터넷은행들의 새로운 효자 상품이 될 지 주목된다.8일 금융권에 따르면 카카오뱅크는 지난달 18일 수시입출식 통장인 ‘기록통장’을 출시했다. 가입자가 기념하고 싶은 순간을 각자 정하고 그날마다 돈을 납입하는, 재미 요소를 앞세운 상품이다.카카오뱅크에 따르면 이 상품은 정식 출시 전에 사전 신청에만 40만명이 몰릴 정도로 인기를 끌었다. 애초 카카오뱅크가 이 상품을 ‘자신이 좋아하는 배우·가수의 특별한 날을 기념할 수 있는 최애적금’이라고 홍보했기 때문으로 보인다.그러나 실제로 이 상품은 만기가 정해져 있는 적금이 아니라 언제든 돈을 넣고 뺄 수 있는 수시입출식 통장이다. 금리가 연 2%로, 은행의 일반적인 요구불예금 금리(0.1%)보다 높지만 적금(카카오뱅크 기준 최고 4%)보다는 낮다. 그러나 금리가 낮더라도 재미있는 것을 선호하는 젊은층이 이 상품에 돈을 넣고 있다.은행으로선 적금보다 기록통장이 더 많이 팔리는 게 유리하다. 자금 조달 비용이 상대적으로 낮은, 저원가 상품이기 때문이다.저원가 예금은 은행의 이익 수준을 결정하는 주요 요소다. 그래서 ‘핵심예금’이라고도 불린다.주요 시중은행의 1분기 당기순이익이 전년 동기 대비 소폭 증가하거나 감소한 것과 달리 카카오뱅크의 당기순이익(1019억원)은 전년 동기 대비 52.5% 급증했다. 카카오뱅크의 저원가 예금 비중이 시중은행보다 크다는 게 주요 이유 중 하나다. 카카오뱅크의 실적 설명회(IR) 자료에 따르면 올해 1분기 은행권의 수신 잔액 중 저원가 예금 비중은 39.4%지만 카카오뱅크는 56.8%에 이른다.금리가 연 0.1%에 불과한 모임통장이 저원가 예금의 대표 상품이다. 금리는 낮지만, 모임 회비 관리가 필요한 소비자들이 이 상품을 찾고 있다. 모임통장이 카카오뱅크 요구불예금에서 차지하는 비중은 2020년 18.9%에서 올해 1분기 24.3%로 증가했다. 금액으로도 같은 기간 2조5000억원에서 5조5000억원으로 불었다.모임통장은 카카오뱅크 가입자 수 증가도 견인하고 있다. 1분기 카카오뱅크의 신규 가입자 74만명 중 49%(37만명)가 모임통장의 모임주 또는 모임원이다.카카오뱅크의 성공을 지켜본 토스뱅크도 지난 2월 모임통장을 새로 선보이면서 저원가 예금 시장 공략에 뛰어들었다. 토스뱅크 모임통장 금리는 연 2.3%로, 일반 요구불예금이나 카카오뱅크 모임통장보다 금리가 높다. 그러나 토스뱅크의 기존 적금(최고 연 4.5%)보다는 금리가 낮아 자금조달 비용이 덜 소요된다.토스뱅크 모임통장은 금리 경쟁력, 사용편의성 등에 힘입어 출시 일주일 만에 7만 계좌를 돌파하는 등 인기몰이를 했다. 모임통장이 은행 순이익에 얼마나 기여할지는 2분기 이후에 효과가 본격적으로 드러날 것으로 전망된다.모임통장에 이어 카카오뱅크 기록통장까지 성공한다면 인터넷은행업계에서 저원가 예금 상품이 추가 출시될 가능성이 커질 것으로 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2023.05.11.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>[단독] 라덕연 고소한 투자자들…피해자냐, 공범이냐</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004843383?sid=102</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>檢 'SG發 사태' 수사 확대휴대폰 등 제공한 투자자 일부라 대표 종목 알아내 재투자 정황포렌식 분석…주변인물도 조사주가조작 사전인지 입증이 관건사진=연합뉴스소시에테제네랄(SG)증권발(發) 주가 폭락 사태를 수사하는 검찰이 일부 투자자가 라덕연 호안투자자문 대표의 투자종목을 비밀리에 따라 한 일명 ‘카피 투자’ 정황을 파악한 것으로 알려졌다. 검찰은 이 내용의 진상을 파악하기 위해 투자자의 가족 등 주변 인물로 수사 범위를 넓히고 있다. 수사 결과에 따라 라 대표에게 투자금과 휴대폰을 맡겼다가 손해를 본 투자자의 공범 여부가 가려질 것으로 보인다.11일 법조계에 따르면 서울남부지방검찰청 금융증권범죄합동수사단(단장 단성한)과 금융위원회·금융감독원 합동수사팀은 최근 라 대표에게 휴대폰과 증권계좌 등 개인정보를 제공한 투자자 중 일부가 주가조작 의혹을 받는 대성홀딩스와 서울가스 등 8개 종목을 알아내 투자 패턴을 따라 한 정황을 확인하고 진상 파악에 나선 것으로 전해졌다. 이들은 토스, 카카오페이 등 금융 플랫폼이 운영하는 마이데이터 서비스에서 본인 명의의 휴대폰으로 라 대표의 투자 종목을 알아낸 뒤 가족 및 지인 등 차명 계좌로 재투자한 것으로 알려졌다. 라 대표의 투자 패턴을 따라 하면서 수억원에 이르는 수익을 내고 수수료까지 아낀 것이다. 라 대표는 수년간 투자종목과 패턴을 공개하지 않은 채 투자자의 수익금 중 절반가량을 수수료 명목으로 받아왔다. 마이데이터 서비스는 증권사와 은행 등 여러 곳에 흩어진 개인의 자산정보를 한곳에 모아 볼 수 있는 통합 관리 서비스다.라 대표의 주가조작 의혹은 지난달 24일 프랑스계 증권사인 SG증권에서 매도 물량이 쏟아져 서울가스 대성홀딩스 등 8개 종목의 주식이 폭락하면서 수면 위로 떠올랐다. 검찰은 라 대표가 투자자로부터 휴대폰과 증권계좌 등을 넘겨받아 미리 정해둔 매수·매도가로 주식을 사고파는 통정 거래를 통해 약 3년에 걸쳐 이들 종목의 주가를 부풀린 것으로 의심하고 있다.검찰은 라 대표와 투자자들의 휴대폰 등 관련 증거물을 포렌식하는 등 정밀 분석하고 있다. 검찰 관계자는 “지난달 27일부터 이들이 통정 거래에 사용한 것으로 추정되는 휴대폰 200여 대 등 관련 증거도 경찰에서 넘겨받았다”며 “분석 작업이 마무리되면 공범과 피해자를 구분할 수 있을 것으로 보인다”고 말했다. 법원은 이날 라 대표에 대한 영장실질심사를 한 뒤 “도주 우려가 있다”며 구속영장을 발부했다. 앞서 검찰은 지난 9일 라 대표를 자택 인근에서 체포했다.법조계에서는 투자자가 시세조종 가능성을 사전에 인지했는지 여부를 입증하는 게 관건이 될 것으로 전망하고 있다. 돈을 잃은 피해자라고 주장하더라도 시세조종 가능성을 알고 신분증과 휴대폰을 맡겼다면 주가조작 공범으로 분류될 가능성이 높다는 것이다. 한 대형 로펌 변호사는 “휴대폰을 맡기고 대리 거래하는 행위 자체도 전기통신사업법과 전자금융거래법 위반 소지가 있다”며 “투자자가 주가조작에 대한 내용을 알고 있었다면 방조죄 등 공범으로 수사 대상에 오를 수 있다”고 말했다.한편 라 대표에게 투자를 일임했다가 폭락 사태로 피해를 봤다는 투자자 66명은 9일 법무법인 대건을 통해 라 대표 등 6명에 대한 고소·고발장을 검찰에 제출했다. 이들 가운데 63명은 본인 명의의 휴대폰도 라 대표 측에 넘겼다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2023.05.02.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>1억 석 달 예치하면 88만원 즉시지급…벌써 1조원 돌파</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000334058?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>토뱅, '먼저 이자 받는 정기예금' 1조원 돌파 토스뱅크는 오늘(2일) '먼저 이자 받는 정기예금'이 출시 약 33일 만에 판매액 1조원을 돌파했다고 밝혔습니다. 지난 3월24일 출시 이후 나흘 만에 1천억원, 15일 만에 5천억원을 돌파해 일 평균 약 303억씩 유입되는 등 빠른 성장세를 보이고 있습니다. '먼저 이자 받는 정기예금'은 토스뱅크가 처음으로 선보인 정기예금 상품으로, 인터넷은행 최초로 가입과 동시에 이자를 먼저 제공하는 게 특징입니다.  예를 들어 1억원을 3개월간 맡기면 세전 약 88만원을 즉시 지급받습니다. 금리는 연 3.5%로, 가입한도는 최소 100만원에서 최대 10억원까지입니다. 가입 기간도 3개월 또는 6개월로 짧게 유지해 고객 편의에 따라 운용할 수 있습니다. 전체 가입 고객 데이터를 분석한 결과, 가입 기간을 3개월로 선택한 고객이 전체 고객의 약 67%에 달했습니다. 연령대 별로 살펴보면 40대(30.5%)가 가장 높았고, 50대 이상(26.8%), 30대(26.1%), 20대(15.6%) 10대(1%) 순을 보였습니다. 한편, 먼저 이자 받는 정기예금은 오는 17일부터 자금 운용의 유연성을 높여 달라는 고객의 니즈에 따라 1인 1계좌 가입제한을 없앨 예정입니다. 당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2023.05.06.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>“5월 5일, 우리에겐 ‘어른이날’”… 부모에 용돈 받고 부부끼리 선물</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003495732?sid=102</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>독립-출산 늦어지며 생긴 신풍속‘어른이’ 겨냥 기업 마케팅도 늘어“아직 결혼도 안했는데 저는 어린이 아닌가요.”직장인 박상용 씨(29)는 5일 “어린이날 기념으로 부모님께 용돈 20만 원을 받았다”며 이렇게 말했다. 박 씨는 이날 어린이날 연휴를 맞아 친구들과 부산 여행을 떠났다. 부모님이 어린이날 선물로 여행 경비를 지원해 줬다고 한다. 박 씨는 “매년 5월 5일 용돈을 받고 있다”며 “어버이날엔 동생과 함께 돈을 모아 부모님께 식사를 대접하고 선물로 용돈도 드리는데 조삼모사 같기도 하다”고 웃으며 말했다. 아이들을 위한 5월 5일 어린이날을 ‘어른이(어른+어린이)날’로 부르며 부모에게 용돈이나 선물을 받는 20, 30대가 늘어나고 있다. 성인이 됐지만 부모의 경제력에 의존하기 위해 부모와 함께 사는 ‘캥거루족’이나 자녀 없는 맞벌이 부부 ‘딩크족’ 등이 늘어나면서 나타난 어린이날 신풍속도가 생겨난 것이다. 딩크족인 김모 씨(37) 부부도 이날 집 근처에 사는 부모님 댁에 들렀다 용돈으로 20만 원을 받았다. 김 씨는 “결혼 7년차지만 아이가 없다 보니 여전히 우리 부부를 아이처럼 보시는 것 같다”고 했다. 젊은 부부나 연인들은 어른이날을 기념해 서로 선물을 주고받기도 한다. 올 3월 결혼한 직장인 황모 씨(31)는 전날 퇴근길 백화점에 들러 아내에게 선물할 꽃다발과 가방을 샀다. 황 씨는 “아내가 최근 일이 바빠 힘들어하는 것 같아 깜짝 선물을 준비했다”며 “아이가 생기기 전까진 어린이날을 부부 기념일로 즐길 계획”이라고 말했다. 자신에게 스스로 선물을 주기도 한다. 직장인 최모 씨(27)는 “3년 전부터 어린이날이면 나만을 위한 선물을 사왔는데 올해는 립스틱을 샀다”며 “어른을 위한 기념일이 없어서 1년간 고생한 나를 스스로 토닥이는 의미”라고 했다. ‘어른이’를 겨냥한 마케팅도 늘고 있다. 토스는 올해 ‘어른이날 선물’ 기프티콘 행사 코너를 준비했고, 하이마트 등 가전제품업체는 ‘닌텐도 스위치’ 등 어른이 좋아하는 게임 할인 행사를 진행하며 어른이 붙잡기에 열을 올리고 있다.전문가들은 성인이 어른이날을 즐기는  문화는 경제적 독립과 출산 등이 늦어지면서 생긴 사회적 현상이라고 분석했다. 설동훈 전북대 사회학과 교수 “우리나라에는 성인이 된 후에도 독립을 하지 않는 캥거루족이 많은 편이라 부모들이 함께 사는 자녀를 여전히 어린이로 인식하고 용돈을 주는 문화가 생긴 것”이라고 했다. 구정우 성균관대 사회학과 교수는 “출산이 늦어지고, 딩크족이 늘어나면서 공휴일인 어린이날을 부부끼리 기념하는 문화가 생겨났다”며 “저출산 상황 등을 고려할 때 앞으로도 이런 문화는 더욱 확산될 것”이라고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2023.05.02.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>"물건값은 나중에" 네·카·토 후불결제 연체율 '경고등'</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011835130?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 김형섭 기자 = 네이버페이와 카카오페이, 토스 등 빅테크 3사가 제공하는 '후불결제 대출서비스(BNPL)'의 연체율에 경고등이 켜짐에 따라 건전성 감독을 강화해야 한다는 지적이 제기된다.2일 금융감독원이 국회 정무위원회 소속 최승재 국민의힘 의원에게 제출한 자료에 따르면 네이버파이낸셜, 카카오페이, 비바리퍼블리카(토스) 등 3개사의 올해 3월 기준 BNPL 누적 가입자 수는 266만3557명, 총 채권액은 445억3600만원에 달했다.BNPL은 물건을 구매해 미리 받고, 대금은 차후에 결제하는 서비스다. 소비자가 물건을 구매하면 업체가 가맹점에 먼저 대금을 지급하고 소비자는 물건을 받은 뒤 여러 차례에 걸쳐 업체에 상환을 하는 방식이다.신용카드 할부 거래와도 비슷하지만 신용이력이 적어 신용카드를 발급받을 수 없는 학생이나 주부, 사회초년생도 이용할 수 있고 대부분은 할부수수료도 없다는 점이 다르다.금융당국이 지난 2021년 BNPL을 혁신금융서비스로 지정하면서 이용자 특성과 연체 우려 등을 고려해 월 30만원 정도로 사용액을 제한했지만 가입자와 이용금액은 빠르게 증가하는 중이다.그러나 단기간에 사용자가 폭증하면서 연체율도 함께 꿈틀거리고 있어 건전성 우려가 커지는 상황이다.올해 3월 기준 네이버·카카오·토스의 BNPL 연체채권 규모는 총 19억3790만원으로 연체율은 4.4%에 달했다.각사별로 보면 공격적으로 이용자를 늘린 결과 3사 중 가장 많은 192만2056명의 누적 가입자를 보유한 토스는 2022년 3월 서비스 시작 이후 1년여 만에 채권액이 319억5100만원으로 늘어났고 이 중 연체 채권이 15억9800만원으로 5%의 연체율을 기록했다.네이버파이낸셜(가입자 71만817명)의 경우 2022년 3월 1.26%이던 연체율이 1년 만인 올해 3월 기준 2.7%로 두 배 넘게 증가했다. 같은 기간 연체 채권은 9600만원에서 3억3900만원으로 뛰었다.가입자가 3만684명에 불과해 3개사 중 이용량이 가장 적은 카카오페이만 연체율이 0.51%로 안정적인 수준이었다. 카카오페이의 총채권액은 1억7400만원, 연체 채권은 90만원에 불과했다.일반적으로 1% 수준인 신용카드의 연체율과 비교하면 BNPL의 연체율은 우려할 만한 수준이라는 지적이 나온다. 신용카다는 수수료율이나 대손충당금 설정 등 각종 규제를 받고 있지만 BNPL은 이러한 규제체계도 부족하다.최 의원은 "혁신금융 조건이던 채권 판매 제한 등을 감안하더라도 몇 백만원 수준이던 연체채권이 단기간에 증가하고 연체율도 5%에 달하는 상황 등에 대해서 경각심을 갖고 관리감독을 강화하고 규제체계를 논의할 필요가 있다"고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2023.05.08.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>[ET단상]데이터 보안 플랫폼 선택 고려 사항</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003096884?sid=110</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>한은혜 에스에스앤씨 대표국내 유명 테크핀 증권사 A기업은 전산자료 반출이 발생하는 주요 관문을 보호하기 위해 기존 사용하는 보안 솔루션에 데이터 유출방지 솔루션(DLP)를 추가 도입했다. 특히 사용자 PC에서 취급되는 전산자료를 가장 효과적이고 높은 수준으로 통제할 수 있다는 판단으로 일명 엔드포인트 데이터유출방지 솔루션(EDLP)를 추가 구축했다. A 기업 이외에도 적지 않은 기업이 기존에 사용하는 망연계 솔루션의 이메일 보안 솔루션에 데이터 보안 기능을 추가로 요구하고 있다.데이터 유출 사례가 꾸준히 발생하며 회복 비용 또한 많이 발생함에 따라 기업이 선제적으로 중요한 정보를 보호하기 위해 점점 강력한 데이터 보안 플랫폼을 요구하는 것이다. 최근 많은 제품이 기존 보안 기능에 첨가해 개인 정보 보호 및 데이터 거버넌스(특히 데이터 라이프 사이클 관리 측면)를 지원하기 위한 기능을 확장하는 데 주목하고 있다. 조직의 보안 전략에 따라 보안 담당자로서 취할 수 있는 기능이 점점 더 많아진 셈이다. 하지만 너무 많은 데이터 보호와 관련된 솔루션, 너무 다양한 기능으로 인해 우리 조직에 적합한 옵션은 무엇인지 판단하기 어려운 것이 현실이다.가장 기본이 돼야 하는 것은 데이터의 생성과 저장, 이동에서 그 무엇도 믿지 않고 의심하는  ‘제로트러스트’의 시작이다. 이를 위해 사람이라는 보안홀을 정책과 솔루션으로 보완하고 통제하기 위해 데이터 보호 솔루션을 도입해야 하는데, 이 때 고려해야 할 몇 가지 요소가 있다.먼저 데이터간 마찰을 최소화하면서 필요한 데이터 보안 제어를 활성화하는 기능을 고려해야 한다. 기업은 일반적으로 하나 이상의 주요 데이터에 대한 보안 제어 기능을 필요로 한다. 데이터 액세스 제어, 데이터 손실 방지, 데이터 마스킹 또는 수정, 암호화, 권한 관리 등 데이터 보호를 위해 필요한 거의 모든 기능을 요구한다. 그래서 데이터 보안 제어를 구현할 때 사용자 경험을 고려하지 않을 수 없다. 데이터 보안 솔루션에서 최소한의 마찰로 데이터 사용을 가능하게 하면서 데이터를 보호하는 정책을 시행해야 한다.둘째, 생산성을 해치지 않는 데이터보호가 가능한 가이다. 첫째 고려사항과 연결되는 지점인데, 최근엔 적지 않은 기업이 직원 선호도에 따라 안드로이드와 맥 운영체제(OS)를 모두 지원하는 업무 환경을 제공하고 있어 특정 OS를 유연하게 지원하는 데이터 보안 솔루션을 찾는 것이 중요하게 됐다. 특히 맥 OS의 경우 빈번한 업데이트와 지속적인 패치 적용 및 배포 요구사항으로 데이터 보안 솔루션과의 마찰 이슈가 많이 발생해 이에 대한 호환 안정성은 반드시 체크해야 할 점이다.셋째, 위험 적응형 보호 제공 여부다. 보안솔루션 개발 속도보다 빠르게 진화하는 각종 위협 유형에 대해 언제든지 조직에 가해질 위험 수준을 기반으로 신속하고 정확하게 정책 시행을 관리해야 한다. 이 기반이 되는 행동 지표를 솔루션이 잘 갖추고 대응하느냐는 향후 조직의 데이터를 보호하는데 크게 영향을 미칠 수 있다.토스증권은 기업용 맥 OS 환경에서도 보안 솔루션을 효율적으로 운영하는 좋은 사례다. 토스증권은 포스포인트 EDLP 솔루션과 함께 ‘잼프(Jamf)’라는 모바일 기기관리(MDM) 솔루션을 이용해 보안프로그램의 패치 배포를 관리하고 있다. 1년에 한번꼴로 대규모 업데이트를 하는 맥 OS에 맞춰 보안 프로그램도 다시 배포해야 하는데, 이 때 Jamf를 이용해 안전하게 패치 배포를 진행한다. 또 임직원이 데이터 자산을 임의 삭제할 경우 포스포인트 DLP 삭제 패스워드 기능으로 1차 예방하고, 만약 필수 보안 프로그램 중 하나인 포스포인트 DLP가 삭제되면 네트워크접근제어(NAC) 솔루션으로 격리될 수 있도록 2차 보안 장치를 운영하는 식이다.이외에도 보안 정책 생성 및 사용자 지정, 권한 제어의 용이성, 미리 정의된 정책 템플릿과 워크플로 가용성, 데이터 유출시도 흐름 파악, 사용자 인터페이스 탐색도 데이터 보안플랫폼을 선택해야 하는 것도 관리자의 주요 고려 사항이다.한은혜 에스에스앤씨 대표 sales@ssnc.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2023.05.07.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>토스뱅크, 인터넷전문은행 최초 '노란우산' 가입 서비스</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013925129?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>노란우산[중소기업중앙회 제공. 재판매 및 DB 금지](서울=연합뉴스) 박상돈 기자 = 중소기업중앙회는 토스뱅크가 오는 8일부터 인터넷전문은행 중 처음으로 소기업·소상공인을 위한 공적공제인 '노란우산' 가입대행 서비스를 실시한다고 7일 밝혔다.    이에 따라 은행 점포를 직접 방문하지 않고도 토스뱅크 모바일 앱으로 노란우산에 간편하게 가입할 수 있게 됐다.    이번 토스뱅크 합류로 노란우산에 가입할 수 있는 금융기관은 16곳으로 증가했다.    중기중앙회가 운영하는 노란우산은 2007년 출범한 뒤 지난달 말까지 재적 가입자 168만명을 보유하고 있고, 소기업·소상공인 가입자를 위한 다양한 복지서비스를 제공하고 있다.    kaka@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2023.05.11.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>편의점 `택배 경쟁`… CU `800원짜리` 등장</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002800189?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>모델이 CU 알뜰택배 프로모션을 알리고 있다. CU 제공    생필품에서 시작된 편의점 업계 초저가 경쟁이 점포 간 택배 서비스로 확대되고 있다. 편의점들은 전국적인 물류 네트워크에 기반한 점포 간 택배 서비스를 강화하고 있으며, 여기에 요금을 더 할인해주고 편의성을 증대할 수 있는 서비스를 추가로 선보이고 있다.11일 유통업계에 따르면, 편의점 CU는 오는 15일부터 이달 말까지 멤버십 애플리케이션에서 '알뜰택배'(반값택배) 요금을 할인한다고 11일 밝혔다. '알뜰 택배'는 일반 택배 서비스에 비해 같은 중량 기준 최대 40% 저렴하게 이용할 수 있는데, 이번에는 최저 800원에 택배를 보낼 수 있는 초특가 프로모션을 한다.오는 15일부터 이달 말일까지 멤버십 앱 포켓CU에서 알뜰 택배를 보낼 때 사용할 수 있는 1000원 할인 쿠폰을 지급하는 것으로, 해당 쿠폰을 적용하면 정상가 대비 최대 55%나 할인된 가격에 서비스를 이용할 수 있다. 500g 이하 소형 택배는 단돈 800원만으로 보낼 수 있게 된다. CU 멤버십 회원이라면 누구나 이용 가능하며, 이벤트 기간 내 매일 하루 1회씩 발급받을 수 있다. CU는 브랜드 중고 거래 앱 '번개장터'에서도 이번 프로모션 링크에 접속할 수 있게 했다. 네이버 스튜던트 멤버십 고객들과 토스 앱 이용 고객들에게도 알뜰 택배 할인 쿠폰을 발급한다.또 카카오맵에서도 일반 택배 예약 서비스를 론칭했다. 카카오맵을 사용하는 고객 누구나 서비스를 이용할 수 있으며, 지도 상에서 CU 점포를 선택한 뒤 나타나는 '택배 예약' 메뉴를 이용해 간단한 인증을 받고 택배를 예약하면 된다.CU는 알뜰 택배 요금을 500g 이하 1800원, 500g 초과~1㎏ 이하 2100원, 1㎏ 초과 2700원으로 운영하고 있다. 특히 89%로 이용 비중이 가장 큰 1㎏ 이하 운임을 업계 최저가로 책정하고, '2+1 행사'를 택배에서도 진행하는 등 차별화된 전략을 선보여 왔다. 이에 알뜰 택배 이용 건수는 서비스 시행 첫 해인 2020년 대비 약 28 배나 증가했다고 회사측은 전했다.GS25는 5월 한 달간 1800원 균일가로 서비스를 이용할 수 있는 행사를 진행한다. '우리동네GS' 앱 내 반값택배 예약 시, 5㎏ 이하 물품에 대해 1800원 균일가가 적용된다. 5㎏ 이하 물품의 경우 기존 가격인 2600원 대비해 최대 31%까지 할인 적용된다.또 우리동네GS 앱에서 반값택배를 3건 이상 접수한 이용자에게 '카페25 아이스아메리카노'도 증정한다. GS25는 반값택배 기본 가격을 500g이하 1800원, 1㎏ 이하 2200원, 5㎏ 이하 2600원으로 책정해 운영하고 있다.반값택배는 지난 2019년 론칭했으며 지난해 접수건수 1000만 건을 돌파한 바 있다.. 주이용 고객은 80%가 20~30 대 여성이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2023.05.02.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>[김유태 기자의 ‘영화와 소설 사이’] 박찬욱 ‘올드보이’ vs 츠치야 가론 ‘올드보이’ | 사각형 미궁에 갇힌 한 마리의 야수</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005124725?sid=004</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>영화 &lt;올드보이&gt;에 관한 몇 줄의 문장을 이 세계에 덧붙인다는 것은 드넓고 깊은 바다에 ‘모래 한 알’을 던지는 일만큼이나 무의미하고 또 무쓸모한 일일지도 모릅니다. 하지만 고전은 탄생할 때부터 확장적 해석의 가능성을 품고 있다지요. 박찬욱 감독의 2004년작 영화 &lt;올드보이&gt;는 일본 작가 츠치야 가론이 글을 쓰고 미네기시 노부아키가 그림을 그린 1996~1998년 일본 연재만화 &lt;올드보이&gt;를 원작 삼습니다. 한국에선 8권짜리 종이책으로 판매 중입니다.개봉 후 햇수로 20년이 지나면서 단어 ‘올드 보이(old boy)’는 이제 흔히 사용되곤 합니다. ‘올드 보이’란 단어는 두 작품에서 은유적입니다. 나이 든 소년. 영화 &lt;올드보이&gt;의 주인공 오대수도, 만화 &lt;올드보이&gt;의 주인공 고토 신이치도, 소년 시절 자신도 인식하지 못하는 사이에 발생한 비극적인 사건으로 인해 곤경에 빠지기 때문입니다. 영화 &lt;올드보이&gt;는 원작 만화에서 줄거리 뼈대만 가져왔다고 알려졌지만 원작을 읽어보면 단순한 문제가 아닙니다. 인간 운명에 관한 예언과도 같은 작품, 그 자체로도 커다란 비유의 숲을 이루는 걸작의 내면으로 들어가 봅니다.자살을 베팅한 내기익숙한 영화 줄거리는 넘어가기로 하고, 츠치야 가론의 &lt;올드보이&gt; 스토리라인을 살펴보겠습니다. 야쿠자가 운영하는 사설 형무소 ‘7.5층(7층과 8층 사이 숨겨진 비밀 층)’ 독방에서 30대 남성 고토 신이치가 10년 만에 감금에서 풀려납니다. 고토는 자신을 사설 형무소에 연금한 의뢰인을 찾아 나섭니다.타고난 복서인 고토는 굴지의 체육관에서 일부러 스파링에 나서고 프로선수였던 상대를 쓰러뜨려 단숨에 유명해져 야쿠자계 내부 정보를 얻습니다. 야쿠자 조직 간부 사이죠의 안내로 고토는 자신을 가둔 범인인 기업 회장 도지마(본명 카키누마)와 만납니다. 복수심에 불탄 고토는 자신과 동갑의 도지마에게 자신을 가둔 이유를 묻지만 도지마 회장은 그런 고토에게 목숨을 건 내기를 제안합니다.내기의 요체는 두 가지입니다. 첫째, 자신의 본명을 알아낼 것. 둘째, 자신이 고토를 폐인으로 만들겠다고 다짐했던 학창시절의 ‘그 사건’을 기억할 것. 도지마는 고토가 사건을 기억하면 즉시 자살해주겠다고 제안합니다. 고토가 도지마를 죽이면 그 이유를 영영 알 수가 없게 되겠습니다. 도지마는 고토에게 말합니다. 내가 왜 너를 가뒀는지를 기억해낸다면 승자는 너다. 내가 고백을 하게 된다면 너의 패배겠지. 패자는 죽어주면 돼. 만약 네가 이기면 너만이 납득할 수 있게 스스로 목숨을 끊지.”영화 &lt;올드보이&gt;에서 우진이 대수를 가둔 이유는 우진의 가벼운 혓바닥 때문이었습니다. 영화와 만화의 결정적인 차이는 도지마 회장, 아니 소년 카키누마가 소년 고토에게 받았던 상처의 기억 때문입니다. 후술하겠지만 영화와 만화에서 시작점은 아예 다릅니다. 또 미도가 여주인공으로 설정된 영화와 달리, 만화 &lt;올드보이&gt; 여주인공은 카키누마와 고토를 중학교에서 지도했던 여성 쿠라타 선생입니다. 이미 오래전 교단을 떠난 뒤 소설가로 활동하는 쿠라타 선생은 고토를 도와 카키누마가 낸 문제를 함께 풀어 나갑니다. 영화에서처럼 대수와 미도의 근친상간이나 우진과 수아의 열애와 작별은 원작에 없습니다.텔레비전을 채운 거짓(들)영화 &lt;올드보이&gt;를 보면 한 가지 궁금증이 발생합니다. 우진은 왜 대수의 방에 15년간(만화에선 10년) TV를 설치해뒀을까요. 원작 만화에서도 고토는 TV를 자주 봅니다. 대수와 고토가 내다볼 수 있는 세상의 유일한 창이 TV였으니까요. 우진(도지마 회장)이 대수(고토)를 그의 설명대로 폐인으로 만들고자 했다면 굳이 세상을 들여다볼 TV를 내줄 필요는 없었겠지요. 만화에 나오는 고토의 다음 한마디는 그 실마리를 제공해줍니다. ‘그것이 뉴스이든 가요프로든 쇼프로든 연극 영화든 교양 있는 다큐멘터리든 TV에 비치는 것은 모두 픽션이다.’TV는 삼라만상을 모사하는 가상의 거울입니다. TV는 화면에 보이는 사물과 인물이 현실의 반영이라는 일종의 환상을 인간에게 심어줍니다. 대수는 TV를 보며 운동을 배우고, TV에 나온 여성 가수의 노래를 부르며 수음합니다. TV는 대수의 말처럼 그의 선생님이자 애인이지요.대수는 TV에서 자신이 살인자로 오해받고 있음을 알게 됩니다. 그것은 가짜(거짓)이지만 고통스럽게도 현실세계에서 규정하는 실재의 자기 자신입니다. 우진이 대수에게, 도지마가 고토에게 하루 24시간 TV 시청을 허락했던 이유는 표면적으로는 골방에 갇혔더라도 완전히는 미치지 않게 하려는 기능적인 도구였겠지만 이 문제가 간단치가 않은 것이지요.우진의 기억에 따르면 고교생 대수의 입에서 거짓이 발설되었고 그 거짓이 씨앗이 되어 사랑하던 누나 수아는 상상임신을 한 뒤 합천댐에서 자살합니다. 배가 불러오자 견디지 못하고 댐에서 뛰어내려 목숨을 끊었지요. 거짓으로부터 잉태된 현실의 고통. 우진은 대수에게 TV를 통해 전형적인 앙갚음을 했던 건 아닐까요. 대수가 7.5층에서 사용하던 유리컵을 아내의 살해현장에 갖다 둠으로써 대수를 아내 살인범으로 꾸몄고 그 거짓말을 TV에 전시하면서 ‘거짓말(가짜 뉴스)로부터 파생된 현실의 고통’을 돌려줬으니까요.고토는 원작에서 이렇게도 사유합니다. ‘픽션 위에 상상력을 더해 해석하는 것이 과연 가능할까?’ 카키누마도 대수도 상상력을 덧대 복수를 감행했습니다. 그렇게 본다면 대수와 미도의 성교 이전부터 우진의 복수는 이미 완성됐던 건 아닐까요.칸막이가 없는 사각형 미로만화에서 도지마(카키누마)는 버블 시대에 태어나 토지와 맨션을 굴려 천문학적인 자산을 소유한 인물로 그려집니다. 거품이 터지리라 예측할 만큼의 명석한 두뇌로 완전한 부를 이룬 문제적 인물입니다. 도지마가 고토를 10년간 사설 형무소에 연금한 이유는 소년 시절, 고토가 카키누마의 노래에 감동했기 때문이었습니다. 당시 고토는 인기가 많은 호감형의 학생이었습니다. 반면 카키누마는 볼품없는 외모 탓에 따돌림을 받던 아이였습니다. 성적만큼은 ‘학년 톱’이었지만 늘 비웃음의 표적이었죠. 이후 성인이 된 카키누마는 작은 교통사고를 핑계로 성형수술을 한 뒤 다른 사람으로 살아갑니다.그날엔 어떤 일이 있었던 걸까요. 음악시간에 카키누마는 반 친구들 앞에서 가창과제로 노래를 부른 적이 있습니다. 음침한 노래를 들으며 모두가 낄낄댔지만 고토만은 한 급우가 부른 노래 음색에 감동하여 진심의 눈물을 흘렸습니다. 그리고 그날의 일은 금세 잊어버렸지요. 카키누마에게 고토의 눈물은 평생 그를 흔들었습니다.왜냐하면, 이 부분이 가장 중요한데, 카키누마는 선천적으로 인간을 불신하며 살아왔는데 고토의 눈물은 자신의 그런 신념을 파괴하고 괴롭히는 중대한 사건이었기 때문입니다. 시간이 흘러 자신이 완전한 명성과 지위를 얻었을 때 ‘평생 자신의 자아를 괴롭힌’ 고토를 찾아내어 복수극을 꾸민 것이었습니다. 카키누마는 원망하며 말합니다. “내 생애에서 너만이 나의 고독을 알아차린 것이다. 굴욕이었다. 네 놈만 없었다면 나는 의심의 여지없이….”영화에서 대수와 미도의 근친상간은 그리스 비극에서 논해지는 오이디푸스 콤플렉스로 해석됩니다. 전해오는 글에 따르면 박찬욱 감독은 오이디푸스에서 이름 ‘오대수’를 빌려오기도 했다지요. ‘오이(오)디(대)푸스(수). &lt;올드보이&gt;와 오이디푸스를 떼려야 뗄 수 없는 이유는 주인공이 상대에게 복수하려 나서는 과정, 즉 진실에 가까워지려는 과정이 자신도 모르던 딸과의 근친상간을 밝히는 여정이 되어버린다는 점 때문이기도 하고, 동시에 사건 전말을 알게 된 뒤 눈을 찌르는 오이디푸스처럼 대수 역시 혀를 가위로 잘라버리기 때문이기도 할 겁니다.근친상간이 등장하지 않는 원작 만화 &lt;올드보이&gt;에선 그리스 비극의 오디이푸스보다도 그리스 신화의 미노타우로스가 더 어울리는 해석일 것이란 생각을 해봅니다. 소년 카키누마는 바로 미노타우로스입니다. 그리스 신화에서 미노타우로스는 인간과 소의 수간을 거쳐 만들어진 반인반수 괴물로 미궁 라비란토스에 갇히지요. 도지마는 자신의 긍정적인 면(음악시간의 음색)과 부정적인 면(수치심과 설욕, 복수심)이 혼재됐던 인물입니다. 그는 부와 권력을 사용해 칸막이가 없는 사각형 독방에 고토를 감금했습니다. 그러나 고토가 정작 10년의 감옥생활을 끝낸 뒤 미궁 밖을 나가 여정 끝에 발견한 건 여전히 상처를 극복하지 못하고 유년에 갇혀 자생적인 미노타우로스, 바로 동급생 카키누마였는지도 모를 일입니다.‘상처’로서의 구사마 야요이 선생원작 만화에서 전 교사이자 여성 작가인 쿠라타 선생의 필명은 구사마 야요이로, 이는 실재하는 일본 미술작가의 이름에서 빌려왔다고 합니다.세계적인 미술작가인 구사마 야요이는 현재 가장 유명한 세계적 작가 중 한 명으로 그의 작품 &lt;초록 호박&gt;은 지난 3월 열린 2023년 홍콩 아트바젤에서 한화로 약 78억원에 팔렸습니다. 아주 유명한 작가이지만 그는 어린 시절에 큰 아픔을 겪은 인물로, 평생을 강박증과 질환에 시달렸다고 합니다. “나는 예술을 한 게 아니라 치유의 행위를 했다”라고 밝히기도 했지요.&lt;올드보이&gt;의 원작자가 그런 구사마 야요이를 쿠라타 선생의 필명으로 사용한 건 우연이 아닐 겁니다. 도지마도 어린 시절의 극복하려 10년 동안 고토를 가둬두었고 그래서 이런 ‘게임’을 진행했겠지요. 따지고 보면 우리는 어린 시절의 한 사건이나 한 이미지에서 벗어나지 못하고 운명의 전환점을 맞이하기도 합니다. 그게 삶이겠지요. 그래서인지 만화 &lt;올드보이&gt; 후반부에 쿠라타 선생이 고토에게 던지는 한 마디 말은 꽤 의미심장하게 다가옵니다. “마치 내 소설의 주인공 같아. 고난 속에 서 있는 한 마리의 야수처럼.” 김유태 매일경제 문화스포츠부 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2023.05.03.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>인터넷은행 유동성 비율, 시중銀의 최대 10배</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002138620?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>금융당국 “일단 뱅크런 우려 안심”모바일인출 속도 빨라 ‘긴장’ 유지국내 인터넷은행의 유동성커버리지비율(LCR)이 시중은행의 최대 10배에 달하는 것으로 나타났다. 미국 실리콘밸리은행(SVB) 사태 등에서 벌어진 ‘뱅크런(대규모 예금인출)’ 등 심각한 유동성 악화 상황이 벌어지더라도 오래 견딜 수 있다는 얘기다. 하지만 풍부한 유동성에도 자금 인출 속도가 생각보다 빠를 수 있다는 점은 경계의 대상이다.▶유동성 점검하는 당국...“인뱅 LCR 숫자 안심”=3일 금융권에 따르면 금융당국은 인터넷은행의 유동성과 건전성을 중심으로 점검을 진행하고 있다. 미국 은행의 파산 여진이 이어지고 있는 가운데 연체채권 등 건전성을 강화하고 현금흐름을 안전하게 관리하는 차원이다. 금융당국 관계자는 “인터넷은행은 채권조달이 없기 때문에 구조적으로 유동성 숫자가 높아 일단은 안심한 상태”라고 했다.지난해 12월 기준 국내 3대 인터넷전문은행(카카오뱅크·케이뱅크·토스뱅크)의 평균 유동성커버리지비율(LCR)은 212~648%를 기록했다. 특히 토스뱅크는 지난해 4분기 LCR가 각각 10월 628.8%, 11월 1080.96%, 12월 648.4%로 가장 높은 수치를 유지했다. 카카오뱅크는 같은 기간 668.66%, 654.21%, 527.74%로 감소세를 보였지만, 여전히 높은 비율을 유지했다. 케이뱅크는 214.64%, 237.56%, 212.07%로 인터넷은행 중에선 가장 낮았지만, 시중은행보다 LCR가 월등히 높다.LCR은 뱅크런 등 급격한 예금유출이나 금융위기로 인한 유동성 악화 등에 대비해 은행이 최소 30일을 버틸 수 있도록 현금화가 쉬운 고유동성 자산을 적정 이상 보유하도록 하는 제도다.100%대에 머무는 시중은행에 비해 인터넷은행이 높은 LCR을 기록한 건 설립한 지 얼마 되지 않은 신생 금융기관이기 때문이다. 자금안정성을 높이기 위해 최저규제 수준인 100%보다 훨씬 높은 LCR를 유지하고 있다.▶美 은행 파산 사태, 인뱅에는 영향 미미...인출 속도는 ‘긴장’=미 지역은행인 퍼스트리퍼블릭 은행이 파산하면서 실리콘밸리은행(SVB)의 전철을 밟게 되자 금융 시장에선 불안감이 재조성되고 있다. 지난 3월에는 한 인터넷은행과 관련해 사실과 다른 소문이 퍼지는 등 뱅크런 공포가 비교적 송금이 쉬운 인터넷은행을 향하는 것이다.인터넷은행은 송금이 다른 은행보다 보다 쉽고 편리하게 가능한 만큼 금융당국은 뱅크런 대비를 위해 긴장의 끈을 놓지 않는 모습이다. 지난 3월 SVB가 36시간만에 초고속 파산한 배경으로는 스마트폰을 통한 예금 인출이 지목됐다. 홍승희 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2023.05.04.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>‘소문난 잔치’ 대환대출 인프라 이달 출시...플랫폼-금융사 눈치싸움에 “먹을 것 있을까”</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005007426?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>’손쉬운 대출 갈아타기‘ 대환대출 인프라-플랫폼-금융사별 개별 제휴 방식으로 협상 난항-주요 중개 플랫폼사들도 10~20개 금융사만 취급-중소형 핀테크 업체는 사실상 인프라 진입 포기하기도 ⓒ News1 양혜림 디자이너 /사진=뉴스1[파이낸셜뉴스] 금리 변동 폭 확대로 늘어난 이자 부담에 차주들의 대환대출 수요가 커지는 가운데 금융위원회가 손쉽게 더 낮은 금리의 대출로 이동할 수 있는 ‘대환대출 인프라’를 이달 말 선보인다. 그러나 업계에서는 중개 플랫폼사와 은행 등 금융회사 간 눈치싸움에 소비자의 실익이 크지 않을 것이라는 우려가 벌써 나오고 있다. 각 플랫폼과 금융사가 일일이 제휴를 맺어야 하는 탓에 비교할 만한 대출 상품이 많지 않을 것이라는 지적이다.    ■53개 금융사 중 실제 비교할 수 있는 곳은 20여개 4일 금융권에 따르면 대환대출 인프라에 참여한 토스·카카오페이·핀다·네이버파이낸셜 등 4개 플랫폼업체는 이달 말까지 금융사 10~20여곳과 제휴를 맺고 대환대출 서비스를 시작할 예정이다. 대환대출 인프라에 참여하는 금융사가 총 53개임을 감안할 때 제휴사가 절반에도 미치지 못하는 것이다. 현재 4개 업체가 50~60여개가 넘는 금융사들의 대출 상품을 비교하는 것과 대조적이다.   업계에서는 플랫폼사와 금융사가 개별로 제휴를 맺는 과정에서 난항을 겪고 있다는 분석이 나온다. 금융소비자 입장에서는 단일 플랫폼에 최대한 많은 금융사가 참여해 많은 대출 상품을 한눈에 비교하는 것이 편리한데 이해관계가 달라 최대한 많은 금융사가 들어가기 어려운 환경이라는 것이다.   플랫폼 업체 관계자는 “4개사는 지난 2일 금융위원회가 마련한 대환대출 인프라 시연회에 중개플랫폼 업체들을 대표해 초청됐을 정도로 대환대출 인프라 출시 전 가장 성공적인 준비 과정을 보이는 곳”이라며 “그런 곳들도 은행 등 금융사 섭외가 쉽지는 않은 상황이라 실제 이달 말 출시됐을 때 성공적인 대환이 얼마나 일어날 수 있을지 미지수”라고 답했다.    ■경쟁력 낮은 핀테크 업체 '울상'...시중은행 제휴가 관건 인지도가 부족해 개별 금융사를 모셔가야 하는 중소 핀테크 입장에서는 상황이 더 심각하다.   대환대출 인프라에 중개플랫폼 업체로 참여하는 한 핀테크 업체의 관계자는 “금융위원회의 강력한 드라이브에 개별 금융사와 접촉하고 서버망을 구축하는 등 노력은 하고 있으나 비협조적인 금융사들이 많아 일정을 따라가기도 버거운 상태”라고 설명했다. 한 핀테크 업체는 금융위 허가까지 완료했으나 대환대출 인프라 참여를 사실상 백지화한 것으로 알려졌다.   특히 신한은행, 카카오뱅크 같은 1금융권 은행들이 대출상품 공급자가 아닌 중개자로 직접 플랫폼사로 참여하면서 해당 은행들의 상품은 타 중개플랫폼에서는 비교하기 어려워질 수 있다는 우려도 제기된다. 대환대출 인프라는 시중은행과 같은 1금융권과 저축은행, 카드, 캐피탈 등 2금융권이 모두 참여하는 시장인 만큼 금리가 더 낮은 1금융권 대출 상품을 얼마나 많이 취급하고 있느냐가 플랫폼의 경쟁력으로 여겨진다. 이에 중개할 수 있는 1금융권의 상품이 제한될 경우 소비자의 실익이 줄어들 수 있다는 지적이다.   플랫폼 업체 관계자는 “대환대출이라는 것 자체가 2금융권에서 1금융권으로 옮기고 싶어 하는 차주들의 요구가 강할 수밖에 없다”며 “그렇다면 얼마나 많은 시중은행과 제휴를 맺을 수 있느냐가 상당히 중요한데 시중은행 중 자회사로 대출비교 플랫폼을 가지고 있는 곳들은 그곳에만 대출 상품을 주거나 아니면 다른 업체와 취급하는 대출 상품을 다르게 하는 등의 문제가 발생할 수 있다”고 말했다.   실제 이번 대환대출 인프라에 중개플랫폼으로 참여하는 ‘핀크’는 하나금융이 지분 100%를 소유한 회사이며 ‘팀윙크’의 경우 KB금융의 계열사인 KB캐피탈이 하반기 인수할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2023.05.02.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>한국투자증권, ‘ST프렌즈’ 토큰증권 등 신성장 동력 발굴 탁월 [2023헤럴드경제 자본시장 대상]</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002137935?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>비저너리 대상‘한국투자 ST프렌즈’로 토큰증권 사업에 앞장서고 있는 한국투자증권이 ‘2023 헤럴드자본시장대상’에서 비저너리대상의 영예를 안았다.한국투자증권은 시시각각 변화하는 시장환경 속에서 미래를 내다보는 선구안으로 토큰증권 등 신성장 동력 발굴에 탁월한 선도력을 보인 성과를 인정받았다.정일문 사장금융위원회는 올해 2월 ‘토큰증권 발행·유통 규율체계 정비방안’을 통해 토큰증권을 허용한 바 있다. 이를 계기로 그동안 가상자산 시장에서 주로 활용됐던 분산원장(블록체인)을 제도권 금융에서 본격적으로 편입하기 시작했다.한국투자증권은 이에 발맞춰 지난달 토큰증권 협의체인 ST 프렌즈를 출범했다. ST프렌즈는 한국투자증권을 주축으로 인터넷 전문은행 카카오뱅크와 토스뱅크, 기술 파트너인 카카오엔터프라이즈가 토큰증권 시장 발전을 위해 모인 협의체다. ST프렌즈 초기 파트너들은 토큰증권 시장을 위한 분산원장 메인넷을 추진하고 있으며, 이후 조각투자 파트너들을 추가로 ST프렌즈에 합류시켜 나갈 계획이다.그동안 증권사를 중심으로 형성된 토큰증권 연합체는 주로 조각투자업체와 블록체인 업체로 구성됐다. ST프렌즈는 이들과 달리, 금융기관 중심으로 분산원장 생태계를 구축하는 첫 사례다. 국내 최고 수준의 투자은행(IB) 역량을 보유한 한국투자증권은 딜소싱 역량을 십분 활용해 투자 저변을 넓힐 수 있는 다양한 투자상품을 공급하고, 카카오뱅크와 토스뱅크는 은행 생태계를 바꾼 플랫폼 기술력으로 토큰증권 상품을 보다 간편하고 쉽게 접할 수 있도록 준비해 나갈 예정이다. 카카오엔터프라이즈는 한국은행이 진행한 중앙은행 디지털화폐(CBDC) 모의실험 사업을 성공적으로 수행하는 등 금융기관에서 분산원장을 안정적으로 운영하는 기술을 보유하고 있다.한국투자증권 관계자는 “ST프렌즈 파트너들의 역량은 증권, 은행, IT 등 각 분야에서 충분히 증명됐으며, 이를 바탕으로 국내 토큰증권 시장의 표준을 만들어 가고자 한다”면서 “이제 막 시작하는 토큰증권 시장의 성공적인 안착을 위해 각 분야에서 최고의 성과를 일궈낸 플레이어들이 책임감을 갖고 진행할 계획”이라고 밝혔다.한국투자 ST프렌즈는 발행 플랫폼이 중심이 되는 분산원장 메인넷을 연내 구축하고 테스트까지 완료하는 것을 목표로 하고 있다. 윤호 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2023.05.07.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>[미리 보는 이데일리 신문]"징용피해 가슴아파” “더 좋은 한일관계로”</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005480211?sid=102</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>[이데일리 박종화 기자] 다음은 8일 자 이데일리 신문 주요 뉴스다.△1면-“징용피해 가슴아파” “더 좋은 한일관계로”-공실률 57→25%...돌아온 명동의 봄-JY “바이오로 제2반도체 신화”…美서 글로벌 제약사 연쇄회동-“간호법만으로 달라지는 것은 없다”-베일 벗는 정치권 코인 투자…윤리·거래방식 문제없나-위기와 거리 먼 한전 자구안…전기료 인상 납득시켜야△종합-왕세자 책봉 65년 만에 즉위한 찰스3세 국왕-“의료체계 흔드는 간호법…사회적 합의 먼저”-상위 1% 유튜버, 대기업 연봉 7배 넘는다△한일 정상 셔틀외교 본궤도-“경제·안보 대응 긴밀 협력…韓 반도체·日 소부장 견고한 공급망 구축”-尹 해법 제시에 기시다 호응…피해자 고통에 공감 표명△종합-공실률 반으로 뚝, 임대료도 꿈틀…“中 관광 풀리면 회복세 더 빨라질 것”-파트너사와 긴밀 협업…‘글로벌 바이오 생산 허브’ 구축 속도-WHO, 코로나 비상사태 해제…국내서도 방역완화 논의 속도-공개매수 길 넓히고 구조조정 돕고 위축된 M&amp;A 시장 다시 활기찾나△위기의 K콘텐츠 진단-넷플릭스 독주에 ‘K콘텐츠 다양성’ 실종…“10년 후 미래 암울”-“OTT 뜨면 볼대”…웬만해선 극장 안 간다-“국내 OTT기업, 지속적 투자로 해외시장 개척해야”△정치-개딸 등 강성 친명계 “공천개혁” vs “비명계 ”공천 룰 유지“-버티는 김재원·태영호에 與 골머리…오늘도 최고위원회 안 연다-與 ”미래지향적 관계 열어“ 野 ”굴욕외교 계속 밀어붙여“-60억 코인 논란 김남국 뭇매…與 ”이해충돌 문제에 국민 분노“-주가 조작 땐 최장 10년간 주식거래 제한△경제-금융·물가 다 불안한 韓銀…금리 ‘장기 동결기’ 돌입하나-천원의 아침밥‘ 3배 확대 145개 대학, 234만명 지원-송전망 건설 지연에…’민간투자 확대‘ 추진-KDI, 韓 경제성장률 전망 1.6% 아래로 낮추나△금융-리볼빙’으로 미룬 카드값 7조…빚폭탄 뇌관 될라-주금공이 대신 갚아준 전세자금 보증액 1조 넘었다-3년간 갚을 돈 미뤄준‘ 중기·소상공인 대출 37조-금리 불확실성 여전…대출금리 당분간 ’횡보‘할 듯△글로벌-버핏 ”소비자 신뢰 회복 안돼…은행권, 여전히 위험“-롤러코스터’ 美 은행주…당국, 공매도 투기세력 조사-불바다 된 바흐무트…러, ‘맹독성’ 백린탄 사용 의혹-미국 또 총리난사 텍사스서 9명 사망△산업-실내서 전기차 주행 그대로 재현…정밀 데이터로 성능·문제점 파악-실적 개선에도 못 웃는 철강업계-뜨는 차량용 OLED 시장 잡자…車 업계와 손잡는 삼성·LGD-감산에도 반도체 가격 뚝…”2분기 이후에나 반등할 듯“△ICT-길거리 시선 잡아라…‘15초 경제’ 큰다-與野 한상혁 충돌, 방통위 마비 길어지나-챗ㅤㅎㅖㅆ 필요한데 정보유출 걱정 ‘AI딜레마’ 해결 나선 보안기업들-”아리야 살려줘“…인공지능 ‘SOS’ 500여명 생명 구해△중소기업-日 수출·관광 콘텐츠 활성화 기대…K중기, 봄바람 불까-토스뱅크, 중기중앙회 노란우산 가입서비스-늦어지는 중기부 산하 기관장 인사에 낙하산 의혹-자영업 대출 열에 일곱은 다중채무자…대출 잔액 720조원△소비자생활-35만 믿쓰티‘ 등에 업고…’日 국민쿠션‘ 넘어 K뷰티 선도-GS리테일 탄소중립포인트 누적 3000만원 돌파 성과-편장족’ 다 모여라-신세계百 ‘다이아몬드 갤러리 강남점’ 오픈…업계 첫 직매입·판매△증권-불안한 투자자들 ‘클놈클’ 베팅-금리 지나간 자리, 美 물가지수 변수…종목별 차별화 대비를-경쟁자는 주춤, 對中 규제 숨토 삼성·SK, 미국발 훈풍 기대감△증권-포스트 차이나‘로 뜨는 인도…펀드·ETF 매력 쑥-잘 나가는 K팝 엔터 ETF-공매도 먹잇감으로 떠오른 카겜·펄어비스-전기요금 인상 앞둔 한전株에 쏠린 눈△부동산-너도나도 단지명 바꿔…LH ’안단테‘ 사장 위기-전매제한 풀리니…분양권 거래 2배 ’훌쩍‘-”사기 취약한 빌라 싫어요“…전세거래 절발 ’뚝‘-은마 상가 조합원, 권리가액 2억 이상 땐 아파트 받을 수 있어△문화-1500년 역사 품은 신라 ’천마‘, 다시 날아오르다-문화대상 이 작품 국립심포니 ’차이콥스키 발레 모음곡‘-찐부자’ 친구가 들려주는 부자 마인드…종합 베스트셀러 4위△스포츠-구단주 ‘통큰 선물’·팬들 ‘만원 응원’…부산갈매기 ‘날 수밖에 없데이’-7-10-7-8위…5년 암흑기 탈출할까-에이스 나균안 ”구속 대신 제구에 집중할 것“-”맨유가 강력히 원해“….이탈리아 정복한 김민재, 다음 도전은 EPL일까△오피니언-탓탓탓‘ 민주당의 자업자득-中 리오프닝에 올라타자-달콤한 유혹에 멍드는 K바이오△오피니언-일하는 국회 만드는 법-골든타임 끝나가는 전세사기 특별법-공직자 재산 공개 대상에 코인 포함해야△피플-24일 누리호 3차 발사…실용위성 발사체로 첫선-하나금융, 중국신탁산업흔행과 업무협약-김홍국 하림 회장 ”디지털 시대, 환골탈태해 새 영역 개척“-KT, 야구장서 즐기는 ’키즈랜드 캠핑‘△사회-”타국살이 사무친 그리움, 전화 한 통으로 달래요“-단골·단체 손님 사라져 매출 뚝 뜨내기 관광객에 쓰레기만 넘쳐-”대일 굴종외교 중단“ vs ”한미일 동맹 만세“-클릭 몇 번이면 구매….마약사법 4명 중 1명은 ’인터넷 거래‘-法 ”가사 분담 없던 별거기간까지 연그분할 청구 못해“-21일은 멍 때리는 날</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2023.05.13.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>게임마니아 빈살만?…하락장 12조 베팅한 왕실 금고 [딥다이브 중동]</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001101207?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>[딥다이브 중동] (3)'왕실 금고' 사우디 공공투자기금주식 포트폴리오, 루시드·게임주 편중UAE 3대 국부펀드와 대조적 행보손바닥만한 화면을 탈출해 대형 극장 스크린으로 튀어나온 애니메이션 ‘슈퍼 마리오 브라더스’가 전 세계적으로 흥행 기록을 세우고 있습니다. 북미에서 4주 연속 박스오피스 1위에 올라 1조원 이상의 수익을 내고 있죠.그런데 일루미네이션 엔터테인먼트와 닌텐도가 공동으로 제작한 영화 속 캐릭터가 쿠파와 싸우며 '톡톡' 코인을 터뜨릴 때마다 이득을 보는 곳이 따로 있습니다.바로 게임회사 닌텐도의 주요 주주이자 미국과 한국 등 전세계 기술, 게임, 서비스, 부동산 분야 큰손으로 활약 중인 사우디아라비아 국부펀드 PIF, 그리고 이 펀드의 실질적인 주인인 무함마드 빈 살만 왕세자입니다.(걸프협력회의+3에서 바이든 미국 대통령과 회담 중인 무함마드 빈살만 사우디아라비아 왕세자)석유 재벌인 중동 국가들은 나라마다 수천억 달러 규모의 국부펀드를 운용하고 있죠. 나라의 자산을 불리기 위해 해외 주식과 채권에 고루 베팅하도록 한 이들 펀드 가운데 사우디 국부펀드의 행보는 유난히 독특합니다.철저히 베일에 가려져 있는 아랍에미리트연합과 달리 미국 증권거래위원회에 공개된 사우디 국부펀드의 투자 실력을 살짝 들여다봤습니다.※ 전편보기 ☞1) 바이든은 왜 입 다물었을까…'2500조원' 석유 제국의 절대 반지 [딥다이브 중동]2) 인류 최후의 석유기업…아람코는 왜 중국과 손잡았을까 [딥다이브 중동](사우디아라비아 왕국의 공공투자펀드(PIF) 로고와 본부 건물)● 물렸나 장기투자인가…'1조 적자' 루시드를 못 버리는 이유올해 1월부터 3월까지 석달 간 순손실 7억 7천만 달러, 만들어도 차가 팔리지 않으면서 적자와 함께 순현금흐름은 1조 3천억 원이나 줄고, 그렇지 않아도 바닥이던 주가는 시장의 낮아진 눈높이마저 채우지 못하면서 지난 주 갭하락과 함께 주당 7달러선까지 주저 앉았습니다.남은 현금은 약 4조 원. 이런 추세로 내년 말까지 버틸지 의문인 이 회사의 최대 주주는 60.7%를 보유한 사우디아라비아 공공투자기금 PIF(Public Investment Fund)입니다. 아라비아반도 인프라 확장과 해외 투자의 첨병이자, 왕실의 금고 역할을 하는 기금이기도 합니다.(올해 1분기 약 1조원의 영업손실을 기록한 루시드 그룹의 실적 보고서)사우디는 2018년 루시드가 상장하기 전부터 기금의 자금을 꺼내 10억 달러 이상을 투자했고, 상장 이후 지난해까지 국부펀드 계열사인 사우디개발기금 SIDF를 통해 약 14억 달러의 차환과, 자국이 최대주주인 걸프국제은행 GIB를 통해 신용보강을 하는 등 지원을 이어왔습니다.하지만 2030년 석유에 의존하지 않는 경제를 준비하고 있는 사우디는 미래 모빌리티인 전기차, 도심항공망의 틀을 잡아줄 기술 회사로서의 루시드를 포기할 생각은 없어보입니다. 국부펀드 연례보고서에서도 대표적인 투자로 언급되고, 미래도시 네옴(NEOM)시티의 기반을 만들 수단으로 보고 있기도 하죠.그런데 사우디 국부펀드 PIF가 미래를 담보로 이렇게 아슬아슬한 투자를 이어가는 사례는 이것 뿐만이 아닙니다.(사우디 국부펀드의 미국 주식 종목별 투자 비중, 한국경제TV)● 지정학 갈등에도 미국 주식 못 버려…게임회사 비중 20%지난 2022년 말 기준 미국 증권거래위원회에 보고된 사우디 공공투자기금의 주식 거래내역을 보면 모두 309억 달러의 평가가치, 우리 돈으로 41조 원 규모의 자금을 투자하는 것으로 나타납니다.지분 60.7%를 보유해 미국 주식투자금의 4분의 1을 담고 있는 루시드 외에 한때 손정의의 비전펀드와 우버(Uber)에도 투자했죠. 참고로 손 회장이 이끄는 기술투자펀드인 비전펀드는 지난 2022회계연도 기준 우리 돈 52조 4천억원에 달하는 막대한 손해를 입은 상태입니다.그의 조언을 받아 기술주 투자를 감행한 PIF는 최근 실적 실망감에 급락한 페이팔(Paypal)을 비롯해 액티비전블리자드(Activision Blizzard), 일렉트로닉아츠(Electronic Arts), 테이크-투 인터랙티브 소프트웨어(Take-Two Interactive Software)를 2~6% 비중으로 투자하고 있습니다.자세히 보면 펀드 내에서 게임 기업의 비중이 20% 정도로 꽤 공격적인 포트폴리오입니다. 콘솔 게임 인기 순위 1, 2위를 오르내리는 '콜 오브 듀티(Call of Duty)' 시리즈, 피파(FIFA23), GTA, 문명 시리즈 등 대작 게임을 생산한 곳들입니다.하나 덧붙이자면, 미국 주식 외에 사우디 공공투자기금에 편입된 기업이 바로 앞에서 언급한 닌텐도입니다. 지난달 지분이 8.26%로 일본 닌텐도의 최대 해외투자기관으로 올라섰는데, 국내에도 넥슨과 엔씨소프트 등에 투자를 해왔으니 이 정도면 투자 책임자가 게임 마니아가 아닌가 싶기도 합니다.(액티비전 블리자드의 '콜 오브 듀티 - 모던워페어II')또 지난해 상반기에는 미국 빅테크 기업인 아마존(Amazon), 마이크로소프트(Microsoft), 구글 지주회사인 알파벳(Alphabet), 메타플랫폼스(Metaplatforms) 등 4대 빅테크에도 각각 4천억원 이상씩 신규 투자를 진행했습니다.경기방어주 역할을 하는 스타벅스(Starbucks), 홈디포(The Home Deopt), 코스트코(Costco) 등의 투자 비중은 소폭 늘었고, 팬데믹기간 신규로 투자했던 라이브네이션 엔터테인먼트(Live Nation Entertainment), 카니발 코퍼레이션(Carnival Corporation)은 지속해 투자 중입니다. 반면 영국의 명품 이커머스 업체인 파페치(Farfetch), 수소산업 등으로 주목받던 플러그파워(Plug power) 지분은 대량 처분한 것도 눈에 띕니다.(라이브네이션 엔터테인먼트)이렇게 사우디 국부펀드가 지난해 연간으로 신규 투자한 자금은 우리 돈으로 환산해 모두 12조 원 규모로 추정됩니다. 꽤 공격적인 투자가 이뤄졌지만, 미국 최대기업인 애플이 빠졌고, 전기차 기업인 테슬라도 투자 목록에서 제외됐습니다.사우디 국부펀드에게 테슬라는 일론 머스크의 조언으로 주가가 하락하던 시기 손실은 피했지만, 최고가를 향해 달릴 때 팔지 못하는 뼈아픈 종목이기도 합니다.사우디 국부펀드의 미국 주식투자 자산을 유형으로 나눠보면 이렇습니다. 투자금액의 43%는 기술주, 이어 엔터·게임(13%), 소비·유통(11%), 헬스케어(9%) 등으로 나뉘는데, 중후장대한 산업군과 본업인 석유 관련 기업은 일절 투자하지 않고 있습니다. 팬데믹 종식 이후의 세계 경제가 정상화될 것을 기대하면서 2년여간 여행,소비 관련 비중을 꾸준히 늘려온 점은 인정받을 부분으로 보입니다.(NextEra Energy)● 지분 가치 회복 중이지만…옆나라 UAE는 공매도 준비거액의 자금으로 더 장기간 투자를 하는 펀드이지만, 시시각각 변화하는 국제 정세와 거시 경제 변화에 타격을 입는 건 여느 투자자들과 마찬가지입니다. 이들 기금 역시 올해 들어 지난 2월까지 자산 가격이 소폭 회복했지만, 금리인하 기대가 멀어지면서 수 조원의 자금 변동을 겪고 있는 것으로 추정됩니다.전세계 국부펀드 자금을 추적하는 글로벌 SWF가 내놓은 추정치에 따르면 지난 2월까지 사우디 국부펀드의 보유 자산 가치는 380억달러까지 증가한 것으로 파악됩니다. 루시드를 제외한 나머지 지분 가치는 1년간 62% 상승했다는 분석도 달려 있습니다.하지만 안타깝게도 사우디 국부펀드 보유비중 약 25% 수준인 루시드의 주가는 지난 1월말 12달러에서 재차 하락을 이어가면서 펀드 수익률을 떨어뜨리고 있습니다. 이런 공격적이고 아슬아슬한 투자가 지속되자 사우디 내에서도 왕세자의 행보에 대한 이견이 나오기 시작했습니다. 월스트리트저널의 올해 1월 보도에 따르면 왕세자의 공격적인 투자성향에 국부펀드 투자위원들이 반발했던 사실도 전해졌습니다.(전세계 상위 15개 국부펀드 및 연기금 /글로벌SWF 2023 연례보고서)또 하나 넘어야 할 산은 전세계적인 경기침체 신호가 부쩍 커지고 있다는 겁니다. 미국의 실리콘밸리은행과 퍼스트리퍼블릭 등 지역은행 파산은 이제 기업 자금 조달까지 꺼리게 만드는 신용경색 현상을 부르고 있습니다. 세계적인 투자 거장들은 부동산 시장의 부실 가능성을 연이어 경고하고 있습니다.이런 분위기를 빠르게 읽은 건 2030년 이후 미래를 그리며 공격적인 베팅에 나선 사우디가 아닌 옆나라 아랍에미리트연합입니다. 블룸버그 보도에 따르면 아랍에미리트연합 아부다비 국부펀드 ADIA는 미국 주식시장에 대한 공매도 채비에 나섰습니다. 전세계 국부펀드 가운데 중국 CIC, 노르웨이 NBIM을 잇는 3위 국부펀드 ADIA가 시장 약세를 보고 방향을 틀려하는 겁니다.아랍에미리트연합의 국부펀드는 9천억 달러 규모의 아부다비 국부펀드(ADIA), 2480억 달러의 무바달라(Mubadala), 2천억달러 규모의 두바이투자청(IDC) 등 3곳을 통해 금융시장에서 사우디에 못지 않은 자금력을 행사하고 있죠. 이들 기관은 UAE가 영국에서 독립된 이후 빠르게 세계 시장에 진입한 동력이 되기도 했습니다. 이런 여건에서 ADIA의 투자결정은 다른 대형 투자기관들에게도 무시못할 영향을 줄 것으로 보입니다.금융시장에 일찍 눈을 뜬 중동 최대 국부펀드의 이러한 움직임은 수천억 달러에 달하는 인프라 투자와 로봇·모비리티 등 성장주 투자에 속도를 내는 사우디와 비교되는 대목입니다.(지난 1월 UAE 바카라 원전 방문 당시 윤석열 대통령과 무함마드 빈 자이드 알 나하얀 아랍에미리트 대통령)조금 더 살펴보자면, 아부다비 왕실의 금고라 할 수 있는 ADIA를 이끌고 있는 인물은 '셰이크 타눈'으로 현 대통령의 동생이자 퍼스트 아부다비 은행 회장을 겸하고 있는 인물입니다. 다른 국부펀드도 형제들의 손에 있습니다.우리나라에서 '중동 부자'의 대명사가 된 '만수르(셰이크 만수르 빈 자예드 알 나흐얀)'가 의장으로 있는 무바달라는 운용자산 약 2천억달러 규모로 지난해에만 영국에 100억 달러를 투입하는 등 반도체 생산, 석유화학, 헬스케어, 방위산업에서 국제적인 투자파트너로 활약 중입니다.반도체 설계기업인 글로벌파운드리스(GlobalFoundries), 캐나다 노바 케미컬(NOVA) 등의 최대주주이고, 한국과 UAE간 협력 확대에 맞춰 이달 토스,카카오 등 플랫폼 기업과 클린에너지 분야 협력을 모색하는 주요 기관이기도 합니다.물론 사우디 국부펀드도 성장속도와 투자 프로그램에서 뒤지지 않습니다. 2021년 한해에만 유가상승과 유동성 확장에 힘입어 연간 25% 성장을 기록했고, SWF전망으로 2030년 이후 중국 CIC를 넘어 세계 최대 국부펀드로 성장할 것이란 전망도 나오고 있습니다.사우디아라비아와 아랍에미리트연합은 왕가들끼리 친분이 두터운 형제 국가이면서 한편으로는 정치적으로 경제적으로 경쟁 관계에 있기도 합니다. 경제 개발측면에서 보자면 무함마드 빈 살만 왕세자가 아부다비와 두바이의 개발을 벤치마킹해 반도 끝자락에 네옴 시티를 건설하려는 건 유명한 일화이기도 하죠. 또 한편으로는 광범위한 투자 목록에서 2030년, 2050년까지 석유없이 새 먹거리를 찾아야만 하는 이들 국가의 고민을 엿볼 수 있기도 합니다.'부자와 연예인 걱정은 쓸데 없는 짓'이라고도 하지만 세계 산업 지형을 바꿀 이들 나라들의 움직임은 조금 더 추적해볼 필요가 있어 보입니다. 10년도 채 남지 않은, 차기 왕위 계승자가 선언한 '비전 2030'을 향해 질주하는 사우디는 세계 경제의 불안을 딛고 지금의 성장을 이어갈 수 있을까요?(다음 편에서 이어집니다)</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2023.05.05.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>인터넷은행, 10대 고객 확보 경쟁</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001210837?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>카카오뱅크와 토스 ‘선불전자지급’ 서비스 어린이·청소년에 인기카카오뱅크. 부산일보DB카카오뱅크와 토스뱅크 등 인터넷전문은행들이 선불전자지급 서비스를 통해 10대 고객 확보에 나서고 있다.카카오뱅크가 운영하는 만 14∼18세 청소년 대상 선불전자지급 서비스인 카카오뱅크 미니(mini) 가입자 수가 지난달 말 기준 약 174만명을 기록한 것으로 5일 알려졌다. 카카오뱅크 미니는 2020년 10월 출시된 청소년 전용 선불전자지급서비스로, 최대 50만원 한도로 충전해 편의점, 배달음식 결제, 대중교통 이용 등에 사용할 수 있다. 2020년 말 59만 명이던 가입자 수는 2021년 말 115만 명, 지난해 말 161만 명으로 크게 늘었다.카카오뱅크 관계자는 “청소년 고객 사이에서 카카오뱅크에 대한 관심이 높다 보니 만 14세 생일에 카카오뱅크 미니를 개설하는 청소년 중 절반가량이 자정에서 새벽 2시 사이에 가입한다”고 설명했다.김석 최고운영책임자(COO)는 지난 3일 1분기 실적발표 콘퍼런스콜에서 “3분기 미니 대상 고객을 확대해 더 많은 청소년에게 금융 생활을 제공할 것”이라고 밝혔다.토스의 어린이·청소년용 선불카드인 유스카드는 지난달 말까지 누적 발급량 107만장을 돌파했다. 토스가 지난해 2월 출시한 유스카드는 만 7∼16세 대상 충전식 카드다. 선불 전자지급 수단인 토스머니와 연동해 체크카드처럼 사용할 수 있다. 편의점 CU에서 현금을 충전하는 방식으로도 이용할 수 있다.만 7∼18세 토스 사용자는 지난달 말 194만 명을 돌파했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2023.05.09.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>"한 달간 364억분"…'잘파세대'가 가장 오래 사용한 앱 보니</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004842094?sid=105</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>자주 사용하는 앱은 카카오톡, 지난달 270억회 실행사진=REUTERS애플리케이션(앱) 분석 서비스 와이즈앱·리테일·굿즈가 잘파세대로 불리는 1020세대가 가장 많이, 가장 오래, 가장 자주 사용하는 스마트폰 앱을 조사해 9일 발표했다. 최근 MZ세대에 이어 잘파(Z+a)세대가 새로운 소비층으로 각광받고 있다. 디지털 환경에 익숙한 잘파세대는 다른 세대에 비해 소셜네트워크서비스(SNS), 디지털 미디어 및 콘텐츠 소비에 적극적이다. 실제로 지난달 잘파세대가 가장 많이, 가장 오래, 가장 자주 사용하는 앱을 조사한 결과, 상위 10개 중 엔터테인먼트 및 SNS 앱이 절반 이상을 차지한 것으로 나타났다.  와이즈앱·리테일·굿즈가 지난 4월 한국인 스마트폰 사용자(Android + iOS)를 표본 조사한 결과, 잘파세대가 가장 많이 사용한 앱은 카카오톡으로 사용자가 1445만명으로 조사됐다.이어 유튜브 1420만명, 네이버 1284만명, 인스타그램 941만명, 쿠팡 766만명, 네이버지도 749만명, 배달의민족 677만명, 네이버웹툰 676만명, 토스 673만명, 당근마켓 482만명 순 이었다.그래픽=와이즈앱·리테일·굿즈 제공잘파세대가 가장 오래 사용한 앱은 유튜브로 사용시간이 364억분에 달했다. 그 뒤는 카카오톡 106억분, 인스타그램 81억분, 네이버 55억분, 틱톡 36억분, 네이버웹툰 31억분, 트위터 31억분, 로블록스 20억분, 페이스북 9억분, 넷플릭스 8억분 순이었다.잘파세대가 가장 자주 사용한 앱은 카카오톡으로 실행횟수가 270억회 였다. 2위는 인스타그램으로 81억회, 이어 유튜브 60억회, 네이버 42억회, 트위터 34억회, 에브리타임 19억회, 캐시워크 15억회, 토스 13억회, 네이버웹툰 12억회, 틱톡 7억회 순으로 나타났다.위 조사는 앱·리테일 분석서비스 와이즈앱·리테일·굿즈가 한국인 안드로이드와 iOS 스마트폰 사용자 표본 조사로 실시했다.그래픽=와이즈앱·리테일·굿즈 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2023.05.12.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>31일부터 대환대출 딱 '10분'… "세계 최초 국내 출시"</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000738993?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>원스톱·온라인 대환대출 인프라"과도한 수수료 부담 안 돼"게티이미지뱅크기존 신용대출을 더 저렴한 금리로 갈아탈 수 있는 '온라인·원스톱 대환대출 인프라'가 31일 출시된다. 대출상품을 온라인으로 단순 비교하는 서비스는 기존에도 있었지만, 금융회사 간 대출을 실시간으로 이동까지 할 수 있는 인프라 출시는 전 세계 최초다. 12일 금융위원회는 김주현 금융위원장 주재로 31일 출시를 앞둔 대환대출 인프라 구축상황 최종 점검 간담회를 개최했다. 플랫폼에 대출상품을 공급할 5대 시중은행(국민·신한·하나·우리·농협) 은행장과 플랫폼업체인 이른바 '네·카·토'(네이버파이낸셜·카카오페이·토스) 대표 등이 참석했다. 소비자는 대환대출 인프라가 구축되면 영업점 방문 없이 기존 신용대출을 더 낮은 금리로 한 번에 갈아탈 수 있다. 복수의 온라인 플랫폼업체 애플리케이션(앱)에 접속하면 기존 대출 확인 후 신규로 갈아탈 대출상품의 금리·중도상환수수료 등을 비교·선택할 수 있다. 대환이 가능한 금융회사(기존→신규)는 시중은행 19곳을 모두 포함해 총 53곳이다. 접속부터 대출까지 걸리는 시간은 평균 10분으로 예상된다. 당국은 연말까지 대환대출 가능 범위를 주택담보대출(주담대)까지 확대할 계획이다. 주담대가 전체 가계대출에서 차지하는 비중은 약 76%(800조 원)로, 주담대까지 대환대출 인프라에 포함될 경우 은행 간 금리 경쟁이 심화하면서 소비자들은 금리 인하 혜택을 볼 수 있을 것으로 기대된다. 당국 관계자는 "1단계인 신용대출이 안착되는 상황을 지켜보면서 2단계 주담대 시스템 구축도 준비하겠다"고 말했다. 출시 전 쟁점으로 부각된 금융회사·플랫폼 업체 간 각종 수수료 갈등도 일단 봉합된 상태다. 그간 저축은행 등 2금융권은 플랫폼 업체에 지불할 대출 중개수수료가, 플랫폼 업체는 금융회사에 지불할 대출 조회수수료가 과하다고 주장해왔다. 당국 관계자는 "더 이상 수수료 관련해서 특별한 이슈가 발생하고 있지 않다"며 "첫 시도인 만큼, 출시 후 수수료 관련 개선 사항이 있다면 검토하겠다"고 밝혔다. 김 위원장은 "대환대출 인프라 구축 목적이 투명하고 공정한 경쟁을 통해 소비자 이익을 증진시키기 위한 것임을 명심해 달라"며 "과도한 수수료 부담을 소비자에게 지우거나, 건전한 영업을 저해하는 형태가 나타나지 않도록 각별히 유의하길 바란다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2023.05.11.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>"택배비 800원"…CU, 택배 초특가 프로모션</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004843121?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>CU는 이달 말까지 멤버십 앱 포켓CU에서 최저 800원에 택배를 보낼 수 있는 '알뜰 택배 초특가 프로모션'을 연다고 11일 밝혔다.포켓CU에서 알뜰 택배를 보낼 때 사용할 수 있는 1000원 할인 쿠폰을 발급해준다. CU 멤버십 회원이라면 누구나 이용 가능하다. 이벤트 기간 내 매일 하루 1회씩 발급받을 수 있다.쿠폰을 적용하면 정상가 대비 최대 55%나 할인된 가격에 서비스를 이용할 수 있다. 500g 이하 소형 택배는 단돈 800원만으로 보낼 수 있게 된다.중고 거래 앱 '번개장터'에서도 링크를 찾아볼 수 있다. CU는 이달 네이버 스튜던트 멤버십 고객들과 토스 앱 이용 고객에게도 알뜰 택배 할인 쿠폰을 발급한다.한편 중고 거래 활성화와 온라인 쇼핑의 증가로 합리적인 가격의 택배 서비스 수요가 급증하면서 전체 택배 이용 건수 중 알뜰 택배의 비중은 서비스 시행 첫 해인 2020년 1.8%에서 올해(1~4월) 21.3%까지 대폭 증가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2023.05.14.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>“이자 먼저 주자 하루에 300억” 인터넷은행 수신경쟁 심화, 건전성 우려</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003279779?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>시중은행의 예금금리가 떨어지자 ‘금리 노마드족’이 인터넷은행에 몰리고 있다. 인터넷은행은 물 들어올 때 노 젓듯 ‘선이자 지급’과 같은 파격적인 서비스로 자금 유치에 나서고 있다. 하지만 지나친 수신(예금) 경쟁이 인터넷은행의 건전성 악화로 이어질 수 있다는 우려도 나온다. 수신이 늘어난 만큼 여신(대출)을 늘리지 못하면 고객에 대한 이자 지급 부담만 커지기 때문이다.        14일 한국은행에 따르면 국내은행의 정기예금 잔액은 4월 말 기준 930조6000억원으로 올해 들어 13조7000억원 줄었다. 지난 3월 8조8000억원에 이어 4월에도 6조4000억원 감소하는 등 ‘머니무브’가 가속화되고 있다. 분기별로 봐도 올해 1분기 축소가 두드러졌다. KB국민ㆍ신한ㆍ하나ㆍ우리ㆍNH농협 등 5대 은행의 올해 1분기 정기예금 잔액은 총 824조3000억원으로 한 분기 만에 13조5000억원(1.6%) 감소했다.        시중은행은 지난해 4분기 연 5%대 금리 정기예금 상품을 출시하는 등 블랙홀처럼 자금을 흡수했다. 높아진 자금 조달 비용은 대출금리 상승으로 이어졌다. 급기야 금융당국은 지나친 수신 경쟁 완화와 대출금리 인하를 요구하고 나섰고, 한은의 기준금리 연속 동결로 시장금리도 떨어지면서 올해 들어 상황이 달라졌다. 은행연합회에 공시된 19개 은행의 정기예금 기본금리(만기 12개월)는 현재 평균 3.17% 수준으로 내려왔다.        반면 주요 인터넷은행의 예금은 크게 늘었다. 카카오뱅크의 올해 1분기 예금 잔액은 40조2000억원으로 지난해 말보다 21.5%(7조1000억원) 급증했다. 2017년 카카오뱅크 출범 후 분기 기준으로 가장 큰 증가 폭이다. 같은 기간 케이뱅크 예금은 16조6000억원으로 13.7%(2조원), 토스뱅크도 23조2000억원으로 14.3%(2조9000억원) 늘었다.       그래픽=박경민 기자 minn@joongang.co.kr           인터넷은행 간 수신 경쟁은 더욱 치열해지고 있다. 은행연합회에 따르면 카카오뱅크와 토스뱅크, 케이뱅크의 만기 12개월 정기예금의 금리는 기본금리 기준 각각 연 3.40%, 3.50%, 3.60%로 다른 시중은행보다 높은 편이다. 적금 금리도 마찬가지다. 카카오뱅크의 26주적금 금리는 최고 7%이고, 케이뱅크의 ‘코드K자유적금’은 6%다. 토스뱅크가 최근 내놓은 ‘굴비적금’은 6개월에 최고 5%를 받을 수 있다.        인터넷은행은 높은 이자뿐 아니라 이자 지급 주기를 앞당기는 등 새로운 서비스로 고객을 끌어모으고 있다. 토스뱅크는 지난해 3월 업계 최초로 ‘지금 이자 받기’ 서비스를 시작했다. 말 그대로 고객이 원할 때마다 이자를 받을 수 있는 서비스다. 반응이 좋자 케이뱅크도 지난 1월 파킹통장 플러스박스에 ‘바로 이자 받기’ 기능을 추가했다. 카카오뱅크도 오는 24일부터 유사한 서비스를 제공할 계획이다. 파킹통장인 세이프박스의 이자 지급 시기에 ‘고객이 요청한 날’을 추가하는 식이다.        토스뱅크가 지난 3월 선보인 ‘선이자 지급’ 방식의 정기예금 상품도 다른 인터넷은행에서 잇따라 출시될 가능성이 있다. 예를 들어 1억원을 3개월간 맡긴 고객은 세전 금액 기준 약 88만원의 이자를 즉시 받아 활용할 수 있는 상품이다. 토스뱅크에 따르면 선이자 정기예금 상품은 출시 33일 만에 1조원을 돌파했고, 일평균 약 303억원의 자금이 유입되고 있다.        문제는 수신 경쟁이 치열해지는 만큼 ‘출혈’도 심해질 수 있다는 점이다. 예금이 늘어난 만큼 대출을 늘리지 못하면 고객에게 지급할 이자 부담이 커진다. 카카오뱅크의 1분기 대출 잔액은 29조3000억원으로 지난해 말 대비 5%(1조4000억원) 증가했다. 케이뱅크는 11조9000억원으로 10.2%(1조2000억원), 토스뱅크는 9조3000억원으로 8.1%(7000억원) 늘었다.        여은정 중앙대 경영학부 교수는 “아직까진 인터넷은행의 예금 대비 대출 비중이나 연체율이 우려할만한 수준은 아니지만 미국 실리콘밸리뱅크(SVB) 사태처럼 위기 징조가 있을 때 시중은행보다 더 빨리 ‘런(자금 인출)’이 발생할 수 있기 때문에 리스크 관리를 강화해 나가야 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2023.05.03.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>핏펫, 가정의 달 맞아 '멍냥 릴레이' 할인 이벤트 연다</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006785185?sid=103</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>퀴즈 이벤트 및 할인까지 각종 행사 참여가정의 달을 맞아 실시되는 멍냥 릴레이 이벤트이다.(핏펫 제공)ⓒ 뉴스1(서울=뉴스1) 김수빈 인턴기자 = 건강한 반려생활을 선도하는 핏펫(대표 고정욱)은 5월 가정의 달을 맞아 반려동물 가족을 위한 '핏펫 멍냥 릴레이' 이벤트를 한달 간 진행한다고 밝혔다.  3일 핏펫에 따르면 반려동물 가족을 위해 매주 색다른 이벤트를 진행할 예정이다. 첫 번째는 보호자와 반려동물이 카톡으로 대화하는 형식의 퀴즈 이벤트다. 매일 새로운 힌트가 제시되며 정답을 맞추면 선착순 300명에게 1만원 할인 쿠폰이 제공된다. 이 밖에도 캐츠랑, 잇츄, 냥쌤 등 핏펫몰에서 인기 있는 브랜드를 매일 핫딜로 만나볼 수 있다. SK텔레콤 T멤버십이나 하나카드, 토스페이를 사용하는 고객은 추가 할인 혜택을 받을 수 있다. 박채연 사업본부장은 "반려동물 가족까지 행복해지는 5월이 될 수 있도록 흥미롭고 풍성한 혜택이 가득 담긴 이벤트를 준비했다"며 "핏펫과 함께 행복한 5월을 보내시기 바란다"고 말했다.이벤트와 관련한 자세한 내용은 핏펫 홈페이지를 확인하면 된다.[해피펫]</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2023.05.12.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>[인뱅 1분기 실적] 카뱅 순익 50% 뛸 때 케뱅 50% 감소, 왜?</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003360834?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>케뱅 1분기 순익 104억원…57.5%↓“선제적 건전성 관리, 충당금  늘려”카뱅 1019억원 순익, 역대급 실적 올려인터넷전문은행 카카오뱅크와 케이뱅크가 1분기 상반된 성적표를 내놨다. 카카오뱅크의 당기순이익은 1년 사이 50% 넘게 성장했지만, 케이뱅크의 당기순이익은 반토막이 나면서다.케이뱅크는 1분기 104억원의 당기순이익을 올렸다고 12일 밝혔다. 지난해 1분기(245억원)와 비교하면 57.5% 감소한 수치다. 이자이익과 비이자이익이 모두 높아졌지만, 대손충당금을 늘리며 순이익이 줄었다는 설명이다. 케이뱅크는 1분기 602억원의 충당금을 적립했는데, 지난해 같은 기간(196억원)의 세 배가 넘는 규모다. 서호성 케이뱅크 은행장은 “올 1분기는 선제적 건전성 관리에 집중했다”고 설명했다.케이뱅크의 1분기 이자이익은 1029억원으로 지난해 1분기보다 24.9% 늘었다. 비이자이익은 지난해 1분기 19억원에서 올 1분기 81억원으로 뛰었다. 케이뱅크의 지난해 1분기 실적이 두드러지게 좋았던 영향도 있다. 실명계좌를 내준 암호화폐 거래소 업비트의 약발이 남아있을 때다. 케이뱅크는 지난해 1분기 동안에만 전년 연간 이익 규모인 225억원을 뛰어넘는 실적을 올렸다. 그러나 최근 금융권 연체율이 오르고, 불확실성이 커지면서 순이익 방어를 하지 못한 것으로 풀이된다.반면 카카오뱅크는 올 1분기 역대급 실적을 새로 썼다. 카카오뱅크의 1분기 당기순이익은 1019억원으로 1년 전(668억원)보다 52.5% 증가했다. 주요 시중은행들의 가계대출 취급이 줄어들고 있는 가운데 대출 수요를 흡수하면서 1분기 이자이익은 2622억원을 기록했다. 1년 전 같은 기간(2007억원)과 비교하면 30.64% 늘어난 수치다. 이자이익 증가율은 카카오뱅크가 케이뱅크보다 5.74% 포인트 높은 셈이다.케이뱅크가 순이익 감소를 감내하고도 대손충당금을 갑작스럽게 늘린 이유는 연체율에 있다. 카카오뱅크와 케이뱅크의 연체율은 각각 0.58%, 0.82%로 수치만 놓고 보면 케이뱅크가 건전성 관리 압박을 더 받고 있다. 여신 규모가 작을수록 개별 차주들의 신용 변동에 따라 건전성 지표들이 영향을 크게 받는다. 카카오뱅크의 1분기 여신 잔액은 29조 3000억원인데 케이뱅크는 11조 9400억원으로 카카오뱅크가 두 배 이상 많다.일각에서는 카카오뱅크가 인터넷전문은행 도입 취지 중 하나인 중저신용자 포용 부문에서 한 발 빠져 있다는 지적도 나온다. 실제 카카오뱅크는 인터넷전문은행 업계 1위임에도 중저신용자 신용대출 비중 목표치는 30%를 제시해 케이뱅크(32%), 토스뱅크(44%) 등 다른 은행들보다 낮았다. 금융권 관계자는 “중저신용자 비중을 늘리면서 치솟는 연체율 관리를 하고 순이익까지 확대하기란 쉽지 않다”며 “낮은 비중을 제시하면 그만큼 경영이 수월한 셈”이라고 말했다. 카카오뱅크 관계자는 “1분기 중저신용자 대상 대출 공급 규모를 전년 동기 대비 20% 이상 늘렸다”며 “전체 인터넷전문은행 중저신용자 신용대출 규모를 놓고 보면 카카오뱅크가 절반을 차지하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2023.05.08.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>[단독]"우량차주 선별" 내세운 인뱅 중저신용자 대출연체율 '껑충'.. 케뱅 3.6%로 급등</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005008182?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>인터넷전문은행 중저신용자 대출 이대로 괜찮나기존 은행권과 차별화된 '신용평가' 내세운 인뱅연체율 카카오뱅크 1.5%, 토스 2.1%, 케이뱅크 3.6%신규연체율 매달 늘고, 씬파일러 대출요건 심사 제각각인뱅 '혁신적 신용평가' + '손실흡수능력 제고' 방침당국 "연체율 아직 위험한 수준 아니다"면서도중저신용자 대출 목표치 조정 가능성 시사 [파이낸셜뉴스] "기존 은행권과 차별화된 혁신적 신용평가를 통해 우량한 중저신용자에게 신용을 공급한다"라는 취지로 출발한 인터넷전문은행의 중저신용자 대출 연체율이 지난 1년간 두 배 이상 급등한 것으로 나타났다.   케이뱅크의 중저신용자 대출 연체율은 지난 2월 기준 3.597%로 전년동월(1.687%) 대비 두 배 이상 늘었고, 토스와 카카오뱅크는 각각 2.099%, 1.481%로 역시 1년새 두 배 이상 껑충 뛰었다.   인터넷전문은행은 신용평가모형 보완을 통해 '우량차주'를 선별하는 한편 대손충당금을 늘린다는 계획이다. 당국에선 당초 "중저신용자 대출 비중 축소는 안 된다"라는 입장이었지만 연체율 상승 추이에 따라 유연하게 조정할 가능성을 내비쳤다.     ■인뱅 중저신용자 대출 연체율 1년새 2배↑, 케이뱅크 3.6%  8일 국회 정무위원회 소속 최승재 국민의힘 의원실이 금융감독원에서 제출받은 자료에 따르면 인터넷전문은행 3사(카카오뱅크·토스·케이뱅크)의 중저신용자 대출 연체율은 지난 2월 기준 모두 전년동월대비 최소 두 배 이상 늘었다. 대출잔액이 3조 3640억원으로 가장 많은 카카오뱅크의 중저신용자 대출 연체율은 1.481%로 1년전 같은 달(0.612%)의 두 배 이상으로 급증했다. 지난해 10월 연체율이 1.058%로 1%대를 돌파한 후 네 달 사이 0.5%p 가까이 증가했다.    대출잔액이 3조 369억원인 토스는 지난 2월 기준 연체율이 2.099%로 1년전(0.059%)에 비해 세 배 이상으로 늘었다. 토스의 중저신용자 연체율은 지난해 6월 0.288%, 9월 0.607%, 12월 1.458%로 상승세가 가팔랐다.   인터넷전문은행 3사 중에 케이뱅크 연체율이 3.597%로 가장 높았다. 지난해 2월(1.687%)에서 6월(1.563%), 9월(2.081%)로 늘었고 12월에는 2.806%까지 증가한 후 올해에만 0.7%p 높아졌다.   이는 각사가 중저신용자 대출 목표치를 달성하려는 과정에서 신규연체율이 매달 늘었기 때문이다. 지난해 카카오뱅크와 케이뱅크의 전체 대출 대비 중저신용자 대출은 25.4%, 25.1%로 목표치(25.0%)를 초과 달성했다. 목표치가 42.0%였던 토스는 40.4%를 기록했다.   문제는 이 과정에서 갈수록 신규연체율이 늘고 있다는 점이다.   카카오뱅크의 신규연체율은 지난해 6월 0.124%, 9월 0.182%, 12월 0.235%로 상승했다. 올해 2월 신규연체율 또한 0.227%를 기록했다. 토스의 경우 신규연체율이 지난해 6월 0.137%, 12월에는 0.367%로 뛰었다. 올해 2월 신규연체율은 0.436%에 달한다. 케이뱅크는 신규연체율이 하반기 이후 0.3%대 올랐고 12월 0.563%로 매달 높아졌다. 올해 2월엔 신규연체율이 0.617%를 기록했다.   인터넷전문은행은 올해 중저신용자 대출 목표치를 30% 이상으로 높여잡아 '연체율 급등' 우려가 나온다. 카카오뱅크(30%), 토스뱅크(44%), 케이뱅크(32%)가 중저신용자대출 목표치를 맞추는 과정에서 연체율 상승은 불가피한 측면이 있어서다.     ■혁신적 대안신용평가 내세웠지만.. 씬파일러 대출 심사 '제각각', 우량차주 선별 실효성 '물음표'  인뱅 3사는 은행권과 차별화된 신용평가모형을 통해 '중저신용자 중 우량차주'를 선별한다는 방침이지만 실효성은 의문이다.   전체 연체율에 비해 중저신용자 연체율이 높은 데다, '대안적 기준'를 통해 심사한 금융거래이력부족자(thin-filer, 씬파일러)의 대출 연체율과 부도율이 모두 높았기 때문이다.   각 사의 대안적 기준 또한 제각각이고 일부 회사는 통신비납부이력과 유통정보를 통해서만 씬파일러 대출을 심사하고 있었다.   카카오뱅크는 △유통사 멤버십 회원 여부 등 유통 정보 △최근 도서 구매 실적 등 도서구매 정보 △최근 택시 이용 실적 등 택시이용정보 △휴대폰 소액결제 연체 이력 △자동이체 정보 등을 통해 금융거래이력이 없는 씬파일러(Thin Filer)의 대출 요건을 심사한다.   토스에서는 휴대폰 변경 이력과 체크카드 이용금액, 신용카드 이용잔액 한도소진율, 카드 소비 패턴과 내부실적 등을 들여다보고, 케이뱅크는 △KT 성실납부이력 △최근 쇼핑 구매실적 등 유통정보를 활용해 씬파일러 대출을 심사하고 있다.     이런 가운데 씬파일러 대출 차주수는 2월말 기준 카카오뱅크(9만 7800명), 토스(1만 3300명), 케이뱅크(8900명)으로 늘었다. 대출잔액은 카카오뱅크가 9806억원, 토스에서 321억원 케이뱅크가 1061억원에 달한다. 연체율은 카카오뱅크가 1.54%, 토스가 1.64%, 케이뱅크가 3.62%로 나타났다. 중저신용자대출 전체 연체율을 소폭 웃도는 수치다.     ■인뱅 대손준비금 비중은 제자리 걸음, 당국 '중저신용자 대출 비중 조정' 검토하나  이에 인터넷전문은행들은 손실흡수능력을 키우는 한편, 대안신용평가모델을 보완해 건전성 관리에 나선다는 계획이다.   인터넷전문은행 관계자는 "중저신용자대출 공급 규모에 비해 안정적인 수준으로 잘 관리하고 있다"면서 "대안신용평가모형을 활용해 우량 차주를 선별하고 보수적인 충당금 정책, 대출 포트폴리오 내 담보대출 비중 확대를 통해 건전성을 관리할 예정"이라고 밝혔다.   실제 카카오뱅크는 지난해말 기준 2618억원, 케이뱅크는 1894억원, 토스에선 1863억원 대손충당금을 쌓았다. 대손준비금의 경우에도 각각 1322억원, 422억원, 57억원으로 늘렸지만 총자산이 크게 늘면서 전체 자본 대비 대손준비금 비율은 카카오뱅크와 케이뱅크 2.3%, 토스 0.6%로 높지 않다. 카카오뱅크의 경우 대손준비금 비율은 2021년말 3.5%에서 2.3%로 감소했다.   이런 가운데 당국에서도 연체율 관리를 주문하는 동시에 중저신용자 대출 비중을 일부 조정할 가능성을 시사했다.   당국 고위 관계자는 통화에서 "인터넷전문은행 중저신용자 대출 연체율이 각 사가 감내 불가능한 수준은 아니고, 자체적으로 관리를 하고 있다"라며 "아직 결정은 안 됐지만 연체율이 너무 많이 올라가면 당국에서 중저신용자 대출 비중 목표치를 조금 유연하게 조정할 가능성도 있다"고 밝혔다.   아울러 당국은 각사가 자체 신용평가모델을 통해 우량한 중저신용자 차주를 선별하고 신용을 관리하도록 유도한다는 방침이다. #금융감독원 #인터넷전문은행 #카카오뱅크 #토스 #케이뱅크 #인터넷뱅크 #중저신용자대출 #최승재의원 #대출연체율</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2023.05.14.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>10.29 참사로 어려운 이태원 상권, 소망볼로 희망 띄운다</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004886946?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>한 시민이 12일 서울 용산구 이태원역 인근에 2023 동행축제 부대행사로 설치된 소망볼에 응원문구를 적고 있다./사진=뉴시스 제공 14일 저녁 이태원역 거리에 불을 밝힌 대형풍선 10개가 하늘에 띄워졌다.이는 2023 동행축제의 부대행사로 준비된 '헤이 이태원 소망볼' 행사다. 지난 12일부터 국민들의 응원의 메시지가 담긴 소망볼을 위로 올려 이태원에 전달하는 퍼포먼스이다.일요일 낮에는 소망볼 행사와 연계한 영수증 이벤트도 진행했다. 이태원 상점을 이용하고 세계음식거리 플리마켓에 들른 사람들은 간식거리(청정원 고구마츄·밤츄)를 받았고, 영수증 추첨에 응모한 사람 중 40명은 화장품 세트(헤라), 시계 또는 주얼리(제이에스티나) 등 경품에 당첨되는 행운을 누리기도 했다.이번 행사는 여러 기업들의 참여로 만들어졌다. 우선 '우아한형제들, 엘지생활건강, 카카오, KT, 쿠팡풀필먼트서비스, 다날 등'은 소망볼 행사에 힘을 보탰다. 또 '대상, 아모레퍼시픽, 엘지생활건강, 공영홈쇼핑'은 이태원 영수증 이벤트를 위한 경품을 지원했다. 이외에도 '올리브영-할인쿠폰, 토스-만보기, 배달의민족-포장 할인쿠폰'으로 이태원 상점의 홍보와 판매 촉진에 동행했다. 안준혁 이태원특구연합회 부회장은 "중기부가 헤이 이태원 프로젝트에 참여하면서 공공기관, 전통시장은 물론 대기업들의 참여가 이어지고 있다"며 "이태원 활력을 위해 발 벗고 나서준 이영 중기부 장관과 기업들에게 감사하다"는 마음을 밝혔다. 특히 이날 행사에 직접 참석한 이 장관은 "오늘 영수증 응모함에 모여진 영수증, 소망볼에 적힌 응원 문구, 이 자리에 참여한 기업들을 보니 이태원에 온 국민의 힘이 모여지는 것이 느껴진다"며 "이태원이 새롭게 도약할 수 있도록 조금 더 많은 관심과 응원을 모아주길 부탁한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2023.05.09.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>[단신]KB운용 머니마켓 액티브 ETF 출시 外</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003496163?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>■ KB운용 머니마켓 액티브 ETF 출시 KB자산운용은 머니마켓펀드(MMF) 시장을 겨냥한 ‘KBSTAR 머니마켓 액티브 ETF’를 출시한다고 8일 밝혔다. MMF는 단기 금융상품에 투자하는 펀드로 수시로 돈을 넣고 뺄 수 있는 현금성 자산이다. KB자산운용은 글로벌 은행 위기 등의 여파로 한국 공모 MMF 시장 순자산이 연초 이후 38조 원 증가하고 지난달 1일 ‘법인형 MMF 시가평가제’가 도입되면서 MMF에 대한 관심이 높아지고 있다고 평가했다. 이번 ETF(상장지수펀드)는 법인형 시가평가 MMF에 준하는 포트폴리오에 개인, 법인 모두 투자할 수 있는 채권형 ETF로 구현됐다. ■ 하나은행, 도소매업 고객에 이자 캐시백 하나은행은 기업대출을 받은 전국 도·소매업자에게 대출 잔액의 1%를 돌려주는 ‘이자 캐시백 프로그램’을 실시한다고 8일 밝혔다. 매월 대출이자를 정상 납부하고 있는 신용점수 779점 이하(NICE신용평점) 도·소매업자가 대상이다. 시행일 기준 도·소매업을 영위 중이어야 한다. 따로 신청하지 않아도 대상에 해당하면 최대 100만 원 한도 내에서 기업대출 잔액의 1%를 돌려받게 된다. 본인 명의 입출금 계좌로 지급되며, 1년간 매월 나눠 받게 된다. ■ 토스뱅크 소상공인에 ‘노란우산공제’ 가입 서비스 토스뱅크는 소기업·소상공인 사업주를 대상으로 ‘노란우산공제’ 가입 서비스를 인터넷은행 최초로 제공한다고 8일 밝혔다. 납입 가능 금액은 월 5만 원부터 100만 원까지이고, 3개월 분기 납입의 경우 15만 원부터 300만 원까지다. 출시를 맞아 신규 가입자 전원에게 현금 3만 원을 제공하는 이벤트도 마련했다. 이벤트는 6월 30일까지 진행되고, 혜택은 가입 후 한 달 뒤 토스뱅크 계좌로 지급된다. 노란우산공제는 소기업·소상공인이 폐업이나 노령 등으로 생계를 유지하기 어려운 상황에서 생활 안정과 사업 재기의 기회를 주기 위해 만들어진 공제 제도다. ■ SC제일은행 모바일적금에 특별금리 제공 SC제일은행이 현대카드와 손잡고 1년 만기 모바일 우대적금에 월 20만 원 이하로 가입하는 고객에게 특별금리 7.0%포인트를 제공한다고 8일 밝혔다. 이벤트 대상 고객이 ‘SC제일은행-현대카드 M BOOST’ 카드를 발급받아 6개월 연속 매월 30만 원 이상 카드를 사용하면 만기 시 10.75%의 금리를 받을 수 있다. 이와는 별도로 카드 사용 금액에 대해 업종별 최대 5%의 카드 포인트 적립 혜택을 받을 수 있다. 이벤트 기간은 31일까지며, 1인 1계좌에 한해 적용된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2023.05.02.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>토스뱅크 ‘선이자 정기예금’ 판매 1조원 돌파</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003220985?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>토스뱅크 제공토스뱅크의 ‘먼저 이자 받는 정기예금’ 판매액이 출시 약 한 달여 만에 1조원을 돌파했다.토스뱅크는 이 상품을 지난 3월24일 출시한 후 하루평균 약 303억원이 해당 상품에 유입되고 있다고 2일 밝혔다.이 상품은 고객이 가입하는 즉시 이자를 미리 지급하는 예금이다. 고객 데이터를 분석한 결과, 가입 기간을 3개월로 정한 고객이 전체의 약 67%로 가장 많았고, 약 33%의 고객은 6개월 만기를 선택했다.토스뱅크는 오는 17일부터 이 상품에 대해 ‘1인 1계좌’ 제한을 없앨 예정이다. 토스뱅크는 “고객은 목돈 예치의 목적에 따라 원하는 계좌 수만큼 정기예금을 개설할 수 있게 된다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2023.05.13.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>한국 진보, '친기업' 가능할까 [최병천의 아웃사이트]</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000739072?sid=103</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>편집자주자기주장만 펼치는 시대 ‘내부를 들여다보는 관찰력’(인사이트)이 아닌 ‘기존 틀을 깨는 새로운 관점’(아웃사이트)이 필요합니다. 최병천 신성장경제연구소장이 격주로 여러 현안에 대해 보수와 진보의 고정관념을 넘은 새로운 관점의 글쓰기에 나섭니다.20세기는 ‘진보의 시대’였다. 20세기 진보의 역사에서 가장 중요한 사건은 두 가지였다. 첫째, 1917년 러시아 혁명이다. 세계 최초로 사회주의 국가가 만들어졌다. 둘째, 1991년 소련의 붕괴다. 세계 최초의 사회주의 국가가 몰락했다.20세기 사회주의는 두 가지가 존재했다. 첫째, 소련식 공산주의였다. 둘째, 유럽식 사회민주주의(사민주의)였다. 경제 체제에 국한해서 볼 때, 소련식 공산주의는 유럽식 사민주의와 다섯 가지가 달랐다.소련식 공산주의는 ①상품-시장의 부정 ②사적 소유 부정 ③이윤-자본가 부정 ④국유화 ⑤전면적 계획경제를 추구했다. 반면 유럽식 사민주의는 ①상품-시장의 긍정 ②사적 소유 인정 ③이윤-자본가 인정 ④혼합경제 ⑤전면적 계획경제를 반대했다. 유럽식 사민주의가 만들어낸 발명품이 혼합경제와 결합된 복지국가였다.1980년 5월 19일 광주 금남로에서 벌어진 시위 도중 한 시위대가 계엄군에 의해 체포되고 있다. 한국일보 자료사진20세기  ‘반기업 진보주의’ vs 21세기 ‘친기업 진보주의’한국 진보세력은 ‘1980년, 광주’를 계기로 사회주의를 수용하게 된다. 학살자 전두환을 몰아내기 위한 방법론의 일환이었다. 1980년대 한국에 수입된 사회주의는 소련식 공산주의였다. 1980~1990년대 학생운동을 열심히 했던 사람들일수록 시장, 사적 소유, 이윤-자본가에 대해 비판적인 스터디 경험을 갖고 있다. 그러나 소련식 사회주의는 체제 내부의 비효율에 의해 스스로 붕괴했다.20세기 진보는 ‘반(反)기업 진보주의’였다. 친(親)노동을 하기 위해서는 반기업을 해야 한다고 생각했다. 그것이 힘없는 민중과 함께하는 것이라고 생각했다. 소련식 공산주의 체제에서 파생된 발상이다. 개별 기업을 국유화하고 전면적 계획경제를 실시했던 이유이기도 하다. 1980년대 한국 진보에 수입된 사회주의론도 대동소이했다.21세기 진보는 ‘친기업 진보주의’를 표방할 필요가 있다. 자본과 노동은 본질적으로 대립적이라는 발상은 소련식 공산주의를 추구했던 사고에서 유래한다. 친기업이 곧 반노동인 것은 아니다. 국유화와 전면적 계획경제를 다시 추구할 것이 아니라면 경제를 움직이는 가장 중요한 주체는 ‘기업’이다. 투자와 고용의 주체는 기업이다. 노동의 최대 관심사는 고용과 소득증대다. 둘은 서로 연동되어 있다. 친기업과 친노동이 양립할 수 있는 이유다.스웨덴식 복지국가는 사회주의자들이 만든 사회민주당이 설계했다. 이들은 법인세는 낮게, 소득세와 소비세는 높게 만들었다. 기업의 ‘투자촉진’이 노동의 고용증대 및 소득증대의 전제조건이라고 봤기 때문이다. 노동자 계급의 정당인 스웨덴 사민당이 친기업 정책을 폈던 이유다.이재명 더불어민주당 대표가 지난 2월 국회 본청 앞 계단에서 열린 '윤석열 정권 검사독재 규탄대회'에서 발언하고 있다. 오대근 기자‘친기업’ 수용, 진보는 보수와 무엇이 다른가? 진보가 ‘친기업’을 수용한다면 진보는 보수와 무엇이 다른가? ‘좋은 불평등’을 발간한 이후 가장 많이 들었던 질문이기도 하다.대체 진보란 무엇인가? 우리는 ‘진보’ 개념 그 자체에 대해 되물을 필요가 있다. 자본주의 이후 진보 개념은 크게 3가지로 구분할 수 있다. ①좌파(Left) ②미래(Future) ③약자와의 연대(solidarity with the weak)다. 하나씩 살펴보자.첫째, ‘좌파’다. 좌파 개념은 프랑스 혁명에서 유래한다. 프랑스 혁명 이후 의장석을 기준으로 왼쪽에는 비특권계급인 제3신분인 공화파가 앉았다. 이후에는 급진파인 자코뱅당이 앉았다. 오른쪽에는 온건파인 지롱드당이 앉았다. 이때 좌파는 급진주의를 의미한다. 좌파=급진주의=진보의 등식이 성립한다.좌파 개념에 의하면, 최저임금 1만 원보다 최저임금 2만 원이 더 진보적이다. 2만 원보다 3만 원이 더 진보적이다. 그러나 최저임금의 급진적 인상은 반드시 고용 분야에서 충격이 발생한다. 문재인 정부는 2018년 최저임금을 16.4% 인상했다. 2019년에는 10.9% 인상했다. 경제성장률이 2~3%인 나라에서 최저임금을 11~16% 올리면 반드시 부작용이 발생한다. 실제로 2018년 최저임금의 급진적 인상 이후 취업자 증가 규모는 역대 평균에 비해 4분의 1 수준으로 쪼그라들었다. 경제정책은 서로 연결되어 있다. 임금ㆍ고용은 생산성ㆍ투자와 연결되어 있다. ‘경제학적 원리’를 무시한 급진주의 정책이 반드시 실패하는 이유다.둘째, 미래다. ‘미래’를 진보 개념의 본질로 주목하는 것은 마르크스주의적 전통이다. 마르크스주의는 ‘방법론 마르크스’와 ‘결론 마르크스’로 구분할 수 있다. 방법론은 말 그대로 사회과학 방법론에 해당한다. 방법론의 핵심은 ‘정치경제학적’ 사고방식이다. 이는 사회주의 붕괴 이후 현재도 유효성을 갖는다.마르크스 자신은 정작 ‘자본주의’라는 표현을 쓴 적이 거의 없다. 마르크스 자신은 ‘자본주의적 생산양식’이라는 개념을 주로 사용했다.마르크스(1818~1883)가 살았던 유럽은 전환기였다. 봉건제적 생산양식과 자본제적 생산양식이 뒤엉켜 혼재했다. 자본주의적 생산양식이라는 표현은 경제적 생산방식을 ‘인수분해 하는’ 발상이다. 동시대에도 상이한 생산방식이 공존하는 게 일반적이다. 수공업적 생산과 대공업적 생산이 공존할 수 있는 것과 같다.마르크스에게 진보는 ‘정치경제학적인 미래’를 의미했다. 다르게 표현하면 ‘미래적, 대안적 생산방식’이 진보의 핵심 개념이 된다.2023년 현재 ‘진보적 생산방식’은 어떤 사람들일까? 기술기반 스타트업과 혁신형 기업에 종사하는 사람들이다. 미국 경제의 경우 애플의 스티브 잡스, 마이크로소프트의 빌 게이츠, 테슬라의 일론 머스크, 아마존의 제프 베이조스로 상징된다. 그 분야에서 일하는 지식 노동자들이다.한국경제의 경우 ‘네카라쿠배당토’가 해당한다. 네이버, 카카오, 라인, 쿠팡, 배달의민족, 당근, 토스의 약자다. 기술기반 혁신기업을 상징하는 표현이다.문재인 대통령이 지난 2021년 청와대 상춘재에서 4대 그룹 대표와 오찬을 겸한 간담회에 앞서 환담을 나누고 있다. 왼쪽부터 구광모 LG그룹 회장, 최태원 대한상공회의소 회장 겸 SK그룹 회장, 문 대통령, 정의선 현대자동차그룹 회장, 김기남 삼성전자 부회장. 청와대 제공한국 진보, ‘좌파’를 버리고 ‘미래’로 가야 한다마르크스의 표현 방식을 빌리면 한국 자본주의는 ‘산업자본주의적 생산방식’과 ‘스타트업적 생산방식’으로 구분할 수 있다. 후자가 진보적 생산방식의 핵심이다.‘급진주의-좌파’ 중심의 진보 개념은 경제학적 원리를 무시하는 경향이 강하다. 부작용으로 귀결되는 경우가 많다. 반면 ‘정치경제학적 미래’를 의미하는 진보 개념은 정반대다. 미래적-대안적 생산양식인지가 중요해진다.셋째, ‘약자와의 연대’다. 인간 본성인 측은지심(惻隱之心ㆍ남을 가엽게 여기는 마음)에서 유래한다. 공동체의 안정, 통합, 지속가능한 번영을 위해서도 중요하다. 한국에서 약자는 누구인가? 먼저 장애인, 아동, 노인, 임산부가 떠오른다. 저임금 노동자도 있다.정리해 보자. 자본주의 이후 작동했던 진보 개념에는 3종류가 있다. ①좌파 ②미래 ③약자와의 연대다. 좌파와 미래 개념을 중심으로 4분면 개념도를 만들면 표와 같다.좌파의 미래 개념도. 김문중 기자핵심 쟁점은 ‘급진주의’를 의미하는 좌파 개념과 ‘정치경제학적 미래’ 개념 중에서 무엇이 더 중요한지다. 다시 말해 과거지향+좌파와 미래지향+우파가 있다면 무엇이 더 진보적인가? 아마도 많은 사람은 좌파ㆍ급진주의보다 미래를 중시할 것이다. 바로 그렇다. 중요한 것은 좌파ㆍ급진주의가 아니다. ‘미래’로 나아가는 것이다.민주주의의 핵심 원리는 다수지배다. 민주주의는 51%다. 한국 자본주의 현실과 연동한다면 혁신경제가 진보다. 혁신기업의 기업가와 혁신기업의 지식노동자가 가장 진보적인 계층이다. 진보정치는 좌파를 버리고 미래로 나아가야 한다. 진보 경제학은 혁신경제의 편이 되어야 한다.정리해 보자. 민주주의 사회에서 진보적 가치를 추구한다는 것은 무엇인가? 미래가 주도하되 약자와 연대해서 51% 정치연합을 만들어내는 것이다. 진보의 경제학과 진보의 정치학이 만나는 접점이기도 하다.최병천 '좋은 불평등' 저자신성장경제연구소 소장최병천 신성장경제연구소장</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2023.05.09.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>'4년 만에 MTS 리뉴얼' 하이증권, 리테일 힘 싣는다</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000016146?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>'iM하이'로 단순·이원화…IB 편중 수익구조 탈피 관건모회사 DGB금융지주도 "증권, MTS로 수익 키울 것"하이투자증권이 4년 만에 모바일트레이딩시스템(MTS)을 리뉴얼 하는 등 리테일 강화에 잰걸음이다. 금융지주 계열사임에도 기업금융(IB)에 쏠린 포트폴리오를 다각화하기 위한 움직임으로 보인다.9일 금융투자업계에 따르면 하이투자증권은 이달 2일 새 MTS인 'iM하이'를 론칭했다. 기존 MTS '힘(Hi-M)'을 2019년 출시한 지 약 4년 만이다. /그래픽=비즈워치가장 공을 들인 건 사용자 환경·경험(UI·UX) 개선이다. 이를 위해 MTS를 처음 켰을 때 나오는 홈화면을 실시간 시장 상황을 보여주는 '오늘은'과 투자자 자산 현황을 한번에 조회할 수 있는 '자산은'으로 단순·이원화했다. 그밖에 MZ세대(밀레니얼+Z세대)의 구미에 맞게 '퀵메뉴'나 '다크모드'도 도입했다. MTS가 증권사 리테일 사업의 핵심이라는 점을 고려하면 이번 리뉴얼은 하이투자증권으로선 큰 변화다. 코로나19 팬데믹 이후 동학개미 열풍에 MZ세대의 증시 유입이 급증하면서 MTS는 주식투자의 필수 플랫폼이 됐기 때문이다.더욱이 토스증권이나 카카오페이증권 등 간편하고 쉬운 MTS를 내건 증권사들이 득세하면서 기존 증권사들에게도 MTS는 결코 소홀히 할 수 없는 부분이 됐다. 하이투자증권은 특히 DGB금융지주 피인수 만 5년차임에도 IB와 상품운용 위주의 사업 구조를 벗어나지 못했다는 점에서 MTS를 필두로 한 리테일 수익 확대가 절실한 상황이다.이 증권사는 지난해 2886억원의 순영업수익을 거뒀지만 이 중 87%가량이 부동산 프로젝트파이낸싱(PF)을 비롯한 IB에서 나왔다. 자산관리(WM)나 위탁매매(브로커리지) 등 전통 리테일 비중은 21%대에 그쳤다. 올해 1분기 사정도 크게 다르지 않다. 상품운용에서 592억원의 수익을 올리며 전체의 약 74%를 벌어들였고, IB가 330억원으로 41%가량의 비중을 차지해 그다음으로 많았다. 브로커리지는 131억원(16.4%), WM은 35억원(4.4%)에 불과했다.역시 리테일 전체로는 그 비중이 20%대 초반에 그친다. 금융지주 피인수 이후 DGB대구은행과의 복합점포 운영 등 리테일 시너지 창출에 시장의 기대가 컸던 것을 감안하면 다소 아쉬운 수치다. 하이투자증권은 앞서 지난해 리테일 영업 효율성을 높이기 위한 조직개편도 꾀했다. WM과 디지털 영업의 융합 성장을 위해 기존 WM총괄 부서 명칭을 리테일총괄로 바꾸고, 일선 영업점과 비대면 영업을 통합 지원하고 있다. 이번 MTS 리뉴얼 역시 작년 개발업체 선정부터 심혈을 기울여 진행한 결과물이다. 이외에도 리테일 서비스를 강화하기 위해 동시다발적으로 사업을 추진 중이라는 게 회사 측의 설명이다. 모회사인 DGB금융지주 역시 지난달 27일 1분기 실적 발표에서 하이투자증권의 비대면 채널인 MTS 경쟁력을 강화해 디지털 영업수익을 키우겠다는 목표를 밝힌 바 있다. 하이투자증권 관계자는 "이번에 차세대 MTS를 오픈했고, 아직 공개하기는 어렵지만 리테일 서비스 강화를 위해 계속 준비하고 있는 것들이 있다"고 말했다. 하이투자증권 새 MTS 'iM하이' 화면 / 자료=하이투자증권</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2023.05.10.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>美서 AI가 주문 받는 '드라이브 스루' 나온다</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001100630?sid=104</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>미국 웬디스 햄버거 매장의 드라이브 스루에서 직원 대신 인공지능(AI) 챗봇이 주문을 받게될 전망이다.웬디스는 구글 클라우드의 AI 소프트웨어 지원을 받아 AI 챗봇이 드라이브 스루 고객의 주문을 받는 서비스를 시범 실시할 계획이라고 블룸버그통신과 월스트리트저널(WSJ)이 9일(현지시간) 보도했다.이 시범 서비스는 다음 달 오하이오주 콜럼버스에 있는 직영 매장에서 실시된다고 웬디스 측이 밝혔다.이 시스템에 따르면 여성 목소리를 쓰는 챗봇이 자연스럽게 응대하고, 고객이 자주 묻는 말에 답을 한다. 또 주문받은 품목이 메뉴상의 것과 정확하게 표현되지 않더라도 이해할 수 있다. 예컨대 '라지 밀크쉐이크'(large milkshake)라는 고객의 주문은 매장 메뉴의 '라지 프로스티'(large Frosty)에 해당하는 식이다.AI가 스크린 위 주문을 확인하면 고객은 이를 볼 수 있고, 주문표는 주방으로 넘어간다. 매장 직원이 주문 장면을 지켜보면서 AI가 모든 주문을 제대로 수행하는지 확인하고, 또한 고객이 직원을 찾을 경우 대응하게 된다.웬디스 측은 이번 서비스를 통해 의사소통 오류나 실수를 줄여 주문 절차를 효율적으로 만들고 드라이브 스루 쪽의 긴 대기 줄을 예방하는 효과를 기대하고 있다.웬디스의 토스 페네거 최고경영자(CEO)는 AI 챗봇 서비스와 관련해 "고객으로서는 진정으로 차별화하고 신속하며 마찰이 없는 경험을 할 것"이라고 말했다.(사진=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2023.05.01.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>티몬, ‘몬스터메가세일’ 실시…7일간 특가 혜택 총동원</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005476398?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>어린이날·어버이날 등 맞춤형 선물 중심 파격 특가최대 10% 할인 쿠폰·카카오페이 최대 8% 즉시할인 지원베스트 상품 특가 모음전 ‘베스트 팍팍세일’도 실시[이데일리 함지현 기자] 티몬은 오는 7일까지 월간 최대 규모 프로모션 ‘몬스터메가세일’을 펼친다고 1일 밝혔다. 어린이날과 어버이날 등 맞춤형 선물을 중심으로 연휴 쇼핑을 돕는 파격 특가 상품과 함께 최대 10% 할인 쇼핑쿠폰, 카카오페이 최대 8% 즉시할인을 지원한다.(사진=티몬)티몬에 따르면 혜택의 일환으로 ‘몬스터딜’을 펼친다. 담당 MD(상품기획자)가 매일 직접 큐레이션해 선물과 나들이 상품 등을 초저가 판매한다. 1일 오션월드 미들·하이 종일권(1만 7900원부터), 스파오 SS시즌베스트아이템(3230원부터)을 선보이고 2일에는 정관장 홍삼정 에브리타임 밸런스(2만 9900원), 키커골드(1만 4900원), 3박5일 괌PIC 자유여행(54만 9000원부터) 등을 내놓는다. 카테고리별 단독 특가상품을 엄선한 ‘몬스터데이’도 있다. 첫날은 ‘식품데이’다. 국내산 자포니카 민물장어 700g(2만 5500원), 월드그린 국내산 찹쌀 (3만 5400원), 맥심 모카골드 커피믹스 840T(8만 3290원), 맘스터치 치킨 가라아게 500g(3990원) 등이 최저가 수준이다.2일은 리빙데이로 모던하우스 어린이날 선물 모음전(2210원부터), 매직캔 히포 휴지통(2만 9750원부터), 어버이날 용돈박스(4330원, 무료배송) 등이 특가다. 또, 2일 오후 9시 티몬플레이 라이브 방송으로 웨이브 연간 이용권을 최대 33% 할인(12개월, 8만7500원)해 선보인다. 구매 인증 경품으로 에어팟 2세대 등을 추첨 증정한다.매일 단 하나의 브랜드를 최우선으로 선보이는 ‘올인데이’도 준비했다. 1일은 서울우유와 함께 유제품과 디저트류 등을 최대 45% 할인가로 선보인다. 2일은 헬스케어 편으로 정관장, 종근당건강 등 인기 건강 브랜드 제품을 온라인 최저가 수준으로 판매한다.쇼핑에 재미를 더해줄 행사도 준비했다. 티몬의 대표 캐릭터 ‘티모니’의 그림퀴즈를 맞추면 20% 할인쿠폰을, 매일 최대 1만원 적립금을 받을 수 있는 ‘행운룰렛’, 애플리케이션 전용 ‘도전 100배 적립금’ 등 다양한 이벤트를 실시한다.또 다른 메가급 행사 ‘베스트 팍팍세일’도 시작한다. 티몬의 베스트 판매 상품을 한눈에 훑어보고 역대 최대 할인가로 살 수 있다. 최대 28% 즉시할인, 최대 10% 추가 할인쿠폰, 최대 5% 토스페이머니 결제할인 콤보혜택도 받을 수 있다.전구경 티몬 마케팅본부장은 “소중한 이들을 위한 소비가 많아지는 가정의 달을 맞아 보다 기분 좋게 쇼핑할 수 있도록 역대급 혜택의 메가세일을 준비했다”며 “오늘 식품데이를 시작으로 카테고리별 몬스터데이, 인기 브랜드들의 올인데이 등 티몬 곳곳에서 다채로운 축제의 장이 열리니 티몬과 함께 부담 없는 5월을 맞이하길 바란다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2023.05.02.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>"1억 넣으면 바로 88만원 입금" 토스뱅크, '먼저 이자 받는 정기예금' 1조원 돌파</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000917554?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>사진=토스뱅크 토스뱅크는 '먼저 이자 받는 정기예금'이 출시 약 33일 만에 판매액 1조원을 돌파했다고 2일 밝혔다.앞서 지난 3월24일 출시 이후 나흘 만에 1000억원, 15일 만에 5000억원을 돌파해 하루 평균 약 303억씩 유입되는 등 빠른 성장세를 보이고 있다.'먼저 이자 받는 정기예금'은 토스뱅크가 처음으로 선보인 정기예금 상품이다. 인터넷전문은행 최초로 가입과 동시에 이자를 먼저 제공한다.금리는 연 3.5%(세전, 만기일에 세금 차감)로 가입한도는 최소 100만원에서 최대 10억원 까지다. 가입 기간도 3개월 또는 6개월로 짧게 유지해 고객 편의에 따라 운용할 수 있다는 장점이 있다.전체 가입 고객 데이터를 분석한 결과 가입 기간을 3개월로 선택한 고객이 전체 고객의 약 67%에 달하며 나머지 약 33%의 고객은 6개월 기간을 선택했다.연령대 분포를 보면 40대(30.5%)가 가장 높았으며 50대 이상(26.8%), 30대(26.1%), 20대(15.6%) 10대(1.0%) 순으로 나타났다.'먼저 이자 받는 정기예금'은 고객들이 가입하는 동시에 즉시 이자를 받을 수 있다. 예를 들어 1억원을 3개월간(92일 기준) 맡기는 고객은 세전 금액인 약 88만원을 즉시 받는다.먼저 이자를 받은 고객은 이를 즉시 재투자에 활용할 수 있으며 만기를 채운 고객은 '자동 재가입' 서비스를 통해 최대 3회까지 간편하게 재가입할 수 있다.중도해지도 원할 때 언제든 가능하다. 다만 먼저 받은 이자에서 중도해지 이자(가입기간에 비례)를 제외한 금액이 원금에서 차감된다.토스뱅크 관계자는 "그동안 고객들이 정기예금에 가입해도 만기일까지 이자금액을 투명하게 알지 못했던 반면 '먼저 받는 정기예금'은 고객들의 보다 투명하고 직관적으로 이자 혜택을 누릴 수 있도록 했다"며 "앞으로도 고객이 즉각 체감할 수 있는 혜택과 금융 서비스를 제공할 수 있도록 지속 노력할 것"이라고 말했다.한편 '먼저 이자 받는 정기예금'은 오는 17일부터 자금 운용의 유연성을 높여 달라는 고객의 니즈에 따라 1인 1계좌 가입제한을 없앨 예정이다. 이에 고객은 목돈 예치의 목적에 따라 계좌 개설 제한 없이 원하는 수만큼 정기예금에 가입할 수 있게 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2023.05.11.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>"배송비 아까운 소비자 모여라"…'반값택배' 경쟁 나선 편의점 [오정민의 유통한입]</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004843190?sid=103</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>고물가 시대 '배송비 절약' 소비자 잡기 나선 편의점 점포 간 택배 '할인쿠폰 경쟁'CU는 멤버십 앱 포켓CU에서 최저 800원에 택배를 보낼 수 있는 알뜰 택배 초특가 프로모션을 오는 15일부터 이달 말까지 진행한다고 11일 밝혔다. 사진=BGF리테일편의점 업계의 초저가 경쟁이 자체 물류망을 활용한 택배 서비스로 번졌다. GS25에 이어 CU가 가정의 달인 5월 자체 애플리케이션(앱)에서 할인쿠폰을 뿌리는 할인 프로모션에 돌입했다. 고물가 상황이 이어지면서 배송 및 배달비를 아끼려는 소비자들이 늘어나는 분위기를 포착하고 경쟁에 돌입한 모습이다. "앱에서 쿠폰 받으세요"…CU·GS25 점포간 택배 '할인전'CU는 멤버십 앱 포켓CU에서 최저 800원에 택배를 보낼 수 있는 알뜰 택배 초특가 프로모션을 오는 15일부터 이달 말까지 진행한다고 11일 밝혔다. 사진=BGF리테일BGF리테일은 편의점 CU가 오는 15일부터 이달 말까지 멤버십 앱에서 '알뜰택배 초특가 프로모션'을 진행한다고 11일 밝혔다. CU는 멤버십 앱에서 반값택배 1000원 할인 쿠폰을 매일 1장씩 발급한다. 쿠폰을 적용하면 CU 점포 간 택배 서비스 '알뜰택배'를 최대 55% 할인받을 수 있고, 500g 이하 소형 택배는 800원에 이용할 수 있다.'알뜰택배'는 CU 편의점 점포에서 물건을 보내고 찾아가야 하지만 일반 택배보다 가격이 최대 40% 저렴해 이용자가 증가하는 추세다. 전체 택배 이용 건수 중 알뜰 택배 비중은 서비스 시행 첫 해인 2020년 1.8%에서 올해(1~4월) 21.3%까지 상승했다. 특히 중고 거래 활성화와 온라인 쇼핑 증가로 지난달 이용 건수는 서비스 첫해인 2020년보다 27.9배나 증가했다고 BGF리테일은 전했다. 박희진 BGF리테일 서비스플랫폼팀장은 “중고 거래 활성화 등으로 인한 소형 택배 수요가 증가하면서 편의점 점포 간 택배 관련 시장이 매년 급격한 성장세를 기록하고 있다”고 말했다.CU는 또한 지도 앱 '카카오맵'에서 일반 택배 예약 서비스를 출시했다. 이달에는 네이버 스튜던트 멤버십 회원과 토스 앱 이용객에게도 반값택배 할인 쿠폰을 발급한다.GS25는 5월 한 달 간 '우리동네GS' 앱을 통해 반값 택배를 예약하면 5kg 이하 물품까지 1800원 균일가로 적용되는 프로모션을 진행한다. 사진=GS리테일한발 앞서 GS리테일이 운영하는 편의점 GS25도 5월 한 달간 '반값택배' 할인 행사에 돌입했다. GS리테일의 앱 '우리동네GS' 앱에서 '반값택배'를 예약하면 5kg 이하까지 1800원 균일가로 이용할 수 있다. 최대 31% 할인하는 셈이다.GS리테일은 "1인 가구 특성상 집에 상주하지 않고 편의점에 방문해 소용량의 택배를 찾아가는 것이 일상이 된 점과 중고 거래 활성화 등이 반값택배에 큰 강점"이라고 말했다. 배달비 아끼려는 소비자…'픽업' 늘었다GS리테일은 지난달 편의점 GS25의 픽업 서비스 매출이 반년 전보다 245% 증가했다고 10일 밝혔다. 사진=GS리테일고물가 상황이 이어지면서 배달비를 아끼려는 소비자들이 늘어나는 분위기다. 최근 배달 음식 수요가 주춤한 가운데 편의점 등에서도 배달보다는 픽업 서비스를 이용하는 고객이 증가한 것으로 나타났다. 픽업 서비스는 원하는 시간에 포장된 제품을 찾아갈 수 있어 배달비를 아낄 수 있는 서비스다. GS리테일에 따르면 지난달 이 회사 앱 '우리동네GS'에서 먼저 주문한 후 편의점 GS25와 슈퍼마켓 GS더프레시 점포에서 찾아가는 고객이 반년 전보다 급증했다.4월 GS25의 픽업 서비스 매출은 반년 전보다 245% 증가했다. 해당 기간 GS25에서 픽업 서비스를 처음 이용한 신규 고객은 168% 늘어난 것으로 집계됐다. GS더프레시에서도 같은 기간 픽업 서비스 매출이 218% 뛰었다. 신규 고객은 144% 증가했다.GS리테일은 픽업 서비스 이용 시 할인 쿠폰을 제공한 점, 묶음 할인, 리뷰이벤트 혜택 등 프로모션도 고객 증가의 요인으로 풀이했다.김경진 GS리테일 퀵커머스사업부문장(상무)은 “배달비를 아끼고 할인쿠폰을 적용하는 등 고물가 속에서 현명한 소비를 실천하려는 고객들을 중심으로 픽업 서비스가 큰 인기를 끌고 있다”고 말했다.신종 코로나바이러스 감염증(코로나19) 사태를 거치며 소비자들은 배달과 배송비에 아낌 없이 지갑을 열었으나 고물가와 엔데믹(전염병의 풍토병화)과 함께 배송에 들어가는 비용을 줄이는 분위기다. 고물가 속 기업들의 마케팅비 축소로 한층 커진 배달료 부담, 사회적 거리두기 조치 해제 등을 배달 수요 감소 요인으로 꼽는다. 배달앱 기업들이 프로모션을 축소하면서 소비자의 배달료 부담은 건당 1000원 안팎에서 5000원 안팎까지 뛰었다. 일부 업주는 배달비 부담을 메뉴 가격에 부담하는 방식으로 전가해 소비자 부담이 한층 커졌다는 지적이다.앞서 올해 들어 온라인 배달 음식 주문은 큰 폭으로 감소한 바 있다. 2월과 3월 온라인 배달 음식 주문은 전년 동기 대비 두자릿수 감소율을 기록했다.  3일 통계청의 온라인쇼핑 동향에 따르면 올해 3월 온라인 음식 서비스 거래액은 2조1056억원으로 1년 전보다 13.0% 줄었다. 앞서 2월 감소율이 11.5%를 기록해 관련 통계가 개편된 2017년 이래 역대 최대를 기록한 데 이어 한층 감소폭이 커진 것이다. 연간으로도 2020년 78.1%에 달했던 온라인 배달 음식 서비스 거래액 증가율은 2021년 50.9%로 꺾였고, 지난해에는 1.7% 증가에 그쳤다.쏟아지는 유통업계의 다양한 이야기를 맛보기 좋게 한입거리로 잘라 담았습니다. 유용하게 맛보는 [오정민의 유통한입], 같이 한입 하실까요?</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2023.05.04.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>8개국 경찰, 150곳 동시 습격…영화 뺨친 유럽 '마피아 소탕'</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003277892?sid=104</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>세계에서 가장 큰 범죄 조직 중 하나인 이탈리아 최대 마피아 조직 ‘은드랑게타’가 유럽 전역의 경찰에 소탕돼 조직원 150여명이 체포됐다. 4년 전 벨기에의 코카인 밀수업자로부터 시작된 수사는 이탈리아·독일·프랑스 등 유럽 주요국이 공조하면서 ‘유레카 작전’으로 확대됐고, 유럽 범죄 사상 가장 큰 수사 성과를 올렸다. 은드랑게타의 마약 밀수 및 돈세탁 과정에는 중국 범죄조직도 연루된 것으로 확인됐다.      독일 경찰이 3일 독일 서부 하겐에서 이탈리아 최대 마피아 조직 은드랑게타 조직원을 체포하고 있다. AFP=연합뉴스      3일(현지시간) 로이터·AFP 통신 등 외신에 따르면 이탈리아·독일·프랑스·벨기에·스페인·포르투갈·루마니아·슬로베니아 등 8개국에서 수천명의 경찰이 은드랑게타의 주요 근거지 150여곳을 동시다발적으로 급습해 핵심 조직원 등 150여명을 체포했다. 이탈리아 로마와 밀라노 등에서 108명, 독일에서 24명이 잡혔고 벨기에(13명), 프랑스(2명) 등도 성과를 올렸다. 이들은 마약 밀수, 무기 밀매, 돈세탁 등의 범죄 혐의를 받고 있다. 또 금괴·권총·자동 소총·지폐 더미 등 2500만 유로(약 368억원) 상당의 자산도 압수했다.     2019년부터 수사를 시작한 벨기에 검찰청 측은 “이번 유레카 작전은 유럽에서 마피아 조직을 상대로 지금까지 수행된 가장 큰 규모의 작전이었다”면서 “이번 급습에 이탈리아에서 3000명, 독일에서 1000명 이상의 경찰이 투입됐다”고 밝혔다. 낸시 패저 독일 내무장관은 “은드랑게타에 심각한 타격을 입혔다”며 이번 작전이 성공적이었다고 평가했다.      은트랑게타는 그리스어 안드라가토스(andrágathos)에서 유래한 단어로 ‘용감한 남자’라는 의미다. 이탈리아 남부 칼라브리아의 농촌지역을 기반으로 1990년대 말 급성장했다. 현재는 영화 ‘대부’에 나오는 시칠리아 마피아 조직 ‘노사 코스트라’를 넘어 이탈리아 최대 마피아 조직으로 자리 잡았다. 전 세계 40여개국에 약 2만명이 활동하면서 유럽에 들어오는 코카인의 대부분을 통제해왔다. 마약과 무기 밀매를 통해 연간 500억유로(약 73조원)의 매출을 올린다고 알려졌다.     수사 당국은 이번 작전으로 은드랑게타가 어떻게 마약을 밀수하고 돈세탁하는지 밝혀냈다. 이탈리아의 조반니 멜릴로 검사에 따르면 은드랑게타는 콜롬비아와 에콰도르에서 생산된 마약을 네덜란드 로테르담 항구와 이탈리아 칼라브리아의 지오이아 타우로 항구를 통해 유럽으로 들여왔다. 그렇게 벌어들인 돈을 유럽 여러 국가의 레스토랑·피자가게·카페·아이스크림 가게 등에 투자해 돈세탁을 했다. 또한 국가 간 거액의 현금 이동을 전문으로 하는 중국 범죄자들과 협력하고 있다는 사실도 발견했다.   이탈리아와 벨기에 수사관들은 지난 2019년 벨기에에서 피자가게를 운영하는 코카인 밀수업자를 알아냈고, 신분을 속이고 3년 넘게 이들과 친분을 쌓아 정보를 캐냈다. 이런 노력으로 마피아가 사용하는 감청 방지 휴대전화를 해독하면서 수사의 돌파구를 마련했다고 영국 텔레그래프는 전했다.     지난달 17일 이탈리아 시칠리아섬 동쪽 해상에 떠 있는 2t 규모의 코카인 꾸러미. 경찰이 항공 순찰 중에 발견했는데 은트랑게타와 관련한 것으로 추정했다. AFP=연합뉴스        은트랑게타를 30년간 경험한 이탈리아의 로베르토 디벨라 판사는 “혈연에 기반한 가족 조직원이 대부분이라 배신자가 거의 없다”면서 “마약에서 나오는 막대한 자금으로 부동산 등을 구입해 세계 여러 나라의 경제를 오염시키고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2023.05.02.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>런치플레이션?..."우리는 미슐랭 셰프 점심 9000원에 해결"</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005005563?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>점심 구독서비스 스타트업 플레이팅은 1인당 9000원으로 미슐랭과 특급 호텔 출신 셰프들이 직접 만든 식사를 즐길 수 있는 서비스를 제공해 화제를 모으고 있다. 사진은 플레이팅 고객사 직원들이 런치 메뉴를 즐기고 있는 모습. 플레이팅 제공 [파이낸셜뉴스] 직장인들에게 점심시간은 밥을 먹는 시간만이 아닌 업무 스트레스에서 벗어나 재충전하는 시간이다.   하지만 22개월 연속 외식 물가가 오르면서 ‘런치플레이션(점심+인플레이션)’에 지쳐 편의점 간편식을 선택하거나 직접 도시락을 싸는 소비자들도 크게 늘고 있다. 이런 상황에서 점심 구독 서비스 스타트업 플레이팅은 1인당 9000원으로 미슐랭과 특급 호텔 출신 셰프들이 직접 만든 식사를 즐길 수 있는 서비스를 제공해 화제를 모으고 있다.     사무실에 구내식당 설치...식사후 수거까지   2일 업계에 따르면 플레이팅은 사무실에 근무하는 직장인 타깃으로 매일 점심시간마다 사무실에 구내식당을 설치하고 식사 후 수거까지 진행한다.   플레이팅의 전속 셰프팀이 고객사 구성원 입맛에 맞는 음식을 매일 청결한 센트럴 키친에서 조리한다는 것이 장점이다. 또 신선한 재료와 매일 바뀌는 조리법으로 구성원들의 만족도를 챙긴다. 서울 강남, 성수, 망원, 교대에 있는 직영 센트럴 키친에서는 매일 3000인분을 새롭게 조리하며 모든 생산과정을 직접 관리한다.   플레이팅에는 메뉴 개발 등 총괄을 맡고 있는 김상범 요리디렉터를 포함해 전문 교육을 거친 전문 셰프 약 30명이 근무 중이다. 김상범 디렉터는 미슐랭 1~3스타 레스토랑을 거쳐, 빌즈코리아 최고운영자(COO), 고든램지버거코리아 COO에서 일한 베테랑 셰프다. 다른 셰프들도 신라호텔, 포시즌스호텔, 정식당, 노부 등 내로라하는 호텔과 레스토랑에서 몸담았던 전문가들이다.   30여명의 전문가들이 만들어내는 700가지 이상의 레시피로 다양한 메뉴를 접할 수 있으며 하루나 이틀전부터 꼼꼼한 검수를 통해 당일 오전 셰프들이 음식을 만들어 사무실로 배송을 하는 것이다.      30여명 전문셰프에...700가지 이상 레시피  고객들은 매주 수요일마다 다음주 메뉴를 미리 확인할 수 있으며 메뉴 중복을 방지하기 위해 한달 식단이 매월 초에 정해진다.   또 식사와 관련된 모든 테이블과 도구를 플레이팅 측에서 제공하기 때문에 고객들은 점심 시간을 편안하게 즐기기만 하면 된다는 점이 장점이다. 직장인들뿐 아니라 크리스마스, 신년회, 창립기념일, 워크샵 등 기념할만한 특별한 날에도 플레이팅을 찾을 수 있다. 이미 토스, 뱅크샐러드, 핏펫, 오늘의집, 코빗 등 업계를 리드하는 60개 이상의 기업들이 플레이팅 서비스 이용하고 있다.   플레이팅의 고객사수는 2018년 5개사에서 2022년 12월 63개사로 증가했으며, 이용자 수는 2018년 12월 기준 1만2347명에서 2022년 12월 기준 6만5377명으로 늘었다. 매출도 같은 기간 1억9000만원에서 57억4000만원으로 급증했다.   플레이팅 관계자는 "미슐랭, 특급 호텔 출신의 플레이팅 전속 셰프가 직접 만든 요리를 매일 점심시간 사무실에 배송해주고, 음식물쓰레기 처리 같은 번거로운 뒤처리까지 대신해주기 때문에 자체적으로 구내식당을 운영하기에는 작은 규모인 300인 미만 기업들에게 매우 인기가 높다”며 “최근 높아진 점심 물가때문에 직장인들이 느끼는 부담이 상당한 상황인데, 단돈 9000원의 가격으로 퀄리티 높은 점심이 제공돼 고객사 임직원의 만족도가 매우 높다. 기업 복지 담당자들의 문의가 지속적으로 증가하고 있는 상황이다"라고 전했다. #미슐랭 #셰프 #9000원 #런치플레이션</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2023.05.14.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>"7개월간 공짜"…토스모바일 알뜰폰으로 갈아타볼까?</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004886873?sid=105</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>토스모바일 7GB 데이터 무제한 '0원 요금제' 출시/사진=토스모바일 캡처최근 알뜰폰 사업자가 '0원 요금제'를 앞다퉈 출시하는 가운데, 토스모바일도 경쟁에 합류했다. 14일 업계에 따르면 비바리퍼블리카의 통신 자회사 토스모바일은 정가 월 2만4800원인 '데이터 7GB 요금제'를 0원에 판매 중이다. 오는 15일까지 LG유플러스 망을 이용하는 LTE 요금제에 가입하면 데이터·통화·문자를 7개월간 공짜로 무제한 사용하다, 이후엔 원래 요금을 낸다. LTE 데이터 사용량이 7GB를 넘기면 1Mbps 속도 제한이 발생한다.'도매대가 이하의 요금제를 판매하거나 과도한 경품을 지급하는 등 출혈경쟁은 지양하겠다'고 밝혀온 토스모바일이 0원 요금제 마케팅 대열에 합류한 것은 이동통신 3사가 제공하는 보조금 때문이다. 최근 KT·LG유플러스에 이어 SK텔레콤까지 가입자 수에 따라 알뜰폰 사업자에 인센티브를 제공하고 있다. 업계에 따르면 가입자 1인당 인센티브는 20만원 내외다. 즉, 토스모바일은 통신사로부터 약 20만원의 인센티브를 받고 가입자에 2만 4800원인 요금을 7개월간 무료로 제공하는 것이다. 그동안 중소 알뜰폰 사업자 중심으로 0원 요금제를 출시했는데, 토스모바일 같은 대형 사업자까지 뛰어들면서 시장의 관심이 커지고 있다. 알뜰폰 시장으로 통신3사의 보조금 경쟁이 옮겨붙은 것 아니냐는 지적도 나온다. 알뜰폰 비교사이트 '알뜰폰허브'에 따르면 최근 0원 요금제는 70개를 넘어섰다. 잇단 공짜 마케팅에 지난달 통신3사에서 알뜰폰으로 번호이동한 이용자도 9만6795명으로 역대 최고치를 기록했다. 다만 알뜰폰은 약정 의무가 없다보니 요금 할인 기간이 끝나면 다른 알뜰폰 업체로 갈아타는 '체리피커'만 양산하는 게 아니냐는 우려의 목소리도 나온다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2023.05.11.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>에이스침대, 가정의 달 맞이 SK스토아 라이브 방송 진행</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005482882?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>저상형 패밀리 제품과 신혼부부 맞춤 침대 소개구매 시 할인쿠폰 발급·신용카드 무이자 할부 등 혜택도[이데일리 함지현 기자] 에이스침대는 가정의 달 5월을 맞아 쇼핑몰 SK스토아에서 에이스침대 대표 제품을 소개하는 라이브 방송을 진행한다고 11일 밝혔다.(사진=에이스침대)에이스침대에 따르면 이날 저녁 8시부터 1시간동안 진행하는 이번 라이브 방송을 시청하는 고객은 제품이나 브랜드에 대한 궁금한 점을 실시간 질의응답을 통해 주고받으며 제품 구매를 결정할 수 있다.먼저 저상형 패밀리 침대인 ‘BMA 1150-LC’는 자녀가 성장하면 침대를 독립형으로 분리해 사용할 수 있는 실용성이 뛰어난 제품으로, 아이들도 안전하게 사용 가능한 낮은 높이가 특징이다. ‘BMA 1148-T’는 감각적인 침실 분위기를 원하는 신혼에게 어울리는 제품으로, 미니멀 디자인에 아르데코 공법을 사용한 가로결 라인을 더했다.에이스침대는 이번 방송을 기념해 구매 고객에게 다양한 혜택을 제공한다. 우선 제품 가격 할인이 가능한 쿠폰을 지급하며, 삼성카드 또는 토스페이를 통해 제품 구매 시 별도 할인을 제공한다. SK스토아 포인트를 최대 7만원까지 적립할 수 있는 것은 물론, 구매 금액에 따라 백화점 상품권, SESA 베개 속통 및 차렵이불 등을 사은품으로 전달한다. 합리적인 소비 패턴을 원하는 고객을 위해 방송 제품은 카드 무이자 6개월 혜택이 적용된다.에이스침대 관계자는 “가정의 달 5월을 맞아 사랑하는 가족들과 더욱 좋은 공간에서 지내고 싶은 고객들의 요구를 반영해 이번 라이브 방송을 준비했다”며 “상세한 설명과 실시간 질의응답을 통해 많은 분들이 에이스침대에 대해 알아가는 시간이 될 수 있길 바란다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2023.05.15.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>소상공인 정책자금에도 손 뻗는 '인뱅'…연체율 관리는 숙제</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006805571?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>카카오뱅크, 내달 7일부터 개인사업자 대출 원리금 납부 기간 다양화"개인사업자 보증서 대출도 조만간 출시…여신 포트폴리오 확장 차원"(각 사 제공)(서울=뉴스1) 김정은 기자 = 인터넷전문은행 3사가 개인사업자 대출 상품을 속속 내놓으며 기업 뱅킹 시장 진출에 박차를 가하고 있다. 이들 은행은 개인사업자 신용대출뿐 아니라 담보대출 등을 출시하며 포트폴리오 확대에 나선 모습이다. 최근에는 소상공인 정책자금 대출 상품군에도 손을 뻗으며 상품군 다양화에 주력하고 있다.15일 금융권에 따르면 카카오뱅크는 다음 달 7일부터 개인사업자 대출 원리금 납부 기간을 당초 1개월에서 다양한 조건을 약정할 수 있도록 여신거래약정서 약관을 일부 변경한다. 향후 소상공인 정책자금 대출 출시 등에 대비해 원리금 상환 조건을 선제적으로 유연화한 것이다.카카오뱅크는 지난해 11월 개인사업자 대출 상품을 선보인 데 이어 조만간 보증서 대출도 출시할 계획이다. 개인사업자의 대출 수요와 상품의 건전성 두 마리 토끼를 잡겠다는 전략이다.카카오뱅크는 지난해 11월 개인사업자 대출 상품만이 아닌 수신 상품(통장), 지급결제(카드)까지 함께 담은 '개인사업자 뱅킹'을 출시하면서 리테일 뱅킹에서 기업 뱅킹으로 영역 확장을 꾀한 바 있다.그간 별도의 기업 뱅킹 앱을 사용해야하는 번거로움과 개인 뱅킹보다 낮은 혜택 등 혁신과 혜택으로부터 소외된 개인사업자 고객에게 집중해 개인사업자 시장을 공략하겠다는 포부에서다.인터넷은행 3사 중 가장 늦게 개인사업자 대출 상품을 출시한 카카오뱅크의 '참전'으로 인터넷은행들의 기업 뱅킹 시장 진출에 속도가 날 전망이다.현재 개인사업자 대출 부문에서 가장 적극적인 인터넷은행은 토스뱅크다. 토스뱅크는 지난해 2월 인터넷은행 최초로 비대면·무보증·무담보 신용대출인 '사장님 대출'을 출시했다. 이 상품은 출시 1년 만에 잔액 기준 1조5000억원을 달성, 일 평균 약 1644건의 개인사업자 대출 상담이 이뤄진 것으로 나타났다.토스뱅크는 이어 같은 해 5월 개인사업자를 위한 '사장님 마이너스통장'을 선보였고, 9월엔 '사장님 대환대출' 서비스도 출시했다. 사장님 마이너스통장은 출시 나흘 만에 대출 약정액 200억원을 돌파하기도 했다.사장님 대환대출은 토스뱅크가 신용보증기금과 손잡고 선보인 서비스다. 코로나19 여파로 피해를 본 자영업자와 소상공인을 대상으로 했다. 이 서비스는 출시 3개월 만에 360억원 규모를 넘어선 것으로 집계됐다.토스뱅크는 지난 8일부터는 소기업·소상공인 사업주를 대상으로 모바일에서 가입과 납입, 관리까지 편리하게 이용할 수 있는 '노란우산공제' 가입 서비스도 제공키로 했다. 노란우산공제는 소기업·소상공인이 폐업이나 노령 등 생계 위협이 가능한 상황에서 생활의 안정을 기하고 사업 재기의 기회를 제공받을 수 있도록 만들어진 공제제도다.케이뱅크 역시 지난해 5월 개인사업자 보증서 담보대출을 출시했고, 같은해 9월 개인사업자 신용대출을 선보였다. 토스뱅크와 케이뱅크는 지난해 12월부터 올 초까지 희망플러스 특례보증을 취급하기도 하기도 했다. 인터넷은행들이 여신 포트폴리오를 확대에 적극적으로 나서고 있지만, 그만큼 늘어나는 연체율은 이들에게 남아있는 숙제다. 카카오뱅크의 지난 1분기 기준 연체율은 0.58%로 지난해 1분기 대비 0.32%포인트(p) 증가했다. 실적 발표를 앞둔 케이뱅크와 토스뱅크 역시 연체율 상승은 불가피할 것으로 보인다.한 업계 관계자는 "인터넷은행들은 대출 포트폴리오 확장 차원에서 개인사업자 대출 등 기업 금융 시장 진출 활로를 찾고 있는 모습"이라며 "최근 시장 상황이 좋지 않은 만큼 향후 이들 은행의 연체율 관리가 관건이 될 것으로 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2023.05.03.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>티몬, 5월 물가안정 프로젝트…카테고리별 특가 릴레이</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006784063?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>'몬스터메가세일'·'베스트 팍팍세일' 진행티몬 5월 할인 프로모션 실시.(티몬 제공)(서울=뉴스1) 신민경 기자 = 티몬은 이달 7일까지 월간 최대 프로모션 '몬스터메가세일'·31일까지 '베스트 팍팍세일'을 진행한다고 3일 밝혔다. 먼저 이날 가정의 달을 맞아 가족과 함께하기 좋은 여행·나들이 상품을 엄선했다. 과천 서울랜드 연간회원권·양양 더앤리조트 2인 조식 패키지·에어서울 일본/동남아 7대 노선 편도 항공권 등이 있다. 또 탐앤탐스 베스트메뉴 교환권 20% 할인·독서 플랫폼 '밀리의 서재' 구독권도 한정 판매한다.4일에는 간절기 상품에서 한여름 신상까지 패션 아이템을 합리적인 금액대에 장만할 수 있다. EnC 등 여성복 브랜드·크로커다일레이디 외 패션그룹형지 브랜드 의류 700종 등이 즉시 할인에 선착순 쿠폰 할인까지 가능하다. 라라벨 여성 의류는 최대 80% 할인한다. 해피랜드·압소바·미피키즈 등 유아동복 브랜드도 선착순 45% 할인을 더한 단독 특가다.몬스터메가세일은 기본 혜택(최대 10% 할인 쇼핑쿠폰, 카카오페이 최대 8% 즉시할인 등) 외에도 카테고리별 페이백 행사까지 누릴 수 있다. 매일 단 하나의 브랜드를 최우선으로 선보이는 '올인데이'도 이어진다. 3일 유한킴벌리·4일 오뚜기와 함께하며 브랜드별 핵심 상품들을 티몬 단독 기획 특가에 만날 수 있다.티몬이 5월 가정의 달 물가 안정을 목표로 특가 전략을 펼친 결과 지난 1일 상위 100개딜 기준 핵심상품들의 판매량은 직전 1주일 평균 대비 165% 상승했다. 매출 또한 150% 이상 급증하며 고객들의 높은 호응을 이끌어 냈다. 티몬은 '몬스터메가세일'을 시작으로 월말까지 '베스트 팍팍세일'을 이어가며 물가안정 프로젝트를 펼친다는 계획이다.전구경 티몬 마케팅본부장은 "이번 가정의 달 프로모션은 선물부터 나들이 준비까지 티몬에서 준비하실 수 있도록 더욱더 풍성한 혜택과 카테고리별 상품 라인업을 꾸리는 데 정성을 쏟았다"며 "고객 물가 부담까지 고려한 다채로운 행사 릴레이와 함께 알뜰 쇼핑하시길 바란다"고 말했다.티몬은 창립 13주년을 기념해 5월 한 달간 '소비자 물가 안정' 프로젝트를 개최한다. 이달 31일까지 티몬의 베스트 상품을 총집합해 선보이는 베스트 팍팍세일도 실시한다. 생필품 등 다양한 상품들을 파격 할인가로 판매한다. 최대 28% 즉시할인·최대 10% 추가 할인쿠폰·최대 5% 토스페이계좌 즉시할인 등 혜택도 받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2023.05.09.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>방미 경제사절단 중소벤처기업 어디?…미국인들도 롸버트치킨 먹으며 우영우 본다</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000081897?sid=102</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>“드라마 ‘이상한 변호사 우영우’가 전 세계적으로 흥행하면서 10여개 국가 제작사, 방송사에서 리메이크 권리 판매 요청이 쇄도했습니다. 세계적으로 가장 규모가 큰 미디어 시장인 미국 기업들과 협상에 주력해왔으며, 금번 방미 경제사절단에 참여해 할리우드 회사와 구체적인 리메이크 협상을 논의했습니다. 공정공시 문제로 업체명과 계약 방식 등을 상세하게 말씀드리기는 힘드나 긍정적인 방향으로 협의의 진전을 이뤘으며, 연내 해당 계약이 마무리될 것으로 기대합니다. 미국, 유럽, 아시아 국가들과의 콘텐츠 포맷 수출 계약은 향후 국내 콘텐츠 제작사 비즈니스 모델의 방향성을 제시할 수 있을 것으로 기대합니다.” (이상백 에이스토리 대표)“에버스핀은 사이버 보안 분야에서는 유일하게 방미 경제사절단 자격으로 백악관 환영 행사에 초대받아 윤석열 대통령과 바이든 미국 대통령의 역사적인 만남 자리에 함께할 수 있었습니다. 미국 유력 VC 39곳이 한자리에 모인 ‘한-미 클러스터 라운드 테이블’에서 ‘에버스핀’의 사업 모델과 지금까지의 사업 성과를 IR(기업설명)할 수 있었습니다. 미국 진출에 앞서 이미 일본, 인도네시아 현지 대기업과 파트너십을 맺고 해외 시장을 개척한 경험을 높게 사줬습니다. 그래서인지 IR 후 현지 VC와 미팅에서 시간이 부족할 만큼 많은 질문과 답변을 주고받았습니다. 에버스핀의 미국 진출 가능성, 경쟁력을 확인한 자리였습니다.” (하영빈 에버스핀 대표)윤석열 대통령 방미 후일담이 화제인 가운데 경제 분야에서도 성과가 속속 발표되고 있다. 방미 경제사절단에 포함된 패션그룹형지의 경우 최병오 회장이 ‘글로벌 형지’ 실현 전초 기지로 미국을 낙점하고, 6월 LA 웨스트 할리우드 멜로즈 지역에 까스텔바작을 앞세운 ‘K패션 글로벌타운’ 건립을 공식화했다. 더불어 까스텔바작 미국 법인인 까스텔바작USA가 1000조원 규모에 이르는 미 연방정부 조달 시장을 겨냥해 필수 요건인 SAM(system for award management·미 연방조달청 계약관리 시스템) 등록을 완료해 화제가 되기도 했다. 그 밖에도 경제사절단에 포함된 중소벤처기업이 현지에서 신규 계약, 채용 등 의미 있는 결과물을 갖고 들어오면서 눈길을 끈다.경제사절단 구성 어떻게전경련 주도…122개 업체 선정  이번 사절단 구성은 전경련이 주도했다. 경제사절단 모집 공고를 통해 신청서를 제출한 기업을 대상으로 선정위원회를 열고 2차례 심의를 거쳐 선정했다.전경련 측은 “기대성과, 대미 교역, 투자 실적, 주요 산업 분야 협력 가능성 등을 종합적으로 고려해 선발했다”고 밝혔다. 이번 사절단은 윤석열정부 출범 후 최대 규모로 2003년 이후 20년 만에 처음으로 4대 그룹 총수와 6대 경제단체장이 모두 참여했다. 참여단 구성은 대기업 19개, 중소·중견기업 85개, 경제단체, 협회 14개, 공기업 4개 등 총 122개 업체로 이뤄졌다.전경련 관계자는 “중소·중견기업의 미국 시장 진출과 혁신 스타트업 성장 지원을 위해 전체 사절단 중 약 70%에 해당하는 중견·중소기업 85개사를 선정했다”고 소개했다. 분야별 성과 톺아보니 (1) 토종 기술 美 진출에이버츄얼 300만달러 수출 ‘공기 살균’ 관련 국내외 특허를 보유한 에이버츄얼은 이번 방미 일정 후 미국에 300만달러 기술 수출 MOU를 맺게 됐다. 이를 위해 미국 서부 지역에 연락사무소 설립을 검토하고 있으며, 미국 내 파트너사와 공기 살균 틈새시장을 공략하기로 했다.김태준 에이버츄얼 대표는 “창업 첫해부터 해외 시장을 개척해 4개국에 수출을 하고 있는데 이번에 미국 수출도 하게 되면서 사절단에 지원하길 정말 잘했다는 생각을 하게 됐다”고 말했다. 김 대표는 “미국 수주 소식 후 사우디아라비아 네옴시티 참여 회사와 수출 계약 체결을 눈앞에 두게 됐다”고 덧붙였다.에이버츄얼처럼 토종 IT 기술 업체의 해외 진출 타진도 이번 사절단에서 본격 논의되는 분위기다.한국 대표 프롭테크 기업 ‘알스퀘어’는 지난해 전년 대비 90% 증가한 1840억원의 매출액을 기록해 화제가 된 업체다. 방미 경제사절단에 유일하게 포함된 프롭테크 기업이기도 하다. 상업용 빌딩 빅데이터만 국내외 30만개를 보유하고 있는가 하면 임대차, 데이터 애널리틱스, 매입매각 자문, 부동산 자산관리(PM), 인테리어, 리모델링까지 부동산 관련 사업을 두루 다루고 있다.이용균 알스퀘어 대표는 “이번 미국 방문을 계기로 국내 진출 예정인 글로벌 기업을 대상으로 알스퀘어의 존재를 알렸다는 점, 글로벌 회사들의 한국과 아시아 시장 진출 시 알스퀘어와의 협업 기회를 찾았다는 점, 미국 주요 회사와 네트워크를 구축했다는 점에서 큰 의미가 있다”고 밝혔다.맞춤형 태양광 모듈 업체인 스마트기술연구소도 토종 기술로 미국 진출을 눈앞에 두게 됐다고 알려왔다. 이미 미국 회사에 전기차에 붙일 수 있는 태양광 모듈 납품 계약을 한 바 있는 스마트기술연구소는 이번 방미 기간 동안 관계를 맺은 현지 협력 업체 도움으로 새로운 태양광 관련 제품을 미국조달청에 등록·납품을 추진하게 됐다.역대 경제사절단 통틀어 처음 이름을 올린 창대핫멜시트 스토리도 재밌다. 핫멜시트(heat transfer film)는 우리말로 열전사 접착필름이다. 운동 선수 유니폼 등 옷에 로고나 실사 사진 등을 고열과 압력을 가해 부착시키는 토종 기술이다. 창대핫멜시트는 매출의 90%를 수출에서 올리며 5000만불 수출탑을 받기도 했다. 서삼상 대표가 창업, 이후 미국 회사에 투자받은 계기로 이번 사절단에 이름을 올릴 수 있었다고. 서 대표는 “관련 업계에서 국내 유일하게 대형 제조 설비를 갖춘 탄탄한 제조 업체로 이번 행사에서 윤 대통령이 한미 합작회사로 외화벌이까지 하는 자랑스러운 중소기업이라고 대외적으로 소개해 큰 힘이 됐다”며 “방미 기간 동안 만난 수많은 미국 기업인을 통해 포스트 코로나 이후 해외 매출을 좀 더 높일 수 있는 계기를 마련하게 됐다”며 기뻐했다.자율주행 레벨3, 그 이상을 가능케 하면서도 고가의 라이다 (LiDAR) 센서를 대체할 수 있는 4D 이미징 레이다 원천 기술 보유 회사 스마트레이더시스템 역시 이번 사절단이 큰 힘이 됐다. 2017년 창업, 미래유니콘 Big3, 소부장 스타트업 100, 아기유니콘 등에 선정되며 올해 상장을 추진하고 있기도 한 이 회사는 이번 방미 기간 동안 미국 대표 전기차 회사 관계자와 직접 미팅한 것은 물론 해외 VC와도 교류를 강화했다.김용환 대표는 “현지 VC와 미팅하면서 단순 투자를 벗어나서 VC들이 투자한 포트폴리오 회사들과의 협력 관계를 모색할 수 있었다”며 “최근 개발한 도심항공교통(UAM), 모빌리티, 드론용 레이다에 주목, 현지 다양한 드론 관련 업체와 추가 미팅 기회도 잡을 수 있었다”라고 소개했다.초기 기업을 발굴, 육성하는 스타트업 ‘인앤아웃코퍼레이션’은 프레임을 없앤 ‘매직히든도어’를 이번 행사 때 미국 시장에 소개했다는 점을 보람 있는 일로 꼽았다. 류선종 대표는 “전 세계 아파트와 오피스 인테리어를 획기적으로 바꿔놓게 될 토종 기술 제품”이라며 “미국 시장 진출을 위한 다양한 채널을 확보하게 됐다는 점이 성과”라고 말했다.(2) 바이오K헬스케어 현지 VC 호평 올해 4월 식품의약품안전처는 바이오 스타트업 ‘웰트’가 자체 개발한 인지 치료 소프트웨어 ‘WELT-I’를 디지털 치료 기기로 허가했다. ‘WELT-I’는 수면 효율을 높여 불면증 환자 증상을 개선하는 데 효과가 있다는 평가다. 참고로 웰트는 2016년 삼성전자 사내벤처로 출발한 웰트팀이 분사하며 설립됐다. 삼성, 한화, 스마일게이트, 한독, 포스코, IMM 등으로부터 140억원의 투자를 유치했다. 경제사절단은 한미 첨단산업 포럼 등 다양한 부속 행사에 참여했다. 사진은 손경식 경총 회장(사진 왼쪽), 최병오 패션그룹형지 회장(사진 오른쪽). (패션그룹형지 제공)강성지 웰트 대표는 여세를 몰아 미국에서도 디지털 치료기 판매에 나서고 싶었다. 경제사절단 명단에 포함되면서 꿈은 좀 더 현실에 가까워졌다. 강 대표는 “워싱턴DC와 보스턴에서 가장 많은 VIP 행사(4회)에 초대받았다”고 자랑했다. 웰트는 이번 방미를 계기로 미국 기업과 논의를 시작하고, 대학과 MOU도 체결했다. 더불어 현지 학회에 참여해 보스턴의 좋은 인재를 채용할 수 있었다고 스토리를 들려줬다. 한편 강성지 대표는 “경제사절단 행사 중 이재용 삼성전자 회장을 만나 삼성이 창업할 수 있는 기회를 제공해준 덕분에 오늘이 있다는 사실에 감사를 표했다”며 활짝 웃었다.서영진 지놈앤컴퍼니 대표도 싱글벙글이다.지놈앤컴퍼니는 경제사절단 공식 행사였던 ‘K-스타트업 투자로드쇼’에서 유수의 미국 VC 등 기관 투자자들과 투자 협의를 진행했다. 최근 FDA에서 한 미국 회사가 최초로 경구용 마이크로바이옴 치료제 판매 승인을 받으면서 마이크로바이옴에 대한 관심이 높아진 상황이었다. 투자자들은 마이크로바이옴 분야에서 지놈앤컴퍼니가 연구개발뿐 아니라 생산 역량까지 폭넓게 보유했다는 점을 높이 평가했다는 후문이다.서 대표는 “마이크로바이옴 치료제와 관련, ‘GEN-001’에 대한 유효성을 검증하고자 임상2상 2건(위암, 담도암)을 진행 중에 있는데 이번 사절단 행사에서 미국 진출 교두보를 마련했다는 점이 고무적”이라고 말했다.의료 정보 격차로 어려움을 겪는 환자를 돕기 위한  헬스케어 서비스 ‘온톨’을 개발, 운영하는 스타트업 ‘테서’ 역시 의미 있는 성과를 거뒀다.이수현 테서 대표는 “병원에서 검사받고 난 후 의료 데이터를 해석하기 힘들어하는 일반인이 많은데 이해하기 쉽게 해석해줄 수 있는 AI(인공지능) 기술을 바탕으로 환자의 갈증을 해소해주는 검사지 해석 베타 서비스를 선보였다. 현재 약 2000여명 이상 암 환자들이 이용하고 있다”며 “이번 사절단 행사를 통해 다쏘시스템의 현지 바이오 헬스케어 파트 관계자, 마이크로소프트 관계자는 물론 현지 헬스케어 회사와 미팅하면서 미국에서도 필요한 서비스라는 걸 알게 돼 미국 진출을 본격 논의하게 됐다”고 말했다. 고형암을 대상으로 한 항체 신약을 개발하고 있는 셀러스 역시 이번 행사에서 해외 투자 유치를 위한 기본적인 정보와 방향, 현지 VC들과의 네트워크를 확보했다고 밝혔다.(3) K콘텐츠우영우·재벌집 막내아들 美 리메이크 눈앞에이스토리는 이번 행사를 계기로 ‘이상한 변호사 우영우’의 미국 리메이크 계약을 조만간 할 것이라는 소식 외에 ‘유괴의 날’ ‘모래에도 꽃은 핀다’ ‘크래시’ ‘수성궁 밀회록’ ‘무당(가제)’ 등 국내 콘텐츠의 미국 진출도 눈앞에 두게 됐다고 밝혔다.역시 이번 사절단에 포함된 K콘텐츠 제작사 ‘래몽래인’ 역시 미국에서 좋은 결과를 곧 발표할 수 있을 것이라고 알려왔다. ‘재벌집 막내아들’로 지난해 빅히트를 친 래몽래인은 해외 리메이크 요청이 쇄도하고 있는 상황이다. 김동래 래몽래인 대표는 “이번 사절단 행사에서 만난 할리우드 인사들과 얘기를 나눠보니 전 세계적으로 한국 콘텐츠에 대한 관심이 많다는 걸 알게 됐다”며 “미국 대형 콘텐츠 기업과 구체적인 사업 얘기를 할 수 있게 됐다”고 말했다.토종 OTT로 경제사절단에 이름을 올린 왓챠는 OTT 본고장에서 왓챠의 진가를 제대로 알렸다고. 박태훈 왓챠 대표는 “글로벌 사업자들이 어떻게 움직이는지에 따라 한국 콘텐츠 산업은 큰 영향을 받을 수밖에 없는데, 미국 주요 기업 관계자들을 직접 만나 어떤 전략과 비전을 갖고 있는지에 대해 들을 수 있었던 것은 큰 도움이 됐다”고 말했다.(4) 진격의 K푸드롸버트치킨 뉴욕 진출 청신호 이번 경제사절단에서 주목받은 산업 분야 중 하나가 K푸드다. 특히 그중에서도 로봇을 활용한 스타트업이 큰 관심을 끌었다. 한국에서는 ‘롸버트치킨’으로 유명한 로보아르테는 이번 행사 때 많은 현지 투자자(VC)가 먼저 미팅을 제안할 정도로 주목받았다. 그도 그럴 것이 뉴욕 한 건물에 롸버트치킨을 열 예정이기 때문이다. 치킨 요리용 튀김 로봇은 물론 2층에는 가장 잘 보이는 자리에 바텐더 로봇이 들어가는데 뉴욕에 산다는 한 VC 관계자는 이미 오픈 예정이라는 정보를 알고 찾아와 미국 유수 VC를 연결해주기도 했다. 강지영 로보아르테 대표는 “미국 기관과 투자자를 만나보니 상상 이상으로 미국에 한국 로봇 솔루션이 필요하다는 확신이 생겼다”고 들려줬다. 윤석열 대통령에게 로봇이 만든 피자를 소개하고 있는 임재원 고피자 대표. (고피자 제공)‘로봇이 굽는 1인용 피자’로 유명한 한국의 피자 프랜차이즈 ‘고피자’ 역시 이번 방미가 회사 성장에 기폭제가 됐다는 후문이다. 고피자는 ‘K스타트업 로드쇼’ 등에 참석, 현지 투자사와 미팅했는데 미국 진출을 전제로 약 1000만달러(130억원) 규모의 투자 협상을 구체적으로 진행하게 됐다고.임재원 고피자 대표는 “5월경이면 계약이 마무리될 것으로 예상한다”며 “미국에 내년 하반기 정도 파일럿 매장을 오픈할 목표가 생겼다”고 말했다.이번 사절단에 참가한 이승건 비바리퍼블리카(토스) 대표는 “중소벤처기업부를 통해 방미 경제사절단에 함께 참가한 여러 국내 스타트업 기업인들과 교류하며 바이오, F&amp;B 등 다양한 산업에서 한국 시장 뿐만 아니라 글로벌 시장을 향해 큰 성장의 가능성을 만들어 내고 있는 기업들을 보면서 대한민국의 미래가 정말 밝다는 생각을 새삼 하게 됐다”며 “새로운 자극과 영감의 시간이 됐다”라고 총평했다.[본 기사는 매경이코노미 제2208호 (2023.05.10~2023.05.16일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2023.05.08.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>인뱅 3사 중저신용자 연체율 1년새 두배 '화들짝'</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005008846?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>신용평가 보완해 우량차주 선별손실흡수력 제고 방안 찾아 나서당국은 불법 사금융 내몰릴라중저신용자 비중 유연화 시사  인터넷전문은행의 중저신용자 대출 연체율이 지난 1년간 두 배 이상 급등한 것으로 나타났다. 인터넷전문은행은 신용평가모형 보완을 통해 '우량차주'를 선별하는 한편 손실흡수능력을 제고한다는 계획이다.   8일 국회 정무위원회 소속 최승재 국민의힘 의원실이 금융감독원에서 제출받은 자료에 따르면 인터넷전문은행 3사(카카오뱅크·토스·케이뱅크)의 중저신용자 대출 연체율은 지난 2월 기준 모두 전년동월대비 최소 두 배 이상 늘었다. 대출잔액이 3조 3640억원으로 가장 많은 카카오뱅크의 중저신용자 대출 연체율은 1.481%로 1년전 같은 달(0.612%)의 두 배 이상으로 급증했다. 지난해 10월 연체율이 1.058%로 1%대를 돌파한 후 네 달 사이 0.5%p 가까이 증가했다.   대출잔액이 3조 369억원인 토스는 지난 2월 기준 연체율이 2.099%로 1년전(0.059%)에 비해 세 배 이상으로 늘었다. 특히 인터넷전문은행 3사 중에 케이뱅크 연체율이 3.597%로 가장 높았다. 지난해 2월 1.687% 에서 9월 2.081%로 늘었고 12월에는 2.806%까지 증가한 후 올해에만 0.7%p 가까이 늘었다.   문제는 이 과정에서 갈수록 신규연체율이 늘고 있다는 점이다. 카카오뱅크의 신규연체율은 지난해 6월 0.124%에서 12월 0.235%로 상승했다. 올해 2월 신규연체율은 0.227%를 기록했다. 토스의 신규연체율 또한 지난해 6월 0.137%에서 12월 0.367%로 뛰었다. 올해 2월 신규연체율은 0.436%에 달한다. 케이뱅크 또한 신규연체율이 지난해 하반기 0.3%대 올랐고 9월엔 0.421%, 12월 0.563%로 계속해서 증가하다 올해 2월엔 0.617%를 기록했다.   인터넷전문은행 관계자는 "대안신용평가모형을 활용해 우량 차주를 선별하고 보수적인 충당금 정책, 담보대출 비중 확대를 통해 건전성을 관리할 예정"이라고 밝혔다. 당국에서도 연체율 관리를 주문하는 동시에 중저신용자 대출 비중을 일부 조정할 가능성을 시사했다. 당국 고위 관계자는 "아직 결정은 안 됐지만 연체율이 너무 많이 올라가면 당국에서 중저신용자 대출 비중 목표치를 조금 유연하게 조정할 가능성도 있다"고 밝혔다.   이와 관련 최승재 의원은 "중저신용대출 증가는 당국이 주목하고 세심하게 체크해야 할 사안"이라면서도 "대출을 너무 옥죄면 불법사금융에 빠질 위험이 큰 계층인 만큼, 건전성 관리와 함께 주의깊게 살펴야 한다"고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2023.05.03.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>‘뱅크런 우려’ 인뱅 유동성 비율, 시중은행의 최대 10배…문제는 모바일 인출 속도[머니뭐니]</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002138407?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>11일(현지시간) 미국 캘리포니아주 샌타클래라에 위치한 실리콘밸리은행(SVB) 본사에 있는 로고. [연합][헤럴드경제=홍승희 기자] 국내 인터넷은행의 유동성커버리지비율(LCR)이 시중은행의 최대 10배에 달하는 것으로 나타났다. ‘뱅크런’ 등 심각한 유동성 악화 상황이 벌어지더라도 오래 견딜 수 있다는 얘기다. 미국 실리콘밸리은행(SVB)에 이어 퍼스트리퍼블릭은행까지 ‘릴레이 파산’이 이어지면서 인터넷은행과 제2 금융권을 중심으로 뱅크런 우려가 수면위로 떠오르고 있지만 문제가 없다는 것이다. 하지만 풍부한 유동성에도 불구하고 자금 인출 속도가 생각보다 빠를 수 있다는 점은 경계의 대상이 되고 있다.유동성 점검하는 당국…“인뱅 LCR 숫자 안심”3일 금융권에 따르면 금융당국은 인터넷은행의 유동성과 건전성을 중심으로 점검을 진행하고 있다. 미국 은행들의 파산 여진이 이어지고 있는 가운데 연체채권 등 건전성을 강화하고 현금흐름을 안전하게 관리하는 차원이다.금융당국 관계자는 이에 대해 “인터넷은행의 경우 채권조달이 없기 때문에 구조적으로 유동성 숫자가 높아 일단은 안심한 상태”라고 설명했다.실제 지난해 12월 기준 국내 3대 인터넷전문은행(카카오뱅크·케이뱅크·토스뱅크)의 평균 유동성커버리지비율(LCR)은 212~648%를 기록했다. 특히 토스뱅크의 겨우 지난해 4분기 LCR이 각각 10월 628.8%, 11월 1080.96%, 12월 648.4%로 가장 높은 수치를 유지했다. 카카오뱅크는 같은 기간 668.66%, 654.21%, 527.74%로 감소세를 보였지만, 여전히 높은 비율을 유지했다. 케이뱅크는 214.64%, 237.56%, 212.07%로 인터넷은행 중에선 가장 낮았지만, 시중은행보다는 월등히 높은 LCR을 보였다.LCR은 뱅크런 등 급격한 예금유출이나 금융위기로 인한 유동성 악화 등에 대비해 은행이 최소 30일을 버틸 수 있도록 현금화가 쉬운 고유동성 자산을 적정 이상 보유하도록 하는 제도다. 주로 국채, 금융채, 통화안정증권 등 우량하고 현금화하기 좋은 채권들이 고유동성 자산에 해당한다.100%대에 머무는 시중은행에 비해 인터넷은행들이 높은 LCR을 기록한 건 설립한 지 얼마 되지 않은 신생 금융기관이기 때문이다. 자금안정성을 높이기 위해 최저규제 수준인 100%보다도 훨씬 높은 LCR을 유지하고 있다. 특히 가장 최근에 설립된 토스뱅크의 경우 지난해 11월 최저수준보다 최대 10배에 달하는 LCR을 보였다. 고유동성 자산 위주로 자금을 운용하고 여·수신 등 복잡하지 않은 포트폴리오를 운영한 결과다.美 은행 파산 사태, 인뱅에는 영향 미미…인출 속도는 ‘긴장’미국 캘리포니아 주 샌프란시스코 퍼스트리퍼블릭 본부 앞 건물에 한 경찰차가 주차돼 있다. [AFP]최근 미국의 지역은행인 퍼스트리퍼블릭 은행이 파산하면서 실리콘밸리은행(SVB)의 전철을 받게 되자 금융 시장에선 불안감이 재조성되고 있다. 지난 3월에는 한 인터넷은행과 관련해 사실과 다른 소문이 퍼지는 등 뱅크런(대량인출사태)에 대한 공포가 비교적 송금이 쉬운 인터넷은행을 향하는 것이다.금융당국 관계자는 “미국 은행들의 파산 여파가 어떻게 번질지는 모르지만 영향이 있더라도 제2금융권에 집중되지 인터넷은행에는 영향이 미미할 것”이라고 말했다.하지만 인터넷은행의 경우 송금이 타 은행보다는 보다 쉽고 편리하게 가능한 만큼 금융당국은 뱅크런 대비를 위해 긴장의 끈을 놓지 않는 모습이다. 실제 지난 3월 SVB가 36시간만에 초고속 파산한 배경으로는 스마트폰을 통한 예금 인출이 지목됐었다. 소셜네트워크서비스(SNS) 등을 통해 은행 위기 소식이 전파되자 예금주들이 스마트폰을 통해 총 55조6000억원을 인출하려 시도한 것으로 나타났다.금융감독원 관계자는 “인터넷은행은 모바일 인출이 100%이다 보니 기존에 가정했던 은행들의 유출 속도보다 더 빠르게 이뤄질 수가 있다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2023.05.02.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>토스뱅크 “먼저 이자 받는 정기예금, 판매액 1兆 돌파”</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000898183?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>토스뱅크 제공        인터넷전문은행 토스뱅크는 ‘먼저 이자 받는 정기예금’이 3월 24일 출시 이후 약 33일 만에 판매액 1조원을 돌파했다고 2일 밝혔다.이 상품은 토스뱅크가 처음으로 선보인 정기예금 상품이다. 인터넷전문은행 최초로 가입과 동시에 이자를 먼저 제공한다. 예를 들어 예로 1억원을 3개월간(92일 기준) 맡기는 고객은 세전 금액인 약 88만원을 즉시 받는다.금리는 연 3.5%(세전·만기일에 세금 차감)로, 가입한도는 최소 100만원에서 최대 10억원 까지다. 가입 기간도 3개월 또는 6개월로 짧게 유지해 고객 편의에 따라 운용할 수 있다.토스뱅크가 전체 가입 고객 데이터를 분석한 결과, 가입 기간을 3개월로 선택한 고객이 전체 고객의 약 67%에 달하는 것으로 나타났다. 나머지 약 33%의 고객은 6개월 기간을 선택했다.또한 연령대 분포를 보면 40대(30.5%)가 가장 높았다. ▲50대 이상(26.8%) ▲30대(26.1%) ▲20대(15.6%) ▲10대(1.0%) 순으로 나타나는 것으로 확인됐다.토스뱅크 관계자는 “그동안 고객들이 정기예금에 가입해도 만기일까지 이자금액을 투명하게 알지 못했던 반면 ‘먼저 받는 정기예금’은 고객들의 보다 투명하고 직관적으로 이자 혜택을 누릴 수 있도록 했다”면서 “토스뱅크는 앞으로도 고객이 즉각 체감할 수 있는 혜택과 금융 서비스를 제공할 수 있도록 지속 노력할 것”이라고 말했다.먼저 이자 받는 정기예금은 오는 17일부터 자금 운용의 유연성을 높여 달라는 고객의 니즈에 따라 1인 1계좌 가입제한을 없앨 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2023.05.03.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>[금융 IS리포트] 대출금리 하락? 모르겠고… '갈아타기' 한다</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003273234?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>4개월 연속 대출금리 하락세"남 얘기 같다" 대환대출 할까핀다, 평균 4.59%p 금리 낮춰 카카오뱅크 낮은 금리로 강점1분기에만 1조4000억 주담대대환대출 고객 비중 57% '껑충'당국, 31일 비교 플랫폼 시작 카카오·네이버페이 등서 가능"편의성 높여, 가파르게 늘 것"서울의 한 시중은행에 붙은 주택담보대출 안내문. 연합뉴스"대출금리가 떨어진다는데 남 얘기 같다."1년 전 결혼하면서 집을 구매한 30대 A 씨는 최근 하락세라는 대출금리가 와 닿지 않는다. 그는 "대출금리는 예금금리보다 기준금리에 예민하게 움직이는 것 같지 않다"며 "차라리 대환대출을 알아보는 게 좋겠다는 생각이 든다"고 말했다.2억원의 대출을 끼고 있는 B 씨도 "6개월 변동금리로 대출 이자가 움직이는 상품인데, 이번 5월에 변동 시기라 보고 남은 기간이라도 갈아탈지 봐야할 것 같다"고 했다.최근 한국은행이 발표한 '2023년 3월 금융기관 가중평균금리'에 따르면 예금은행의 신규취급액 기준 대출금리는 3월에 연 5.17%를 기록해 전월보다 0.15%p 떨어졌다. 지난해 11월 연 5.64%까지 오른 뒤 12월 5.57%, 올해 1월 5.46%, 2월 5.23%, 3월 5.17% 등으로 4개월 연속 하락세를 보이고 있다.이 기간 가계대출 금리도 0.26% 떨어지며 연 4.96%를 기록했다. 가계대출 중 주택담보대출 금리는 0.16%p 내린 것으로 파악됐다.하지만 대출을 받은 차주들은 자신의 금리에 큰 차이가 없다고 느끼는 분위기다. 오히려 금리 부담을 조금이라도 줄여보고자 '대출 갈아타기'를 고려하고 있다는 볼멘소리도 나온다.늘어나는 '갈아타기족'2일 대출중개 플랫폼 핀다에 따르면 지난해 대환대출 실행 금액은 1조654억원으로, 전년 동기 대비 약 67.8%가 증가했다. 대환대출을 진행한 이들은 평균 4.59%p의 금리를 낮춰 갈아탔다.지난해 말부터 대출금리가 내림세로 바뀌면서 매달 평균 6% 대출을 갈아타는 금융소비자도 늘고 있다.실제로 KB국민은행이 지난 3월 27일 출시한 대환대출 상품 '희망대출'의 누적 신청자는 한 달도 채 안 돼 9100명에 달했다. 국민은행은 일반적으로 은행권 대출이 불가능한 다중채무자에게도 심사 결과에 따라 대출을 해주는 등 기준을 완화하면서 인기몰이를 했다.서울 중구 우리은행 본점 영업 창구의 모습. 연합뉴스현재 '갈아타기 시장'에서 가장 뚜렷한 성과를 보이고 있는 곳은 카카오뱅크다. 강점은 역시 '금리'다.은행연합회에 따르면 카카오뱅크가 지난 3월 중 취급한 주택담보대출(주담대)의 평균금리는 4.04%로 KB국민·신한·하나·우리·NH농협은행 등 5대 시중은행(4.48~5.23%)을 포함한 국내은행에서 가장 낮았다. 신용대출의 평균금리도 5.11%로 5대 은행(5.57~6.00%)을 포함한 1금융권 전체에서 가장 낮은 수준을 기록했다. 최근에만 봐도 5대 시중은행의 주담대 고정형(혼합형) 금리는 연 3.76~5.86%다. 변동금리는 연 4.09~5.81%로 형성돼 있다.카카오뱅크 주담대 금리를 보면 고정금리 연 3.544~6.173%, 변동금리 연 3.778~6.668%로 시중은행보다 하단이 낮다. 0.1% 금리만 낮아도 움직이는 금융소비자 특성상 카카오뱅크 주담대의 메리트는 확실하다.카카오뱅크는 올 1분기에만 약 1조4000억원 규모의 주담대를 실행하며, 지난해 동기(470억원) 대비 30배 이상 급증한 실적을 기록했다. 무엇보다 전체 신규 고객 중 대환대출 고객의 비중은 57%로 지난 12월 말(25%)에 비해 2배 이상 늘어난 것으로 나타났다. 시장 점유율은 0.8%에서 8.6%까지 뛰었다.케이뱅크의 주담대 고정금리는 연 3.91~4.95%, 변동금리는 연 4.09~5.82%로 5대 은행 평균값보다는 높게 형성돼 있다. 하지만 올해 1분기 대환대출 건수가 전년 동기 대비 약 18배 증가했다. 취급액은 약 22배 올랐다.인터넷은행이 금리 경쟁력을 가질 수 있는 이유는 모든 구간 '비대면'으로 이뤄져 인력 등 비용을 절감했다는 데 있다. 챗봇으로 상담하고 모집인이나 중개사 제휴 수수료 등도 들지 않기 때문에 이를 금리 인하로 소비자에게 돌려준다는 것이다.은행 관계자는 "주담대나 신용대출 금리는 연 8%대까지 올라갔다가 지금 낮게는 3%대까지 낮아졌다"며 "당시에 대출을 받았던 차주라면 현시점의 낮은 대출금리를 찾아 갈아타기를 시도하는 것이 당연하다"고 말했다.대환대출 더 쉬워진다앞으로는 대환대출이 쉽고 간편해지면서 더욱 활발해질 전망이다. 이달 말부터 온라인에서 신용대출 상품을 비교한 뒤 금리가 더 낮은 상품으로 바로 갈아탈 수 있게 된다.금융당국은 온라인에서 대출 갈아타기를 손쉽게 할 수 있도록 '대환대출 인프라'를 구축한다고 밝혔다. 이달 31일 플랫폼이 시작되면, 여러 금융회사 대출을 비교한 뒤 한 번에 갈아탈 수 있게 된다. 오프라인 지점을 방문하는 번거로움은 없애고 대출금리 인하 경쟁을 촉발시키겠다는 게 당국의 의도다.기존 대출 원리금 정보뿐만 아니라 중도상환수수료와 상환 가능 여부까지 대환대출 인프라에서 보여주도록 할 계획이다. 이와 함께 대환대출 인프라를 통해 다수 대출상품을 조회하더라도 소비자 신용점수가 떨어지지 않게 한다.대출을 갈아타는 횟수는 중도상환수수료 유무에 따라 달라진다. 대출 실행 후 6개월이 지난 ‘숙성된 대출’만 대출 갈아타기를 허용한다는 얘기다. 너무 잦은 대출 이동이 금융시장 불안으로 이어질 수 있다는 우려를 감안한 조치다. 중도상환수수료가 있는 대출은 ‘6개월 경과규정’ 없이 바로 갈아탈 수 있다. 이 서비스는 카카오페이·토스·네이버파이낸셜·핀다 등 4개 핀테크 플랫폼에서 가능해진다. 금융사에서는 은행 19곳, 저축은행 18곳, 카드 7곳, 캐피탈 9곳 등 53곳이 참여한다. 업계에 따르면 해당 4개사는 이미 대환대출 플랫폼 구축의 막바지에 다다랐다.이들은 제휴 금융사를 늘려가고 있다. 현재 가장 많은 은행과 제휴한 곳은 카카오페이로 13개다. 이어 토스 12개, 네이버파이낸셜 9개, 핀다 7개 등이 뒤를 이었다. 은행들도 잇달아 대환대출 서비스를 내놓고 있다. BNK부산은행은 국민은행과 비슷한 2금융권 대환대출 상품을 출시할 계획이고, 우리은행 등도 서민을 위한 추가 상생금융 상품 출시를 검토하고 있다. 핀테크 업계 관계자는 "대출금리에 따른 각 금융사별 상품 정보를 한 눈에 볼 수 있게 되면 더 많은 소비자들이 시도할 것으로 보고 있다"며 "플랫폼에서 대출까지 비대면으로 원스톱 제공해 편의성을 높이면, 대환대출은 가파르게 늘 것"이라고 내다봤다.대부분의 금융소비자가 매달 납부하는 이자를 절감하기 위해 대환대출을 고려하지만, 대출 만기가 다가오거나 상환기간을 늘리고 싶거나 대출 건수와 월상환금액을 줄이고 싶은 상황 등에도 대환대출을 고민해볼 수 있다.하지만 자신에게 맞는 조건이 메리트가 있는지 반드시 따져봐야 한다. 대환대출은 자격조건이 까다롭고, 갖고 있는 부채에 따라 생각했던 금리보다 높게 책정될 수도 있다. 원하는 한도 만큼 대출 금액이 충분한지, 금리가 갈아탈 만큼 낮은지도 계산은 필수다. 또 기존 상품을 상환하게 되면 중도상환수수료가 발생할 수 있어, 갈아탈 시 드는 제반비용도 따져볼 필요가 있다.은행 관계자는 "금리 비교는 당연하고 한도나 3년 이내 상환시라면 중도상환수수료가 발생하지 않는지, 신용등급에 영향을 미치지는 않는지 등도 알아봐야 한다"며 "주담대의 경우에는 LTV 한도도 따져야 한다"고 말했다.권지예 기자  kwonjiye@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2023.05.11.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>샌드박스 없이도 후불결제 가능해진다…네카토 '환영'·카드사 '우려'</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004886117?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>/사진=게티이미지뱅크전자금융거래법(전금법) 개정안이 국회 정무위원회에서 의결되면서 네이버·카카오·토스(네카토) 등 빅테크가 규제 샌드박스(혁신금융서비스) 없이도 선구매 후불결제(BNPL) 서비스를 할 길이 열렸다. 이번 개정안에는 빅테크가 반대했던 여신전문금융업법(여전법) 준용 관련 조항도 빠졌다. 빅테크는 환영했지만 후불결제를 경쟁 서비스로 보는 카드사는 우려의 목소리를 낸다.━네카토, 금융위 승인 거쳐 후불결제 사업 할 수 있다━국회 정무위는 11일 윤한홍 국민의힘 의원 등이 대표발의한 전금법 개정안 등을 묶어 대안을 마련해 의결했다. 전금법 개정안은 향후 법제사법위원회 심사를 거쳐 본회의에 상정될 예정이다. 개정안에는 네이버·카카오·토스(이하 네카토) 등 선불결제 사업자가 금융위원회의 승인을 얻으면 후불결제 서비스를 영위할 수 있다는 내용이 담겼다. 후불결제는 미리 충전한 선불금이 부족할 때 30만원 한도로 나중에 결제할 수 있게 한 서비스다. 결제 대금을 나중에 낸다는 점에서 신용카드와 성격이 유사하지만 후불결제 서비스는 한도가 월 30만원으로 제한된다. 또 카드사는 채권 발행을 통해 다른 사람으로부터 빌린 돈으로 신용카드 사업을 할 수 있는 반면, 선불결제 사업자는 자기자본으로만 후불결제 서비스를 할 수 있다.현재 후불결제 서비스를 운영하는 기업은 네카토 3곳이다. 네이버와 토스는 월 최대 30만원까지, 카카오페이는 모바일로 교통카드를 이용하는 경우에 한해 월 15만원까지 후불결제를 지원한다. 네카토가 후불결제 사업을 영위하고 있긴 하지만 지금까지는 선불결제 사업자가 후불결제 업무를 할 수 있도록 하는 근거 법률이 없었다. 이로 인해 네카토는 금융위의 규제 샌드박스 지정을 거쳐 한시적으로 후불결제 사업을 운영할 자격을 얻었다. 그러나 전금법 개정안이 의결되면서 앞으로는 금융위의 승인을 거쳐 기간의 제한 없이 후불결제 서비스를 영위할 수 있게 될 전망이다.개정안에는 기존에 쟁점이 됐던 여전법 준용 조항도 삭제됐다. 해당 조항은 후불결제 사업을 할 때 특별한 규정이 없는 한 여전법 내 신용카드 사업 규정을 따라야 한다는 내용이다. 후불결제 서비스와 신용카드 사업을 동일하게 규제하려는 취지의 조항이었으나 월 30만원 한도의 서비스를 신용카드 사업과 똑같이 규제해선 안 된다는 핀테크 업계의 반발로 개정안에서 빠지게 됐다. 대신 개정안에는 후불결제 업무의 범위, 이용 한도, 건전성·신용정보 관리 등을 대통령령으로 정한다는 조항이 새로 들어갔다.━빅테크 "오래 기다린 법안"…카드사 "동일기능·동일규제 원칙 지켜져야"━/사진=게티이미지뱅크빅테크는 전금법 개정안 의결을 두고 환호하는 모습이다. 한 빅테크 관계자는 "전금법이 개정되면서 이제 후불결제 서비스를 정식으로 시작할 수 있게 됐다"며 "워낙 오랫동안 기다렸던 법률이라 개정안 의결은 핀테크 업계 전반에 긍정적인 일이라고 볼 수 있을 것"이라고 말했다. 또다른 빅테크 관계자는 "기존에는 1~2년의 유효기간을 두고 서비스를 운영했는데 이젠 자격 조건만 갖추면 후불결제 서비스를 할 수 있기 때문에 사업의 연속성을 보장할 수 있게 됐다"며 "여전법 준용 조항도 핀테크 입장에선 과도한 규제였는데 빠지게 돼서 다행이라고 생각한다"고 밝혔다.반면 빅테크의 후불결제를 경쟁 서비스로 여기는 카드업계는 여전법 준용 조항이 삭제된 것에 대해 아쉬움을 토로한다. '하이브리드 카드'에 적용되는 것과 비슷한 규제를 대통령령에 명시해야 한다는 주장이 나온다. 카드사에서 발급하는 하이브리드 카드는 체크카드와 신용카드의 특징을 혼합한 카드다. 기본적으로 계좌에 돈이 있어야 결제가 되지만 잔액이 부족한 경우엔 최대 30만원까지 후불결제를 지원한다. 하이브리드 카드는 당국의 규제로 인해 1인당 최대 2장까지만 발급된다. A카드사와 B카드사에서 하이브리드 카드를 각각 1장씩 발급받았으면 이후엔 어떤 카드사에서도 추가로 하이브리드 카드를 발급받을 수 없다.카드업계 관계자는 "빅테크의 금융 산업 진출로 산업 간 경쟁이 치열해지는 상황에서 공정한 경쟁이 이뤄질 수 있도록 동일기능·동일규제 원칙이 지켜져야 한다"며 "빅테크는 월 한도가 30만원이라는 이유로 카드사와 똑같은 규제를 적용해선 안 된다고 하지만 그건 기업의 입장에서 봤을 때의 이야기"라고 말했다. 이어 "예를 들어 한 소비자가 네이버와 토스에서 각각 30만원을 후불로 결제하면 결국 1달간 이용한 후불결제 한도는 60만원이 되는 셈"이라며 "개정안엔 여전법 준용 조항이 빠졌다고 해도 시행령을 제정할 때 하이브리드 카드 규제처럼 후불결제 금액에 대한 인당 한도나 선불결제 사업자 통합 한도 등 일정 수준의 규제가 마련될 필요가 있어 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2023.05.05.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>10대 고객 유치 나선 인터넷은행…카뱅 "연내 대상 연령 확대"</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013923114?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>(서울=연합뉴스) 오지은 기자 = 인터넷전문은행인 카카오뱅크와 토스뱅크가 10대 고객 확보에 나서고 있다. 카카오뱅크 미니[카카오뱅크 제공. 재판매 및 DB 금지]    이들 은행이 선보인 선불전자지급 서비스가 어린이·청소년 고객 사이에서 인기를 끌고 있다.      5일 은행권에 따르면 카카오뱅크가 운영하는 만 14∼18세 청소년 대상 선불전자지급 서비스인 카카오뱅크 미니(mini) 가입자 수는 지난달 말 기준 약 174만명을 기록했다.     카카오뱅크 미니는 2020년 10월 출시된 청소년 전용 선불전자지급서비스로, 최대 50만원 한도로 충전해 편의점, 배달음식 결제, 대중교통 이용 등에 사용할 수 있다.     2020년 말 59만명이던 가입자 수는 2021년 말 115만명, 지난해 말 161만명으로 가파르게 늘었다.     카카오뱅크 관계자는 "청소년 고객 사이에서 카카오뱅크에 대한 관심이 높다 보니 만 14세 생일에 카카오뱅크 미니를 개설하는 청소년 중 절반가량이 자정에서 새벽 2시 사이에 가입한다"고 설명했다.     김석 최고운영책임자(COO)는 지난 3일 1분기 실적발표 콘퍼런스콜에서 "3분기 미니 대상 고객을 확대해 더 많은 청소년에게 금융 생활을 제공할 것"이라고 밝혔다. 토스 유스카드[토스 제공. 재판매 및 DB 금지]    토스의 어린이·청소년용 선불카드인 '유스카드'는 지난달 말까지 누적 발급량 107만장을 돌파했다.     토스가 지난해 2월 출시한 유스카드는 만 7∼16세 대상 충전식 카드다. 선불 전자지급 수단인 토스머니와 연동해 체크카드처럼 사용할 수 있다.    편의점 CU에서 현금을 충전하는 방식으로도 이용할 수 있다.    만 7∼18세 토스 사용자는 지난달 말 194만명을 돌파했다.    built@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2023.05.10.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>쿠팡페이 등 전자금융업자, 사고 책임보험금 기준 무더기 미달</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/088/0000813366?sid=100</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>금감원 실태조사 결과 57개사 기준 충족 못해양정숙 의원 "10년 전 보험금 한도를 지금까지 적용…감독 규정 개정해야"양정숙 무소속 의원(비례)쿠팡페이, 토스페이먼츠, 우아한형제들 등 대다수 국민이 이용하는 전자금융업체들이 전자금융사고에 대한 책임 이행보험 기준을 지키지 않았던 것으로 드러났다.10일 금융감독원이 국회 정무위원회 양정숙 의원에게 제출한 자료에 따르면 금감원이 지난해 11월에 착수한 '전자금융사고 책임 이행보험 실태조사'에서 전자 금융업무 취급 업체 412개사 중 금융사 1개사와 전자금융업체 56개사가 보험에 가입하지 않았거나 기준금액에 미달했다.해당 금융사는 쿼터백자산운용이었으며 전자금융업체는 쿠팡페이를 포함해 비바리퍼블리카, 인터파크, 위메프, 당근페이, 위대한상상, 원스토어, 티몬, 골프존 등이었다.지난해 발생한 카카오 데이터센터 화재처럼 대형 전자금융사고가 발생할 경우 이들 업체의 고객이 적절한 보상을 받지 못할 수 있었다는 얘기다.양정숙 의원은 전자금융사고 발생 시 책임 이행을 위한 보험금 가입기준을 상향하는 내용의 '전자금융 감독규정' 개정이 필요하다고 지적했다.카카오 데이터센터 화재 이후 전자금융사고 발생 시 손해배상 범위에 대한 관심이 커졌지만, 책임한도가 명시된 전자금융 감독규정은 2013년 이후 개정되지 않았다.현행 전자금융 감독규정에 따르면 전자금융사고에 대비한 최소 책임 이행 보험 또는 공제 한도 금액은 시중은행 20억원, 지방은행 10억원, 증권사 5억원, 전자금융사업자 2억원, 저축은행과 보험사 등 1억원이다.하지만 카카오 데이터센터 화재를 보듯이 최근 발생하는 피해 규모로 볼 때 액수가 너무 적다는 지적이 많다.금감원은 이런 현실을 반영해 금융투자업을 비롯한 일부 업종의 전자금융사고 책임 이행보험 등의 최저 가입 기준 상향과 재해복구센터 구축 의무 확대가 필요하다는 감독규정 개정 의견을 제시한 것으로 알려졌다.금융위원회도 지난해 12월 금융 보안 규제 선진화 방안을 발표하고 전자금융사고 발생 시 책임 이행을 위한 보험금 가입기준을 상향하는 방안 등을 담은 전자금융 감독규정을 개정하는 작업을 하고 있다.양정숙 의원은 "전자금융시장이 급성장했음에도 지금까지 10년 전 보험금 한도를 적용하는 것은 현실과 크게 동떨어진 정책"이라면서 "전자금융사고와 전자금융거래 규모에 맞게 규정을 개정해 소비자 피해를 최소화할 필요가 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2023.05.11.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>미국주식 24시간 거래, '美 개미 성지' 로빈후드도 진입</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004843308?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>로빈후드, 16일부터 24시간 거래 지원"시장 활성화 효과" 국내 증권사들도 '화색'이 기사는 국내 최대 해외 투자정보 플랫폼 한경 글로벌마켓에 게재된 기사입니다.사진 로이터이용자가 1180만명에 달하는 미국의 온라인 증권사 로빈후드가 미국 주식을 24시간 거래한다. 지난해 2월 업계 최초로 미국주식 주간거래 서비스를 시작한 국내 증권사들도 "국내 투자자들의 미국 주식 거래가 늘어날 것"이라며 반기는 분위기다.  11일 로빈후드는 자사 홈페이지를 통해 24시간 주식·상장지수펀드(ETF) 거래 서비스를 오는 16일부터 시작한다고 밝혔다. 미국의 대체거래소인 블루오션과 제휴했다. 블루오션은 미국 시간 기준으로 밤중(오버나잇) 거래를 지원하는 유일한 거래소다. 블루오션은 국내 삼성증권, 중국 푸투(홍콩 이용자 기준) 등과 제휴해 아시아 투자자들의 미국 주식 주간거래를 중개하고 있다. 로빈후드는 아마존, 애플, 테슬라 등 인기 거래 종목 43개에 대해 24시간 거래 서비스를 연다. 미국 동부시간 기준 일요일 오후8시부터 금요일 오후8시까지 5일간은 이들 종목을 언제든 거래할 수 있다. 오는 16일부터는 일부 이용자에게, 다음달부터는 모든 이용자에게 서비스를 열 계획이다.  로빈후드가 이번 서비스를 출시하면 미국 증권사 중 최초로 개별 주식 24시간 거래를 지원하게 된다. 미국 장은 통상 월요일부터 금요일 5일간 매일 오전 9시30분부터 오후 4시까지 열린다. 정규장 전에 열리는 프리마켓(현지시간 새벽 4시 시작, 오전 9시30분 종료), 후에 열리는 애프터마켓(오후 4시 시작, 오후 8시 종료) 등 연장시간 거래가 있지만 종일 거래 서비스는 기존엔 없었다. 로빈후드는 "투자자가 자신이 원하는 시간에 투자할 수 있도록 지원할 것"이라며 "요즘엔 주가에 유의미한 주요 정보가 언제든 나올 수 있는 만큼 24시간 거래가 포트폴리오 관리에 도움이 될 것으로 본다"고 설명했다. 미국 주식 주간 거래를 지원하는 국내 증권사들은 화색이다. 로빈후드의 시장 진입이 미 주식 24시간 거래 시장을 보다 활성화할 것으로 기대하고 있어서다. 지난 1분기 기준 로빈후드 앱의 월간활성사용자(MAU)는 1180만명에 달한다. 국내에선 삼성증권이 미국주식 주간거래 서비스를 처음 시작했다. NH투자증권, 토스증권, 키움증권, 미래에셋증권 등도 미국 주식 주간 거래 서비스를 지원한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2023.05.03.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>수이 코인, 국내 5대거래소서 '최초' 동시 상장된다</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011839744?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>기사내용 요약수이, 3일 오후 9시 메인넷 출시메인넷 출시 직후 '줄상장'…바이낸스도 합류[서울=뉴시스] 국내 가상자산 거래소 1위 업비트가 3일 공지사항을 통해 수이 상장을 예고했다. (사진=업비트 홈페이지 캡처) *재판매 및 DB 금지[서울=뉴시스]이지영 기자 = 앱토스와 함께 유망한 '레이어1 코인'으로 꼽히는 '수이(SUI)'가 국내 5대 가상자산 거래소에 동시 상장된다. 5대 거래소가 한 코인을 동시에 상장하는 것은 '수이'가 최초다.3일 업계에 따르면 국내 5대 대형 원화거래소(업비트·빗썸·코인원·코빗·고팍스) 모두 이날 공지사항을 통해 수이 상장을 예고했다. 다만 상장 시간은 거래소 별로 다르다. 업비트와 빗썸은 추후 공지사항을 통해 수이 상장 시점을 추가 안내할 예정이다. 코빗과 코팍스는 이날 오후 9시 30분, 코인원은 오후 10시부터 수이 거래를 지원한다.국내 대형 거래소들이 앞다퉈 수이를 택한 이유는 지난해 말 불었던 '앱토스 상장 열풍'이 한몫한 것으로 보인다. '메타(구 페이스북) 코인'으로 유명해진 앱토스가 지난해 10월 17일 메인넷 출시 직후 바이낸스와 코인베이스, 업비트 등 국내외 대형 거래소에 잇달아 상장되며 폭등세를 보였기 때문이다. 실제로 앱토스는 지난해 10월 19일 바이낸스에 상장한 이후 장중 상장가 1달러 대비 최고 100배 오른 100달러를 기록한 바 있다. 당시 앱토스는 상장 첫 주에만 총거래량 13억달러(1조7348억원)를 달성하기도 했다.수이 역시 앱토스와 마찬가지로 '메인넷' 출시를 앞두고 뜨거운 관심을 받는 것으로 풀이된다. 수이 메인넷은 한국시간으로 이날 오후 9시 공식 출시될 예정이다.앱토스와 마찬가지로 메타 출신 개발자들이 개발한 '수이'는 대표적인 레이어1 코인으로 꼽히며 올해 유망한 가상자산 대열에 포함돼 왔다.국내 주요 가상자산 벤처캐피탈(VC) 임원 A씨는 "메타 출신들이 새로운 프로그래밍 언어인 '무브'를 활용하여 시작한 수이와 앱토스 같은 경우 많은 블록체인 생태계 참여자들이 기대하고 참여하려 하고 있다"며 "생태계에 참가하는 투자사의 질과 수 역시 높은 편이다. 생태계의 활성도가 높아질 가능성이 높다고 볼 수 있다"고 분석했다.한편 글로벌 1위 가상자산 거래소 바이낸스 역시 수이 상장을 예고한 상태다. 바이낸스는 한국시간으로 이날 오후 9시 15분 수이를 상장할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2023.05.15.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>금감원 평균연봉 1억1000만원...은행·증권·보험보다 낮다?</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002800531?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>지난해 금융감독원 정규직 직원의 평균 연봉이 1억1000만원대로 나타났다. 신입사원 초봉은 4700만원대다.15일 금감원 경영정보 공개에 따르면 지난해 금감원 정규직 직원의 평균 연봉은 1억1007만원이었다. 신입사원 초임 연봉은 4753만원 수준이다.금감원 직원 연봉은 10년 전인 2012년에는 현대자동차나 삼성전자보다 많아 '신의 직장'으로 불렸다.하지만 공공기관에 준하는 임금 규정을 적용받으면서 연봉 인상 폭이 상대적으로 더디다는 평가다.2018년 금감원 정규직의 평균 연봉이 1억538만원을 기록한 이래 2019년 1억518만원으로 줄었고 2020년 1억658만원, 2021년 1억673만원으로 최근 5년간 연봉 인상액이 468만원에 그쳤다.금감원은 올해 예산 또한 직원 평균 연봉을 1억329만원으로 잡았다. 성과급을 예년 수준인 550만~600만원 정도 받는다고 하면 지난해와 비슷한 수준이다.금감원의 평균 연봉은 감독, 검사하는 금융사과 비교해도 높지는 않다.은행의 경우 하나은행의 작년 평균 연봉이 1억1459만원, KB국민은행은 1억1369만원이었다. 인터넷 전문은행인 토스뱅크의 평균 연봉은 1억1900만원, 카카오뱅크는 1억4600만원에 달했다.2금융권인 카드사의 경우 삼성카드는 1억3900만원, 신한카드와 KB국민카드는 각각 1억2700만원, 현대카드는 1억2000만원, 하나카드는 1억1300만원으로 금감원보다 높은 수준이다.보험사의 경우도 삼성화재 1억3600만원, 신한라이프 1억2400만원, 메리츠화재 1억2000만원, 현대해상 1억1100만원으로 금감원보다 높았다. 재보험사인 코리안리는 1억5700만원에 달했다.18개 증권사의 지난해 평균 연봉은 1억4538만원이었다. 특히 메리츠증권은 직원 평균 연봉이 2억을 넘었다.금융사 중 비교적 처우가 가장 낮은 수준인 저축은행에서는 상상인플러스저축은행이 9800만원, 페퍼저축은행이 8800만원, SBI저축은행이 8500만원 규모였다.한편 금감원장 연봉은 지난해 성과급 1억3000여만원을 포함해 3억6031만원이었다. 금감원장 연봉은 2018년 3억1105만원, 2019년 3억4563만원, 2020년 3억4402만원, 2021년 3억5397만원이었다. 사진=연합뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2023.05.11.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>케이뱅크도 "이자 매달 드려요" 경쟁 강화</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000745802?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>분기별에서 6월부터 매달 지급 "주기 단축 요즘 트렌드 반영"케이뱅크가 보통예금의 이자 지급 주기를 줄여 매 분기 말에서 매달 말로 바꾼다. 이자 지급 주기가 점점 짧아지는 요즘 은행권 트렌드를 반영했다.11일 금융권에 따르면 케이뱅크는 오는 6월 24일부터 '마이(MY)입출금통장'의 이자지급일을 매월 넷째주 토요일로 변경하고 일자별 최종 잔액에 약정된 금리를 적용하기로 했다. 이자 지급 기간은 최초 예금일이나 지난 이자지급일부터 다음 이자 지급일 전일까지다.현재는 일자별 최종 잔액에 약정된 금리를 적용해 매 3월, 6월, 9월, 12월 넷째 주 토요일에 이자를 지급했다.케이뱅크의 'MY 수시입출금통장' 상품 약관 변경 공시 [사진=케이뱅크]MY 입출금통장은 케이뱅크의 대표 보통예금이다. 2017년 은행 출범 이후 줄곧 판매했던 '듀얼K 입출금통장'을 중단하고, 2020년 7월에 이 상품을 내놨다. 모든 은행과 GS25 편의점의 현금입출금기(ATM)에서 수수료없이 입·출금을 하도록 만들었다. 금리는 연 0.1%(세전 기준)이며 휴대전화 번호만 알아도 이체를 할 수 있는 상품이다. 여윳돈은 '플러스박스' 기능으로 묶을 수 있고, 이때 금리는 연 2.6%로 '하루에 한 번 이자 받기'로 일 복리 효과가 있다.케이뱅크 관계자는 "은행권 전체적으로 최근 이자를 받는 주기가 점점 빨라지는 트렌드에 맞춰 이자를 매달 지급하기로 했다"며 "입출금통장은 금리가 낮지만, 매달 이자를 지급하면 아무래도 고객 혜택은 좋아진다"고 말했다.케이뱅크의 'MY 수시입출금통장' 이자 지급 방법 특약 변경 내용 [사진=케이뱅크]은행에 가입하면 처음 만드는 수시입출금통장이나 주거래 급여통장 등과 같은 보통예금은 일반적으로 금리가 미미해서 이자 지급 주기를 길게 가져간다. 시중은행들은 분기마다 이자를 지급한다.지난해부터 은행들이 이자 주기를 단축하는 방법으로 수신 고객을 끌어모으고 있다. 목돈을 일시적으로 묶어두는 파킹통장 성격의 상품들이 그렇다. 지난해 3월 토스뱅크는 은행이 지정한 날이 아닌 고객이 원할 때 이자를 계산해서 지급하는 '지금 이자 받기' 서비스를 시작했다. 케이뱅크는 지난 1월 플러스박스에 하루에 한 번 이자 받기를 시작했다. 지난달 27일엔 수협은행이 같은 서비스를 내놨고 오는 24일에는 카카오뱅크가 내놓는다.다만 수신 경쟁이 치열해질수록 은행의 출혈 경쟁은 피할 수 없다. 지난해 하반기부터 금리가 높아진 데다, 인터넷전문은행들은 수신을 통한 자금 조달 의존도가 높아 비용 부담이 커질 수밖에 없다.지난해 조달 자금의 84%가 예수금(예수 부채)인 케이뱅크의 경우 이자 비용이 1천367억원으로 전년보다 3.5배 수준으로 늘었다. 이자비용 대부분은 예수금 때문에 발생한다. 카카오뱅크의 경우 올 1분기 기준 말 기준 수신 잔액이 40조2천억원으로 지난해 말보다 21.5%나 늘었다. 1분기 이자비용은 1천893억원으로 전년 동기보다 198.1%나 급증했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2023.05.08.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>토스뱅크, '노란우산공제' 가입 서비스 출시</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013926915?sid=102</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>(서울=연합뉴스) 오지은 기자 = 토스뱅크는 노란우산공제 가입 서비스를 출시한다고 8일 밝혔다.      노란우산공제는 중소기업중앙회가 운영하고 중소벤처기업부가 감독하는 공제 제도로 최대 연간 500만원까지 소득공제를 받을 수 있다. 부금(보험료)은 압류되지 않으며 폐업·사망 등의 경우 복리 이자율로 공제금을 받을 수 있다.    가입 대상은 소기업·소상공인에 해당하는 개인사업자로 전(全) 금융권에서 1개 사업체만 가입할 수 있다.     토스뱅크는 내달 말까지 노란우산공제 신규 가입자에게 현금 3만원을 제공하는 프로모션을 연다. 토스뱅크 노란우산공제 가입서비스 [토스뱅크 제공. 재판매 및 DB 금지]    built@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2023.05.01.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>[손에 잡히는 재테크] '굴비'로 만드는 '적금밥상'…돈도 재미도 잡는 적금?</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000333899?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>■ 재테크 노하우 100분 머니쇼 '손에 잡히는 재테크' - 최원진 프라임에셋 팀장Q. 고금리와 함께 각종 요소를 더해 차별화까지 노렸다는 펀적금, 그중에 굴비 적금이 있다는데요. 이름부터 특이합니다. 어떤 상품인가요?- 연 5% 금리 제공하는 '굴비적금'…나도 가입해볼까?- 토스뱅크, '굴비 적금' 최고 연 5.0% 금리 제공- '굴비 적금', 6개월 만기 유지할 경우 우대금리 자동 적용- 굴비 적금, 한도 내에서 횟수 제한 없이 자유롭게 납입- 토스뱅크 '굴비 적금' 계좌 개설 5만 6000좌 돌파- 최애적금, 상품 화면 취향에 따라 구성 변경 가능- 최애적금, 최애와 의미 있는 순간·기분 따라 적금- 케이뱅크 '기분통장', 기분에 따라 설정 저금- 접근 편의성·재미 요소로 고객 수요↑Q. 적금 상품에 대한 규제가 풀리면서 만기가 최소 1개월인 초단기 적금 상품도 출시되고 있는데요. 여기에 MZ세대가 관심을 가질만한 흥미 장치를 마련해 고객 유치에 열을 올리고 있다면서요?- '뻔한 건 싫다'…MZ세대를 사로잡은 이색 적금 상품은?- 적금 상품 만기, 최소 1개월로 단축- 단기 적금, 하루나 일주일 단위로 돈 넣을 수 있어- '게임처럼 즐기는 적금'…금융 상품도 트렌드 반영- 초단기 적금, 1개월 만기 시 이자수령액 자체는 크지 않아Q. 적금의 가입기간이 갈수록 짧아지고 있는 추세 속에서 장기 가입 적금의 경우 이탈율이 상당하다고요?  - 장기 적금, 이탈율 높아지는 이유는?- 청년희망적금 출시 당시 286만 8천명 가입- '청년희망적금' 지난해 말 기준 45만 4천 명 중도 해지- '청년희망적금' 20명 중 3명꼴로 이탈- 고물가·고금리 속 대출 부담으로 저축 여력 하락- 청년도약계좌, 5년 만기에 대한 우려 증가Q. 그렇다면 적금을 중도해지 할 경우 우선순위와 주의할 점, 알려주실 수 있을까요?- 적금, 중도해지 시 주의할 사항은?- 적금 해지 시, 이자율 낮은 상품부터 해약- 이자율 비슷하다면 가입 시기가 오래된 상품부터 깨는 게 유리- 급전 필요 시 적금 담보대출 활용하는 방법도- 소액·단기 운용 가능한 상품에 나눠 넣어 중도해지 리스크 분산(자세한 내용은 동영상을 시청하시기 바랍니다.)당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2023.05.09.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>금리 연 0.1%인데 인기폭발...저원가성 예금 유치전 치열한 인터넷은행</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004842404?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>인터넷은행, 저원가성 예금 유치전 치열금리 年 0.1%에 불과 카카오뱅크 폭풍 성장 비결비중 클수록 수익성 높아져토스, 年 2% 금리 모임통장 출시케이뱅크는 상반기에 선보일 듯카뱅은 '최애적금'으로 맞대응인터넷전문은행들이 수시입출금과 같은 저원가성 예금을 유치하기 위해 치열한 경쟁을 벌이고 있다. 맏형 격인 카카오뱅크가 간편함과 재미를 무기로 저원가성 예금을 끌어모으며 빠르게 성장하고 있기 때문이다. 토스뱅크와 케이뱅크도 대표적 수시입출금 계좌인 ‘모임통장’을 출시하는 등 조달 비용이 적은 저원가성 예금 확보에 나섰다.연 0.1% 금리에도 자금 몰려9일 금융권에 따르면 올해 1분기 말 카카오뱅크의 저원가성 예금은 22조9000억원으로 총수신잔액(40조2000억원)의 56.8%에 달했다. 국내 전체 은행의 총수신잔액(2217조3000억원)에서 저원가성 예금(873조6000억원)이 차지하는 비중인 39.4%에 비해 17.4%포인트 높은 수준이다.은행은 금리가 연 0.1% 수준인 저원가성 예금 비중이 클수록 수익성을 높일 수 있다. 고객에게 적은 이자를 주는 예금이 많을수록 예대금리차(예금금리와 대출금리 간 차이)가 확대돼 더 많은 이자수익을 거두기 때문이다.카카오뱅크가 올 1분기 작년 같은 기간(668억원)보다 52.5% 늘어난 1019억원의 역대 최대 순이익을 낸 것도 금리 상승기에 저원가성 예금 비중을 높게 유지한 덕분이라는 분석이 나온다. 카카오뱅크는 지난 3일 1분기 실적을 발표하면서 “은행권 대비 경쟁력 있는 저원가성 예금 비중을 유지하면서도 수신잔액이 전년 동기 대비 22% 증가했다”고 설명했다.카카오뱅크의 대표적 저원가성 예금 상품은 모임통장이다. 모임통장은 하나의 계좌에 담긴 자금을 여러 사람이 함께 관리할 수 있는 수시입출금 상품이다. 금리가 연 0.1%에 불과하지만 회비를 투명하고 간편하게 관리할 수 있다는 입소문이 퍼지면서 2020년 말 2조5000억원이던 모임통장 잔액은 올 1분기 말엔 5조5000억원으로 불어났다. 1분기 말 기준 카카오뱅크의 모임통장 수는 440만 계좌, 사용자는 880만 명(중복 가입자 제외)에 이른다.최애적금·굴비적금 신상품 줄이어카카오뱅크가 저원가성 예금을 앞세워 자산 기준 인터넷은행 1위 자리를 굳히자 토스뱅크와 케이뱅크도 잇따라 저원가성 예금 상품을 내놓고 있다. 토스뱅크는 올 2월 모임통장을 출시하며 카카오뱅크에 맞불을 놨다. 후발주자인 만큼 금리도 연 2.0%로 높게 책정하며 고객을 끌어모으고 있다. 케이뱅크도 올 상반기 모임통장을 선보일 예정이다.토스뱅크와 케이뱅크가 모임통장을 출시하면서 저원가성 예금 조달에 열을 올리자 카카오뱅크는 또 다른 수시입출금 상품인 ‘최애적금’을 내놓으며 대응에 나섰다. 지난달 선보인 최애적금은 좋아하는 연예인이나 반려동물이 특정 행동을 할 때마다 입금하겠다는 규칙을 스스로 정해놓고 자유롭게 입금할 수 있는 상품이다. 금리는 연 2.0%로 연 2%대 후반인 다른 인터넷은행의 파킹통장에 비해 낮은 수준이지만 아이돌이나 특정 분야에 파고드는 ‘덕질’과 저축을 동시에 하는 재미를 느끼려는 수요에 열흘 동안의 사전 신청에만 40만 명이 몰렸다.토스뱅크가 지난달 출시한 굴비적금도 돈을 모으는 재미를 강화한 수신 상품으로 꼽힌다. 저금 횟수와 무관하게 월 최대 30만원 한도로 저축할 수 있는 이 상품은 소액이라도 돈을 납입할 때마다 밥상에 굴비가 내려오는 모습을 연출한다. 가입자 사정에 따라 중도 해지하더라도 연 2%의 금리를 제공하는 등 토스뱅크가 수신 경쟁력을 강화하기 위해 내놓은 상품이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2023.05.15.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>한은보다 많이 받지만… `억대 연봉` 금감원, 줄퇴사 왜?</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002800794?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>금융감독원 정규직 직원의 지난해 평균 연봉이 1억1007만원으로 나타났다. 신입사원은 연봉은 4753만원이다. 금감원의 연봉이 공개되면서 갑론을박이 일고 있다. 금감원은 금융시장의 '와치독'(watch dog). 업무의 중요도와 자부심 덕택에 인재가 몰려들었다. 연봉도 금융권 톱클래스였다. 한때는 '신의 직장'으로 불렸다. 하지만 '많이 받고 힘도 센' 금감원의 위상이 흔들리고 있다. 시중 은행은 물론 보험사나 카드사에도 평균 연봉이 밀리고 있다. 금감원에 공공기관에 준하는 임금규정이 적용되면서 연봉 인상폭이 더딘 탓이다. 역시 '신의 직장'으로 불리는 중앙은행인 한국은행보다 평균 연봉이 높다. ◇제자리걸음하는 금감원 연봉=15일 금감원 경영정보 공개시스템에 따르면 지난해 금감원 정규직 직원의 평균 연봉은 1억1007만 원이었다. 신입사원 초임 연봉은 4753만원 수준이다. 금감원 직원 연봉은 10년 전인 2012년에는 현대자동차나 삼성전자보다 많아 '신의 직장'으로 불렸다.하지만 공공기관에 준하는 임금 규정을 적용받으면서 연봉 인상 폭이 상대적으로 더디다는 평가다. 2018년 금감원 정규직의 평균 연봉이 1억538만원을 기록한 이래 2019년 1억518만원으로 줄었고 2020년 1억658만원, 2021년 1억673만원으로 최근 5년간 연봉 인상액이 468만원에 그쳤다. 금감원은 올해 예산 또한 직원 평균 연봉을 1억329만원으로 잡았다. 성과급을 예년 수준인 550만~600만원 정도 받는다고 하면 지난해와 비슷한 수준이다.◇민간 금융회사에 밀리는 연봉=금감원의 평균 연봉은 감독, 검사 대상인 금융사과 비교해도 높지 않다.하나은행의 지난해 평균 연봉은 1억1459만원. KB국민은행은 1억1369만원이었다. 인터넷 전문은행인 토스뱅크의 평균 연봉은 1억1900만원, 카카오뱅크는 1억4600만원에 달했다.삼성카드는 1억3900만원, 신한카드와 KB국민카드는 각각 1억2700만원, 현대카드는 1억2000만원, 하나카드는 1억1300만원으로 금감원보다 높은 수준이다. 보험사도 삼성화재 1억3600만원, 신한라이프 1억2400만원, 메리츠화재 1억2000만원, 현대해상 1억1100만원으로 금감원보다 높았다. 재보험사인 코리안리는 1억5700만원에 달했다. 18개 증권사의 지난해 평균 연봉은 1억4538만원. 특히 메리츠증권은 직원 평균 연봉이 2억을 넘었다. 금융사 중 처우가 가장 낮은 저축은행에서는 상상인플러스저축은행이 9800만원, 페퍼저축은행이 8800만원, SBI저축은행이 8500만원 규모였다.한편 금감원장 연봉은 지난해 성과급 1억3000여만원을 포함해 3억6031만원이었다. 금감원장 연봉은 2018년 3억1105만원, 2019년 3억4563만원, 2020년 3억4402만원, 2021년 3억5397만원이었다.◇위기의 금감원?=금융 시장 자체가 커지고 각종 사건 사고가 잇따르면서 금감원 직원들의 업무 강도가 높아지고 있다. 하지만 연봉이 제자리걸음을 하면서 이직이 잇따르고 있다는 게 금감원의 설명이다. 지난해에만 30여명이 은행과 보험, 가상자산업계 등으로 이직했다. 이러다 보니 금감원은 인력 보강을 위해 공채 외에 경력직 수시 채용까지하고 있다.금융권은 온도차가 있는 의견을 내놓고 있다. 금감원의 예산의 2/3는 금융회사들이 낸 수수료다. 금융회사가 낸 비용을 토대로 금융회사를 감독한다.A증권 관계자는 "과거에는 금융관련 공공기관이 민간 금융회사보다 약간이나마 연봉을 더 받는 게 당연시됐지만 이제는 세상이 바뀌었다"면서 "무한경쟁을 하는 민간 금융회사 연봉과 단순 비교해 낮다고 주장하는 것은 무리"라고 반박했다.  C은행 관계자는 "금감원 직원들의 열패감은 이해한다"면서도 "금감원은 상대적  '갑의 위치'에서 업무를 수행하니 기회비용도  감안해야 하는 것 아니냐"고 반문했다.◇연봉, 금감원&gt;한국은행=한은이 경영정보시스템을 통해 공개한 한은 직원들의 지난해 1인당 평균 연봉은 1억331만원. 금감원보다 600여만원이 낮다. 근속년수로 비교하면 평균 연봉 1억 1007만원의 금감원은 14,73년, 한은은 16.5년이다. 평균연차로 볼때 실제 공개된 액수보다 금감원의 평균 연봉이 더 높다고 볼 수있다.실제로 금감원 직원 평균연봉은 이미 2018년 1억원을 돌파했다. 한은은 2020년에야 평균연봉 1억원을 넘어섰다. 한은과 금감원 연봉은 그 후로도 일정 격차를 유지하고 있다.  사진=연합뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2023.05.01.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>[ET톡]사이버 보안업계 '3無'</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003095499?sid=105</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>“국내 사이버 보안업계에는 유니콘 기업(기업가치 1조원 이상 비상장사), 글로벌 수출기업, 혁신적 스타트업 등 세 가지가 없습니다.”최근 만난 사이버 보안업계 관계자의 얘기다. 이 관계자는 업계가 갖추지 못한 3무(無)를 하나하나 언급하며 근본적 문제점을 꼬집었다.그의 말대로 사이버 보안 기업 가운데에는 유니콘 기업이 없다. 지난해 우리나라에서 유니콘 7개사가 새로 탄생했다. 유니콘 3개사가 엑시트(투자회수)했음에도 전체 기업 수는 22개사로 역대 최다 기록을 갈아치웠다. 그러나 이 가운데 사이버 보안 기업은 단 한 곳도 없다.그도 그럴 것이 국내 보안 1위 기업 안랩의 시가총액이 지난달 말 기준 6108억원에 불과하다. 업계 맏형이 이러한데 국내에서 보안 유니콘을 기대하기란 어렵다. 게다가 안랩은 안철수 국민의힘 의원의 운명에 따라 주가가 요동치는 정치테마주로 묶여 있다. 애널리스트도 안랩에 대한 사업분석과 전망에서 손을 뗀 상황이다.글로벌 수출기업 역시 좀처럼 보기 어렵다. 보안산업 특수성 때문에 폐쇄적인 내수시장에 안주하며 스스로 유리천장에 가둔 모습이다. 그 결과 사이버 보안업계는 매출 100억~300억원대 중소기업이 즐비하다. 패권 다툼을 벌이는 춘추전국시대라기보다는 암묵적 신사협정을 맺은 듯 공존 체계를 구축한 모습이다.이렇다 할 스타트업을 찾아보기 어렵다는 점은 전망을 더 어둡게 한다. 스타트업은 혁신과 역동성의 상징이다. 핀테크 기업 토스가 대표적이다. 토스는 금융권 메기 역할을 톡톡히 하며 시중은행을 긴장시켰다. 반면에 사이버 보안업계는 각종 인증 등 허들이 스타트업 등장을 가로막고 있다. 특히 국내 시장 상황에서 성장 한계가 분명한 보안 스타트업에 벤처캐피털(VC) 지갑은 선뜻 열리지 않는다. 투자 유치가 어려우니 성장은 언감생심이다.이렇듯 기존 사이버 보안 기업은 내수시장을 크게 벗어나지 못했으며, 내부에서 혁신의 싹이 움트는 환경도 갖추지 못했다. 업계 3무가 당분간 지속될 공산이 크다.어떻게 타개해야 할까. 해결책의 하나가 사이버 보안 모태펀드 조성이다. 해외에서도 벤치마킹하는 모태펀드는 벤처투자에 마중물 효과를 일으키며 스타트업 성장을 견인해 왔다. 모태펀드에서 동력을 얻은 스타트업은 다양한 분야에서 혁신을 일으키며 판을 흔들었다. 업계 3무를 깨뜨릴 주인공은 스타트업이 될 수 있다.최근 한·미 정상회담에서 한·미 동맹을 사이버 공간으로 확장하며 사이버 안보 협력을 강화했다. 이를 뒷받침할 국내 산업계의 역할이 더 중요해졌다. 국내 경쟁력 강화의 첫 단추가 사이버 보안 모태펀드 조성일 수 있다. 정부가 사이버 보안이 포함된 '10대 초격차 분야'의 모태펀드 조성에 나섰지만 '여럿 가운데 하나'(one of them)로는 현 상황을 헤쳐 나가기 어렵다. 우리 사이버 보안 기업이 날개를 펼 수 있도록 정부의 적극적 정책 지원이 필요한 때다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2023.05.08.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>‘텅장’되는 가정의 달… ‘테마 적금’이자 쏠쏠하네</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001606913?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>토스뱅크 선이자 정기예금 눈길생활 습관으로 최대 11% 고금리자발적 저금 유도하는 상품 인기야구 축구 팬심 활용 금융상품도가정의달 5월은 '지출의 달'로도 불린다. 올해는 물가까지 오르며 지출 부담이 더 커졌다. 여차하면 '텅 빈 통장'과 마주할 가능성이 크다. 그러다 보니 자발적인 저금을 유도하는 이색 예·적금 상품들이 인기다. 목돈에 대한 이자를 미리 지급하는 선이자 예금부터 많이 걸을수록 우대금리를 받는 워킹 통장, 좋아하는 연예인 활동량에 저축액을 연동하는 테마 적금 등이 눈에 띈다.“예금하면 이자 3.5% 미리 드려요”8일 금융권에 따르면 토스뱅크가 출시한 ‘먼저 이자 받는 정기예금’은 지난 3월 24일 출시 이후 나흘 만에 판매액 1000억원, 33일 만에 1조원을 넘어선 것으로 집계됐다. 해당 상품은 예금 가입과 동시에 이자를 먼저 제공한다는 점이 특징이다. 이자는 ‘말일 지급(또는 월 지급)’이라는 상식을 뒤집은 점이 인기를 끄는 요인이다. 특히 소비가 많은 달에 미리 목돈에 대한 이자를 끌어다 쓸 수 있다는 점이 장점이다.이 상품의 금리는 연 3.5%이며 가입 한도는 최소 100만원에서 최대 10억원까지다. 예를 들어 1억원을 3개월간 맡기면 약 88만원을 이자로 즉시 받는다. 다만 3개월 또는 6개월 단위인 만기를 채우지 못하고 중도해지하면 먼저 받은 이자를 차감하고 원금을 되돌려받을 수 있다. 자금을 안정적으로 묶어두고 높은 금리를 받으려는 투자자들에게 유리하다. 토스뱅크는 오는 17일부터 해당 상품의 1인 1계좌 가입제한도 없앨 예정이다.예금 이자를 빨리 수취할 수 있는 초단기 상품이 또 있다. 케이뱅크의 ‘챌린지박스’는 30일만 모아도 이자를 쏠쏠히 챙길 수 있는 목표 달성형 상품이다. 스스로 목표 금액과 기간을 정하고 도전에 성공하면 최고 연 4.0% 금리로 이자를 받는다. 목표 금액은 1만원부터 500만원까지이며 목표 기간은 최대 200일이다. 목표일까지 매주 ‘자동 모으기 서비스’를 통해 필요한 금액을 자동이체하면 우대금리가 적용된다.생활 습관에 금리 더하기생활 습관으로 우대금리를 받을 수 있는 적금 상품도 있다. 우리은행이 출시한 ‘데일리 워킹 적금’은 건강과 재미를 동시에 챙길 수 있어 워킹족들 사이에서 화제다. 기본금리는 1.0%에 불과하지만 우대금리를 포함하면 최대 연 11.0%에 달하는 고금리 혜택이 가능하다. 매일 1만보 이상 걷고 난 뒤 우리은행 애플리케이션 상품 페이지에서 ‘미션 성공’ 버튼을 누르면 최대 금리로 이자를 받을 수 있다. 일일 최대 적립 가능 금액은 1만원(월 30만원)이며 가입 기간은 최대 6개월이다.많이 걸을수록 금리 혜택을 더 주는 ‘워킹 적금’ 시리즈는 꾸준한 인기를 얻고 있다. 우리은행 외에도 KB국민은행의 ‘KB 온국민 건강적금’, 제2금융권인 웰컴저축은행의 ‘웰뱅 워킹 적금’ 등이 비슷한 상품군에 속한다. 납입 가능액은 두 상품 모두 월 최대 20만원이다.KB 온국민 건강적금은 매월 10만보를 걸으면 우대금리 3.0%를 적용해 최대 연 8.0% 금리를 제공한다. 만 60세 이상 장년층 고객에게는 월 5만보만 걸어도 우대금리가 동일하게 적용되도록 배려했다. 6개월 만기 상품이며 판매 기한은 다음 달 14일까지다. 웰뱅 워킹 적금은 12개월 만기 상품으로 연 기본금리는 1.0%다. 여기에 연간 500만보 이상을 걸으면 연 8.0%의 추가 우대금리가 제공된다.반려동물을 키우는 반려가구가 늘어나면서 반려인 전용 금융상품도 출시됐다. KB국민은행의 ‘KB반려행복적금’은 반려동물 정보를 등록하면 0.2%, 유기동물(개·고양이)을 입양하면 0.2%씩 우대 금리를 적용한다. 여기에 반려동물과 산책·양치·몸무게 체크 등 애정 활동을 10회 이상 등록하거나 ‘Liiv M 반려행복 LTE 요금제’를 개통하면 각각 0.2%를 추가로 우대해준다. 월 1만원에서 50만원까지 적립 가능한데 우대 금리를 포함한 최고 금리는 만기 12개월 기준 4.5% 수준이다.“우리 팀 이기면 금리 우대”팬심을 활용한 금융상품도 새로운 추세로 자리 잡았다. 신한은행이 출시한 ‘신한 프로야구 적금’은 좋아하는 야구팀이 정규리그에서 승리할 경우 최대 연 4.6% 금리를 받을 수 있는 상품이다. 상품에 가입할 때 좋아하는 프로야구팀을 사전 지정해야 한다. 예를 들어 한화이글스를 응원팀으로 선택하면 적금통장 이름은 ‘2023 신한 한화이글스 적금’이 된다.야구팬들의 가슴을 설레게 하는 이 적금의 기본 금리는 연 2.5%이다. 우대 금리를 받으려면 응원하는 팀 승리를 기원해야 한다. 가입자가 응원하는 팀이 정규리그에서 1승 할 경우 연 0.01%(최대 연 0.8%)가 적립된다. 우대 금리로 최대 금리를 받으려면 응원하는 팀이 80승을 해야만 한다. 저축 한도는 월 50만원 이내이며 최대 1년까지 저축 가능하다.카카오뱅크는 아이돌 팬덤을 겨냥한 ‘최애 적금’을 내놓았다. 좋아하는 아이돌 구성원이 특정 행동을 할 때마다 일정 금액을 저축하는 구조다. 소설네트워크서비스(SNS)에 사진을 올리면 1000원, 예능에 출연하면 1만원을 저축하는 식이다. 돈을 모으는 규칙은 가입 당시 고객이 정할 수 있으며 최대 20개까지 설정할 수 있다. 계좌 커버도 좋아하는 연예인 사진으로 꾸밀 수 있다. 수시입출금 통장으로 하루만 맡겨도 연 2.0%의 이자를 받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2023.05.02.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>“엄마, 나 100만원만 보내줘”…5060 노린 보이스피싱, 금융사도 배상?</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005124377?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>보이스피싱  CG [사진제공=연합뉴스]‘보이스피싱과의 전쟁’을 선포한 정부가 금융사도 사기 피해금액 중 일부를 배상하도록 하는 제도 도입을 추진한다. 감독당국과 검경, 금융권 합동대책 덕분에 최근 몇 년간 전체 보이스피싱 피해금액은 줄어드는 추세지만, 1인당 피해금액은 좀처럼 떨어지지 않고 있다. 이런 상황에서 당국이 ‘금융사 일부 배상책임’ 카드를 꺼낸 것은 각 사가 금융사기 예방 조치에 적극 나서라는 취지라고 업계는 보고 있다.1일 업계에 따르면 당국은 금융사가 보이스피싱 방지를 위해 얼마나 노력했는지를 평가해 일부 피해금액을 배상하도록 하는 방안을 검토하고 있다. 현재 보이스피싱 피해는 고객이 직접 비밀번호 등을 유출한 것으로 보고, 대부분의 피해금액을 피해자가 떠안는 구조다. 금융사가 보안 절차상의 문제를 지키지 않은 경우에만 책임을 물을 수 있는데, 본인 확인이나 거래 목적 등 단순 확인 절차를 거치면 금융사는 책임이 없는 것이나 마찬가지였다. 상황이 이렇다보니 지난해 금융감독원에 제기된 은행권 보이스피싱 민원은 1879건으로, 1년 전(1444건)보다 30% 이상 늘었다.새로운 제도가 도입되면 보이스피싱 피해 발생 시 금융사-고객 간 책임을 따져 배상비율을 나누게 된다. 이 과정에서 금융사 뿐 아니라 피해 소비자도 ‘보이스피싱 예방 가이드라인’을 얼마나 잘 따랐는지 등을 따져 비율을 결정할 전망이다. 사실 범죄 조직에게서 보이스피싱당한 금액을 돌려받을 확률은 낮은 편이다. 금융감독원에 따르면 지난해 환수액은 379억원으로 피해금액의 26.1%에 불과했다. 10명중 7명 이상은 고스란히 돈을 날린다는 이야기다.전체 보이스피싱 피해금액은 크게 줄어드는 추세다. 2018년 4440억원, 2019년 6720억원에 달했던 피해금액은 2021년 1682억원, 2022년 1451억원으로 급감했다. 그러나 1인당 평균 피해금액은 좀처럼 줄지 않고 있다. 2018년 910만원에서 계속 1200만~1300만원대를 유지했고, 지난해에도 1130만원을 기록했다. 범죄자들이 ‘오픈뱅킹’ 제도를 약용해 다른 은행 계좌까지 털거나 휴대폰을 몰래 개통한 뒤 비대면 대출을 받는 등 악랄한 수법을 총동원하고 있어서다.특히 예전처럼 대출을 빙자한 수법보다는 지인이나 가족을 사칭한 사기에 속아넘어간 피해금액이 급증하고 있어 주의가 필요하다. 지난 2020년만 해도 대출빙자사기 피해가 1565억원, 사칭 사기가 787억원이었는데 지난해에는 대출빙자가 311억원으로 줄었지만, 사칭 사기가 1140억원으로 급증했다. 피해자 연령별로 보면 60대 이상이 46.7%, 50대 이상이 33.1%로 높아 부모님 세대에 예방교육을 집중할 필요가 있다고 전문가들은 조언한다. 40대 직장인 김 모 씨는 “청주에 사시는 부모님과 ‘가족 암호’를 정하고 문자나 카톡으로 송금을 요구하면 암호를 묻기로 했다. 지인들의 돈 요구에는 무조건 저에게 전화하게 하라고 해놨다”고 말했다. 30대 주부 박 모 씨도  “경찰이나 검찰, 금융감독원이라고 전화가 오면 일단 무조건 끊고 다른 유선전화로 저에게 전화하라고 했다. 사기수법이 워낙 교묘해져서 한참 설명해도 모자라더라”고 한탄했다.금융사들도 자체적으로 다양한 보이스피싱 예방 정책을 시행 중이다. 업계에서는 금융사들이 경쟁적으로 금융사기 예방 활동을 강화할 것으로 보고 있다. NH농협은행 관계자는 “지난 달 은행권 최초로 보이스피싱 피해 예방을 위한 ‘대포통장 의심계좌 24시간 모니터링’을 시작했다. 전담 인력이 1년 365일 연중무휴로 근무하면서 의심계좌 적발 시 지급정지와 피해자에 신속 전화 알림, 보이스피싱 예방 안내 등을 제공한다”고 설명했다. 토스뱅크는 은행권 최초로 금융사기 피해고객 ‘안심보상제’를 운영해왔는데, 1년 6개월 만에 1620여 건의 피해를 돕고 12억원 상당을 회복할 수 있도록 지원했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2023.05.13.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>은행 “MZ모여라” 팝업스토어 등 모임통장 맞춤형 공략</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003098455?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>카카오뱅크는 이달 20일 최초로 대고객 오프라인 팝업 ‘모임 아지트’를 오픈한다.금융업계가 모임통장으로 MZ세대(1980년대 중반~2000년대 초 출생) 공략에 나섰다. 인터넷은행에 이어 시중은행까지 가세하며 고객 확보 경쟁이 뜨겁다.카카오뱅크는 이달 20일 대고객 오프라인 팝업 ‘모임 아지트’를 오픈한다. 모임 아지트는 오는 20일부터 29일까지 성동구 성수동에서 열린다. 모임통장이 있으면 모임주, 모임원 무관하게 현장 프로그램에 참여할 수 있다. 모임 사진 촬영 존 모임, MBTI 궁합 테스트 존, 모임 커스텀 키링 존, 야외 테라스 카페 등을 이용할 수 있다.카카오뱅크는 대면 속성을 가진 ‘모임’ 서비스 본질에 맞게 모임통장을 쓰는 멤버들 간 새로운 고객경험을 제공한다는 취지로 오프라인 이벤트를 준비했다. 모임통장 대표격인 카카오뱅크 모임통장 존재감을 강화하는 목적이다. MZ세대 핫플레이스로 떠오른 성수에서 MZ세대 고객접점을 확대하고, 고객 락인 효과도 더한다.올해 3월 말 기준 카카오뱅크 모임 통장 잔액은 5조5000억원으로 전체 수신잔액 40조2000억원 중 13.7%를 차지한다. 모임통장 가입 고객은 중복 가입자를 제외하고도 900만명에 달한다.금융권을 종합하면 모임통장 가입자 60~70%는 2030세대다. 디지털 친숙도를 기반으로 투명하고 합리적인 모임 비용 관리가 MZ세대와 잘 맞는다는 분석이다. 은행 입장에서는 고객 확보와 수신 잔액 증액까지 달성할 수 있다.토스뱅크도 지난 2월 모임통장을 출시한 후 한달만에 23만8000계좌를 확보했다. 지난 4월에는 모임통장 고객을 대상으로 항공권 협찬 이벤트를 출시하며 고객 굳히기에 나섰다.국민은행은 지난 11일 기존 쓰던 통장을 그대로 사용하면서 모임통장을 운영할 수 있는 ‘KB국민총무서비스’를 출시했다. 하나은행과 케이뱅크도 조만간 모임통장 상품을 출시할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2023.05.11.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>“택배비 단돈 800원”...CU ‘알뜰택배’ 요금 할인 행사</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000081942?sid=102</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>CU ‘알뜰택배’ 서비스.(BGF리테일 제공)CU는 5월 말까지 멤버십 앱 포켓CU에서 최저 800원에 택배를 보낼 수 있는 ‘알뜰 택배 초특가 프로모션’을 연다고 5월 11일 밝혔다.알뜰택배는 CU 운영사 BGF리테일이 점포 간 물류 네트워크를 활용해 선보인 자체 택배 서비스로, 일반 택배보다 최대 40% 저렴한 게 특징이다.CU는 5월 11일부터 5월 31일까지 알뜰택배를 보낼 때 사용할 수 있는 1000원 할인 쿠폰을 발급한다는 계획이다. CU 멤버십 회원이면 누구나 쿠폰을 사용할 수 있으며 500g 이하 상품 배송 시 800원에 이용할 수 있다.중고 거래 앱 ‘번개장터’에서도 링크를 찾아볼 수 있다. CU는 네이버 스튜던트 멤버십 고객들과 토스 앱 이용 고객에게도 알뜰 택배 할인 쿠폰을 발급할 예정이다.CU는 알뜰 택배 요금을 500g 이하 1800원, 500g 초과~1kg 이하 2100원, 1kg 초과 2700원으로 운영하면서 89%의 비중을 차지하는 1kg 이하 운임을 업계 최저가로 책정해 소비자 부담을 낮추고 있다.여기에 최근 중고 거래 활성화와 온라인 쇼핑의 증가로 합리적인 가격의 택배 서비스 수요가 급증하면서 전체 택배 이용 건수 중 알뜰 택배의 비중은 서비스 시행 첫 해인 2020년 1.8%에서 올해(1~4월) 21.3%까지 대폭 증가했다.한편 GS리테일이 운영하는 편의점 GS25도 자체 물류를 활용한 반값택배 비용을 최대 31% 할인하는 행사를 진행 중이다. 5kg 이하까지 1800원 균일가로 이용할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2023.05.07.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>`최대실적`에도 못 웃은 카뱅… 인터넷은행 연체율 심상찮다</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002799032?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>카카오뱅크가 올 1분기 '역대 최대' 실적을 기록했음에도 마냥 웃지 못하고 있다. 연체율이 증가하면서 건전성을 관리해야 하는 과제가 남아있기 때문이다. 또다른 인터넷은행인 토스뱅크와 케이뱅크는 아직 실적발표를 하지 않았지만, 이들 은행의 연체율도 증가세를 보이고 있다. 인터넷은행 전반으로 부실 우려가 다시 확산되고 있는 모습이다.카카오뱅크는 지난 3일 올 1분기 실적 발표를 통해 영업 이익 1364억원, 당기순이익 1019억원을 달성했다고 밝혔다. 전년 동기와 비교해 영업이익과 당기순이익은 각각 54.3%, 52.5% 급증했다. 영업이익의 경우 역대 최고 실적인 2022년 3분기의 1046억원 기록을 2분기 만에 넘어섰다. 영업수익은 5605억원으로 1년 전보다 65.6% 늘었다. 같은 기간 이자수익은 70.9% 늘어난 4515억원, 비이자수익은 46.9% 증가한 1090억원을 기록했다. 카카오뱅크 관계자는 "낮은 금리와 편리함을 내세워 대출을 제공한 결과 신용대출과 주택담보대출 잔액이 증가했다"면서 "전체적으로 여신이 고르게 성장했다"고 설명했다.카카오뱅크는 지난 3월까지 금융소비자들에게 상대적으로 낮은 금리의 대출을 지속적으로 공급해왔다. 은행연합회 공시에 따르면 카카오뱅크가 3월 취급한 신용대출 평균금리는 5.11%로, 17개 은행 중 가장 낮은 수준이다. 카카오뱅크가 3월 취급한 분할상환방식 주담대 평균 금리는 4.04%로, 16개 은행 중 최저 수준을 나타냈다. 이에 올 1분기 카카오뱅크의 주담대 신규 취급액은 1조4370억원으로, 지난해 4분기 7940억원에 비해 크게 늘었다.다만 연체율은 올 1분기에도 상승세를 보였다. 카카오뱅크의 올 1분기 연체율은 0.58%로 전년 동기(0.26%)보다 0.32%포인트(p) 뛰었다. 연체율은 2022년 1분기 말 0.26%에서 2분기 말 0.33%, 3분기 말 0.36%, 4분기 말 0.49%로 늘며 가파른 증가세를 보이고 있다.다른 인터넷은행들도 마찬가지다. 금융권에 따르면 지난해 말 케이뱅크의 원화대출금 연체율은 2021년 말(0.41%)보다 0.44%포인트(p) 높아진 0.85%였다. 토스뱅크는 0.42%p 늘어난 0.72%로 나타났다. 같은 기간 국민·신한·하나·우리 등 4개 은행의 평균 연체율이 0.2%대였던 점을 고려하면 상대적으로 높은 수준이다. 인터넷은행 3사는 중저신용자 대출비중 목표치를 달성해야하는 만큼, 오르는 연체율은 큰 부담으로 작용할 수 밖에 없다. 금융당국은 올해 말까지 카카오뱅크 30%, 케이뱅크 32%, 토스뱅크는 44%까지 중저신용자 대출 비중을 늘릴 것을 주문했다.인터넷은행의 상황은 앞으로 더 악화할 가능성이 높다. 한국은행이 지난달 발표한 '금융기관 대출행태 서베이' 결과에 따르면 국내 은행이 예상한 2분기 신용위험지수는 전분기(33)보다 2포인트 높아진 35다. 신용위험지수가 증가한다는 것은 차주들이 대출을 갚을 수 있는 능력이 떨어진다는 의미로, 은행들의 연체율은 더욱 올라갈 수 밖에 없다. 한편 이러한 우려와 관련해 인터넷은행들은 신용평가모형(CSS) 고도화와 대손충당금 추가 적립 등을 통해 리스크 대비에 만전을 기하고 있다는 입장이다. 김석 카카오뱅크 최고운영책임자(COO)는 1분기 실적발표 컨퍼런스 콜에서 "지난해 2분기와 4분기에 각각 126억원, 74억원의 충당금을 추가 적립했다"면서 "올 1분기에도 일회성 충당금 형식으로 94억원을 추가 적립했다"고 말했다. 인터넷은행 3사 CI. 사진 연합뉴스.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2023.05.15.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>억대 연봉에도 직원 줄퇴사하는 이곳…'신의 직장'도 옛말</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001101363?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>10여년 전만 해도 국내 최고 연봉으로 '신의 직장'이라고 불렸던 금융감독원의 직원 처우가 국내 금융사의 중간 수준에 그치는 것으로 나타났다.금감원은 국내 금융시장 안정을 관리하고 금융사를 감독 및 검사, 제재하는 중요한 역할을 하고 있는데 이러한 처우 하락으로 직원의 사기가 떨어지면서 이직 등이 이어지는 상황이다.15일 금감원 경영정보 공개에 따르면 지난해 금감원 정규직 직원의 평균 연봉은 1억1천6만원이었다.금감원 정규직 직원의 평균 연봉은 10년 전인 2012년에는 9천196만원으로 은행 등 금융사들을 압도했고 심지어 현대자동차나 삼성전자보다 많아 '고액 연봉'의 대명사로 불렸다.하지만 2018년 금감원 정규직의 평균 연봉이 1억538만원을 기록한 이래 2019년 1억517만원으로 줄었고 2020년 1억657만원, 2021년 1억673만원으로 최근 5년간 연봉 인상액이 468만원에 그쳤다.금감원은 올해 예산 또한 직원 평균 연봉을 1억328만원으로 잡아 성과급을 예년 수준인 550만~600만원 정도 받는다고 해도 지난해와 연봉이 별로 달라지지 않을 전망이다.물론 제조업 등 일반 기업에 비하면 금감원 직원들의 평균 연봉이 여전히 높기는 하지만 금감원이 감독, 검사하는 금융사과 비교해보면 겨우 중위권 수준을 유지하고 있다.은행의 경우 하나은행의 작년 평균 연봉이 1억1천459만원, KB국민은행은 1억1천369만원이었다. 인터넷 전문은행인 토스뱅크의 평균 연봉은 1억1천900만원, 카카오뱅크는 1억4천600만원에 달했다.2금융권인 카드사도 금감원보다 처우가 좋았다. 삼성카드의 지난해 직원 평균 연봉은 1억3천900만원, 신한카드와 KB국민카드는 각각 1억2천700만원, 현대카드는 1억2천만원, 하나카드는 1천1천300만원이었다. 재보험사인 코리안리는 1억5천700만원이었다.보험사의 경우도 삼성화재의 직원 평균 연봉이 1억3천600만원, 신한라이프가 1억2천400만원, 메리츠화재가 1억2천만원, 현대해상이 1억1천100만원이었다.18개 증권사의 지난해 평균 연봉은 1억4천538만원으로 메리츠증권은 직원 평균 연봉이 2억30만원에 달했다.금융사 중 직원 처우가 가장 낮은 저축은행 중에서는 상상인플러스저축은행이 지난해 평균 연봉이 9천800만원, 페퍼저축은행이 8천800만원, SBI저축은행이 8천500만원이었다.이처럼 금감원 직원의 처우가 나빠지는 가운데 업무 강도는 세지자 지난해에만 30여명이 은행과 보험, 가상자산업계 등으로 이직했다. 이러다 보니 금감원은 인력 보강을 위해 공채 외에 경력직 수시 채용까지 하는 상황이다.(사진=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2023.05.10.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>말뿐인 포용금융… 카뱅·케뱅 "고신용 사장님만 모십니다"</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000919787?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>인터넷은행이 개인사업자 대출을 경쟁적으로 내놨지만 저신용 차주는 취급을 하지 않은 것으로 나타났다./그래픽=김은옥 기자 카카오뱅크와 케이뱅크, 토스뱅크 등 인터넷전문은행 3사가 경쟁적으로 출시한 개인사업자(자영업자) 신용대출이 새로운 격전지로 부상하고 있다. 하지만 케이뱅크와 카카오뱅크는 개인사업자 중에서도 저신용자들에겐 대출을 내주지 않아 포용금융이라는 설립 취지에 맞지 않다는 지적이 나온다.10일 은행권에 따르면 케이뱅크는 지난해 9월 개인사업자 신용대출을 출시한 가운데 올 3월까지 신용등급이 6등급 이하인 개인사업자에게는 아예 신용대출을 취급하지 않고 있다.지난해 11월 인뱅 3사 중 가장 마지막으로 개인사업자 신용대출 상품을 내놨던 카카오뱅크 역시 지난 3월까지 5개월 연속으로 6등급 이하 고객에게 신용대출을 내주지 않았다.지난해 2월 인터넷은행 최초로 개인사업자 대출을 출시한 토스뱅크의 경우 올해 들어 저신용 개인사업자들에게 신용대출을 신규 취급하기 시작했다.앞서 토스뱅크는 지난해 2월부터 올 1월까지만 해도 7~10등급인 개인사업자에게 대출을 내주지 않다가 지난 2~3월 10등급까지 고객군을 확대했다.이처럼 인터넷은행들은 돈 빌리기 힘든 저신용 개인사업자를 외면해 놓고 대외적으론 고금리 속 개인사업자들의 이자부담을 덜기 위해 금리 인하 특판을 진행한다고 발표해 일각에선 두 얼굴을 하고 있다는 비판이 나온다.앞서 카카오뱅크는 올 6월 말까지 개인사업자 신용대출의 금리를 최대 0.4%포인트 인하한다고 밝혔다. 당시 카카오뱅크는 개인사업자 신용대출 금리가 최저 기준 연 4.68%에서 연 4.28%로 낮아져 금융권 개인사업자 신용대출 상품 중 가장 낮은 수준이라고 공언한 바 있다.━시중은행·지방은행도 10등급 개인사업자에게 대출 내주는데━올 3월 기준 인터넷은행을 제외한 국내 16개 은행 가운데 7~10등급 개인사업자 신용대출을 취급하는 곳 KB국민·신한·하나·우리·NH농협 등 5대 은행은 물론이고 부산·경남·대구·광주·전북·제주 등 지방은행 6곳과 기업·SC제일은행 등으로 14곳에 이른다. 금융당국은 어려움에 처한 자영업자들의 재기를 돕기 위해 자영업자 채무조정 프로그램인 '새출발기금'까지 운영하며 금융 지원에 나서고 있다. 하지만 혁신과 포용금융을 약속한 인터넷은행들이 정작 저신용 개인사업자 신용대출을 취급하지 않으며 금융당국의 기조와 정반대의 길을 가고 있다는 지적이다.애초부터 인터넷은행은 IT와 금융의 융합을 통해 금융산업의 경쟁과 혁신을 촉진하고 금융소비자 편익을 증대하기 위해 탄생했다. 특히 금융데이터와 비금융 거래정보, 통신사 데이터 등을 결합해 신용평가모델을 고도화하는 등 혁신을 통해 중·저신용자 대상 대출을 적극 공급할 것이라는 기대가 컸지만 여전히 미흡하다는 지적이 나오는 대목이다.특히 개인사업자 신용대출 평균 금리도 시중은행보다 인터넷은행이 높았다. 올 3월 기준 인터넷은행 3사의 개인사업자 신용대출 평균금리는 5.76~8.07%로 5대 은행(5.29~6.44%)보다 금리 하단이 0.47%포인트, 상단이 1.63%포인트 더 높았다.━자영업자 부실 점점 커지는데 ━자영업자 대출잔액은 신종 코로나바이러스 감염증(코로나19) 사태 직전보다 50%가량 늘어난 가운데 연체율도 코로나19 이전 수준까지 올라가 부실 가능성에 대한 우려가 커지고 있다.한국은행이 국회 기획재정위원회 소속 양경숙 의원(더불어민주당·비례대표)에게 제출한 '자영업자 소득 수준별 대출 잔액·연체율 현황' 자료에 따르면 지난해 말 전체 자영업자의 모든 금융 기관 대출을 합한 잔액은 1019조8000억원으로 사상 최대 규모를 기록했다. 코로나19 확산 직전인 2019년 말(684조9000억원)과 비교하면 48.9% 늘었다.전체 자영업자 대출 연체율은 지난해 4분기 0.26%로 2020년 2분기(0.29%) 이후 2년 6개월 만에 가장 높은 수준을 기록했다. 문제는 저소득 자영업자의 경우 2금융권 대출이 급증하고 있다는 점이다. 2019년 4분기부터 2022년 4분기까지 3년간 저소득 자영업자의 상호금융 대출은 16조1000억원에서 37조1000억원으로 130% 급증했다.같은 기간 보험사는 8000억원에서 1조7000억원으로 112%, 카드·캐피털 등 여신전문금융회사는 1조9000억원에서 3조원으로 57.9% 늘었다.금융권 관계자는 "인터넷은행들이 개인사업자 대출 시장을 두고 경쟁하고 있지만 저신용·저소득 차주는 신규 대출 취급에서 제외하는 모습"이라며 "연체율 상승 등의 자산 건전성 문제도 있겠지만 저신용·저소득 취약 자영업자를 1금융권에서 외면하면 더 많은 이자를 내야 하는 제2 제3금융권, 심지어 불법 사채시장으로 내몰릴 수밖에 없는 악순환으로 이어질 수 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2023.05.15.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>금감원, 5년간 연봉 500만원도 안 올라…'신의 직장' 옛말</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004190391?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>사진 제공=연합뉴스사진 제공=금융감독원사진 제공=금융감독원[서울경제] 10여년 전 국내 최고 연봉을 자랑하며 ‘신의 직장’으로 불렸던 금융감독원의 직원 처우가 국내 금융사의 중간 수준에 머무른 것으로 나타났다.15일 금감원 경영정보 공개에 따르면 지난해 금감원 정규직 직원의 평균 연봉은 1억 1000만 원이었다. 카카오뱅크(1억 4600만 원), 하나은행(1억 1500만 원), KB국민은행(1억 1400만 원), 토스뱅크(1억 1900만 원) 등 시중은행 및 인터넷은행보다 낮은 수준이다.10년 전 금감원 정규직 직원의 평균 연봉은 9196만 원으로, 은행 등 금융사들을 압도한 바 있다. 현대자동차나 삼성전자보다도 많아 금감원은 ‘고액 연봉’ 직장의 대명사로 불리기도 했다.하지만 금감원 정규직 평균 연봉은 2018년 1억 538만 원을 기록한 이래 2019년 1억 517만 원으로 줄면서 최근 5년간 연봉 인상액이 468만 원에 그쳤다. 관련한 올해 예산 역시 평균 1억 328만 원으로 잡혀 성과급을 합하면 지난해와 크게 달라지지 않을 전망이다.이에 금감원 직원의 평균 연봉은 카드 및 보험, 증권사보다도 낮은 수준이 됐다. 삼성카드의 지난해 직원 평균 연봉은 1억 3900만 원이었고, 신한카드와 KB국민카드는 각각 1억 2700만 원을 기록했다.삼성화재와 신한라이프의 직원 평균 연봉도 각각 1억 3600만 원, 1억 2400만 원으로 금감원보다 높았다. 국내 18개 증권사의 지난해 직원 평균 연봉은 1억 4500만 원에 달했다.한편 금감원장 연봉은 지난해 성과급 1억 3000여 만원을 포함해 3억 6000만 원으로, 일반 금융사 최고경영자가 받은 연봉의 하위권 수준이었다. 금융 당국 관계자는 “금감원은 공공기관으로 지정되지는 않았지만 사실상 그에 준하는 임금 규정을 적용받고 있다”며 “최근 5년간 예산 절감 등이 겹치면서 직원 처우가 예전 같지 않은 면이 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2023.05.08.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>토스뱅크, 사장님 위한 노란우산공제 가입 서비스 출시</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000899706?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>인터넷전문은행中 최초… 8일 오후 12시부터 가입 가능토스뱅크 제공        인터넷전문은행 토스뱅크는 소기업·소상공인 사업주를 대상으로 모바일에서 가입과 납입, 관리까지 편리하게 이용할 수 있는 ‘노란우산공제’ 가입 서비스를 제공한다고 8일 밝혔다.노란우산공제는 소기업·소상공인이 폐업이나 노령 등 생계 위협이 가능한 상황에서 생활의 안정을 기하고 사업재기의 기회를 제공받을 수 있도록 만들어진 공제제도다. 중소벤처기업부가 감독하고 중소기업중앙회가 운영한다.토스뱅크는 인터넷전문은행 중 최초로 노란우산공제 가입서비스를 출시했다고 설명했다. 소기업이나 소상공인 범위에 포함되는 개인사업자라면 누구나 토스뱅크를 통해 노란우산공제 서비스에 가입할 수 있다. 단, 전 금융권에서 1인 1개 사업체만 가입이 가능하다.무등록 소상공인이나 개업 1년 미만으로 매출액 증빙이 가능하지 않은 경우는 노란우산 모바일 애플리케이션(앱) 또는 노란우산 홈페이지를 통해 가입할 수 있다.토스뱅크를 통한 노란우산공제 가입은 평일 오전 9시부터 오후 6시까지다. 서비스가 출시되는 이날 낮 12시부터 바로 이용이 가능하다. 가입신청만 가능한 시간도 오후 10시까지로 노란우산공제 가입이 가능한 금융기관 중 가장 길다.납입금액은 월 5만원부터 100만원까지이고, 3개월 분기납입의 경우 15만원부터 300만원까지 납입할 수 있다. 공제금 지급 사유 발생 시까지 가입 기간에 별도 제한이 없다.현재 기준 이율은 연 3%이고, 폐업, 사망 공제 이율은 연3.3%를 제공한다.납부부금액에 대해서는 기존 소득공제상품과 별도로 최대 연 500만원까지 추가로 소득공제가 가능하기 때문에 절세 효과도 동시에 누릴 수 있다. 예를 들어 사업주의 연간 사업소득금액이 5000만원일 때 매달 25만원씩 납입하면 약 79만원의 절세 혜택을 받을 수 있다는 게 토스뱅크 측의 설명이다.토스뱅크 관계자는 “바쁜 사장님들이 은행 지점에 직접 방문하지 않아도 토스뱅크에서 모바일로 편리하게 ‘노란우산공제’ 가입이 가능해진 만큼 더 많은 사장님들이 혜택을 누릴 수 있기를 바란다”며 “중기중앙회와 함께 소기업·소상공인의 사회안전망 구축을 위한 노력을 계속해 갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2023.05.04.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>SK스토아 '오싹한 혜택' 행사…주차별 인기상품군 할인</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006786677?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>5~8일 가전, 8~11일 패션뷰티잡화, 12~14일 생활용품 등SK스토아 '오싹한 혜택' 행사(SK스토아 제공)(서울=뉴스1) 서미선 기자 = SK스토아는 가정의 달을 맞아 '오싹한 혜택' 행사를 진행한다고 4일 밝혔다.주차별로 5월 가장 인기 높은 상품을 선보인다. 5~8일은 가전, 8~11일은 패션·뷰티·잡화, 12~14일은 생활용품 등 상품군을 선정했다.주요 상품은 △쿠쿠 10인용 트윈프레셔 밥솥 △스케쳐스 고워크 조이 워킹화 △센텔레안24 마데카크림 시즌5 8통+마스크팩 20매+무료체험분 1매 △도루코 3D 입체모션 면도기 등이다.행사 상품 구매시 20% 적립금과 KB국민카드 결제시 10% 할인 혜택을 준다.21일 '오싹한 혜택 구매 사은품' 행사로 행사상품을 누적 3회, 30만원 구매 시 네오맥스 아웃도어 캠핑체어 2세트를 증정한다. 31일까지 행사 상품 구매 뒤 적립금을 신청하는 고객에겐 10% 적립금을 준다.10일까지 KB페이로 5만원 이상 결제시 최대 7% 할인혜택을 준다. 11~20일엔 토스페이 결제 고객에게 5% 할인혜택을 제공한다.28일까지 중소벤처기업부, 중소기업유통센터와 손잡고 2023 동행축제를 진행한다. 행사 기간 SK스토아 모바일 앱에서 쇼핑하면 15% 즉시할인 혜택과 10% 적립금을 준다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2023.05.03.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>토뱅, ‘먼저 이자 받는 정기예금’ 판매액 1조원 돌파</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003808783?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>“17일부터 1인 1계좌 한도 해제”토스뱅크는 ‘먼저 이자 받는 정기예금’이 출시 33일 만에 판매액 1조원을 돌파했다고 2일 밝혔다.     먼저 이자 받는 정기예금은 토스뱅크가 처음으로 선보인 정기예금 상품이다. 토스뱅크에 따르면 이 상품은 지난 3월24일 출시 이후 나흘 만에 1000억원, 15일 만에 5000억원을 돌파한 바 있다. 일평균 약 303억원씩 유입되며 빠른 성장세를 보이고 있다는 것이 토스뱅크의 설명이다.    이 상품은 가입과 동시에 이자를 먼저 제공한다는 점이 특징이다. 금리는 연 3.5%(세전, 만기일에 세금 차감)로, 가입 한도는 최소 100만원에서 최대 10억원까지다. 가입 기간은 3개월이나 6개월로 짧게 유지해 고객 편의에 따라 운용할 수 있다. 예를 들어 1억원을 3개월간(92일 기준) 맡기는 고객은 세전 금액인 약 88만원을 즉시 받는다. 토스뱅크는 “먼저 이자를 받은 고객은 이를 즉시 재투자에 활용하는 등 자유롭게 불릴 수 있게 했다”며 “안정적인 예치와 함께 고금리 예금의 강점도 투명하게 체감하게 했다”고 설명했다.     만기를 채운 고객은 ‘자동 재가입’ 서비스를 통해 최대 3회까지 재가입할 수 있다. 중도해지는 고객이 원할 때 언제든 가능하다. 다만 먼저 받은 이자에서 중도해지 이자(가입 기간에 비례)를 제외한 금액이 원금에서 차감된다.     토스뱅크가 상품 가입 고객 데이터를 분석한 결과, 가입 기간을 3개월로 선택한 고객이 전체 고객의 약 67%를 차지했다. 나머지 약 33%의 고객은 6개월 기간을 선택했다. 연령대 분포를 보면 40대(30.5%)가 가장 많았고, 50대 이상(26.8%), 30대(26.1%), 20대(15.6%) 10대(1.0%) 등의 순이었다.     먼저 이자 받는 정기예금은 오는 17일부터 자금 운용의 유연성을 높여달라는 고객들의 요구에 따라 1인 1계좌 가입제한을 없앨 예정이다. 토스뱅크 관계자는 “고객은 목돈 예치의 목적에 따라 계좌 개설 제한 없이 원하는 수만큼 정기예금에 가입할 수 있게 될 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2023.05.05.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>"엄마, 오늘은 제 카드로 긁을게요" 알뜰 청소년카드는?</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000918595?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>사진=이미지투데이 5월5일 어린이날을 맞아 자녀에게 줄 선물을 고민하는 부모들을 위해 금융사들이 어린 고객들을 겨냥한 카드를 속속 내놓고 있다. 카드 사용으로 10대 고객들은 주체적인 금융생활을 일찍이 경험할 수 있고 금융사들은 청소년 고객을 미리 확보하는 '락인(Lock In) 효과'를 기대할 수 있다.대표적 청소년 카드는 신한카드가 신한은행과 내놓은 '신한 밈'이다. 만 14세 이상부터 만 18세 이하 청소년 고객을 대상으로 하며 별도의 결제계좌 없이 발급받아 사용할 수 있는 선불전자지급수단이다.혜택 역시 10대 청소년 맞춤이다. 10대들이 자주 이용하는 편의점과 음원 스트리밍, 앱 마켓 등에서 이용금액의 5%를 마이신한포인트로 특별 적립해준다. 전 가맹점에서 이용 시 0.1%를 기본 적립해 주는 점도 눈에 띈다.'마이틴즈'도 있다. 만 12세 이상 중·고등학생 전용 카드로 한도와 이용건당 한도가 10만원과 5만원으로 제한돼 있는 게 특징이다. 사용 가능 업종을 교통, 문구·서점, 편의점, 학원 등으로만 제한해 미성년 자녀의 카드사용 남용, 부정 사용 등의 위험을 사전에 방지했다.신한카드 밈 카드./사진=신한카드 KB국민카드의 'KB국민 샘 쏘영 체크카드'도 선택지가 될 수 있다. 청소년들이 주로 사용하는 스트리밍 서비스와 문구점, 스터디 카페, 독서실, 편의점, 패스트푸드점, 대중교통 이용 시 5% 청구할인을 제공한다.토스가 내놓은 어린이·청소년용 선불 카드 '유스카드'는 누적 발급량이 100만장을 넘었다. 2021년 12월 출시 이후 1년4개월 만이다. 유스카드는 만 7세부터 만 16세가 자신의 이름으로 만들어 사용할 수 있는 청소년 전용 카드다. 연결된 가상 계좌에 이체하거나 CU편의점에서 현금을 충전해 사용할 수 있고 온·오프라인에서 결제할 수 있다.유스카드 인기에 힘 입어 어린 고객층 유입도 활발해지고 있다. 토스에서 만 7세부터 만 18세 이하의 사용자를 의미하는 '틴즈' 가입자는 194만명을 돌파했다.토스 유스카드/사진=토스 카카오뱅크는 10대 고객을 위한 '미니(mini)' 서비스를 선보이고 있다. 미니는 만 14세~18세 청소년 전용 서비스로 은행 계좌가 없어도 입금과 송금을 할 수 있는 선불전자지급수단이다.미니카드를 통해 온·오프라인 결제 및 교통카드 사용, 현금자동화기기(ATM)에서 수수료 없이 현금 입·출금도 가능하다. 2020년 10월에 선보인 이후 누적 가입자수는 올해 2월말 기준 124만명을 넘었다.금융권 관계자는 "청소년 고객들은 일찍이 자신의 소비습관, 패턴 등을 점검해 볼 수 있고 금융사들은 미래 고객층을 미리 선점할 수 있다는 점에서 긍정적"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2023.05.12.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>"준비한 명함 동났네요"… 혁신 꿈꾸는 핀테크 한자리에</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005129422?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>매경·핀테크산업協 주최 '제2회 핀투나잇' 성황리 개최금융권·VC 등 수십여명 참석페이업·펀더풀·랩투아이 등IR 발표하고 피드백 주고받아"생각보다 훌륭한 핀테크들이 많아서 놀랐다."(박천일 KB이노베이션허브센터 팀장)"명함을 수십 장 준비했는데도 많은 분들과 교환하느라 모두 바닥났다."(김권일 NH농협은행 오픈이노베이션팀장)전통 금융권과 핀테크, 그리고 벤처캐피털(VC) 을 이어주는 네트워킹 그룹 '핀투나잇'의 두 번째 모임이 지난 11일 성황리에 개최됐다. 서울 강남구 코엑스에서 열린 행사에는 핀테크 기업 대표, 전통 금융권 핀테크랩 담당자, 벤처캐피털 임원 등 관계자 수십 명이 참석해 교류의 장을 열었다. 대화형 뱅킹 서비스 핀테크 블루레이커스의 임예나 대표는 "핀테크 창업자 동료들과 허심탄회한 이야기를 나누고 싶어서 참석하게 됐다"면서 "트렌드를 돌아보며 미래를 준비하는 데 큰 도움이 됐다"고 했다.핀투나잇은 한국 핀테크가 글로벌 유니콘으로 성장하는 데 도움을 주고자 매일경제가 한국핀테크산업협회와 만든 네트워킹 행사다. 지난 2월 첫 모임을 열었고 이번이 두 번째다. 유망한 핀테크들에는 회사를 널리 알릴 기회를 제공하고, 협업을 간절히 원하는 전통 금융사들과 연결해준다. 투자 빙하기 속에서도 보석같이 빛나는 스타트업을 찾고자 벤처캐피털 회사들도 핀투나잇 문을 두드린다. 장현순 디티앤인베스트먼트 이사는 "시장의 비즈니스 모델을 깊게 생각하며 성장한 핀테크들이 돋보였다"면서 "새로운 시각을 학습하고, 흥미로운 기업을 검토할 수 있어서 뜻깊었다"고 했다.행사는 IR 피칭 이후 기업들이 자유롭게 네트워킹하는 순서로 진행됐다. 모바일 기반의 대금 결제 플랫폼 '페이업', 문화 콘텐츠 투자 플랫폼 '펀더풀', 가상자산 시장 분석 기업 '랩투아이', 투자 콘텐츠 플랫폼 '머니스테이션' 등이 발표를 했다. KB금융그룹 내 스타트업 육성 조직인 KB이노베이션허브센터의 박천일 팀장과 김권일 NH농협은행 오픈이노베이션팀장이 피드백을 맡았다. 잘한 점과 보완할 점을 분석해주고, 전통 금융사들이 원하는 핀테크상을 공유했다.이날 이근주 한국핀테크산업협회장은 축사에서 "유망한 핀테크 기업들이 모인 뜻깊은 자리"라며 "제2, 제3의 토스 같은 글로벌 유니콘 핀테크들이 핀투나잇을 통해 배출되기를 기대한다"고 했다. 제3회 핀투나잇은 하반기 '매경 핀테크 어워드 2023' 시상식과 같은 날 열릴 예정이다.[서정원 기자]</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2023.05.15.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>은행 예금 2%대까지 하락… 저축은행은 4% 넘었다</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003763581?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>돈 남아도는 은행 “무리해서 예금 늘릴 필요 없어”							작년 11월만 해도 연 5%가 넘었던 시중은행의 1년 만기 정기예금 금리가 빠르게 하락하고 있다. 은행 정기예금은 연 3%대 금리가 대세가 된 가운데 시중은행 대표 정기예금 상품 중에선 연 2%대도 등장했다.										◇연 2%대 정기예금 등장지난 12일 은행연합회 소비자포털에 따르면, 전국 19개 은행이 금리를 공시한 39개 상품 중 6개의 기본금리가 연 2%대로 나타났다. 하나은행의 ‘하나의 정기예금’이 연 2.6%, 신한은행 ‘쏠편한 정기예금’이 연 2.9%였다.은행 정기예금 금리가 하향 곡선을 그리는 것은 시중 금리가 떨어진 영향이 크다. 하지만 은행들 속사정을 들어 보면 자금 사정에 여유가 생겨서 굳이 금리를 얹어 주면서 예금을 받을 필요가 없다는 말이 나온다.우선 시장 금리를 보면, 지난 2월 한국은행이 주요국 중 처음으로 금리를 동결하면서 금리 인하 기대감이 커졌고 금융채 금리 등은 떨어졌다. 금융채 3년물(신용등급 AAA 기준) 금리는 올 1월만 해도 연 4%대였지만, 12일 연 3.751%까지 내려왔다.이에 더해 작년 금리 인상기에 예금이 은행으로 몰리다 보니 예대율(예금 대비 대출 비율)도 떨어졌다. 예대율이 100%면 예금으로 들어온 돈이 모두 대출로 나간다는 뜻인데, 이 숫자가 떨어진다는 건 예금으로 확보한 자금보다 대출로 나간 돈이 적어 자금에 여유가 생긴다는 뜻이다. 올 1분기(1~3월) 말 KB국민·신한·하나·우리 등 4대 시중은행의 예대율은 평균 95.3%다. 전년 같은 기간보다 2.6%포인트 떨어졌다. 이에 은행들이 일부러 예금 유치를 줄이는 ‘디마케팅’에 나섰다는 말이 나온다. 한 은행 관계자는 “예금을 의도적으로 줄이는 것까진 아니더라도 무리하게 조달할 필요가 없는 상황인 것은 맞는다”고 했다.한은에 따르면, 작년 한해 월평균 16조5000억원 늘었던 은행 정기예금은 올 들어 2월엔 2조4000억원 느는 데 그쳤고 3월부터 감소세로 돌아서 3월에 8조8000억원, 4월에 6조4000억원 줄었다.◇증권사 CMA 금리도 ‘뚝’시중 금리 하락세로 은행 정기예금 외에도 시장 금리를 반영하는 금융상품 금리가 떨어지고 있다. 하루만 넣어도 이자를 받을 수 있어 인기를 끌었던 발행어음형 종합자산관리계좌(CMA) 이자도 떨어지는 것이다. 발행어음은 증권사가 발행하는 1년 이내 단기 금융 상품으로 주식, 채권 등에 투자해 수익을 내 고객에게 이자처럼 돌려 준다.미래·한투·NH·KB 등 4개 증권사의 발행어음형 CMA 1년 약정 금리는 지난 3월 4.05~4.3%에서 4월 연 2.95~3.6%로 떨어졌다. 하단이 연 2%대까지 내려간 것이다.◇4%대 고금리 남은 곳은은행 예금 금리는 떨어지는 상황이지만, 원금 손실을 꺼리는 은행 고객들이 갑자기 주식 등 위험 자산으로 눈을 돌리기는 어렵다. 그런데 한동안 평균 연 3%대를 유지하던 저축은행 예금 금리가 오를 조짐을 보이고 있어 소비자들이 은행 예금의 대안으로 따져보기 시작하고 있다.12일 저축은행중앙회에 따르면 전국 79개 저축은행의 1년 만기 정기예금 평균금리는 연 3.93%로 집계돼 연 4%가 목전이다. 저축은행 예금 평균금리는 지난 2월 중순 연 4.03%에서 하루 만에 연 3.99%로 떨어진 뒤 줄곧 연 3%대를 유지 중이었다.최근 예금금리를 올린 OK저축은행과 웰컴저축은행, 상상인저축은행 등은 정기예금 금리를 각각 최고 연 4.21%, 연 4.2%, 연 4.11%로 주고 있다. 저축은행중앙회에 공시된 예금 상품 중 약 절반이 연 4%대다. 한때 저축은행 금리가 시중은행보다도 낮아지며 예금액이 줄자 다시 예금금리 인상에 나선 것이다.은행들 중에선 그나마 인터넷전문은행이 현재 기준금리(연 3.5%) 수준의 금리를 주고 있다. 케이뱅크 ‘코드K정기예금’이 연 3.6%, 카카오뱅크 정기예금이 연 3.4% 금리를 주고 있다. 토스뱅크의 경우 ‘먼저 이자 받는 정기예금’이 만기 6개월에 연 3.5%를 주고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2023.05.12.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>‘세계최초’ 금리 낮은 대출 골라주는 플랫폼 뜬다</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005484274?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>금융위, 대환대출 인프라 사전점검 간담회 개최53개 금융회사 대출 낮은 금리로 손쉽게 갈아타김주현 "과도한 수수료 부담 소비자 전가 안돼"[이데일리 노희준 기자] 이달 31일부터 대출시장 대이동이 시작된다. 온라인에서 대출 상품을 비교한 뒤 금리가 더 낮은 상품으로 바로 갈아탈 수 있는 플랫폼이 가동된다. 세계 최초 금융혁신 플랫폼으로 오프라인 지점을 방문해야 하는 번거로움을 없애주고 금리 인하 경쟁이 촉발될 것으로 기대된다.김주현 금융위원장 (사진=금융위)금융위원회는 12일 서울 광화문 금융위 대회의실에서 5대 은행 및 주요 플랫폼사들과 오는 31일 개시 예정인 ‘온라인·원스톱 대환대출 인프라’의 구축상황 점검을 위한 간담회를 개최했다. 대환대출 인프라는 온라인 상에서 여러 금융회사 대출을 비교한 뒤 한번에 갈아탈 수 있도록 돕는 시스템이다. 토스, 카카오페이 등 플랫폼 회사가 현재 서비스하고 있는 ‘대출 비교 서비스’와 금융결제원의 ‘대출 이동 시스템’을 결합한 것이다. 인프라가 구축되면 고객들은 토스 등 온라인 대출 비교 서비스에서 갈아타고 싶은 저금리 대출을 선택한 뒤 연결된 저금리 대출을 취급하는 금융기관 앱으로 이동해 대출을 갈아타면 된다.인프라를 통해 대출을 갈아타는 회수는 중도상환수수료 유무에 따라 달라진다. 개인신용대출 중 중도상환수수료가 없는 카드론과 마이너스통장은 대출 실행 후 6개월이 지난 ‘숙성된 대출’만 대출 갈아타기가 가능하다. 너무 잦은 대출 이동이 금융시장 불안으로 이어질 수 있다는 우려를 감안한 조치다. 중도상환수수료는 약정 만기 이전에 대출을 갚으면 물어야 하는 수수료다.반면 중도상환수수료가 있는 대출은 ‘6개월 경과규정’ 없이 바로 갈아탈 수 있다. 다만 대출 자체의 중도상환수수료는 차주가 물어야 한다. 중도상환수수료가 일종의 대출 갈아타기의 문턱이 돼 급격한 자금 이동이 제한된다는 게 금융당국 판단이다. 중도상환수수료가 있는 대출에 별도의 경과 규정을 두지 않는 이유다. 개인신용대출 중 직장인대출 등 일반신용대출은 중도상환수수료가 있다.소비자는 대환대출 인프라에서 대출 갈아타기에 필요한 정보를 미리 확인할 수 있게 된다. 금융당국은 기존대출 원리금 정보뿐만 아니라 중도상환수수료와 상환가능 여부까지 대환대출 인프라에서 보여줄 계획이다. 상환가능 여부란 갈아타기를 할 수 있는 대출인지를 알려주는 것이다. 가령 대출에 압류가 돼 있으면 갈아타기가 불가능하다.금융당국은 이와 함께 대환대출 인프라를 통해서 다수 대출상품을 조회하더라도 소비자 신용점수가 떨어지지 않게 할 계획이다. 이를 위해 현재 민간 대출비교 플랫폼에서 다수 대출 비교 조회가 1회로 인정되고 있는 것과 마찬가지로 대환대출 인프라에도 이를 동일하게 적용할 방침이다. 김주현 금융위원장은 “금융업계와 핀테크 업계는 이번 대환대출 인프라 구축의 목적이 투명하고 공정한 경쟁을 통해 소비자의 이익을 증진시키키 위한 것임을 명심해 달라”며 “목적에 맞지 않게 과도한 수수료 부담을 소비자에 지우거나 금융업계의 건전한 영업, 시장 안정을 저해하는 행태가 나타나지 않도록 각별히 유의해 달라”고 당부했다.금융위는 이후에도 31일 이전까지 인프라의 세부적인 준비상황을 계속 점검해 나갈 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2023.05.03.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>"우리 아이 주식부자 만들어 볼까"…혜택 많은 증권사 어디?</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000214920?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>미성년 자녀 명의 증권 계좌 개설 관심↑어린이날이 다가오는 가운데 미성년 자녀를 둔 부모 투자자들이 자제의 계좌 개설에 관심을 보이고 있다. /더팩트 DB어린이날이 다가온 가운데 미성년 자녀 명의의 증권 계좌 개설에 대한 관심이 고조되고 있다. 금융당국이 지난달부터 법정대리권을 가진 부모가 비대면 방식으로 자녀 명의 계좌를 개설할 수 있도록 하면서 계좌개설은 한층 수월해진 상태다.3일 업계에 따르면 금융위원회는 지난달 9일 '비대면 실명확인 가이드라인'을 개편했다. 금융당국이 지난해 7월 발표한 '금융규제혁신 추진방향' 이행 조치의 일환이다. 기존에 자녀 계좌를 개설하면서 관련 서류 출력과 금융회사 영업점 방문 등 번거로운 절차가 많았으나, 가이드라인 개편으로 계좌 개설 전 과정을 모바일에서 처리할 수 있게 됐다. 계좌 개설을 위해서는 본인 확인과 가족관계를 확인할 수 있는 △부모 신분증 △가족관계증명서 △기본증명서 등이 필요하다. 실제 계좌 개설까지는 1~2영업일이 소요된다.이에 따라 KB증권과 NH투자증권, 미래에셋증권 등은 비대면 계좌 개설 서비스를 도입하고 나섰다. KB증권은 가장 먼저 발빠르게 움직였다. KB증권은 미성년 자녀 비대면 계좌개설 서비스를 지난달 18일 'M-able mini(마블 미니)'에 오픈했다. 같은 달 29일부터는 'M-able(마블)'에서도 서비스를 이용 가능해졌다.KB증권은 서비스 오픈을 기념, 국내거주 개인고객 대상으로 '우리 아이 부자만들기' 이벤트를 이달 19일까지 진행한다. 국내외 대표 종목 6개(애플·테슬라·마이크로소프트·삼성전자·LG에너지솔루션·현대차) 중 1만 원 상당의 소수점 주식을 증정하는 게 골자다. 또 KB증권은 자녀 계좌로 국내 또는 해외주식 정기구매 서비스에 가입하면 해외주식쿠폰 1만 원을 추가로 증정한다. KB증권 최초 고객이라면 '웰컴초이스' 이벤트를 통해 부모와 자녀 모두 1만 원 금융쿠폰 혜택도 받을 수 있다.KB증권 관계자는 "우리 아이 부자만들기 이벤트는 미성년 자녀를 둔 부모들 사이에 큰 호응을 얻어 시행 3일 만에 약 3000명이 신청했다"면서 "특별한 날 의미있는 선물을 위해서 서류 심사 등 미성년 계좌개설 절차 소요기간을 감안해 미리 준비한다면 자녀에게 뜻 깊은 선물이 될 것"이라고 언급했다.NH투자증권도 지난달 18일 미성년자 비대면 계좌개설 서비스를 출시했다. 정부24앱에 로그인해 NH투자증권으로 관련 서류 보내기를 클릭한 후 계좌개설을 진행하면 된다. 미성년자 계좌개설 서비스는 NH투자증권 QV 또는 나무증권 모바일앱에서 이용 가능하다.NH투자증권은 서비스 출시를 기념해 이달 4일까지 가입자를 대상으로 이벤트를 진행한다. NH투자증권은 부모가 자녀에게 선물하고 싶은 해외주식 종목을 선택하면 2만 원 상당의 소수점 주식을 선착순으로 증정한다. 애플과 테슬라, 마이크로소프트(MS), 알파벳, 버크셔 해서웨이 클래스A 등 5개 대표 해외주식 종목 중 고르면 된다. NH투자증권은 어린이날을 맞아 최초 미성년자 계좌일 경우 금액에 상관없이 1회 주식거래 시 투자지원금 30달러도 제공한다.정영채 NH투자증권 대표는 "금융교육의 중요성이 커지면서 미성년자 계좌 서비스의 수요가 크게 늘었다"며 "비대면 자녀 계좌개설 서비스를 시작으로 미성년 고객들의 올바른 투자 습관을 정립하고 함께 성장해 나갈 수 있도록 다양한 서비스와 솔루션을 고민할 것"이라고 말했다.미래에셋증권은 지난달 26일부로 자녀 명의 비대면 계좌개설 서비스를 개시했다. 미래에셋증권은 서비스 출시를 기념, 최대 6만 원까지 자녀에게 투자 지원금을 제공한다. 최초 미성년자(만19세 미만) 신규 고객에게는 우리아이 첫 주식을 살 수 있는 2만 원을 제공하고, 부모님 계좌와의 가족결합을 하면 추가 1만 원, 해외주식 100만 원 이상 매수 시 추가 3만 원이 지원된다. 이벤트 기간은 오는 6월 30일까지다.키움증권도 지난달 27일부터 해당 서비스를 선보였다. 키움증권은 미성년자 비대면 계좌개설 서비스를 시행하면서 최대 9만원 상당의 혜택을 받을 수 있는 이벤트도 함께 실시 중이다. 주식 15종목을 증정하는 '주식 15종목 몽땅드림 이벤트'는 생애 최초 비대면 계좌를 개설만 해도 국내주식 1주와 미국소수점 주식 1종목을 지급하며, 거래 조건 모두 충족 시 국내주식 3주, 미국소수점주식 10종목을 추가 증정한다.키움증권은 또 미국주식 투자를 경험해 볼 수 있도록 이벤트 신청 시 40달러를 즉시 지급하는 '40달러 받고 미국주식 시작하자' 이벤트도 시행한다. 키움증권은 기간을 특정짓지 않고 한동안 계속해 이벤트를 진행한다는 방침이다. 키움증권 관계자는 "미성년 자녀에게 올바른 투자가치 확립과 투자에 대한 경험을 제공하기 위해 다양한 서비스와 콘텐츠를 제공할 것"이라고 말했다.삼성증권은 이달 내 서비스 출시를 위해 막바지 준비 중이다. 삼성증권 측은 "다음 주 정도면 서비스 오픈이 가능할 것"이라고 설명했다. 토스증권도 늦어도 6월 초 서비스를 출시할 예정이다. 이밖에 유안타증권과 이베스트투자증권, 하나증권, 메리츠증권 등이 연내 서비스 오픈을 계획 중에 있다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2023.05.02.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>토스뱅크 '먼저 이자 받는 정기예금' 출시 33일만 1조원 돌파</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004839728?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>토스뱅크 제공토스뱅크는 '먼저 이자 받는 정기예금' 상품이 출시 33일 만인 지난달 28일 판매액 1조원을 돌파했다고 2일 밝혔다.'먼저 이자 받는 정기예금'은 예금에 가입하는 동시에 즉시 이자(연 3.5%)를 지급하는 상품이다. 토스뱅크가 인터넷은행 최초로 선보인 서비스이자 토스뱅크의 첫 정기예금 상품이다.일반적으로 정기예금은 가입자가 만기까지 예금을 해지하지 않은 채 끝까지 보유한 경우에만 약정된 이자가 지급되는데, '먼저 이자 받는 정기예금'은 이자 지급 시기를 대폭 앞당긴 셈이다.다만 중도에 해지하면 원금에서 먼저 받은 이자를 차감한 후 중도해지금리(최저 연 0.1%)만 더한 금액이 지급된다.'먼저 이자 받는 정기예금'의 가입 가능 금액은 최소 100만원, 최대 10억원이다. 가입 기간은 3개월 또는 6개월 중 하나를 선택해야 한다. 금리는 가입 금액이나 기관과 무관하게 3.5%(세전)다. 세금은 만기일에 차감된다.예를 들어 '먼저 이자 받는 정기예금'에 1억원을 3개월(92일 기준) 동안 맡긴 경우 세전 금액인 88만원을 가입과 동시에 받을 수 있다. 가입자는 먼저 받은 이자인 88만원을 또 다른 금융상품에 재투자하며 돈을 불릴 수 있다.'먼저 이자 받는 정기예금' 판매액은 토스뱅크가 지난 3월 24일 이 상품을 출시한 이후 4일 만에 1000억원을 넘었고, 15일 만에 5000억원을 돌파했다. 하루 평균 303억원씩 예금이 유입된 셈이다.토스뱅크는 '먼저 이자 받는 정기예금' 가입자의 67%는 가입 기간을 3개월로 설정했다고 밝혔다. 6개월을 택한 가입자는 33%였다.가입자의 연령대 분포를 보면 40대가 30.5%로 가장 높은 비중을 차지했고, 50대 이상(26.8%), 30대(26.1%), 20대(15.6%), 10대(1.0%) 순이었다.만기를 채운 고객은 '자동 재가입' 서비스를 통해 최대 3회까지 '먼저 이자 받는 정기예금' 상품에 재가입할 수 있다. 토스뱅크는 오는 17일부터 1인 1계좌로 묶인 '먼저 이자 받는 정기예금'의 가입제한도 없앨 계획이다.토스뱅크 관계자는 "그동안 정기예금에 가입해도 가입자는 만기일까지 이자금액이 얼마인지 투명하게 알기 어려웠는데, '먼저 이자 받는 정기예금' 상품은 고객들이 보다 투명하고 직관적으로 이자 혜택을 누릴 수 있도록 했다"며 "토스뱅크는 앞으로도 고객이 즉각 체감할 수 있는 혜택과 금융 서비스를 제공할 수 있도록 노력하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2023.05.09.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>"토스 억울할 만"…후불 결제 연체율 치솟은 '진짜' 이유 [조미현의 Fin코노미]</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004842344?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>사진=뉴스1최근 국회에서 네이버페이·카카오페이·토스 등 핀테크 기업이 선보인 '후불 결제(BNPL) 서비스' 연체율이 급등했다는 지적이 나왔습니다. 최승재 국민의힘 의원이 금융감독원에서 받은 자료에 따르면 지난 3월 말 기준 국내에서 후불 결제 서비스를 제공하는 네이버파이낸셜, 카카오페이, 비바리퍼블리카(토스) 등 핀테크 3사의 연체율은 지난해 말 대비 일제히 상승한 것으로 나타났는데요.71만명이 이용한 네이버파이낸셜은 지난 3월 말 기준 연체율이 2.7%로, 3개월 사이 0.56%포인트 올랐습니다. 1년 전 같은 달(1.26%)보다 1.44%포인트 오른 수치입니다. 이용자 수 3만명인 카카오페이 연체율은 0.51%로, 전년 말(0.09%) 대비 5배 이상 뛰었습니다. 특히 192만명이 이용 중인 토스의 후불 결제 연체율은 5%에 달했는데요. 지난해 말 3.48%였던 연체율은 불과 3개월 새 1.52%포인트 급등했습니다.후불 결제는 신용거래 내역이 적어 신용카드 발급이 어려운 대학생이나 주부 등 '금융 이력 부족자'도 간편결제 업체를 통해 물건을 산 뒤 다음 달 지정한 결제일에 대금을 치를 수 있게 해주는 서비스입니다. 마치 신용카드를 사용한 것처럼요. 네이버페이·토스는 월 최대 30만원, 카카오페이는 월 최대 15만원까지 후불 결제가 가능합니다. 신용카드와 원리가 비슷하지만, 할부는 안 됩니다.올해 1분기 연체율 1%대를 기록한 카드사와 비교하면 핀테크 3사의 후불 결제 연체율이 심각해 보이는 건 사실입니다. 하지만 사정을 따져보면 연체율이 급등한 건 그럴 만한 이유가 있습니다.일반적으로 연체가 발생하면 은행이나 카드사는 연체자에 대한 정보를 공유합니다. 만약 개인이 A 은행에서 대출 상환 연체가 발생하면 다른 은행에도 정보가 공유됩니다. 대출이 제한되는 건 물론입니다. 카드사도 마찬가지입니다. 만약 B 카드사에서 연체되면 정보가 공유되고 C나 D 카드사 이용이 어려워집니다. 당연히 개인 신용점수도 하락합니다.하지만 후불 결제는 그렇지 않습니다. 금융위원회가 후불 결제를 허용해 주면서 다른 핀테크 기업이나 금융기관과의 정보 교류를 금지했고, 신용정보에도 영향을 주지 않도록 했기 때문입니다. 당시 금융위는 "금융 이력 부족자의 제도권 금융 이용 기회가 제한되는 상황을 최소화할 것"이라고 못 박았습니다.쉽게 말해 후불 결제 이용자가 연체하더라도 압박하지 말라는 건데요. 이렇다 보니 핀테크 기업들은 상대적으로 연체율 관리에 어려움을 겪을 수밖에 없는 것입니다.업계 관계자는 "연체율이 사전에 올라가는 걸 막을 방법이 거의 없다"며 "모럴 해저드(도덕적 해이)가 나타날 수밖에 없다"고 말했습니다. 또 다른 관계자는 "연체 정보를 공유할 수 없고 신용점수도 하락하지 않는다는 사실을 알게 되면 30만원쯤 연체해도 된다는 생각이 들 수도 있지 않겠느냐"며 "자발적 연체자를 양산하게 되는 꼴"이라고 꼬집었습니다.연체율 관리에 대한 손발이 묶인 상황에서 정치권이 연체율 관리를 압박하니 핀테크 기업들로서는 억울할 수밖에 없습니다. 그렇다고 핀테크 기업들이 리스크 관리에 손을 놓고 있는 건 아닙니다. 연체율은 관리할 수 없지만, 카드사처럼 돈을 떼일 걸 가정해 대손충당금을 쌓고 있습니다.후불 결제의 연체율은 높은 건 사실이지만, 전체 연체액 규모는 445억3600만원으로 미미한 수준입니다. 주요 카드사의 전체 연체율은 1%대인데 금액으로 따지면 지난해 말 기준 2조원에 달합니다. 후불 결제 서비스를 선보인 핀테크 기업에 대한 우려와 비판이 과해 보이는 이유이기도 합니다.후불 결제는 금융 이력이 부족한 사람들에게는 단비 같은 서비스입니다. 저신용자나 연체 위험군을 대상으로 한 것이 아니라 주부·대학생·사회초년생 등 금융사와의 거래 이력이 부족해 신용 평가를 제대로 받지 못하는 '씬 파일러(thin filer)'를 겨냥한 것입니다. 지난 2021년 금융위가 '혁신금융서비스'로 지정하면서 2년 동안 한시적으로 사업을 허용했습니다.애플 역시 비슷한 사업을 지난 3월 시작했습니다. 애플페이 레이터가 그것인데요. 수수료나 이자 없이 결제금액을 6주 동안 4번에 걸쳐 나눠 상환할 수 있습니다. 일시 상환만 가능한 한국보다 더 발전적인 모델입니다. 최대 1000달러(약 130만원)까지 이용할 수 있고, 한국처럼 한시적으로 허용된 것도 아닙니다.최승재 국민의힘 의원은 "경각심을 가지고 관리 감독을 강화하고 규제체계를 논의할 필요가 있다"고 했습니다. 틀린 말은 아닙니다. 하지만 핀테크 기업들을 규제로 옥죄기에 앞서 제도의 결함이 연체율을 끌어올린 것은 아닌지 면밀히 따져볼 필요가 있습니다. 오히려 강한 규제가 모럴 해저드를 부추기는 아이러니한 상황은 아닌지 돌아봐야 할 것입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2023.05.07.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>걸을수록 쌓이는 포인트…돈 버는 '만보기 앱' 주목</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004841464?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>짠테크 &amp; 핀테크캐시워크·토스 만보기 걸음 수 따라 포인트 지급우리·웰컴저축銀 워킹적금목표 달성시 年10% 금리사진=게티이미지뱅크걷기 좋은 계절이 왔다. 따사로운 햇살과 함께 산책하며 돈까지 벌 수 있다면 어떨까. 걸음 수에 따라 현금처럼 쓸 수 있는 포인트 등 각종 혜택을 주는 상품이 적지 않다.대표적인 ‘돈 버는 만보기’ 앱은 캐시워크다. 캐시워크는 매일 최대 1만보를 걸으면 총 100캐시를 제공한다. 1캐시는 1원의 가치다. 매일 100캐시를 모은다면 한 달이면 3000원이다. 이렇게 쌓인 캐시로 캐시워크 앱 내에서 상품을 구입할 수 있다. 스타벅스 커피부터 편의점, 영화관 티켓, 외식, 온라인몰 등에서 다양하게 쓸 수 있다.캐시워크에서는 100보를 걸을 때마다 뜨는 보물상자 버튼을 눌러야 캐시가 적립된다. 매일 밤 12시에 캐시가 초기화되기 때문에 그 전에 버튼을 눌러줘야 한다.토스도 만보기 기능이 있다. 사용자 휴대폰에서 측정된 걸음 수와 위치 정보에 따라 포인트를 제공한다. 1000보를 걸으면 10원, 5000보 땐 추가 10원, 1만보를 걸을 땐 20원이 추가 적립되는 식이다. 토스에서 지정한 장소로 가면 20원(최대 100원)을 적립해 준다. 반드시 토스 앱 내 만보기 페이지에서 ‘받기’ 버튼을 눌러야 포인트를 받을 수 있다. 토스 만보기 역시 포인트가 밤 12시에 초기화되기 때문에 그 전에 받기를 끝내야 한다.삼성그룹의 금융 계열사가 내놓은 앱 모니모에서는 한 달 간격으로 ‘걷기 챌린지’ 참가자를 모집한다. 하루 5000보를 걸으면 모니모 내 포인트인 ‘젤리’를 지급하고, 챌린지 기간 목표 걸음을 100% 달성하면 스페셜 젤리를 제공한다. 젤리 한 개는 10원, 스페셜 젤리는 1000원 이상의 가치가 있다. 젤리는 ‘모니머니’로 교환 가능하고, 모니머니는 현금화할 수 있다. 사용하지 않은 젤리는 적립된 달의 말일 오후 11시59분에 소멸한다.걸음 수에 따라 우대금리가 쌓이는 적금 상품도 나왔다. 우리은행의 데일리워킹 적금은 최고 연 10%의 우대금리를 제공한다. 가입 기간은 6개월이고, 가입 금액은 매일 1만원 이하다. 즉 최대 저축 가능액은 180만원(원금 기준)이다. 매일 입금일에 1만보 이상 걷고 우리WOM뱅킹 상품 전용 페이지에서 ‘성공’을 누르면 우대금리가 적용된다. 가입 기간에 우리은행 상품과 서비스 마케팅 동의 항목 중 전화(휴대폰) 및 SMS 항목에 모두 동의하고 만기 해지 시점까지 유지해야 한다.국민은행도 걸음 수에 따라 우대금리를 제공하는 온 국민 건강적금을 선보였다. 기본 금리는 연 2%로 한 달에 10만보를 걷고 걸음 수를 확인하면 최고 연 8% 금리를 챙길 수 있다. 월 20만원씩 6개월간 적립하는 상품이다. 일상생활에서 하루 30분 걷는 수준으로 목표치를 낮춰 부담이 적다는 게 국민은행의 설명이다.웰컴저축은행은 최고 연 10% 금리의 ‘웰뱅워킹적금’을 출시했다. 기본 금리 연 1%에 100만보씩 달성할 때마다 추가 우대금리를 제공한다. 이 상품에 가입하려면 충청남도체육회가 운영하는 ‘걷쥬’ 앱을 설치해야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2023.05.06.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>"지금 당장 돈 빼세요"..누구를 위한 '찌라시'인가[씬나는경제]</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005479665?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>영화 ‘찌라시: 위험한 소문’ 정·재계 얽힌 정보업 실상이해관계 의한 근거 없는 정보 통용, 큰 피해 일으켜금융권 ‘뱅크런’ 소문에 진통…금융안정까지 위협 받아[이데일리 이명철 기자] 영화 속 장면 곳곳에는 우리가 살아가고 있는 현실이 담겨있습니다. 씬(Scene)을 통해 보이는 경제·금융 이야기를 자유롭게 풀어봅니다. [편집자주] ※스포일러 주의: 영화의 줄거리와 결말이 노출될 수 있습니다.찌라시에 소속 여배우를 읽은 우곤은 유통업체 대표인 정사장을 만나 헛소문의 진원지 추적에 나선다. (사진=CJ ENM)“비밀이 진실을 잃는 순간, 그것이 찌라시가 된다.”연예기획사에서 쫓겨난 후 1인 기획사를 세운 우곤(김강우). 서로 믿고 의지하며 착실한 성과를 이뤄내던 소속 연예인 미진(고원희)이 극단적 선택을 하고 맙니다.이유는 미진이 의원인 남정인(안성기)과 불륜 관계라는 속칭 ‘찌라시(정보지)’가 돌았기 때문입니다. “미진이가 죽는 순간 나도 죽었다”는 우곤은 직접 찌라시를 만든 업체 추적에 나섭니다.찌라시에 목숨 잃은 여배우, 실상 알고 보니 영화 ‘찌라시; 위험한 소문’은 증권가 찌라시로 터진 대형 스캔들에 여배우를 잃은 우곤이 최초 유포자를 찾아 나서게 되고 여기서 정·재계의 거대한 비밀을 마주하게 되는 내용을 다뤘습니다.우곤의 유일한 소속 배우였던 미진은 남정인 의원과 부적절한 관계를 맺었고, 그러한 장면을 찍은 영상이 있다는 찌라시가 나돌면서 큰 타격을 입습니다. 미진을 주연으로 한 드라마마저 좌초 위기에 처하게 되죠.미진을 달래러 치맥을 들고 방문한 우곤은 화장실에서 목을 매고 숨진 미진을 발견하게 됩니다. 자신의 전부였던 미진이 죽게 되자 물불을 가리지 않게 된 우곤은 찌라시 유통업체를 찾아내고 그곳의 책임자인 박사장(정진영)을 만납니다.하지만 그곳은 일개 유통업체일 뿐이었고 사실을 알고 보니 청와대 정책실과 대기업인 오앤씨 등의 얽힌 관계를 알게 됩니다.청와대와 오앤씨그룹간 검은 커넥션의 뒷처리를 담당하는 차성주. 피도 눈물도 없는 인물이지만 결국 돈의 노예다. (사진=CJ ENM)오앤씨는 청와대 정책실장인 박영진(김의성)과 합을 맺고 부당한 이득을 취해왔습니다. 이 과정에서 걸림돌이 된 남정인 의원을 제거하기 위해 미진과 불륜 관계라는 근거 없는 소문을 만든 것이죠.알고 보니 미진은 청와대 비서관인 조우찬(임형준)이 우발적으로 살해한 것이고 오앤씨측의 행동대장격인 차성주(박성웅)가 자살로 위장했다는 사실도 알게 됩니다. 우곤 일행은 조우찬의 범행 영상을 대중에게 전파하고 오앤씨의 국정 개입 정황도 만천하에 알리게 됩니다.영화 자체는 일반적인 범죄 스릴러 영화와 큰 차이가 없지만 찌라시의 유통 경로를 구체적으로 묘사했다는 점이 흥미롭습니다. 각 회사의 정보 담당자들이 정기적으로 모여 회의를 하고, 공통되는 정보가 있으면 정보지를 만들어 배포한다는 것이죠. 주의할 점은 정보지엔 단순 사실만 포함되는 것이 아니라 정·재계 등의 이해관계를 감안해 의도적인 정보도 들어가게 된다는 것입니다.영화 말미에 나오는 대사처럼 ‘진실이 없는 비밀’은 결국 근거 없는 찌라시가 되어 여러 사람들에게 피해를 입히게 됩니다. 그 와중에 누군가는 이득을 얻게 되겠지만요.근거 없는 헛소문, 이득 얻는 세력 누구인가최근 금융·증권가에서도 다양한 찌라시들이 나와 화제가 됐습니다. 현재 증권업계에서 가장 큰 화두인 ‘SG사태’의 경우 임창정 같은 연예인은 물론 증권사 대표 등이 연관된 것으로 알려지면서 다양한 소문이 찌라시 형태로 돌았습니다.금융권에서는 지난달 뱅크런(대규모 예금 인출)과 관련한 찌라시가 돌아 관련 금융회사들이 곤혹을 치르기도 했습니다.뱅크런이란 수많은 고객들이 예금을 한꺼번에 인출해 은행 자금이 동나고 결국 부도에 이를 수 있게 하는 사태입니다. 3월부터 실리콘밸리은행(SVB), 크레디트스위스(SC) 등 대규모 은행들이 부도 위기를 맞으면서 국내서도 ‘은행이라고 안심할 수만은 없다’는 인식이 퍼졌습니다.정보업계 모임에 위장으로 참가한 우곤. 참석자들은 정보의 선정성에 집중하지 예상되는 피해 등은 생각하지 않는다. (사진= CJ ENM)인터넷은행인 토스뱅크와 2금융권의 새마을금고와 OK·웰컴저축은행 등이 잇따라 찌라시의 타깃이 됐습니다. 뱅크론의 내용은 크게 다르지 않습니다. 부동산 프로젝트파이낸싱(PF) 대출이 부실화하거나 유동성 위기를 겪으면서 대규모로 자금이 빠져나가고 있다는 것이었습니다.소문이 돌자 각 회사들은 유동성 위기나 뱅크런 우려를 일축하며 진화에 나섰습니다. 비록 회사 자산 건전성에 대한 지적은 있을지라도 당장 위기를 겪을 상황이 아닌데도 뱅크런 찌라시가 기존 고객은 물론 금융시장을 불안하게 만들 수 있었기 때문입니다./금융회사 한곳이 도산하게 되면 비단 그 회사만의 문제가 아니게 됩니다. 각 금융회사들은 서로 밀접한 직·간접 관계를 맺고 있기 때문입니다. 한곳의 도산이 다른 곳에도 영향을 미쳐 도미노 같은 위기가 발생할 수 있습니다.이에 금융당국도 근거 없는 소문을 엄정 대처하겠다고 경고했습니다. 저축은행업계는 찌라시 최초 유포자를 찾기 위해 경찰에 수사를 요청하기도 했습니다.저축은행업계 관계자는 “헛소문이 퍼진 저축은행은 실제로 위기가 발생하지 않았는데도 소비자들 사이에서는 ‘부실 저축회사’란 오명이 씌워졌다. 예금이 한번 빠져나가면 다시 되돌리기가 쉽지 않다”고 호소했습니다.누가 어떤 이익을 얻기 위해 근거 없는 소문을 퍼트렸는지 알기 전에 이미 당자자가 입는 피해는 큽니다. 최초 유포자를 잡기 위한 수사 강화도 필요하지만 단순히 소문이 돌았다고 쉽게 동요하지 않는 냉철함과 객관성도 필요한 시기입니다.[영화 평점 2.5점, 경제 평점 3.0점(5점 만점)]영화 ‘찌라시; 위험한 소문’ 포스터. (사진=CJ ENM)</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2023.05.05.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>코인거래소 ‘올킬’한 수이…이더리움 넘볼까[코인사이트]</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005126118?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>[코인사이트-1] 블록체인 레이어 전쟁코인사이트(Coinsight)가상자산시장은 하루가 다르게 변합니다. 항상 새로운 이야기(내러티브)가 생깁니다. 코인사이트는 가상자산시장이 변화하는 속도감을 즐기는 사람들이 많아졌으면 하는 바람에서 시작합니다.  시장이 어떤 방향으로 가고 있고 그 분야의 최전선에 있는 내러티브가 무엇인지 공부한 취재 노트를 독자 여러분과 공유합니다.코인투자자들에게 최근 가장 큰 기대를 모은 가상자산 프로젝트 ‘수이(SUI)’가 동시에 국내 5대 원화거래소에 모두 상장됐다. 국내 최대 코인 거래소인 업비트는 4일 오전 9시 수이를 상장했다. 빗썸, 코인원, 코빗, 고팍스는 모두 전날 상장했다.국내 5대 거래소가 동시에 특정코인을 상장한 건 보기 드문일이다. 이들이 수이를 앞다퉈 상장하는 건 이 프로젝트가 글로벌 가상자산 시장에서 큰 주목을 받고 있기 때문이다. 왼쪽부터 수이를 개발한 샘 블랙시어 미스틴랩스 최고기술책임자, 에반 청 미스틴랩스 최고경영책임자(CEO), 아데니이 아비오둔 미스탠랩스 최고제품책임자(CPO)&lt;사진=미스틴랩스&gt;메타가 이끈 수이의 인기수이가 인기를 끈 가장 큰 배경은 해당 코인의 출발이 메타(전 페이스북)에서 이뤄졌기 때문이다. 수이는 메타 출신 코인이다. 메타가 자체 코인을 개발하려고 했던 ‘리브라 프로젝트’가 취소되면서 해당 개발자들이 메타에서 나와 별도로 개발한 게 수이다.이런 배경을 통해 수이의 개발사 미스틴랩스는 지난 2021년 3600만 달러 규모의 시리즈A, 3억 달러 규모의 시리즈B 투자를 유치하는 등 메인넷 출시 전부터 유력 벤처캐피탈(VC)들의 관심을 받아왔다.코인투자에 관심이 많은 사람은 모두 알겠지만 수이와 형제인 코인이 이미 하나있다. 바로 ‘앱토스(APT)’다. 코인 티커가 APT로 한국에선 ‘아파트’라는 별칭으로도 불리는 앱토스 또한 메타 출신 개발자가 만든 프로젝트다.앱토스는 지난 1월 가격이 5배나 뛰면서 인기를 끌었다. 당시 앱토스의 전 세계 거래량 중 30%가량을 한국 거래소인 업비트가 차지했다. 국내거래소들이 앱토스에 꼭 닮은 수이를 앞다퉈 상장한 건 앱토스를 통한 투자 열풍이 ‘수이’를 통해서 이어지길 바라는 마음이 있어서다.수이는 블록체인의 트릴레마를 넘어설까 블록체인의 트릴레마.&lt;사진=해시넷&gt;수이가 주목받는 또 다른 특징은 레이어1(L1) 블록체인이라는 점이다. 레이어1 블록체인은 비트코인이나 이더리움과 같은 기반이 되는 블록체인을 뜻한다.레이어1 블록체인이라는 점에 왜 주목받는지 알아보려면 블록체인에 대한 내용을 좀 더 알아볼 필요가 있다.블록체인은 신뢰 확보를 위해 장부를 나눠갖고 함께 검증하는 특성을 갖는다. 보다 많은 사람이 장부를 검증할 수록 장부는 탈중앙화된다. 정보도 모두에게 평등하게 공유된다. 기존 금융기관이 갖는 권력이 블록체인에선 없다. 하지만 거래 처리 속도가 현저히 느리다. 많은 사람이 검증을 해야하기 때문이다. 비트코인과 같은 블록체인이 확장성이 떨어지는 이유다.블록체인은 많은 사람이 검증에 참여한다. 하지만 검증에 참여한 100명중 51명이 짜고친다면 검증 내용이 실제와 틀릴 수 있다. 이러면 보안성이 떨어진다. 리플같은 경우 폐쇄형 블록체인으로 권한이 부여된 소수만 검증을 한다. 탈중앙화를 일부 포기한 대신 보안성을 높였다. 하지만 리플과 같은 형태는 중앙화된 기존 거래 방식과 크게 다를 바 없다는 비판을 받는다.블록체인은 이런 이유로 인해 확장성(Scalability), 탈중앙화(Decentralization), 보안성(Security)의 세 가지 문제를 한번에 해결할 수 없다는  ‘트릴레마’가 존재한다. 이더리움 레이어2.&lt;사진=쟁글 리서치&gt;다시 불붙는 L1 vs L2 전쟁블록체인이 점점 확장되면서 ‘확장성’문제는 가장 큰 난관으로 다가왔다. 보다 많은 사람들이 블록체인을 쓰려면 ‘쓸만한’ 네트워크여야한다. 편의점에서 1000원짜리 물건 하나 사려는데 몇십분이 걸린다면 아무도 안 쓸 것이기 때문이다.최근에는 이를 해결하기 위해 비트코인이나 이더리움과 같은 블록체인 위에 추가적인 블록체인을 연결하는 레이어2(L2) 프로젝트들이 인기를 끌고있다. 레이어2는 비트코인과 이더리움의 네트워크를 활용해 신뢰성을 담보하면서 속도를 올린 일종의 확장판이다. 레이어2 코인 프로젝트가 나오면서 자연스럽게 비트코인과 이더리움은 레이어1이 됐다.직전 상승장에선 레이어1 경쟁이 뜨거웠다. 비트코인과 이더리움보다 효율적인 네트워크를 운영한다는 걸 내세우면서 그들을 대체하겠다고 나온 것이다. 솔라나 등이 대표적이다. 하지만 2022년 루나사태, FTX사태 등 일련의 사태 이후 대부분 레이어1은 신뢰가 깨지면서 무너졌다.이들은 기본적으로 ‘목적’이 있기 때문이다. 비트코인과 이더리움이라는 기득권을 이겨내고 시장의 선택을 받으려면 자신의 목적과 장점을 홍보할 수밖에 없었다. 그러다 보니 이야기를 이끄는 주체가 필요했다. 필연적으로 탈중앙화가 충분히 되지 못했고, 위기가 왔을 때 쉽게 무너질 수밖에 없었다. 시장은 자연스레 비트코인과 이더리움의 완승으로 레이어1 경쟁을 끝내고 이제 그들을 활용한 레이어2 경쟁을 시작하자는 얘기가 형성됐다. 앱토스와 수이.&lt;사진=쟁글 리서치&gt;하지만 최근 다시 L1이 주목받고 있다. 앱토스나 수이와 같은 대형 L1 프로젝트들이 시장에 출시됐기 때문이다. 이 전쟁을 코인의 세계에선 모듈러와 모놀리틱의 대결이라고 말한다. 모듈러는 L2처럼 여러개의 블록체인이 층을 이루고 있는 걸 말한다. 모놀리틱은 L1처럼 하나의 블록체인에서 모든걸 다 해결하는 것이다.새롭게 시장에 출사표를 던진 L1들은 ‘확장성 높은 L1’이라고 본인들을 홍보한다. 애초에 L2가 등장배경이 L1의 낮은 확장성에 대한 비판이었기 때문이다. 솔라나(SOL), 앱토스(APT), 수이(SUI)등이 대표적인 프로젝트다. 이들은 빠른 TPS를 장점으로 내세우며 확장성 높은 L1임을 홍보한다. 이들은 각자의 기술을 내세워 거래처리 속도를 충분히 빠르게 만들 수 있다고 말한다. 탈중앙화된 L1인데다가 속도까지 빠르다면 블록체인의 트릴레마를 단숨에 해결할 수 있다.L2내에서의 기술경쟁이 끝나지 않은 점도 L1이 내세우는 비교우위의 포인트다. L2 프로젝트들은 간단한 결제는 자체적으로 처리한뒤 중요한 기록을 모아서 이더리움에 기록하는 식이다. 이 과정이 얼마나 제대로 되느냐가 관건이다. L2는 영지식증명(ZK)나 옵티미스틱 롤업 등의 기술을 개발해 이를 개발하고 있다. (이에 대한 내용은 다음 콘텐츠에서 자세히 다룰 예정이다.) L1은 L2의 이러한 방식이 구조적으로 안전하지 않다고 말한다. 하나의 블록체인으로 모든 내용을 처리하는게 안전하다는 얘기다.두개의 방식 중 어느 방식이 최종적으로 블록체인 생태계의 승리자가 될 지는 아직 지켜봐야한다. 하지만 두 방식간의 경쟁 속에 블록체인 기술은 더욱 빨리 발달할 것이다.*주의: 이 글은 특정 코인의 매수매도를 추천하지 않습니다.이 기사는 다음 콘텐츠를 참고했습니다.- 솔라나가 L1전쟁에서 이기는 방법(쟁글리서치)- 이더리움 레이어2 솔루션 L2 총 정리(쟁글리서치)</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2023.05.05.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>인터넷은행 10대 고객 확보 경쟁</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001099663?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>인터넷전문은행인 카카오뱅크와 토스뱅크가 10대 고객 확보에 나서고 있다.이들 은행이 선보인 선불전자지급 서비스가 어린이·청소년 고객 사이에서 인기를 끌고 있다.5일 은행권에 따르면 카카오뱅크가 운영하는 만 14∼18세 청소년 대상 선불전자지급 서비스인 카카오뱅크 미니(mini) 가입자 수는 지난달 말 기준 약 174만명을 기록했다.카카오뱅크 미니는 2020년 10월 출시된 청소년 전용 선불전자지급서비스로, 최대 50만원 한도로 충전해 편의점, 배달음식 결제, 대중교통 이용 등에 사용할 수 있다. 2020년 말 59만명이던 가입자 수는 2021년 말 115만명, 지난해 말 161만명으로 가파르게 늘었다.카카오뱅크 관계자는 "청소년 고객 사이에서 카카오뱅크에 대한 관심이 높다 보니 만 14세 생일에 카카오뱅크 미니를 개설하는 청소년 중 절반가량이 자정에서 새벽 2시 사이에 가입한다"고 설명했다.김석 최고운영책임자(COO)는 지난 3일 1분기 실적발표 콘퍼런스콜에서 "3분기 미니 대상 고객을 확대해 더 많은 청소년에게 금융 생활을 제공할 것"이라고 밝혔다.토스의 어린이·청소년용 선불카드인 '유스카드'는 지난달 말까지 누적 발급량 107만장을 돌파했다.토스가 지난해 2월 출시한 유스카드는 만 7∼16세 대상 충전식 카드다. 선불 전자지급 수단인 토스머니와 연동해 체크카드처럼 사용할 수 있다.편의점 CU에서 현금을 충전하는 방식으로도 이용할 수 있다.만 7∼18세 토스 사용자는 지난달 말 194만명을 돌파했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2023.05.12.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>금소연, '좋은 은행' 카카오뱅크 1위 선정...소비자는 KB국민은행</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002305031?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>KB국민은행...전년도 1위→2위SC제일은행...전년도 8위→3위광주은행, 총자산순이익률 1위 ◆…카카오뱅크 로고 사진=연합뉴스     2023년 금융소비자 평가 '좋은 은행'으로 지난해 2위였던 카카오뱅크가 1위를 차지했다.   11일 금융소비자연맹은 금융소비자에게 합리적인 은행 선택 정보를 제공하기 인터넷전문은행 3개사를 포함한 국내 19개 은행의 공시자료를 종합분석해 '2023년 좋은 은행' 순위를 발표했다. 이번 평가에는 2021년 10월 출범한 토스뱅크가 처음 포함됐다.   금소연은 해당 은행들의 경영공시자료와 소비자설문을 활용해 안정성(40%), 소비자성(30%), 건전성(20%), 수익성(10%) 등을 평가한 뒤 종합 순위를 매겼다.   분석결과에 따르면 카카오뱅크는 지난해 국민은행에게 1위를 빼앗겼다가 이번 평가에서 다시 1위를 탈환했다. 카카오뱅크는 안정성에서 1위를 차지했고 소비자성에서 4위, 건전성에서 5위, 수익성에서 7위를 기록했다. 특히 19개 은행사 중 국제결제은행 권고(Bank for International Settlement, BIS) 자기자본비율이 압도적으로 높았다.   전년도 1위였던 KB국민은행은 2위로 밀려났다. KB국민은행은 소비자성에서 1위를 기록했으며 수익성 5위, 안정성과 건전성에서 7위를 차지했다. 특히 국민은행은 소비자 인지·신뢰도가 가장 높았고 총자산이 가장 많았다. 전년도 8위였던 SC제일은행은 안정성 3위, 소비자성 5위, 건전성 2위를 기록했으나 수익성에서 14위로 종합순위 3위를 차지했다.   금융사 안정성 평가의 척도인 BIS자기자본비율의 업계 평균은 16.95%로 지난해(17.46%)보다 0.51%p 감소했다. 고객의 예금 인출 요구에 대응하는 지급 능력을 알 수 있는 유동성커버리지비율은 은행 평균 167.02%로 전년(137.78%) 대비 29.24%p 증가했다.   은행 19개 중 BIS자기자본비율이 가장 높은 은행은 36.95%인 카카오뱅크였다. 반면 BIS자기자본비율이 가장 낮은 은행은 토스뱅크로 11.35%였다. 유동성커버리지비율이 가장 높은 은행은 토스뱅크(640.32%)였고 신한은행은 97.88%로 가장 낮았다.   10만 명당 민원건수의 은행 평균은 0.66건으로 전년(0.92건) 대비 평균 0.26건 감소했다. KDB산업은행(0건)을 제외하면 SC제일은행(0.27건)이 10만 명당 민원건수가 가장 적었으며 가장 많은 은행은 지난해와 같이 제주은행(1.36건)이였다.   19개 은행사의 총자산 평균은 210조 1454억원으로 집계됐다. KB국민은행이 579조 1334억원으로 가장 많은 자산을 보유하고 있는 것으로 나타났다. 반면 제주은행은 7조 4022억원으로 가장 적었다.   은행의 수익성을 평가하는 총자산순이익률(ROA)의 평균은 0.49%로 전년 대비 0.7%p 증가했다. 총자산순이익률(ROA)이 가장 높은 은행은 광주은행(0.88%)이었으며, 가장 낮은 은행은 토스뱅크(-1.08%)였다. 순이자마진율(NIM)의 평균은 1.87%로 전년 대비 0.19%p 늘었다. 순이자마진율(NIM)이 가장 높은 은행과 낮은 은행은 전북은행(2.88%)과 KDB산업은행(0.63%)이었다.   2022년에 금융소비자연맹에서 실시한 '믿음직한 금융사 소비자 조사'에서는 KB국민은행이 33.3%의 압도적인 득표율을 보여 1위를 차지했고 제주은행은 0.1%로 가장 낮은 득표율을 보였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2023.05.02.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>토스뱅크, 먼저 이자 받는 정기예금 1조원 돌파</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011834638?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 이정필 기자 = 토스뱅크는 '먼저 이자 받는 정기예금'이 출시 33일 만에 판매액 1조원을 돌파했다고 2일 밝혔다. 토스뱅크에 따르면 먼저 이자 받는 정기예금은 지난 3월24일 출시 이후 나흘 만에 1000억원, 15일 만에 5000억원을 돌파한 바 있다. 일평균 약 303억원씩 유입되며 빠른 성장세를 보이고 있다.먼저 이자 받는 정기예금은 토스뱅크가 처음으로 선보인 정기예금 상품이다. 가입과 동시에 이자를 먼저 제공한다. 금리는 연 3.5%(세전, 만기일에 세금 차감)로, 가입한도는 최소 100만원에서 최대 10억원까지다. 가입 기간은 3개월이나 6개월로 짧게 유지해 고객 편의에 따라 운용할 수 있다.토스뱅크가 전체 가입 고객 데이터를 분석한 결과, 가입 기간을 3개월로 선택한 고객이 전체 고객의 약 67%를 차지했다. 나머지 약 33%의 고객은 6개월 기간을 선택했다. 연령대 분포를 보면 40대(30.5%)가 가장 높았다. 이어 50대 이상(26.8%), 30대(26.1%), 20대(15.6%) 10대(1.0%) 순으로 나타났다.먼저 이자 받는 정기예금은 고객이 가입하는 동시에 즉시 이자를 받는다. 예를 들어 1억원을 3개월간(92일 기준) 맡기는 고객은 세전 금액인 약 88만원을 즉시 받는다. 만기를 채운 고객은 '자동 재가입' 서비스를 통해 최대 3회까지 재가입할 수 있다. 중도해지는 고객이 원할 때 언제든 가능하다. 단, 먼저 받은 이자에서 중도해지 이자(가입기간에 비례)를 제외한 금액이 원금에서 차감된다.먼저 이자 받는 정기예금은 오는 17일부터 자금 운용의 유연성을 높여 달라는 고객의 니즈에 따라 1인 1계좌 가입제한을 없앨 예정이다. 고객은 목돈 예치의 목적에 따라 계좌 개설 제한 없이 원하는 수만큼 정기예금에 가입할 수 있게 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2023.05.09.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>비금융정보 활용 대출, 경기악화에 연체 쑥</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005127748?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>통신비 등 대안신용평가로기존 금융사와 다른대출 시도학생·주부 등 비우량차주 많아고금리·경기악화 지속되자시중銀 대비 연체율 크게 늘어인뱅, 주담대·전세대출 강화온라인투자연계금융업(P2P금융) 기업 렌딧이 지난 4월 말 기준 연체율이 6.88%라고 최근 공시했다. 석 달간 꾸준히 총 10억원이 넘는 부실 채권을 대부업체에 매각했는데도 연체율은 1년 전(3.63%)보다 약 1.9배 늘어났다. 그동안 렌딧은 자체 개발한 '렌딧 신용평가시스템'을 이용해 정교하게 신용평가를 할 수 있다고 주장했다. 신용평가사 데이터를 비롯해 월 소득, 신용카드 사용액, 공과금 연체 여부, 거주지 전세금, 매매가격 변동 추이 등 비금융 정보를 두루 활용한다는 설명이다.하지만 다양한 비금융 정보를 활용해 비우량 차주에게도 대출 문을 넓혀줬던 '대안신용평가'가 이어지는 경기 악화로 인해 한계를 드러내고 있다. 우량 차주와 담보대출 위주로 포트폴리오를 구성한 시중은행에 비해 연체율이 많게는 수십 배나 빠르게 증가하고 있다. 통신비 납부 이력, 도서 구매 정보 등을 동원해 중저신용자, 신파일러(금융 이력 부족자)에게도 대출을 직간접적으로 내줬던 핀테크 기업들이 연체율 급등이라는 부메랑을 맞고 있다.빅데이터, 기계 학습을 통해 신용평가를 할 수 있다고 했던 다른 P2P금융업체들의 상황도 비슷하다. 수시로 대출채권을 매각하고 있지만 빠르게 오르는 연체율에 개인신용대출 상품은 사실상 개점휴업 상태다. P2P금융 투자를 검토하던 저축은행들은 손실 우려에 발길을 돌리고 있다. 저축은행권 고위 관계자는 "P2P금융 기업들 중 제대로 신용평가를 할 수 있는 곳은 극소수에 불과하다"며 "연체율을 보면 저축은행과 유의미한 차이가 있는지 모르겠다"고 말했다.네이버파이낸셜(네이버페이), 비바리퍼블리카(토스)처럼 기술력이 높은 빅테크도 '선구매 후불결제(BNPL)' 서비스에서 연체율이 빠르게 오르고 있다. 이들 역시 쇼핑 내역을 비롯한 비금융 정보를 활용해 신파일러에게 대출을 해줬다. 최승재 국민의힘 의원이 금융감독원에서 제출받은 자료에 따르면 지난 3월 말 기준 토스의 BNPL 연체율은 5.00%로 전년 동기 대비 5%포인트 증가했다. 같은 기간 네이버페이는 2.70%로 1.44%포인트 증가했다. 은행과 비교하면 증가 속도가 수십 배다. 같은 기간 4대 은행 연체율은 0.07~0.09%포인트 증가하는 데 그쳤다. 은행권 관계자는 "여신 규모와 포트폴리오가 달라 일률적으로 비교하기는 힘들다"면서도 "대안신용평가 대출 연체율 증가 속도가 빠른 건 맞는다"고 말했다.시중은행과 마찬가지로 1금융권인 인터넷은행의 연체율 증가 속도 또한 무시할 수 없는 수준이다. 지난 1분기 말 기준 카카오뱅크 연체율은 0.58%로 1년 전(0.26%)보다 2배 이상 증가했다. 케이뱅크와 토스뱅크는 아직 1분기 말 연체율을 공개하지 않았지만 신용대출 비중이 높다는 특성상 카카오뱅크보다도 연체율 증가 속도가 빠른 것으로 알려졌다.인터넷은행은 중저신용자 대출에 비금융 정보를 활용한다. 최 의원이 금감원에서 받은 자료에 따르면 중저신용자 연체율 상승이 전체 연체율을 끌어올렸다. 대안신용평가 성능이 좋지 않자 인터넷은행들은 주택대출 시장에서 마이너스 가산금리를 내세우며 포트폴리오 개선에 나서고 있다. 금융당국의 중저신용자 대출 비율 규제는 분모에 해당하는 전체 잔액을 늘리지 않으면서 맞추고 주택담보대출, 전세대출을 강화하겠다는 것이다. 카카오뱅크는 최대 약 -0.3%포인트까지 마이너스 가산금리를 적용하는 주택담보대출 특판을 진행 중이다. 케이뱅크도 전세대출에 대해 최대 -0.1%포인트 마이너스 가산금리를 제공하고 있다.[서정원 기자]</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2023.05.06.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>코카콜라입니까, 펩시입니까?[김성모 기자의 신비월드]</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003495745?sid=104</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>글로벌 신(新) 비즈니스 가이드(36)‘신비월드’는 세계 각국에서 세상을 이롭게 이끄는 혁신적인 기업과 새로운 정보기술(IT) 소식들을 소개합니다. ‘파괴적 혁신’을 꾀하는 스타트업부터 글로벌 주요 기업까지, 빠르게 변해가는 ‘신(新) 글로벌 비즈니스’를 알차게 전달하겠습니다.  ● 2등 같은 1등, ‘펩시’코카콜라, 펩시코 등 미국 콜라 회사들이 1분기 깜짝 실적을 내놨다. 코카콜라는 올해 1분기 매출이 지난해 같은 기간보다 5% 늘어난 109억8000만 달러(약 14조7200억 원)를 기록했다고 지난달 24일(현지 시간) 밝혔다. 시장 전망치(108억 달러)를 웃돌았다. 순이익도 31억1000만 달러(약 4조1700억 원)로 전년보다 12% 증가했다. 펩시코도 웃었다. 펩시코의 1분기 매출은 178억5000만 달러(약 23조9400억 원)로 지난해 같은 기간보다 10% 이상 증가했다. 펩시코는 올해 매출 연간성장률 전망치도 기존 6%에서 8%로 올렸다.인플레이션에 따른 비용 부담을 줄이기 위해 가격을 올린 것이 긍정적인 영향을 미쳤다. 펩시코는 실적 발표에서 “1분기에 제품 판매량이 2% 감소했지만, 가격을 16% 올려 매출이 늘어났다”고 설명했다. 코카콜라는 가격을 비슷하게 올렸는데도 판매량이 3% 늘었다. 세계 최대 음료 판매 기업답다. 고물가 시기에는 기업들이 원자재나 인건비 부담 등을 이유로 제품 가격을 올린다. 고객에게 비용을 전가해 수익성을 개선하는 것이다. 생활필수품 회사나 애플처럼 가격결정력(상품값을 올려도 사고 싶은 마음이 크게 줄지 않는)이 있는 기업일수록 이를 잘 활용한다. 콜라 회사들도 비슷한 전략을 따른 것으로 보인다. 미국에서는 콜라를 사실상 생필품으로 분류한다. 피자, 햄버거에 콜라가 빠지기는 어려울 것 같긴 하다. 인정. 이번 신비월드에서는 창립 125주년을 맞은 펩시코를 소개한다. 1898년 사업을 시작한 펩시코는 콜라 시장에서 후발주자다. 코카콜라(1892년 출시)보다 늦게 출발해 ‘만년 2등’ 이미지가 강하다. 반면, 돈은 훨씬 더 잘 번다. (미국 주식 투자자들에게는 꽤 알려진 사실) 펩시코는 2000년대 초반부터 매출에서 코카콜라를 앞질렀다. 지난해 펩시코와 코카콜라는 각각 860억 달러(약 115조3000억 원), 430억 달러(약 57조7000억 원)의 매출을 거뒀다. 우리가 모르는 사이에 펩시가 코카콜라를 앞선 것일까. 그럴 리가. 콜라 시장에서 펩시코는 여전히 코카콜라 뒤를 쫓고 있다. 글로벌 시장조사기관 스태티스타에 따르면 미국 탄산음료 시장에서 코카콜라의 점유율(2021년 기준)은 46.3%에 달한다. 펩시(25.6%)의 두 배에 가깝다. 펩시의 점유율은 2000년대 중반 30% 수준에서 계속 떨어졌다.다수의 소비자가 코카콜라를 더 맛있다고 생각한다. 요식업 전문 매체인 매시드가 2021년 전 세계 3만6000명을 대상으로 한 조사에서 64%가 코카콜라를 더 좋아한다고 밝혔다. 36%만 펩시가 낫다고 답했다. “코카콜라 맛있다”는 아이돌 뉴진스의 가사가 옳다.일러스트 박초희 기자 choky@donga.com● 소련 무장해제 시킨 펩시  펩시코가 실적에서 코카콜라를 누른 비결은 사업 포트폴리오에 있다. 도리토스, 치토스, 프리토스, 레이즈, 러플즈, 토스키토, 썬칩 등 한국 소비자들에게도 잘 알려진 ‘과자’ 브랜드의 상당수가 펩시코가 보유한 스낵회사 프리토-레이의 제품들이다. 현재 펩시코의 연 매출에서 스낵 등 식품 비중은 50%를 넘어선다. 음료 부문도 구성이 다양하다. 탄산음료로 펩시와 세븐업, 시에라미스트, 마운틴듀, 스태리 등이 있다. 게토레이(스포츠음료), 아쿠아피나(생수), 소다스트림(홈메이드 탄산수) 립톤(차음료) 등도 전부 펩시코 제품이다. 미국의 스타벅스에서 판매 중인 캔음료 역시 펩시코가 납품하고 있다.반면, 코카콜라는 음료에 집중했다. 코카콜라와 스프라이트, 비타민워터, 미닛메이드, 몬스터에너지드링크, 바디아머 등을 보유 중이다. 전 세계에 광범위하게 뻗어 있는 음료 유통 네트워크가 코카콜라의 강점 중 하나다. (바디아머는 NBA 선수들이 많이 찾는 스포츠음료로 코카콜라가 2021년에 인수했다. 방탄복 회사를 산 줄 알았다) 도널드 켄달 전 최고경영자(CEO)가 펩시코 사업의 기틀을 마련했다. ‘세일즈맨’ 출신인 켄달은 1963년 42세의 나이로 펩시코 수장 자리에 올랐다. 그는 사람들이 음료를 마실 때 스낵을 함께 먹는다는 점을 눈여겨보고, 1965년 미국 국민 감자칩 브랜드 프리토-레이의 인수를 주도했다. 인수합병(M&amp;A) 당시 두 회사의 회장은 “천국에서 맺은 결혼”이라고 했다. 콜라와 감자칩의 ‘단짠단짠’이 완성되는 순간을 적절히 표현한 듯하다. 현재 미국의 스낵 인기 순위에서 톱 10 중 7개가 프리토-레이 제품이다. 켄달은 ‘마케팅 귀재’로 꼽힌다. 그는 1959년 친구인 리처드 닉슨 전 미국 대통령에게 부탁해 소련 지도자인 니키타 흐루쇼프(흐루시초프) 공산당 총리·서기장이 한 행사에서 펩시를 마시도록 판을 짰다. 각국 언론에서 흐루쇼프 총리가 펩시를 맛있게 마시는 장면이 보도됐고, 회사 브랜드 가치는 급상승했다. 냉전 시기에 놀랄 만한 일이었다. 펩시코는 1974년 소련에서 콜라를 팔기 시작했는데, 당시 소련은 미국과 냉전 중이라 물물교환만 가능했다. 펩시코는 콜라 원액을 주고 토마토 농축액이나 보드카 등을 받았다. 이후 펩시 수요가 감당할 수 없을 정도로 커지자 소련은 공장을 늘리는 대가로 17척의 잠수함과 3척의 군함을 줬다. 켄달은 당시 백악관 국가안보 보좌관에게 “우리가 당신들보다 더 빠르게 소련을 무장해제 시키고 있다”고 농담하기도 했다.1959년 한 행사장에서 당시 소련 지도자인 니키타 흐루쇼프 공산당 총리·서기장(왼쪽 두 번째)이 펩시를 맛보고 있다. 1974년 펩시코는 소련에서 콜라를 팔기 시작했다. 펩시는 소련에서 판매된 최초의 ‘자본주의’ 제품으로 알려져 있다.● 펩시코의 건축가들펩시코는 1983년 마이클 잭슨과 500만 달러(약 67억 원)에 모델 계약을 체결하면서 업계의 주목을 받았다. 코카콜라가 잭슨에게 제안한 금액의 5배 수준이었다. 켄달의 ‘펩시 첼린지’는 지금도 곧잘 회자되는 마케팅 사례다. 펩시코는 고객들에게 펩시와 코카콜라를 블라인드 테스트했다. 그 결과, 펩시의 맛이 뛰어나다고 응답한 사람이 더 많은 것으로 나타났다. 펩시코는 이를 마케팅에 적극적으로 활용했다. ‘펩시 세대’라는 용어를 만들어 코카콜라를 구세대 음료인 것처럼 보이게 했다. 켄달은 이러한 마케팅으로 한때 펩시의 시장점유율을 코카콜라와 비슷한 30%대까지 끌어올렸다. 이전에 펩시의 점유율은 코카콜라 ‘반의반’ 수준이었다. 그가 CEO로 재직한 23년 동안 펩시코의 매출은 40배 성장했다. 펩시코는 2020년 켄달이 세상을 떠날 때 “그는 펩시코의 건축가였다”라면서 경의를 표했다.켄달이 프리토-레이를 인수하긴 했지만, 실질적으로 펩시코 사업을 다각화한 것은 인드라 누이 전 CEO였다. 누이는 펩시코 재무책임자로 있다가 2006년 CEO에 올랐다. 그는 펩시코를 건강한 이미지의 종합 음료·식품 회사로 바꾸겠다고 선언했다. 펩시코는 1990년 후반부터 여러 식품 기업을 인수하고 매각하는 작업을 반복했는데, 이를 주도한 인물이 누이였다. 누이는 피자헛, KFC 등 회사의 패스트푸드 부분을 정리하고, 주스업체 트로피카나와 스포츠음료 회사 퀘이커오츠 등을 인수했다. 식품에서는 스낵업체 토스티토스와 베어푸드(야채·과일칩 브랜드)를 사들였다. 퀘이커오츠는 스포츠음료 ‘게토레이’를 소유한 회사다. 북미에서는 오트밀 제품을 많이 판매해 건강식품 기업의 이미지를 갖고 있다. 퀘이커오츠는 원래 코카콜라에 인수를 제안했는데, 워런 버핏이 이를 반대했다. 그 사이, 당시 펩시코 부사장이었던 누이가 코카콜라보다 20억 달러 낮은 138억 달러(약 18조4400억 원)에 회사를 인수했다. 이 공로로 누이는 CEO로 승진했고, 버핏은 코카콜라 이사회에서 사퇴했다. 현재 미 스포츠음료 시장에서 게토레이의 점유율은 60% 이상으로 압도적이다. 펩시코는 게토레이로만 매년 6조 원 이상의 매출을 올리고 있다. 참고로 93세의 버핏은 하루 5캔 마실 정도로 코카콜라를 사랑하지만, 과거 48년 동안 펩시만 마셨다. 버핏의 아들이 지은 그의 별명은 ‘펩시 워런’이었다. (체리 맛 코카콜라에 빠져서 갈아탔다)펩시코는 2000년 게토레이로 유명한 미국 최대 스포츠음료메이커 퀘이커오츠를 134억 달러에 인수했다. 당시 부사장이었던 인드라 누이 전 펩시코 CEO(맨 왼쪽)가 인수합병을 주도했다.  (펩시코)● 거품 빠진 콜라들  누이가 수장을 맡은 뒤, 펩시코는 건강식품을 만드는 회사로 영역을 더 넓혔다. 펩시코는 2008년 브라질 코코넛워터 업체 아마코코를 인수하고, 미국 허머스(병아리콩을 으깨 만든 중동 음식) 제조사 사브라의 지분 50%를 매입했다. 다음 해에는 중동 최대 유제품 업체인 알마라이와 합작사를 설립하기도 했다.그는 고객들의 건강에 진심이었다. 미 월스트리트저널(WSJ)에 따르면 누이는 임원을 아이슬란드에 보내 해초를, 인도에 보내 고대 전통 의학으로 알려진 아유르베다를, 아마존 계곡과 아프리카 정글로 보내 고대 곡물과 식물을 연구시켰다. 건강식품의 원료를 찾기 위한 과정이었다. 누이는 펩시코 제품을 3가지 유형으로 분류했다. 감자칩과 탄산음료처럼 맛에 중점을 둔 상품과 오트밀 등 건강식품, 마지막으로 다이어트 식품이다. 그는 2010년 “펩시코 매출에서 영양가 높은 제품의 비중을 10년 안에 현재의 3배로 늘리겠다”고 밝혔다.펩시코가 사업을 확장한 데에는 이유가 있다. ‘설탕’에 대한 사람들의 부정적 인식과 규제 때문이다. 건강에 관한 관심이 커지면서 미국에서 탄산음료 소비는 꾸준히 줄었다. 미국의 1인당 탄산음료 소비량은 1990년대 후반 200L로 정점을 찍었다. 2016년에는 미국에서 생수가 처음으로 탄산음료 판매량을 넘어섰다. 영국, 프랑스 등에서는 과당류에 별도에 세금(콜라세)을 부과하기 시작했는데, 사실상 탄산음료를 겨냥한 정책이었다. 누이의 빠른 전략 변경으로 펩시코는 정상의 자리까지 올랐다. 펩시코는 2005년 12월 시가총액으로 코카콜라를 제쳤다. 112년 만이었다. 2018년 포천 500대 기업에서 펩시코는 코카콜라(87위) 보다 높은 45위에 올랐다. 누이는 12년간 펩시코를 경영하면서 연평균 매출을 5% 이상씩 성장시켰다. 대단한 업적이다. 그는 펩시를 즐기는 것 같지는 않다. 영국 파이낸셜타임스(FT)는 “누이는 얼음처럼 차가운 펩시의 맛을 좋아한다고 열정적으로 말하지만, 일주일에 (펩시를) 3번만 마신다”고 전했다. 매일 아침 6시 45분에 일어나 코카콜라부터 찾는 버핏과는 다른 모습이다.픽사베이 ● 펩시코의 새로운 건강 식단2018년 누이 다음으로 취임한 라몬 라구아르타 CEO는 전임자와 다소 다른 길을 걷고 있다. 라구아르타는 최근 콜라와 감자칩 판매에 조금 더 집중하겠다고 밝혔다. 탄산음료와 스낵 등 주력 제품을 개선해 판매를 늘리겠다는 전략이다. WSJ은 지난달 ‘펩시의 새로운 건강 식단: 더 많은 감자칩과 탄산음료’라는 글에서 “수년 동안 펩시코는 정크푸드의 뿌리에서 벗어나 허머스, 콤부차, 야채칩, 견과류 등으로 사업을 전환하려고 노력했다. 최근에는 콜라, 감자칩을 밀어붙이고 있다”고 전했다. 펩시코는 재생 농업 방식으로 재배한 감자를 사용하고, 친환경 포장을 한 제품을 전기 트럭으로 배송하겠다고 밝혔다. (펩시코는 최근 테슬라의 전기트럭 ‘세미’의 첫 고객으로 주목받기도 했다) 세계보건기구(WHO)의 가이드라인에 맞출 수 있도록 제품에 포함된 설탕, 소금, 포화지방을 낮출 것이라고 강조했다. 라구아르타는 “사람들이 먹고 싶어 하는 음식(콜라나 감자칩)에 집중하는 것은 사업에만 좋은 것이 아니다. 공중보건에도 도움이 된다”고 했다. 사람들이 어떠한 상황에서도 탄산음료와 과자를 찾는다면, 몸에 좋은 제품을 제안하는 것보다 차라리 콜라와 감자칩을 건강하게(?) 만드는 편이 인류의 건강에 도움이 될 수 있다는 주장이다. 현재 회사의 가장 큰 고민거리는 ‘맛’이다. 제품에 들어가는 소금과 설탕을 기존보다 줄이면서 현재의 맛을 그대로 유지하는 것이 목표다. 이를 위해 미 텍사스주 플라노에 있는 프리토-레이의 스낵본부가 여러 실험을 진행 중이다. 과자에 새로운 소금 결정, 염화칼륨을 넣거나 허브 및 향신료의 조합을 바꿔보고 있다. 회사의 식물교배연구소에서 개발한 감자 품종으로 포테이토칩을 만들어보기도 한다. 맛은 외부 전문가들이 감별한다. 스낵본부는 전문가 10여 명을 고용해 일주일에 3번 새롭게 개발한 감자칩과 쿠키, 오트밀 등을 맛보게 하고 있다. 맛과 식감 등에서 미묘한 차이를 구분하는 것이 이들의 업무. 전문가들은 기름기 정도, 씹을 때의 식감, 제품을 삼킨 뒤 느껴지는 뒷맛 등의 항목을 0에서 15로 평가한다. WSJ은 “음식을 씹으면서 ‘음’, ‘우웩’ 같은 반응을 보이지 않도록 훈련된 테스터들은 감자칩의 맛을 27가지 속성으로 분류할 수 있다”고 전했다. 시간당 19~20달러를 받고, 스낵까지 맛보다니 괜찮은 직업 같다.라구아르타는 회사의 장기적인 성장을 위해선 핵심 브랜드를 개선하고 시장 점유율을 높이려는 노력이 필요하다고 판단한 듯하다.전임 CEO가 사업 포트폴리오를 확장해 매출을 끌어올리는 데는 성공했지만, 다른 한편으로는 펩시코의 콜라, 감자칩 같은 주요 상품들을 등한시한다는 비판을 받았다. 실제로, 이 시기에 펩시코 탄산음료의 점유율이 20% 초반까지 하락했었다. WSJ은 2018년 “펩시코가 지난해(2017년) 생수, 레몬 소다 같은 새롭고 건강한 음료에 집중해 펩시, 마운틴듀 등 핵심 브랜드 판매에 타격을 입혔다”고 전했다.투자자들의 공격도 있었다. 당시 펩시코 지분을 보유한 투자자 넬슨 펠츠는 이러한 약점을 파고들어 경영에 간섭했고, 누이는 “비용 절감 프로그램을 발표하고 탄산음료 마케팅을 강화하겠다”고 밝히는 등 진땀을 뺐다. 펩시코가 최근에 실적이 좋기는 했지만, 경제 여건에 따른 일시적인 수혜라는 분석도 있다. 라구아르타가 CEO를 맡은 직후에는 펩시코 매출이 감소세였기 때문이다. 인플레이션이 해소되고 경제가 정상화되면 어떻게 될지 모른다는 의미다. 미 월스트리트저널(WSJ)은 지난달 ‘펩시의 새로운 건강 식단: 더 많은 감자칩과 탄산음료’라는 글에서 펩시코의 사업 전략 변경을 조명했다. WSJ은 “수년 동안 펩시코는 정크푸드의 뿌리에서 벗어나 허머스, 콤부차, 야채칩, 견과류 등으로 사업을 전환하려고 노력했다. 최근에는 콜라, 감자칩을 밀어붙이고 있다”고 전했다. (WSJ)● M과 Z의 차이주요 소비층의 변화도 라구아르타의 사업 전략에 영향을 미쳤을 수 있다. Z세대가 등장하기 전까지는 제품을 맛있게 만드는 것이 가장 중요했다. 글로벌 컨설팅 업체 알릭스파트너스의 조사에 따르면 베이비붐 세대의 66%와 밀레니얼 세대의 53%가 스낵을 구매할 때 ‘맛’을 가장 중요한 요인으로 꼽았다. 시장조사기관 패키지팩트의 노먼 데샹 연구원은 “이들은 모여서 감자칩, 프레즐을 먹지 그래놀라바를 먹지 않는다”고 했다. Z세대는 앞선 세대와 다르게 맛보다는 체중 유지 같은 ‘자기관리’를 더 중요하게 생각한다. 국제식량정보협의회(IFIC)가 지난해 미국인 1005명을 대상으로 한 조사에 따르면 Z세대 중 27%가 식습관에서 열량 계산을 가장 중요하게 생각하고 있었다. 이와 비슷한 비중(26%)이 자연에 가까운 식재료를 선호(클린 이팅)했다. 음식을 대체로 가리지 않고 포만감이 느껴질 때까지 먹는 ‘마인드풀 이팅’은 19%에 그쳤다. 체중 관리 때문이다. 조사에서 Z세대의 4명 중 3명이 “최근 1년간 다이어트에 준하는 식습관을 따랐다”고 했다. 같은 응답을 한 X세대는 51%, 베이비붐 세대는 29%였다. IFIC는 “Z세대는 상대적으로 외모 개선과 건강관리에 관심이 큰 것으로 나타났다”고 했다. 탄산음료와 스낵의 성분을 건강하게(사실은 덜 나쁘게) 바꾸려고 노력한다면, 관련 기업에는 오히려 기회일 수 있다. Z세대의 77%가 “적어도 하루에 한 번 간식을 먹는다”고 답했고, 하루 두 번 간식을 먹는 비율도 34%에 달했다. 라구아르타가 콜라와 감자칩을 건강하게 만들겠다고 선언한 것은 주요 소비층이 교체되는 과정에서 Z세대를 사로잡기 위한 전략적 판단일 수 있다. 고객들에게 ‘펩시코의 제품은 앞으로 더 나아질 것이다’라는 인식을 심어주는 역할도 할 것이다. 펩시코가 최근 펩시의 로고를 바꾸는 리브랜딩 작업에 돌입한 것도 이러한 이유에서다. 펩시 로고 변천사. (펩시코)● 로고 심장에 다시 새긴 ‘펩시’ 펩시코는 1950년대부터 1990년대 후반까지 둥근 문양 안에 ‘PEPSI’ 글자를 넣은 일체형 펩시 로고를 선보였다. 그러다가 2008년 그림과 글자를 분리했다. 나이키 ‘스우시’나 스타벅스의 ‘사이렌’처럼 글자 없이 문양만으로 사람들에게 영감을 주려 했다. 그러다가 올해 3월 고전적인 로고 방식을 다시 끌어왔다. 이번 로고는 1987년부터 1997년까지 사용한 로고와 사실상 모양은 똑같지만, 중요한 차이가 있다. 펩시 글자와 로고 주변의 배경 색을 검정으로 교체한 부분이다. 탄산음료 회사들은 무설탕 탄산음료의 포장에 검은색을 활용한다. ‘코카콜라 제로’, ‘칠성사이다 제로’ 등을 보면 글자든 배경이든 어딘가에 이 색이 들어가 있다. ‘설탕’ 이미지를 없애기 위해 펩시가 아예 브랜드 로고에 검은색을 넣은 것이다.펩시코 마케팅 책임자인 토드 카플란은 “많은 사람이 제품이나 로고에 검은색이 있다는 사실조차 눈치 못한다. 하지만, 탄산음료에서 ‘제로’ 하면 ‘다이어트’를 떠올리는 것과 같은 효과를 일으킬 것”이라고 설명했다.많은 기업이 이 같은 무의식 마케팅을 활용한다. 아마존(amazon) 로고를 보면 ‘a’와 ‘z’ 사이에 화살표가 그려져 있는데, 여기에는 소비자들에게 ‘우리는 a부터 z까지 모든 물건을 다 판매한다’는 인식을 심으려는 의도가 담겼다. 펩시코의 최근 움직임에 대한 부정적인 시선도 있다. 탄산음료, 스낵에서 설탕을 줄이겠다고 선언하고, 브랜드 이미지를 바꾸는 것이 사실은 ‘여론 전환용’이라는 것이다. WHO에 따르면 현재 최소 85개국에서 ‘콜라세’를 부과하고 있는데, 최근 이 세금을 올려야 한다는 주장이 여러 국가에서 나오고 있다. 지난해 갤럽 조사에서는 미국, 인도, 요르단, 탄자니아, 콜롬비아 성인의 절반 이상(59%)이 콜라세 인상을 지지한다고 밝혔다. 블룸버그는 3월 “펩시의 새롭고 현대적인 모습은 단순히 브랜드를 차별화하려는 시도로 볼 수도 있지만, 한편으로는 탄산음료와 패스트푸드에 대한 부정적인 관심을 분산시키려는 꼼수이기도 하다”라고 꼬집었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2023.05.02.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>“가입하자마자 6개월치 이자 준다”…토스뱅크, 정기예금 1조 돌파</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005124605?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>[사진 제공 = 연합뉴스]‘만기까지 기다리지 않아도 된다’는 역발상으로 관심을 모은 토스뱅크의 ‘먼저 이자 받는 정기예금’ 판매액이 1조원을 넘어섰다. 출시된 지 33일 만이다.2일 토스뱅크에 따르면 이 상품은 지난 3월 24일 출시 이후 나흘 만에 1000억원, 보름 만에 5000억원을 돌파해 일평균 약 303억원씩 유입되고 있다.‘먼저 이자 받는 정기예금’은 오는 17일부터 자금 운용의 유연성을 높여 달라는 고객의 요청을 반영해 1인 1계좌 가입 제한을 없앨 예정이다.‘먼저 이자 받는 정기예금’은 토스뱅크가 처음으로 선보인 정기예금 상품이다. 인터넷전문은행 최초로 가입과 동시에 이자를 먼저 제공한다.금리는 연 3.5%(세전)로 가입한도는 최소 100만원에서 최대 10억원까지다. 가입기간도 3개월 또는 6개월로 짧게 유지해 편의에 따라 자금을 운용할 수 있다.예컨대 1억원을 3개월간(92일 기준) 맡긴 고객은 세전 금액인 약 88만원을 이자로 즉시 받는다.만기를 채운 고객은 자동 재가입 서비스를 통해 최대 3회까지 재가입할 수 있다.중도해지도 원할 때 언제든 가능하다. 단, 먼저 받은 이자에서 중도해지 이자(가입기간에 비례)를 제외한 금액이 원금에서 차감된다.토스뱅크가 전체 가입 고객 데이터를 분석한 결과, 가입 기간을 3개월로 선택한 고객은 전체 고객의 67%를, 나머지 33%는 6개월 기간을 선택했다.상품에 가입한 연령대 분포를 보면 40대(30.5%)가 가장 많았으며, 50대 이상(26.8%), 30대(26.1%), 20대(15.6%) 10대(1.0%) 순으로 나타났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2023.05.09.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>토스뱅크, '목돈 굴리기' 출시 9개월 만에 2조원 돌파</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006794003?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>(토스뱅크 제공)(서울=뉴스1) 김정은 기자 = 토스뱅크가 고객들의 효율적 투자를 지원하기 위해 선보인 '목돈 굴리기'가 출시 9개월 만에 상품 소개 금액 2조원을 돌파했다고 9일 밝혔다. 토스뱅크의 목돈 굴리기 서비스는 지난해 8월 출시 이후 약 5개월 만에 1조원을 넘어선 바 있고, 이후 약 4개월 만에 2조원을 돌파하며 빠른 성장세를 이어가고 있다. 현재 목돈 굴리기를 통해 소개한 상품의 금융투자상품 총 규모는 2조80억원에 달한다. 고객이 가장 선호한 금융투자상품은 발행어음으로 누적 금액이 1조3300억원을 기록했고, 안정성이 높은 국고채부터 은행채 등 우량 회사채의 누적 소개금액은 6800억원에 달했다. 특히 1개월 3.9%의 수익률로 최근 소개된 현대자동차 채권의 경우 오픈 40분만에 완판이 되기도 했다.목돈 굴리기 서비스는 시장 내 금융투자상품들 중 경쟁력 있는 상품을 토스뱅크가 자체 선별해 소개하고, 고객이 해당 상품 판매사를 통해 가입할 수 있는 서비스다. 평소 고객들이 접하기 어려운 발행어음이나 국고채, 은행채, 한전채 등 우량등급의 회사채 중에서도 금리 경쟁력이 높은 채권 상품들을 토스뱅크가 자체 선별해 소개하고 있다.토스뱅크는 목돈 굴리기 서비스가 고객들의 높은 호응 속에 성장하고 있는 이유로 '맞춤형 상품 소개'를 꼽았다. 고금리, 인플레이션 등 대외적으로 불안한 시장 상황 속에서 안정적이면서도 고금리 상품을 원하는 고객들의 수요에 착안, 맞춤형 상품을 발굴해 소개하고 있다. 목돈 굴리기 서비스 내에서 채권 수익계산기와 같이 투자 원금과 기간에 따른 수익 금액을 알려주는 정보 편의기능도 함께 제공하고 있다. 어려운 금융투자상품을 고객이 쉽게 이해하고 간편하게 접근할 수 있게 했다. 토스뱅크 목돈 굴리기에는 한국투자증권, KB증권 등 국내 대형 금융투자회사들이 입점해 있다. 국내 대형 증권사들의 경쟁력 있는 금융상품을 토스뱅크에서 편리하게 만나볼 수 있는 만큼 토스뱅크는 향후에도 다양한 제휴 금융사와 제휴를 통해 상품 라인업을 계속 확대해 나갈 방침이다. 토스뱅크는 시장 상황에 따라 투자에 도움이 되는 다양한 컨텐츠와 자산관리에 참고할 수 있는 정보들을 모아 적시에 알림으로 받을 수 있는 서비스도 상반기 중에 선보일 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2023.05.01.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>20배 빠르다고 홍보하던 5G...“언제쯤 써볼 수 있나요” [뉴스 쉽게보기]</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005124054?sid=105</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>혹시 5세대 이동통신(5G) 스마트폰을 이용하시나요? 우리나라 5G 서비스 가입자는 중복 가입을 포함해 2900만명쯤 된대요. 전체 통신 가입자 중 37%가 넘어요. 그런데 5G 서비스에 대한 소비자들의 불만은 줄어들지 않는 모양새예요. 5G 통신 요금을 내고 있지만, 막상 스마트폰을 사용하면 4G인 LTE(롱텀에볼루션) 통신망으로 연결되는 경우가 많다는 거죠.5G 통신망에 연결돼도 딱히 속도가 빠르지 않다고 불평하는 고객들도 적지 않아요. 국내 3대 통신사인 SK텔레콤과 KT, LG유플러스는 한때 ‘5G가 4G에 비해 20배 빠르다’라며 대대적으로 광고했는데요. 일부 소비자들은 이게 과연 20배 빠른 게 맞는 건지 모르겠다고 말해요.그런데 요즘 통신 3사가 하나둘씩 이 ‘20배 빠른’ 5G 서비스 사업에서 손을 떼고 있어요. 정부가 ‘통신사들이 준비를 제대로 안 했다’라며 이 사업을 못 하게 막는 모양새인데요. 통신사들은 ‘당분간 쓸 사람도 없는데 정부는 준비만 해놓으라고 한다’라는 입장이죠. 서울의 한 통신사대리점에 3대 통신사 로고가 붙어있다. [사진=이승환 기자]말 많은 5G, 대체 왜 잘 안 터지고 별로 빠르게 느껴지지도 않는 걸까요? 그리고 통신사들이 손을 떼는 이유는 뭘까요?5G가 잘 안 터지는 이유5G가 잘 안 터지는 건 전파를 퍼뜨려 주는 기지국이 부족하기 때문이에요. 흔히 5G를 두고 ‘속도는 빠르지만 약하다’라고 말해요.◆ 넓은 도로 사용하는 5G5G는 4G에 비해 대역폭이 넓어요. 대역폭은 보통 ‘도로 폭’에 많이 비유해요. 4G가 왕복 2차선 도로라면, 5G는 왕복 10차선 도로 쯤 된다는 거죠. 도로 폭이 넓으니 데이터 전송속도가 빠른 거고요. 그래서 실감 나는 가상현실(VR)이나 증강현실(AR), 완전 자율주행 자동차처럼 초고속 데이터 통신이 필수인 기술은 5G 없이는 제대로 구현하기가 불가능해요.◆ 장애물에 약한 5G그런데 5G 통신에 사용하는 전파는 약해요. 건물이나 벽 같은 장애물을 잘 통과하지 못한대요. 속도는 빠르지만 멀리 퍼지지 못하는 거예요. 그래서 5G는 4G에 비해 전파를 퍼뜨려 주는 기지국을 더 많이 설치해야 한대요.문제는 기지국 숫자가 충분하지 않다는 거예요. 5G는 4G보다 더 촘촘하게 기지국을 세워야 하는데 오히려 기지국 숫자가 적다고 해요. 통신사들이 5G용 기지국 숫자를 늘리고 있지만 아직 4G만큼 원활한 연결은 기대하기 어렵죠.5G가 빠르게 느껴지지도 않는 이유소비자들의 더 큰 불만은 5G의 속도예요. 분명 20배 빠르다고 했는데 4G와 큰 차이를 못 느끼겠다는 거예요. 2021년 10월 전국 20~59세 LTE·5G 스마트폰 이용자 2048명 대상 설문/자료=한국전자통신연구원사실 5G는 종류가 두 가지예요. ‘빠른 5G’가 있고 ‘느린 5G’도 있어요. 물론 둘 다 4G보단 빠르지만, 차이가 꽤 크죠. 위에서 대역폭을 도로 폭에 비유했는데요. 빠른 5G는 28㎓(기가헤르츠)의 주파수 대역을 사용하고 대역폭이 아주 넓어서 속도도 아주 빨라요. 반면 느린 5G는 3.5㎓의 주파수 대역을 사용해요. 빠른 5G에 비해선 대역폭이 좁아서 속도도 비교적 느려요.4G보다 20배 빠르다고 했던 것도 바로 이 ‘빠른 5G’를 말한 거예요. ‘느린 5G’도 4G보다는 빠르지만 최고 속도를 비교하면 3~5배 정도밖에 차이가 안 난대요.그런데 현재 한국에서 일반 소비자가 20배 빠른 5G 서비스를 사용할 수 있는 지역은 거의 없다고 해요. 지금까지 설치한 기지국이 대부분 ‘느린 5G’용이기 때문이죠.통신사들이 손을 떼는 이유전파가 다니는 길인 주파수는 국가가 소유하고 관리해요. 길이 나 있다고 해서 사람과 자동차, 기차가 동시에 다닐 수 없듯이, 주파수도 대역별로 국가로부터 허락받은 이들만 사용할 수 있죠. 그렇게 하지 않으면 교통사고가 나듯 혼선이 생기기 때문이에요.통신 3사가 5G 서비스를 위한 대역폭을 사용할 수 있는 것도 정부의 허락을 받았기 때문이에요. 대신 정부는 ‘소비자들이 불편을 느끼지 않도록 기지국 좀 많이 설치해’라고 조건을 달았고요. 그런데 정부가 조사를 해봤더니 ‘느린 5G’용 기지국은 만들고 있는데, ‘빠른 5G’를 위한 기지국은 거의 설치하지 않은 것으로 나타났대요.결국 작년 11월에 정부는 KT와 LG유플러스에 ‘빠른 5G’를 위한 주파수 대역 사용권을 반납하라고 통보했어요. SK텔레콤에는 일단 시간을 더 주기로 했고요. ‘일단 사용권을 빼앗진 않을 테니 이제라도 열심히 기지국 만들어’라며 경고한 거예요.하지만 정부의 경고는 딱히 효과가 없었어요. 지난 20일 국회가 내놓은 자료에 따르면 작년 11월 이후 SK텔레콤은 ‘빠른 5G’용 기지국을 하나도 건설하지 않았대요. SK텔레콤도 주파수 사용권을 빼앗길 것으로 보이죠.사용권을 빼앗긴 KT와 LG유플러스는 정부의 처분을 수용했어요. 사용권을 되찾아 오기 위한 별다른 조치를 취하지 않았죠. SK텔레콤도 크게 다를 것 같지 않고요. 사실 이들에겐 ‘빠른 5G’용 기지국을 세우는 게 부담일 수 있어요. ‘느린 5G’용 기지국에 비해 만드는 게 더 어렵기도 하고, 막상 만들어도 활용할 만한 곳이 많지 않기 때문이에요.스마트폰으로 고화질 동영상을 보거나 온라인 게임을 하는 건 ‘느린 5G’만으로도 충분해요. 초고속 통신을 사용하는 VR이니 자율주행이니 하는 신기술이 곧 등장할 것 같았는데, 그 시기는 생각보다 늦어지는 중이고요. 국내엔 아직 ‘빠른 5G’를 제대로 사용할 수 있는 스마트폰조차 출시되지 않았대요. 통신사들은 ‘아직 수요가 없는데 기지국부터 먼저 만들긴 부담스럽다’라는 입장이에요. 2021년 10월 전국 20~59세 LTE·5G 스마트폰 이용자 2048명 대상 설문/자료=한국전자통신연구원20배 빠른 5G, 언젠간 쓸 수 있을까요?결국 소비자는 당분간 ‘느린 5G’만 사용할 수밖에 없을 것으로 보이는데요. 공정거래위원회가 기지국 건설을 소홀히 한 통신 3사를 문제 삼기 시작했어요. 20배 빠른 5G라고 홍보한 건 과장광고라는 거예요.현재 조사를 진행 중인 공정위는 이르면 다음 달 이들에 대한 제재안을 발표한다고 해요. 과징금 규모가 수백억원대에 이를 거라는 전망까지 나오죠. 통신사들은 억울하다는 입장이에요. 당시 광고를 했던 건 어디까지나 ‘이론적으론 20배 빠르다’라는 뜻이었고, 문제가 된 후로는 광고 내용을 시정했다는 거예요.정부는 통신 3사 외에 새로운 회사가 ‘빠른 5G’ 시장에 뛰어들기를 바라고 있어요. 신규 사업자가 등장하면 4000억원의 자금을 지원하고 세금 부담을 덜어주는 등의 각종 혜택을 제공하겠다고 약속했죠. 네이버와 카카오, 쿠팡, 토스 등이 후보로 거론되기도 했고요. 하지만 지금까지 뚜렷한 의지를 내보인 곳은 없대요. 정부의 지원을 고려해도 만만치 않은 사업 영역인 거예요.한국은 세계에서 최초로 5G 통신 서비스를 상용화한 나라예요. 국내 통신 3사는 미국 업체들보다 하루 앞선 2019년 4월 3일에 5G 서비스를 시작했죠. 하지만 4년이 흐른 현재 ‘세계 최초’라는 타이틀에 비하면 국내 5G 시장엔 부족한 점이 많아 보여요. 지금 분위기라면 대대적으로 광고했던 ‘20배 빠른 5G’는 결국 허상으로 남을 듯하고요.주파수 사용권을 빼앗은 데 이어 막대한 과징금까지 물릴 수 있다는 정부, 할 만큼 했다며 억울해하는 통신사 간의 골이 깊어지는 모양새인데요. 언제쯤 소비자들은 빠르고 안정적인 5G 서비스를 이용할 수 있게 될까요?&lt;뉴미디어팀 디그(dig)&gt;매일경제 ‘디그(dig)’팀이 연재하는 ‘뉴스 쉽게보기’는 술술 읽히는 뉴스를 지향합니다. 복잡한 이슈는 정리하고, 어려운 정보는 풀어서 쉽게 전달하겠습니다. 무료 뉴스레터를 구독하시면 더 많은 이야기들을 이메일로 받아보실 수 있습니다. ‘디그 구독하기’를 검색하고, 정성껏 쓴 디그의 편지들을 만나보세요. 아래 주소로 접속하셔도 구독 페이지로 연결됩니다.https://www.mk.co.kr/newsletter/</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2023.05.05.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>인터넷銀 "10대 고객 모셔라"</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005126237?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>카뱅·토스 청소년 선불카드이용자 370만명 육박인터넷전문은행인 카카오뱅크와 토스뱅크가 '선불카드' 시장을 적극 공략하고 있다. 10대 고객에게 편리한 금융 서비스를 제공해 '미래 우수 고객'을 선점하겠다는 포석이다.5일 은행권에 따르면 카카오뱅크의 청소년 대상 선불전자지급 서비스인 '카카오뱅크 미니'는 지난달 말 기준 가입자가 174만명 규모다. 카카오뱅크 미니는 만 14~18세 청소년을 대상으로 2020년 10월에 출시된 상품이다. 최대 50만원 한도 내에서 충전해 편의점과 배달음식 결제, 대중교통 이용, 온라인 쇼핑 등이 가능하다. 실물 선불카드인 카카오뱅크 미니카드를 발급받아 이용할 수도 있다. 청소년 대상이라는 점을 감안해 청소년 유해 업종 결제를 막아뒀고, 과소비 방지 등을 위해 이용 한도를 월 200만원으로 제한한 상품이다. 이 같은 편리함을 앞세워 출시 첫해인 2020년 말 59만명이던 가입자 수는 2021년 말 115만명, 지난해 말 161만명으로 급증했다. 토스가 2021년 12월 출시한 어린이·청소년용 선불카드 '유스카드' 역시 지난달 말까지 누적 발급량 107만장을 넘어섰다. 토스의 선불전자지급 수단인 토스머니와 연동해 체크카드처럼 이용할 수 있는 상품이다. 카카오뱅크 미니와 동일하게 충전 한도는 50만원, 이용 한도는 월 200만원이다. 가입 대상은 만 7~16세다. 다만 만 14세 미만 청소년은 온라인 결제가 제한되며 발급할 때 보호자 동의가 필수다. 토스 사용자 중 만 7~18세 고객은 지난달 말 기준 194만명을 넘어선 상태다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2023.05.15.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>금융 '공공성의 적' 된 디지털…그럼에도 불구하고</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000016306?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>창간10주년기획 [DX인사이트] '이자장사' 눈총 받아도 혁신이 살 길인 이유앱 경쟁 불가피…백오피스까지 바뀌어야 생존리스크 관리, 정보체계 개선 등 사회적 책임도디지털 전환은 금융기관들에게 오랜 숙제였다. 모바일 뱅킹이 이미 일상이 된 단계다. 그러나 공공성과 안정성이 더 앞서 전제돼야 할 가치로 지적되는 요즘 상황에서 디지털은 오히려 부메랑이 됐다.혁신의 부작용에 여론과 당국의 공격좌표가 찍혔다. 빠른 디지털 전환과 여기에 집중되는 자원이 고령 이용자 등의 이용 불편을 초래하고 금융 소외계층을 더 늘리는 결과로 나타났다는 이유에서다. 비대면 금융의 최대 강점인 빠른 입출금은 불안이 번질 때 뱅크런(대량 예금 인출)을 삽시간에 일어나게 할 수 있다는 지적도 나왔다.하지만 여전히 디지털화는 금융권에 절박한 숙제다. 편리함을 더해 이용자와 돈을 모으고, 업무 효율을 높여 수익성을 높이는 동시에, 금융시장의 중추로서 안정성을 확보하려면 답은 디지털뿐이라서다.'플랫폼의 위력' 지점 줄어드는 진짜 이유 금융서비스 전달채널별 업무처리비중 및 은행 점포수 변동 추이/그래픽=유상연 기자 prtsy201@'휴대전화로 은행 일을 해결하는 경우가 많아졌고, 지점 창구는 급속도로 줄어들었다.' 금융서비스의 소비자 접점인 대면 창구(프론트 오피스)에서 가장 먼저 나타난 변화다. 서로 원인과 결과를 주고 받는 두 가지 통계가 지금까지 진행된 금융 디지털화의 밑바탕이다.단순한 입출금·이체 거래건수를 기준으로 한 것이긴 하지만 인터넷뱅킹 비중은 2018년 53.2%에서 작년 77.7%까지 늘었다. 반면 자동화기기(CD·ATM)까지 포함한 은행 거래 비중은 같은 기간 39%에서 19.7%까지 줄었다. 반면 은행 점포는 2012년 7673개에서 2017년 6789개, 작년 5800개로 감소했다. 10년 새 4곳 중 1곳이 줄어든 꼴(24.4% 감소)이다.은행이 지점을 줄인 것이 수익성에만 치우쳤기 때문이라는 지적이 있다. 하지만 따져 보면 그만큼 창구 이용 수요가 줄어든 게 현실적 배경이다. 카카오뱅크, 토스뱅크 등 플랫폼 기반 인터넷전문은행은 아예 지점이 없지만 모바일 이용자수는 KB국민·신한은행 등 대형 금융지주들을 압도한다.시중은행들에서 "이러다 플랫폼에 금융상품을 납품하는 업체로 전락할 수 있다"는 우려가 괜히 나오는 게 아니다. 금융지주들이 월간활성화이용자수(MAU)에 목을 매고 슈퍼앱 구축에 열을 올리는 이유다.지금은 기존 금융권보다 자산이나 이익 규모가 훨씬 작지만, 이들에게 플랫폼 경쟁에서 밀리고 디지털 혁신에 뒤처지다 보면 미래 주도권을 뺏기는 것은 물론, 생존도 위협받을 수 있다는 위기의식이 부풀어 있다.뱅킹앱 경쟁 넘어 BaaS로이달 초 인천 송도에서 열린 아시아개발은행(ADB) 연차 총회에서도 금융권의 이런 현실인식이 그대로 보여졌다. 대형 금융지주들이 스스로의 강점으로 내세운 것이 모두 디지털이었다. KB금융은 대표 플랫폼인 KB스타뱅킹을 필두로 △KB 인공지능(AI)금융비서 △KB 국민인증서 △KB부동산 데이터허브 △KB메타버스 브랜치 등의 체험 부스를 내놨다. 신한금융은 △시나몬(메타버스 플랫폼) △땡겨요(배달주문앱) △페이스 페이(Face Pay) 등 신한은행, 신한카드 등 계열사의 다양한 디지털 서비스를 해외 참가자들에게 선보였다. 하나금융은 △트래블로그 △환전지갑 등 외환 측면에 강점을 둔 디지털 혁신 상품을 내보였고, 우리금융은 우리은행이 지난해 9월 출시한 공급망금융 플랫폼 원비즈플라자를 주제로 전시했다. NH농협금융도 △메타버스 △생체인증△인공지능(AI) △헬스케어 등 4가지 주제로 부스를 운영했다.앱으로 대표되는 플랫폼 경쟁이 전부가 아니다. 눈에 보이지 않는 곳에서의 변화도 빠르게 이뤄지고 있다. 지점 운영 등에서 새어 나가는 비용을 줄이는 동시에 위험을 관리하고(미들 오피스), 데이터 관리부터 회계·감사·전산·결제 등 운영을 정교화(백 오피스)하는 후선에서 모두 디지털 혁신 압력이 커졌다.국내 금융권의 플랫폼 전략/그래픽=비즈워치더욱 적극적이고 근본적인 디지털 생존전략은 기존 금융권의 강점인 자본과 신뢰를 활용하는 것이다. 주목할 만한 두 개념은 △BaaS(Banking as a Service) △임베디드 금융(Embedded Finance)이다. 비금융사에 구조화한 시스템이나 금융 데이터를 제공하는 방식으로 이뤄지는 사업모델이다.BaaS는 금융권이 마이데이터 사업을 확장해 노려볼 만한 분야로 꼽힌다. 해외에선 스웨덴 인터지로(Intergiro), 영국 뱅커블(Bankable) 등이 BaaS를 활용한 복수통화계좌 서비스를 내놓고 있다. 임베디드 금융도 최근 늘고 있는 후불결제 등에서 확대되고 있다. 애플 페이, 차량공유업체 리프트 등이 대표 사례다.금융연구원 구본성 선임연구위원은 "국내 은행의 플랫폼이 경쟁력을 갖추기 위해서는 종합 금융역량의 제고를 통해 외부 플랫폼과 역할을 분담하고 독자적인 영역을 확대할 수 있는 대응이 필수적"이라며 "BaaS나 협업 등을 통한 데이터 중심 서비스는 범위를 최대한 확대하고 정보 효과를 높일 수 있는 상세정보를 담아야 한다"고 밝혔다.신뢰·포용·거버넌스…'책임' 뒤따라야하지만 변화에는 책임도 따른다. 금융이 사회적 파급력이 절대적인 규제산업인 만큼 그 책임은 더 크다. 자칫하다가는 자본과 신뢰라는 금융산업 근간이 흔들릴 수 있다. 지점 줄이기에 신중을 더하라는 당국의 압력도 변화 속 사회적 신뢰 약화라는 부작용을 덜기 위한 노력의 일환으로 읽을 수 있다.전문가들은 플랫폼화로 대표되는 금융의 디지털 전환 역시 원칙에 근거해야 한다고 지적한다. 서비스의 혁신성과 포용성을 확대하며 소비자의 효용을 높이고 시스템 안정성 유지에 대한 책임을 지키는 게 기준이다. 최소한 시장의 신뢰를 유지할 수 있도록 금융시스템의 불안정성이나 금융소비자의 피해를 사전에 방지할 만큼의 제도 변화도 수반돼야 한다. 보스턴컨설팅그룹(BCG)은 금융 디지털 성장방식으로△수익창출력 강화 △인수합병(M&amp;A)와 파트너십 △글로벌 확장 등을 꼽는다. 그러면서도 나이·소득·장애·교육 등 격차에 따른 디지털 불평등이 금융 소외를 야기하는 만큼, 이를 해소하기 위한 지속적 관심과 고민이 필요하다고 조언한다.디지털 전환의 속도뿐만 아니라 적절한 방향성을 모색하는 데도 금융권이 역량을 할애해야한다는 제언도 나온다. 데이터 거버넌스를 기초로 확보하는 것에서 시작해, 모든 이해관계자를 고려할 수 있도록 사회적 책임을 반영한 지배구조 체계 변화까지 필요하다는 것이다.민홍기 한국딜로이트그룹 금융산업부문 총괄리더는 "디지털 전환의 속도가 디지털 통제와 보고의 변화 속도를 앞지른다면 운영 리스크가 발생할 수 있다"며 "지금까지 성장을 위해  필요에 기반한 서비스를 제공하는 것에 초점을 뒀다면, 이제는 사회적 책임에 기반한 서비스 제공으로의 전환이 필요하다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2023.05.08.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>'예·적금 올인' 카뱅, 이자 비용 부담 3배 폭증</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000745124?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>"수신으로 자금 조달…은행채 발행 계획 없어"카카오뱅크가 수신 40조원을 돌파하는 눈부신 성장에도 마냥 웃고 있을 수만은 없다. 예수금이 늘어나는 사이 대출은 그만큼 늘리지 못해 이자 비용이 1년 새 3배나 폭증하면서 부담이 만만치 않아서다.9일 금융권에 따르면 카카오뱅크의 지난 1분기 말 기준 수신 잔액은 40조2천억원으로 지난해 말보다 7조1천억원, 21.5%나 급증했다.전체 수신의 절반 이상이 저원가성 핵심 예금이다. 수신 잔액 40조2천억원의 56.8%인 22조9천억원은 요구불예금이다. 보통 요구불예금이 많으면 은행권에서는 긍정적인 신호로 여기지만 카카오뱅크의 경우 꼭 그렇지만은 않다.카카오뱅크의 여·수신 및 순이자마진(NIM) 현황 [사진=이효정 기자 ]수신이 잔뜩 늘어난 데 비해 여신을 많이 늘리지 못하면 자금 운용 여력이 떨어지는 것이나 다름없어서다. 지난해 1분기 말 기준 카카오뱅크의 여신 잔액은 29조3천억원으로 지난해 말보다 1조4천억원 5.0% 늘어나는 데 그쳤다. 같은 기간 수신이 두 자릿수 증가세를 보이는 사이 여신은 한 자릿수 증가하는 데 그친 것이다.지난해 말 기준 카카오뱅크의 예대율은 85.7%로 인터넷전문은행(케이뱅크 80.5%, 토스뱅크 42.7%)에서는 높은 편이나, 지방은행을 제외한 시중은행 평균 93.6%보다는 다소 낮은 수준이다. 올해 1분기 수신 성장세가 두드러지면서 앞으로 대출 증가세에 따라 예대율(예수금 대비 대출 비율)은 더 벌어질 가능성도 있다.수신 증가로 인해 조달 비용도 무시할 수 없다. 올 1분기 자금 조달 비용률(예수금 평균 이자율)은 2.26%로 지난해 말 1.62%보다 0.64%포인트(p) 높아졌다. 이미 지난해 은행권 평균 1.51%를 각각 1%포인트 넘게 웃돌았다.이는 이자 비용 부담으로 이어진다. 올 1분기 이자 비용은 1천893억원으로 지난해 1분기 635억원보다 1천258억원, 198.1%나 폭증했다. 1년 새 3배 수준이다. 그나마 이자 수익이 같은 기간 70.90%나 증가한  4천515억원을 기록하면서 비용을 상쇄했다.카카오뱅크는 예·적금과 같은 수신으로 대부분 자금을 조달하고 있어 은행채 등으로 조달할 때보다 상대적으로 비용 부담이 크다. 카카오뱅크의 자금 조달 현황을 보면 지난해 말 기준 조달된 자금의 평균 잔액 39조829억원 중 83.8%인 32조7천680억원을 예수금으로 조달했다.지난해 카카오뱅크의 자금 조달 현황 [사진=이효정 기자 ]수익성 지표는 다시 하향 곡선을 그리고 있다. 올 1분기 카카오뱅크의 순이자마진(NIM)은 2.62%로 지난해 4분기 2.83%보다 0.21%포인트(p) 하락하며 지난해 3분기 수준으로 돌아갔다. 은행권 평균보다는 높은 수준을 유지하고 있지만 다른 은행들의 NIM 하락 폭보다는 컸다. 신한은행의 NIM은 1.59%로 지난해 4분기보다 0.08%포인트 하락하는 데 그쳤다.이에 시장에서는 급증한 수신으로 인한 예수 부채 문제를 우려하고 있다. 김도하 한화투자증권 연구원은 최근 "카카오뱅크의 올해 대출 증가율을 21%로 가정하면 1분기 중 수신(부채)이 7조원 증가해 금리 하락 국면에서 부채 초과 조달이 강하게 나타난다"며 "연말까지 예대율 상승을 가정해도 비용률 부담은 내년 3분기까지 유의하게 이어질 것"이라고 전망했다.시장의 우려에도 카카오뱅크는 수신으로만 자금을 조달할 계획이다. 김석 카카오뱅크 최고운영책임자(COO)는 1분기 실적발표 컨퍼런스 콜에서 "시장 금리의 불확실성이 큰 데다 조달 비용도 국공채를 통한 자금 조달 비용이 예·적금을 통한 것보다 조달 비용이 높다고 판단하기에 올해는 가급적 수신으로 필요한 자금을 조달할 계획을 하고 있다"고 밝혔다.카카오뱅크의 수신 상품은 대부분 12개월 이내의 만기 구조여서 9개월을 전후로 해서 가장 많은 만기가 몰려 이자 비용 부담이 장기적이지 않다는 뜻으로 풀이된다.따라서 카카오뱅크는 오히려 다양한 예·적금 상품을 출시해 수신을 늘려나가겠다는 전략이다. 카카오뱅크 관계자는 "은행채 발행은 시장 상황을 모니터링해 검토할 예정이나 아직 정해진 바는 없다"고 밝혔다.그러면서 "모임통장을 비롯해 지난 4월 출시한 기록 통장 등 차별화된 수신 상품들을 통해 타행보다 높은 저원가성 예금 비중을 유지해 나가고자 한다"며 "이런 관점으로 효율적인 예대율 범위를 유지하는 수준에서 금리 정책을 운용하도록 하겠다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2023.05.01~2023.05.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.05.01~2023.05.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2023.05.02.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>19세 생일엔 주민등록증, 14세 생일엔 선불카드</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000065231?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>금융권, 잘파세대’ 겨냥한 금융 상품 출시…미래 고객 저변 넓히려면 ·필수’[비즈니스 포커스]카카오뱅크mini는 금융권 최초 NFC 충전 방식으로 티머니 충전이 가능하다.(사진=카카오뱅크)2007년 출시된 군인 급여 이체카드 ‘나라사랑카드’는 ‘예비 사회인’인 장병들을 위한 다양한 혜택을 담고 있다. 이 카드의 사업자를 공모할 때만 해도 입찰에 참여한 곳은 신한카드가 유일했다. 예치액이 많지 않아 사업성이 떨어진다는 분석이 있었기 때문이다.하지만 이는 오판이었다. 20대 남성들을 공략한 나라사랑카드는 곧 신한카드 가입자 증가로 이어지면서 현재 신한카드가 카드업계 점유율 1위를 기록하는 데 긍정적 영향을 줬다. 금융사가 ‘미래 고객’을 공략하는 게 얼마나 중요한지를 보여주는 좋은 사례로 아직까지도 회자되고 있다.  금융업계에서는 당장의 수익성보다 먼 미래를 겨냥한 상품들이 쏟아져 나오고 있다. 물론 이전에도 사회 초년생을 위한 상품은 많았다. 하지만 최근 달라진 점은 미래의 고객이 군인이나 대학생에서 미성년자로 확대됐다는 것이다. 1990년대 중반부터 2000년대 초반에 태어난 ‘Z세대’와 2010년 이후 출생한 ‘알파세대’를 합친 ‘잘파세대’를 공략하는 것이다.  카캌오뱅크mini의 26일 저금.(사진=카카오뱅크) 10대 청소년 10명 중 7명 쓰는 금융 상품요새 중학교 2학년들이 생일날을 손꼽아 기다리는 이유가 있다. 바로 ‘선불카드’를 발급 받을 수 있는 나이가 됐기 때문이다. 카카오뱅크에 따르면 미성년자 전용 상품 ‘카카오뱅크미니(mini)’의 가입자 중 절반이 만 14세 생일날 0시에서 새벽 2시에 가입하고 있다. 자신만의 카드를 발급받는 게 곧 ‘청소년이 됐다’는 징표라는 뜻이다. ‘카카오뱅크미니’를 쓰는 청소년은 3월 말 기준으로 171만 명에 달한다. 청소년 10명 중 7명을 고객으로 두고 있는 셈이다. 이 상품은 만 14세에서 18세 청소년 대상 선불 전자 지급 서비스로, 최대 50만원까지 보유할 수 있다. 청소년의 주요 소비처인 편의점, 배달 음식, 대중교통과 제휴하고 있다. ‘미니 카드’는 온·오프라인 결제가 가능하고 수수료 없이 전국 현금자동입출금기(ATM)에서 사용할 수 있다. 또 죠르디·스카피 등 니니즈 캐릭터를 활용한 다양한 디자인의 카드를 취향대로 선택할 수 있다. 티머니와 제휴해 금융사 최초 근거리 무선통신(NFC) 태그 방식으로 실물 카드 충전이 가능하다. 타 금융사들도 미성년자 전용 상품도 순항 중이다. 토스의 어린이·청소년용 선불카드인 ‘유스(USS) 카드’의 누적 발급량은 100만 장을 돌파했다. 이 카드는 만 7세부터 만 16세까지 어린이나 청소년이 보호자의 동의를 받으면 자신의 명의로 사용할 수 있는 카드다. CU 등 편의점에서 현금을 충전해 사용할 수 있고 온·오프라인 가맹점 내 결제나 교통카드 기능을 제공한다. 신한카드는 신한은행과 함께 별도의 은행 계좌가 필요없는 10대 전용 충전식 페이 서비스 ‘밈(Meme)’을 출시했다. 10대가 자주 이용하는 편의점, 음원 스트리밍, 애플리케이션(앱) 마켓 등에서 이용 금액의 5%가 포인트로 적립되고 전 가맹점에서는 0.1%가 기본으로 적립된다. KB국민은행은 2021년 11월 ‘리브넥스트(NEXT)’를 출시해 독립적인 금융 활동이 어려운 미성년자 고객들에게 편리한 금융 생활을 제공하고 있다. 본인 명의의 스마트폰을 갖고 있는 만 14세 이상 고객이 가입할 수 있다.리브넥스트는 과거 ‘리브’의 인기 서비스였던 환전을 Z세대의 눈높이에 맞게 리뉴얼해 제공하고 KB국민카드와 제휴해 리브포켓을 오프라인에서 편리하게 결제할 수 있도록 전용 카드를 출시했다. 3가지 종류의 디자인과 걸그룹 ‘에스파’ 한정 디자인 중 선택할 수 있다.또 모바일 학생증 연계 서비스를 통해 고등학교 학생증 체크카드를 리브넥스트에 등록해 이용할 수 있게 했다. 학교 생활 정보와 교내 시설 출입 바코드를 제공하며 온·오프라인 체크카드 가맹점에서 결제도 가능하다. ‘독립’과 ‘안전’ 겨냥한 미성년자 금융 상품 한때 기업들이 가장 주목하던 MZ세대(밀레니얼+Z세대) 공략은 이제 좀 ‘지루하다’는 평을 듣는다. 이들을 제치고 급부상한 것이 ‘잘파세대’다. 이들은 태어날 때부터 디지털 기기에 익숙한 환경에서 자라나 최신 기술을 거부감없이 받아들인다. 또 개인의 선호가 뚜렷해 소비에서도 자유롭다는 특징이 있다.이러한 ‘잘파세대’에게 자기 이름으로 된 카드만큼 독립된 소비를 상징하는 것은 없을 것이다. 카드에 돈을 충전해 사용하는 선불카드는 정해진 한도 내에서 이용할 수 있고 실명 계좌가 없어도 가상 계좌를 통해 충전할 수도 있다.KB국민은행의 10대 전용 플랫폼 '리브 넥스트'.(사진=KB국민은행)위에 소개한 금융 상품들은 보호자의 명의가 아닌 청소년 본인 명의와 전화번호로 카드를 발급한다. 이에 따라 이용 내역을 보호자가 아닌 청소년 본인이 직접 확인할 수 있다. 사생활 보호와 함께 예민한 사춘기의 감수성에도 맞게 상품을 설계한 것이다. 아무리 독립적인 것을 추구하는 잘파세대라지만 ‘안전’은 청소년 대상 금융 서비스에서 필수로 갖춰져야 할 부분이다. KB국민은행의 리브넥스트는 금융 사기 방지를 위한 사기 계좌 검증 서비스를 시행해 금융에 익숙하지 않은 청소년 고객에게 안전한 송금 서비스를 제공한다. 계좌 송금 시 입력된 수치 계좌가 중고 거래 사기 등 의심 계좌로 신고된 경우 해당 사실을 송금 전 고객에게 한 번 더 안내해 주의를 환기시킨다. 신한카드 ‘밈’은 청소년 제한 업종이나 자동·해외 결제를 자동으로 차단해 청소년들을 보호할 수 있는 장치를 마련했다. ‘잘파세대’의 부모들은 주식 투자 등 자녀들의 금융 교육에 큰 관심을 갖고 있다. 이에 따라 최근 출시된 미성년자 대상 금융 상품은 결제를 넘어 투자 기능을 더했다. KB국민은행 ‘리브넥스트’의 ‘주주의 저금통’은 주식 투자에 관심이 많은 Z세대를 위한 소액 저축 상품이다. ‘목표 기업의 1주’ 금액 모으기라는 목표를 설정하면 매일 자동으로 저축이 된다. 모으기가 완료되면 KB증권 마블 미니와 연계해 실제 주식 투자로 이어질 수 있도록 연결해 준다. 부모들도 청소년 전용 선불 카드는 여러모로 자녀의 재정 상황을 확인하기 편하다. 계획적으로 용돈을 줄 수 있고 혹시 자녀가 카드를 잃어 버리면 바로 정지 신청도 할 수 있다. 금융 교육이 필수가 된 시기 스스로 용돈을 관리할 수 있는 방법을 깨우쳐 준다는 것도 장점이다. 소득 공제도 간편하다. 카카오뱅크미니는 자녀의 카드에 소득 공제를 등록하면 부모의 연말 정산 시 자녀가 지출한 결제 내역이 소득 공제 내역에 포함돼 간편하다. 한편 미성년자 대상 금융 플랫폼이 미래 고객 겨냥을 넘어 현재 대세에 맞는 상품이라는 평가도 있다. 팬데믹(감염병의 세계적 유행) 이후 각종 결제 기관에서 키오스크가 보급되면서 미성년자들도 현금 대신 카드로 결제해야만 하는 경우가 늘었다. 미성년자 직불카드의 보편화는 2020년대 상황에 맞는 자연스러운 흐름이었고 여기에 금융사들은 투자와 저축 기능 등을 더해 성인이 돼도 계속 사용할 수 있게 플랫폼을 구축한다는 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2023.05.06.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>보이스피싱 피해자 지원 나선 금융권</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000016079?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>[금융 핫&amp;뉴]현대카드, 애플페이 출시에 신규 발급 급증기업은행, 수출·중기 지원 확대신한금융, 보이스피싱 피해 지원…금감원도 참여신한금융과 금융감독원, 사회복지공동모금회는 보이스피싱 피해자 지원과 예방사업 추진을 위해 업무협약을 체결했다. 최근 다양한 수법의 보이스피싱으로 피해를 입은 취약계층이 급증하면서 이들에 대한 지원과 금전적 피해 예방을 위해서다.이복현 금감원장은 "정보기술 발전으로 금융거래는 편리해졌지만 보이스피싱 위험도 크게 증가했다"며 "이번 업무협약은 민생을 침해하는 보이스피싱을 근절하기 위한 정부 노력과 맥락을 같이 한다"고 말했다.이어 "이번 업무협약으로 진행되는 사업은 경제적으로 어려운 피해자를 위한 생활비 지원뿐 아니라 법률자문과 심리상담 등도 포함돼 피해자들이 많은 도움을 받을 수 있을 것"이라며 "피해 예방교육과 대국민 홍보활동은 보이스피싱에 대한 국민들의 경각심을 높여줄 것으로 생각한다"고 덧붙였다.이복현 금융감독원장/사진=금융감독원신한금융은 3년간 총 300억원을 사회복지공동모금회에 기탁해 피해자 지원과 예방사업을 진행한다. △피해자 중 취약계층 생활비 지원 180억원 △예방교육 및 보이스피싱 보험 제공 15억원 △심리 법률상담 30억원 △대국민 홍보·캠페인·정책개발 등 75억원이다.피해자 취약계층 생활비 지원은 약 6000명에게 인당 최대 300만원을 지원하는 것으로 신한금융 이용자뿐 아니라 중위소득 100% 이내 저소득층 피해자 전체가 대상이다. 하반기중 모집공고를 통해 접수를 시작하고 심사 과정을 거쳐 지원 대상자를 최종 선정한다.보이스피싱 피해 예방 간담회에선 다양한 목소리가 나왔다. 환전 수수료를 아끼려다 범죄에 연루되는 외국인 유학생들이 많아 이들에 대한 피해예방 교육이 필요하다는 주장과, 보이스피싱을 당할 경우 피해금을 지급하는 보험에 대한 홍보가 필요하다는 의견도 나왔다.또 보이스피싱 예방 성과에 대해 금융당국 등이 적극 포상한다면 영업점에서 보이스피싱 피해를 차단하는데 동기 부여가 될 것이란 목소리도 있었다.이복현 원장은 "다양한 제언을 보이스피싱 예방 업무에 적극 반영하겠다"라며 "보이스피싱 근절을 위해선 국민들의 대응이 가장 중요한 만큼 경각심 제고를 위해 정부와 유관기관, 금융권과 합심해 홍보를 지속적으로 추진하겠다"고 강조했다.현대카드, 애플페이 효과 '톡톡'현대카드가 애플페이 출시 효과를 톡톡히 누리고 있다. 출시 한 달 만에 신규 발급된 카드는 약 35만5000장으로 전년 동기대비 156% 급증했다. 이중 신용카드는 23만7000장, 체크카드는 11만8000장이다.신규 회원중 애플 기기 이용자 91%가 애플페이를 등록했다. 신규 등록 토큰 수 역시 3주 만에 200만건을 돌파했고, 지속적으로 증가하고 있다.연령대별로는 신규 회원중 MZ세대 비중이 79%를 차지했다. 20대가 51%로 가장 많았고 30대와 40대는 각각 28%, 12%이다. 현대카드 이용자가 4월말까지 애플페이를 이용해 결제한 건수는 약 930만건, 1회 이상 이용한 고객 비중은 71%이다.해외에서도 애플페이 이용이 시작됐다. 전체 결제 금액의 9%가 해외에서 결제됐다. 일반 카드 결제 금액 해외 결제 비중이 2% 수준인 것과 비교하면 4배 이상 높은 수준이다. 우버나 스타벅스, 에어비앤비 결제 비중이 높다는 설명이다.현대카드 관계자는 "현대카드 고객은 애플페이를 전 세계에서 이용할 수 있게 되고 편리한 결제 경험을 누리고 있다"며 "고객들의 결제 편의를 위해 애플페이 이용 가맹점을 늘려나갈 것"이라고 말했다.기업은행, 수출기업·중기근로자 지원IBK기업은행은 원자재 가격 상승과 수출 부진 등으로 어려움을 겪는 중소기업을 위한 '공급망 결제성 여신 지원 프로그램'을 시행한다. 이 프로그램을 통해 제조업 혁신분야와 유망서비스 기업, 수출입 기업과 ESG 우수 기업을 대상으로 △할인어음 △외상매출채권담보대출 △전자채권담보대출 △무역금융 △구매자금 등 결제성 자금을 지원한다.비대면 채널 이용기업을 우대하기 위해 할인어음과 무역금융을 비대면으로 실행하면 최대 1.3%포인트를 감면할 예정이다. EU의 공급망 실사지침과 탄소중립 규제 등으로 ESG 경영 추진에 부담을 느끼는 중소기업, 수출 부진으로 어려움을 겪는 기업들에게는 프로그램을 통해 지원을 확대해 나갈 방침이다.이와 함께 중소기업 근로자를 대상으로 가계대출 금리 우대 등 금융 혜택을 제공하는 중기근로자 우대 프로그램을 추진한다.영업점에서 신청하는 개인 주택담보대출과 전세대출, 신용대출 신규 금리를 중소기업 근로자에게는 근속기간에 따라 최대 연 0.7%포인트 우대해주는 '중기근로자 가계 안정 우대 프로그램'을 실시한다.전세대출 금리는 급여 이체 등 거래실적에 따른 우대금리(1.4%포인트)와 근속기간별 우대금리(0.7%포인트)를 적용하면 최저 연 3.2% 수준이다.자산형성 우대 프로그램 일환으로 근속기간에 따라 IBK중기근로자우대적금 신규 고객에게 최대 연 1.2%포인트 우대 금리를 추가 제공해 가입시 최고 연 5.7% 금리를 제공한다. 추후 중기 근로자를 위해 △카드금융 수수료율 감면 △산재·질병 등 경제적 어려움으로 예금 해지시 특별중도해지이율 적용 △개인·카드 VIP 등급 우대 등 적용 범위를 확대할 계획이다.토스뱅크 '먼이받 정기예금' 1조 돌파토스뱅크 '먼저 이자 받는 정기예금'이 출시 약 33일 만에 판매액 1조원을 돌파했다. 이 상품은 토스뱅크가 처음으로 선보인 정기예금 상품이다. 금리는 연 3.5%(세전, 만기일 세금 차감)로 가입한도는 최소 100만원에서 최대 10억원이다. 가입 기간도 3개월 또는 6개월로 짧아 고객 편의에 따라 운용할 수 있다.토스뱅크가 가입자 데이터를 분석한 결과 가입 기간 3개월을 선택한 가입자가 전체의 67%였다. 연령대로는 40대가 30.5%로 가장 높았다. 만기를 채운 고객은 '자동 재가입' 서비스를 통해 최대 3회까지 간편하게 재가입 할 수 있다. 중도해지도 가입자가 원하면 가능하다. 단 먼저 받은 이자에서 중도해지 이자를 제외한 금액이 원금에서 차감된다.토스뱅크 관계자는 "먼저 받는 정기예금은 투명하고 직관적으로 이자 혜택을 누릴 수 있다"며 "고객이 즉각 체감할 수 있는 혜택과 금융 서비스를 제공하도록 노력할 것"이라고 말했다.KB금융, 싱가포르서 국내 스타트업 진출 지원KB금융은 싱가포르에서 국내 스타트업들의 안정적인 해외 진출을 돕기 위해 은행권청년창업재단 '디캠프', 싱가포르 정보통신미디어개발청(IMDA)과 함께 스타트업 데모데이를 개최했다.첫날에는 국내 스타트업 △휴레이포지티브(만성질환자를 위한 헬스케어 플랫폼 운영) △옴니스랩스(AI기반 공간정보 영상분석 솔루션 제공) △그레이드헬스체인(건강등급 평가 관리 기반 금융 솔루션 제공) △위미트(식물성 대체육 개발) △카이헬스(AI기반 난임 솔루션 제공) 등 5곳이 참가해 비즈니스 피칭 후 심사위원단과 질의응답을 갖는다.이를 거쳐 최우수 스타트업으로 선정되면 상금 2000만원, IMDA가 제공하는 스타트업 육성 프로그램 우선 심사 특전이 제공된다. 참가 기업 선정을 위한 사전 심사에는 총 81개 스타트업이 참여했고 IMDA와 벤처캐피탈 서류 심사와 인터뷰 등을 거쳐 5개 스타트업이 최종 선정됐다.KB금융 관계자는 "싱가포르는 정부의 친 스타트업 정책으로 투자가 활발이 이뤄지는 지역으로 국내 스타트업이 해외진출 시 최우선으로 고려하는 국가"라며 "앞으로도 스타트업이 차세대 유니콘 기업으로 성장하도록 국내외에서 적극 지원하과 다양한 분야에서 협업을 추진하겠다"고 말했다.신한카드, 소비성향 맞는 'Pick' 체크카드 출시신한카드는 Z세대 고객 소비성향을 기반으로 한 '신한카드 Pick E 체크'와 '신한카드 Pick I 체크'를 출시했다. 이 카드는 Z세대가 자주 사용하는 생활영역 서비스를 공통으로 제공하고 MBTI 성향을 파악하는 Z세대 특성을 살려 외향적인 E형과 내향적인 I형이 선호하는 서비스를 선택할 수 있도록 2종으로 출시됐다.공통 생활영역 서비스를 편의점과 커피전문점 업종 이용시 각 월 최대 3000 마이 신한포인트까지 10%를 적립해준다.E체크는 사진관과 볼링장, 테니스장과 스키장 등 놀이영역 10% 적립 서비스를 제공하고 월 최대 3000 마이 신한포인트까지 적립된다. I체크는 음악 영역과 OTT 영역, 도서 영역으로 이뤄진 디지털 구독 서비스 10% 적립 서비스를 제공한다.   신한카드는 출시 기념으로 이 카드를 발급 받고 본인 SNS 계정에 인증한 고객 중 총 300명을 추첨해 스페셜 굿즈를 증정한다.SBI저축은행, 2년 연속 신용평가 A 획득SBI저축은행은 지난해에 이어 2년 연속 기업신용평가 'A' 등급을 획득하고 등급전망을 '안정적'으로 부여 받았다고 밝혔다.나이스신용평가는 SBI저축은행에 대해 기업금융과 개인금융 등 다변화된 사업기반을 바탕으로 저축은행 업계 최상위 시장지위를 확보한 점, 양호한 자본적정성과 안정적인 유동성 관리 능력 등을 이유로 A를 부여했다.SBI저축은행은 작년 12월말 기준 자기자본 1조8000억원, BIS비율 13.38%, 총자산 16조4000억원, 고정이하여신비율(NPL비율) 2.65% 수준이다.SBI저축은행 관계자는 "이번 신용등급 A 획득을 통해 업계 1위 저축은행으로서의 위상을 다시 한 번 확인하는 계기가 됐다"며 "앞으로도 포용적, 사회적 금융을 적극 실천하겠다"고 말했다.가정의 달 5월, 돈 어디에 썼을까?KB국민카드는 가정의 달 5월을 맞아 온라인 쇼핑몰 중 매출액 상위 565개 가맹점 구매 품목 데이터와 여가·오락서비스 업종의 일자와 연령별 소비 데이터를 분석했다. 선물로 고민하는 고객들에게 도움을 주겠다는 취지다.'가정의 달' 키워드가 포함된 구매 품목 비중은 △홍삼 제품(20.2%) △카네이션(9.4%) △비누(4.3%) △용돈박스(3.7%) '어린이 날'은 △과자/간식(18.9%) △장난감(4.9%) △음악회(3.8%) △게임기(3.3%) 및 블록장난감(3.3%), '어버이 날'은 △카네이션(27.7%) △용돈박스(12.6%) △비누(4.5%) △플라워(4.2%) 등으로 나타났다.구매 품목 분석을 통해 홍삼과 카네이션 등 부모와 웃어른 대상 선물 비중이 높고 현금을 선물로 포장하는 최근 트렌드를 엿볼 수 있었다는 설명이다.연령대별로는 가정의 달 키워드가 포함된 품목은 30대가 36%로 가장 많고, 어린이 날 키워드가 포함된 품목은 30~40대가 87%였다. 어버이 날 키워드는 20~30대 비중이 72%를 차지했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2023.05.02.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>신한금융, 슈퍼 앱 전쟁 참전...유니버셜간편앱 연말 내놓는다</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003095836?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>ⓒ게티이미지신한금융그룹이 은행·카드·증권·생명 등 핵심 계열사 서비스를 모은 '신한 유니버셜 간편앱'을 하반기 출시한다. 빅테크 기반 금융 앱으로 높은 사용률을 보이는 토스와 은행 중심 금융 연계 서비스로 월간활성이용자수(MAU) 1200만명을 돌파한 KB스타뱅킹을 넘어서는 슈퍼 앱이 탄생될 수 있을지 관심이 집중된다.2일 업계에 따르면, 신한금융은 유니버셜 간편앱 서비스 상용화를 위해 올해 전담 조직을 결성해 상용화에 박차를 가하고 있다. 유니버셜플랫폼부는 은행·카드·증권·생명 4개 관계사 직원과 IT직원 등 상주 직원 30명을 포함해 비상주 및 SI업체 직원까지 합쳐 150여명에 이른다.신한 유니버셜 간편앱은 최근 글로벌 금융업계 트렌드인 슈퍼앱의 중간 단계가 될 것으로 전망된다. 슈퍼앱은 각 영역 앱이 하나의 플랫폼 안으로 모두 통합되는 것을 의미한다. 예금 이체, 결제, 증권 등을 포함한 다양한 생활금융서비스를 탑재해 고객 접점을 늘리려는 포석이다.신한금융은 대대적인 투자를 통해 유니버셜 간편앱을 만들고, 신한금융에 충성도가 높은 고객을 키운다는 방침이다. 금융그룹 차원에서 더 나은 고객경험을 제공하는 한편 각 계열사가 윈윈전략을 펼칠 수 있다. 향후 신한을 넘어 외부 생태계까지 포섭하고 비금융 서비스까지 확장하는 오픈형 플랫폼으로 진화시키겠다는 목표다.신한금융은 우선 유니버셜 간편앱에 계열사 핵심 서비스만 모아 고객 편의를 극대화한다. 은행 메뉴는 모바일 앱 사용률 90%에 이르는 이체 서비스를 비롯해 예·적금 상품 중에서도 가입률이 높은 상품을 배치한다. 카드 서비스는 결제, 이용대금 등 이용자가 자주 활용하는 서비스로 구성한다.기존에 토스, 카카오뱅크 등 빅테크 선호도가 높은 MZ 이용자를 끌어들이기 위한 맞춤형 서비스도 담을 예정이다. 증권 앱인 신한 '알파'가 주식투자에 익숙한 사용자 환경에 맞춰져 있다면 유니버셜 간편앱은 젊은층을 타깃으로 보다 쉽고 재미있게 투자를 배워갈 수 있는 서비스를 담을 예정이다. 이외에도 비금융 이벤트나 상품과 연계된 챌린지 등도 선보인다.신한금융은 유니버셜 간편앱 개발과 동시에 기존 쏠, 플레이, 알파 등에서 지원하는 앱인앱 형태 신한플러스 서비스 또한 개편한다. 신한플러스는 타 금융관계사 서비스로 연결을 지원하고 있다. 동시 고도화를 통해 기존 고객은플러스뿐만 아니라 유니버셜 앱이라는 추가 채널 옵션까지 얻을 수 있다.이처럼 전통 금융사뿐 아니라 빅테크, 핀테크까지 하나의 앱에서 소비자의 다양한 욕구를 해소하기 위한 취지로 앱을 적극 통합하고 있다. 이를 두고 시장 반응은 갈리고 있다. 금융업계에 따르면 토스가 1300만명 이상으로 가장 높은 MAU를 기록하고 있는 반면, 지난해 슈퍼금융앱 탄생으로 기대를 모았던 삼성금융 계열 '모니모'는 MAU가 200만명 수준에 머무르고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2023.05.15.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>뱅큐, 폐업 수순…마이데이터 첫 허가 취소 사업자 나오나</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004190639?sid=105</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>'디지털금융 미래' 각광 속 출범수익 모델 못찾고 손실만 누적허가후 2년간 서비스 출시 못해금감원 내달 허가 취소 가능성사진 설명[서울경제] 디지털 금융의 미래로 꼽히던 ‘마이데이터’와 관련해 첫 허가 취소 사례가 나올 것으로 전망된다. 2020년 신용정보법 개정안이 국회 본회의를 통과하면서 마이데이터 사업의 길이 열렸지만 대부분의 사업자들이 수익 모델을 찾지 못하고 있는 현주소를 보여준다는 지적이 나온다.15일 서울경제신문 취재를 종합하면 마이데이터 사업자 ‘뱅큐’가 사실상 폐업 절차에 들어갔다. 현재 모바일 애플리케이션 및 웹페이지 이용이 중단된 상태다. 수장도 창업자인 천정훈 대표에서 올해 초 손종민 대표로 바뀌었다. 사업을 정리하기 위한 수순으로 풀이된다.뱅큐는 온라인투자연계금융(P2P) 업체 비욘드펀드의 모회사 비욘드플랫폼서비스에서 만든 핀테크 서비스로 은행이나 카드 등 금융 생활 정보를 한 곳에서 손쉽게 관리하는 모바일 개인자산관리 기능을 제공했다. 신용정보법 개정을 앞두고 천 전 대표가 2019년 분사해 회사를 설립했으며 2021년 7월 마이데이터 본허가를 획득하고 사업 본격화를 예고했다. 하지만 2021년 기준 4억 4500만 원의 영업손실을 내는 등 재무적 어려움이 발생했고 관련 서비스조차 출시하지 못했다.마이데이터 사업자가 허가를 받고 1년 이내에 관련 영업을 개시하지 않을 경우 감독 당국은 허가를 취소할 수 있다. 이에 금융감독원은 뱅큐가 마이데이터 허가를 받은 지 1년이 지난 지난해 하반기 1년의 유예기간을 주고 올해 6월 말까지 사업을 개시하거나 폐업을 통해 허가권을 자진 반납하지 않을 경우 허가를 취소할 수 있다는 내용의 확약서를 제출받았다. 금감원 관계자는 “6월 말까지 뱅큐가 마이데이터 허가를 자진 반납하지 않으면 취소 절차를 밟을 예정”이라고 말했다.업계에서는 뱅큐의 이 같은 상황이 실질적으로 마이데이터를 활용한 비즈니스 모델을 찾기 어려운 업계의 상황을 반영한다는 지적이 나온다. 핀테크 업계의 한 고위 관계자는 “대형사들도 이익을 내지 못하고 투자만 하고 있는데 작은 스타트업들은 더욱 견뎌내기 힘들 것”이라고 말했다.금감원의 지난해 금융데이터 산업 영업 실적 발표에 따르면 전체 마이데이터 사업자들의 관련 매출은 지난해 2조 1280억 원이었으나 대부분 대출 중개 같은 겸영 업무에서 99% 이상 발생했고 고유 업무인 신용정보통합관리 수익은 미미했다. 영업손실은 약 2697억 원으로 집계됐다.마이데이터 가입자 수(중복 포함)는 2021년 12월 740만 명에서 지난해 12월 6646만 명으로 약 9배 많아졌지만 총 64개 사 중 네이버파이낸셜·카카오페이·토스 등 상위 3개사에 35%인 2291만 명이 집중됐다. 반면 뱅큐를 포함한 4개 사는 아직 서비스 개시조차 못하고 있다. 그중 현대가 3세인 정대선 사장이 설립한 HN핀코어도 지난해 4월 마이데이터 본허가를 획득하고 1년이 지난 현재까지 서비스 출시를 하지 못한 상황이다. 다만 올해 상반기 중 관련 서비스를 내놓는다는 계획이다.이미 진출한 사업자들의 상황이 이렇다 보니 후발 주자의 전망도 밝지는 않다. 일례로 삼성카드의 경우 대주주인 삼성생명이 받은 중징계로 타사보다 뒤늦게 마이데이터 사업에 뛰어들었다. 지난달 17일 예비인가를 받고 같은 달 28일 금융 당국에 본인가를 신청했다. 하지만 KB국민·신한·우리·현대·BC·하나카드 등이 먼저 허가를 받고 사업을 전개 중인 터라 확실한 차별점 없이는 성과를 내기 어려울 것이라는 전망이 나온다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2023.05.09.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>한은 "애플페이 외 애플 금융서비스, 단기 국내 진출 어려울 듯"</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013928603?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>"애플통장·페이 레이터, 금융위 혁신금융서비스 지정 절차 필요""애플캐시는 전자금융거래법상 등록해야…법·제도적 제약"국내 진출 본격화하면 빅테크 규제 강화·금산분리 완화 요구 커질 듯애플페이[현대카드 제공. 재판매 및 DB 금지](서울=연합뉴스) 박대한 기자 = 애플페이의 본격 서비스에도 불구하고 애플캐시와 애플카드, 애플페이레이터(Apple Pay Later), 애플통장 등 나머지 애플의 금융서비스는 단기적으로 국내시장 진출이 어려울 것으로 전망됐다.    애플을 비롯한 글로벌 빅테크의 국내 금융업 진출이 본격화될 경우 빅테크에 대한 규제 강화 요구는 증대되는 반면, 국내 은행권의 금산분리 규제 완화 목소리는 커질 것이라는 분석도 제기됐다.    한국은행은 8일 '애플사(社)의 금융업 진출 현황 및 시사점' 보고서를 통해 애플 금융서비스의 국내 진출 가능성과 이에 따른 이슈를 점검했다. 애플, 기존 금융회사와 제휴 방식으로 금융서비스 속속 제공    보고서에 따르면 애플은 기존 금융회사와의 제휴 방식으로 여러 금융서비스를 제공하고 있다.    애플페이는 아이폰과 가맹점의 근거리무선통신(NFC) 단말기를 통한 비접촉식 결제서비스로, 2014년 출시돼 현재 글로벌 1위 간편결제서비스로 자리 잡았다. 지난 3월 현대카드와 제휴해 국내에도 도입됐다.    국내 유사 서비스로는 삼성페이가 있으나 결제데이터 전송방식에서 차이가 있다.    애플캐시는 제휴은행의 애플캐시 계좌 잔액을 이용해 애플페이를 통한 결제(온·오프라인 및 인앱결제), 개인 간 송금 및 은행 계좌이체 기능을 제공한다.    애플카드 사용 시 돌려주는 데일리 캐시를 적립하거나 아이폰 지갑에 등록된 직불카드 계좌에서 이체해 충전하면 된다.    제휴은행인 그린닷은행(Green dot bank)이 미 연방예금보험공사 회원이기 때문에 잔액은 예금자보호 대상에 들어간다.    국내에서는 네이버페이나 카카오페이가 선불충전금을 통한 오프라인 결제, 개인 간 송금서비스를 지원하고 있다.    애플카드는 애플과 제휴한 미 골드만삭스은행(GSBU)에서 발급을 지원해 아이폰지갑에 탑재하는 신용카드다.     일종의 상업자표시신용카드(PLCC)로, 애플은 플랫폼과 브랜드를 제공하고 실질적인 카드발급 및 약정체결은 GSBU가 담당한다.'카페에서도 애플페이'(서울=연합뉴스) 서대연 기자 = 애플의 근거리무선통신(NFC) 결제 서비스 '애플페이' 서비스 개시일인 지난 3월 21일 서울 시내 한 카페에서 시민이 애플페이로 음료를 결제하고 있다. 2023.3.21 dwise@yna.co.kr    애플페이레이터는 수수료나 이자 없이 결제금액을 6주 동안 4번에 걸쳐 나눠 상환할 수 있는 선구매·후결제(BNPL:Buy Now Pay Later) 서비스로 지난 3월 출시됐다.    신용카드에 비해 이용한도 및 지급 기간이 제한적이나 신용평가가 엄격하지 않아 저신용 소비자도 무이자로 이용할 수 있다는 점에서 금융포용의 성격이 있다.    국내 유사 서비스로는 네이버파이낸셜, 카카오페이, 비바리퍼플리카(토스)의 후불결제 서비스가 있다.    가장 최근인 지난 4월 애플이 GSBU와 제휴해 내놓은 애플통장은 애플카드 이용자만 가입할 수 있는 저축예금 계좌다.     이자율이 지난달 17일 기준 연 4.15%로 시장평균금리 수준을 크게 상회하는 데다 계좌 개설에 따른 수수료와 최소 예금유지 조건이 없어 출시되자마자 큰 관심을 모았다.    역시 GSBU에 의해 제공·관리되므로 연방예금보험공사 예금자보호 대상에 들어간다. "단기 국내시장 진출 어려워…빅테크 규제강화 요구 가능성"    보고서는 이러한 애플 금융서비스가 단기적으로 국내 시장에 진출할 가능성은 낮은 것으로 평가했다.     우선 애플페이는 우리나라를 비롯한 전 세계에서 서비스되고 있지만 나머지 애플 금융서비스는 미국 내에서만 서비스 중이며 타국가 진출계획은 확인되지 않았다는 것이다.     그러면서 애플이 애플페이 외 나머지 금융서비스로 국내시장에 진출하기 위해서는 국내 법·제도적 문제가 선결돼야 한다고 지적했다.삼성페이·네이버페이 협업 서비스 시작(서울=연합뉴스) 삼성전자가 삼성페이와 네이버페이의 협업 서비스를 23일부터 시작한다고 22일 밝혔다. 사진은 스마트폰에서 삼성페이를 통해 네이버페이 온라인 주문형 가맹점의 간편 결제를 이용하는 모습. 2023.3.22 [삼성전자 제공. 재판매 및 DB 금지] photo@yna.co.kr    애플통장의 경우 국내에도 유사한 서비스인 '네이버페이 머니 하나통장'이 있다.    '네이버페이 머니 하나통장'은 지난해 9월 금융혁신지원특별법에 따라 금융위원회 혁신금융서비스로 지정돼 금융상품 판매대리중개업자 등록 없이 서비스를 제공하고 있다.    따라서 애플통장의 국내 서비스를 위해서는 혁신금융서비스 지정 절차가 필요하며, 이 경우 통장계좌 발급수 제한, 지정기간 등의 여러 제약조건 하에서만 영업활동이 가능할 것이라는 설명이다.    보고서는 애플페이레이터 역시 혁신금융서비스 지정이 필요할 것으로 내다봤다.     유사한 국내 서비스인 '네이버페이 후불결제' 등은 금융위가 혁신금융서비스로 지정, 여신전문금융업법상 신용카드업 허가 없이 후불결제 서비스를 제공 중이기 때문이다.    보고서는 애플캐시의 경우 선불충전금을 통한 재화와 용역 구매 등 간편결제 서비스 구조를 갖고 있어 전자금융거래법상 선불전자지급수단 발행업자 등록이 필요할 것으로 판단했다.    다만 애플카드의 경우 국내에 이미 다양한 상업자표시신용카드(PLCC)가 보급돼 있고, 신용카드와 결합된 애플페이 서비스도 시작된 만큼 국내 카드발급사와 제휴하면 시장 진출이 가능할 것으로 내다봤다.     일각에서는 이미 애플페이를 도입하고, PLCC 서비스에도 적극적인 현대카드가 애플과 제휴해 애플카드를 내놓을 것으로 예상하고 있다.    보고서는 국내에서 이미 네이버와 카카오 등 빅테크 기업이 애플 금융서비스와 유사한 서비스를 제공하고 있는 만큼 경쟁에 어려움이 있을 것으로 예상했다.    다만 애플페이 사례처럼 젊은 세대를 중심으로 아이폰에 대한 높은 선호도 등에 힘입어 국내 시장에서 상당한 점유율을 차지할 가능성도 있을 것으로 전망했다.    보고서는 애플 등 글로벌 빅테크의 국내 금융업 진출이 본격화될 경우 금융안정 위험, 독과점 심화, 금융소비자 보호 약화 등 빅테크 관련 문제점이 부각되면서 사회적으로 규제강화 요구가 증대될 가능성이 있다고 지적했다.    그러면서 빅테크에 비해 규제상 역차별을 주장하는 은행권에서는 오히려 금산분리 규제 완화 요구를 쟁점화할 수 있다고 진단했다.    보고서는 "빅테크가 지급결제제도와 금융안정 리스크 요인으로 작용할 수 있으므로 이에 대한 중앙은행의 공동검사권 확보. '시스템적 중요성이 큰 빅테크 지급서비스'에 대한 감시체계 마련 노력을 지속하고, 국제기구 및 주요국 동향에 대한 모니터링을 강화할 필요가 있다"고 주장했다.    pdhis959@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2023.05.09.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>잘파세대, 카톡 가장 많이 쓰고 유튜브 가장 오래 본다</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011847215?sid=105</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>기사내용 요약10대 후반~20대 중반 사용자 일컫는 신조어카톡 1445만명 사용, 270억회 실행…유튜브는 한달간 364억분 사용9일 앱·리테일 분석 서비스 와이즈앱·리테일·굿즈가 지난 4월 한국인 스마트폰 사용자(안드로이드 + iOS)를 표본 조사한 결과 잘파세대가 가장 많이 사용한 앱은 카카오톡으로, 사용자가 1445만명으로 조사됐다.(출처=와이즈앱) *재판매 및 DB 금지[서울=뉴시스]최은수 기자 = MZ세대보다 더 젊은 세대를 의미하는 '잘파세대(Z세대+알파세대 합성어)'가 가장 많이, 자주 쓰는 앱은 카카오의 메신저앱 '카카오톡'인 것으로 조사됐다. 반면에 가장 오래 쓰는 앱은 '유튜브'로 한달 사용시간이 364억분에 달했다. 9일 앱·리테일 분석 서비스 와이즈앱·리테일·굿즈가 지난 4월 한국인 스마트폰 사용자(안드로이드 + iOS)를 표본 조사한 결과 잘파세대가 가장 많이 사용한 앱은 카카오톡으로, 사용자가 1445만명으로 조사됐다.이어 ▲유튜브 1420만명 ▲네이버 1284만명 ▲인스타그램 941만명 ▲쿠팡 766만명 ▲네이버지도 749만명 ▲배달의민족 677만명 ▲네이버웹툰 676만명 ▲토스 673만명 ▲당근마켓 482만명 순 이었다.잘파세대는 Z세대와 알파세대의 합성어로, 1990년대 중반에서 2010년 이후에 출생한 10대 후반부터 20대 중반까지의 사람들을 일컫는다. 최근 잘파세대는 새로운 소비층으로 각광받고 있다. 디지털 환경에 익숙해 다른 세대에 비해 SNS, 디지털 미디어 및 콘텐츠 소비에 적극적이어서다. 실제로 지난 4월 잘파세대가 가장 많이·오래·자주 사용하는 스마트폰 앱 상위 10개 중 엔터테인먼트 및 SNS 앱이 절반 이상을 차지했다. 이들 세대가 가장 자주 사용한 앱 역시 카카오톡으로 실행횟수가 270억회로 집계됐다. 이어 ▲인스타그램 81억회 ▲유튜브 60억회 ▲네이버 42억회 ▲트위터 34억회 ▲에브리타임 19억회 ▲캐시워크 15억회 ▲토스 13억회 ▲네이버웹툰 12억회 ▲틱톡 7억회 순이었다.반면 잘파세대가 가장 오래 사용한 앱은 유튜브로, 사용시간이 364억분이었다. 이어 카카오톡 106억분, 인스타그램 81억분, 네이버 55억분, 틱톡 36억분, 네이버웹툰 31억분, 트위터 31억분, 로블록스 20억분, 페이스북 9억분, 넷플릭스 8억분 순이었다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2023.05.11.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>"자영업자도 저신용자면 대출 안돼요" 카뱅·케뱅도 외면</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000919852?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>서울 중구 명동의 한 폐업한 상가 출입문에 대부업체 스티커가 붙어 있다./사진=뉴스1  인터넷전문은행 3사가 개인사업자(자영업자) 신용대출을 잇따라 출시했지만 개인사업자 중에서도 저신용자들을 대상으로 대출을 취급하지 않아 포용금융이라는 설립 취지에 맞지 않다는 지적이 제기된다.11일 은행권에 따르면 케이뱅크는 지난해 9월 개인사업자 신용대출을 출시한 가운데 올 3월까지 신용등급이 6등급 이하인 개인사업자에게는 아예 신용대출을 취급하지 않고 있다.지난해 11월 인뱅 3사 중 가장 마지막으로 개인사업자 신용대출 상품을 내놨던 카카오뱅크 역시 지난 3월까지 5개월 연속으로 6등급 이하 고객에게 신용대출을 내주지 않았다.지난해 2월 인터넷은행 최초로 개인사업자 대출을 출시한 토스뱅크의 경우 올 들어서야 저신용 개인사업자들에게 신용대출을 신규 취급하기 시작했다.앞서 토스뱅크는 지난해 2월부터 올 1월까지만 해도 7~10등급인 개인사업자에게 대출을 내주지 않다가 지난 2~3월 10등급까지 고객군을 확대했다.이처럼 인터넷은행들은 돈 빌리기 힘든 저신용 개인사업자를 외면해 놓고 대외적으론 고금리 속 개인사업자들의 이자부담을 덜기 위해 금리 인하 특판을 진행한다고 발표해 일각에선 두 얼굴을 하고 있다는 비판이 나온다.앞서 카카오뱅크는 올 6월 말까지 개인사업자 신용대출의 금리를 최대 0.4%포인트 인하한다고 밝혔다. 당시 카카오뱅크는 개인사업자 신용대출 금리가 최저 기준 연 4.68%에서 연 4.28%로 낮아져 금융권 개인사업자 신용대출 상품 중 가장 낮은 수준이라고 공언한 바 있다.━10등급 개인사업자는 어디로 가나━올 3월 기준 인터넷은행을 제외한 국내 16개 은행 가운데 7~10등급 개인사업자 신용대출을 취급하는 곳 KB국민·신한·하나·우리·NH농협 등 5대 은행은 물론이고 부산·경남·대구·광주·전북·제주 등 지방은행 6곳과 기업·SC제일은행 등으로 14곳에 이른다.금융당국은 어려움에 처한 자영업자들의 재기를 돕기 위해 자영업자 채무조정 프로그램인 '새출발기금'까지 운영하며 금융 지원에 나서고 있다. 하지만 혁신과 포용금융을 약속한 인터넷은행들이 정작 저신용 개인사업자 신용대출을 취급하지 않으며 금융당국의 기조와 정반대의 길을 가고 있다는 지적이다.애초부터 인터넷은행은 IT와 금융의 융합을 통해 금융산업의 경쟁과 혁신을 촉진하고 금융소비자 편익을 증대하기 위해 탄생했다. 특히 금융데이터와 비금융 거래정보, 통신사 데이터 등을 결합해 신용평가모델을 고도화하는 등 혁신을 통해 중·저신용자 대상 대출을 적극 공급할 것이라는 기대가 컸지만 여전히 미흡하다는 지적이 나오는 대목이다.특히 개인사업자 신용대출 평균 금리도 시중은행보다 인터넷은행이 높았다. 올 3월 기준 인터넷은행 3사의 개인사업자 신용대출 평균금리는 5.76~8.07%로 5대 은행(5.29~6.44%)보다 금리 하단이 0.47%포인트, 상단이 1.63%포인트 더 높았다.━자영업자 연체율 급등… 부실 커지는데 ━자영업자 대출잔액은 신종 코로나바이러스 감염증(코로나19) 사태 직전보다 50%가량 늘어난 가운데 연체율도 코로나19 이전 수준까지 올라가 부실 가능성에 대한 우려가 커지고 있다.한국은행이 국회 기획재정위원회 소속 양경숙 의원(더불어민주당·비례대표)에게 제출한 '자영업자 소득 수준별 대출 잔액·연체율 현황' 자료에 따르면 지난해 말 전체 자영업자의 모든 금융 기관 대출을 합한 잔액은 1019조8000억원으로 사상 최대 규모를 기록했다. 코로나19 확산 직전인 2019년 말(684조9000억원)과 비교하면 48.9% 늘었다.전체 자영업자 대출 연체율은 지난해 4분기 0.26%로 2020년 2분기(0.29%) 이후 2년 6개월 만에 가장 높은 수준을 기록했다.문제는 저소득 자영업자의 경우 2금융권 대출이 급증하고 있다는 점이다. 2019년 4분기부터 2022년 4분기까지 3년간 저소득 자영업자의 상호금융 대출은 16조1000억원에서 37조1000억원으로 130% 급증했다.같은 기간 보험사는 8000억원에서 1조7000억원으로 112%, 카드·캐피털 등 여신전문금융회사는 1조9000억원에서 3조원으로 57.9% 늘었다.금융권 관계자는 "인터넷은행들이 개인사업자 대출 시장을 두고 경쟁하고 있지만 저신용·저소득 차주는 신규 대출 취급에서 제외하는 모습"이라며 "연체율 상승 등의 자산 건전성 문제도 있겠지만 저신용·저소득 취약 자영업자를 1금융권에서 외면하면 더 많은 이자를 내야 하는 제2 제3금융권, 심지어 불법 사채시장으로 내몰릴 수밖에 없는 악순환으로 이어질 수 있다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2023.05.10.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>이자 바로 받는 예금 쏟아지는데…금리는 하락</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011850057?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>기사내용 요약카뱅, '바로 이자받기' 24일부터인뱅 3사, 파킹통장 금리 낮춰[서울=뉴시스]이주혜 기자 = 인터넷전문은행을 중심으로 만기까지 기다릴 필요 없이 이자를 바로 받을 수 있는 예금상품이 확산하고 있다. 파킹통장뿐 아니라 '선이자 정기예금' 상품까지 등장했다. 이자를 바로 받아 복리 효과를 누릴 수 있다는 게 매력이지만 금리는 하락세다.10일 금융권에 따르면 토스뱅크는 '먼저 이자 받는 정기예금'의 1인 1계좌 가입 제한을 17일부터 없앨 예정이다. '먼저 이자 받는 정기예금'은 가입과 동시에 이자를 먼저 제공한다. 금리는 연 3.5%(세전)이며 만기일에 세금이 차감된다. 가입한도는 최소 100만원에서 최대 10억원까지다. 가입기간은 3개월이나 6개월 중 선택할 수 있다.토스뱅크는 3월24일 해당 상품을 출시하면서 1인 1계좌로 가입을 제한했으나 자금 운용의 유연성을 높여 달라는 고객 요청에 따라 이를 해제하기로 했다. 파킹통장에 적용되는 '지금 이자 받기' 서비스는 인터넷은행 3사로 퍼지고 있다. 토스뱅크를 시작으로 케이뱅크가 해당 서비스를 도입한 데 이어 카카오뱅크도 이달부터 합류한다. '지금 이자 받기'가 적용돼 매일 이자를 받으면 '일 복리' 효과를 누릴 수 있다.카카오뱅크는 24일부터 바로 이자 받기 서비스를 시작한다. 최근 세이프박스 특약을 개정해 이자 지급 시기에 '고객이 요청한 날'을 추가했다. 기존에는 매월 네번째 금요일을 기준으로 결산해 토요일에 이자를 지급해왔다. 앞서 토스뱅크가 지난해 3월 토스뱅크 통장에 지금 이자 받기 서비스를 먼저 선보였으며 케이뱅크도 올해 1월 '플러스박스'에 바로 이자를 받을 수 있는 서비스를 도입한 바 있다.인터넷은행뿐만 아니라 Sh수협은행도 지난달 27일 파킹통장 'Sh매일받는통장'을 출시했다. 이 상품은 고객이 모바일뱅킹앱에서 '이자받기'를 신청하면 전일까지의 이자를 즉시 받을 수 있는 '지금 이자받기' 서비스를 제공한다. 잔액과 우대금리 조건 충족 여부에 따라 최대 연 3%의 금리가 적용된다.시장의 반응은 뜨겁다. 토스뱅크에 따르면 먼저 이자 받는 정기예금은 출시 33일 만에 판매액 1조원을 돌파했다. 출시 이후 나흘 만에 1000억원, 15일 만에 5000억원을 넘어서기도 했다. '지금 이자 받기' 서비스는 출시 1년간 이용횟수 1억5000만회를 넘어섰다.이자를 바로 받을 수 있다고 기뻐하기에는 이르다. 금리 상승기 막바지에 접어들면서 최근 시장금리가 하락한 가운데 수신금리도 내리고 있어서다. 인터넷은행들은 지난달 파킹통장 금리를 줄줄이 낮췄다. 카카오뱅크는 지난달 22일 세이프박스 금리를 기존 연 2.6%에서 연 2.4%로 0.2%포인트 낮췄다. 케이뱅크는 지난달 27일 플러스박스 금리를 연 2.7%에서 연 2.6%로 낮췄다.토스뱅크는 지난달 두 차례에 걸쳐 토스뱅크 통장의 금리를 낮췄다. 5000만원 이하 구간의 금리는 연 2.2%에서 연 2.0%로, 5000만원 초과 구간은 연 3.8%에서 연 3.3%까지 낮아졌다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2023.05.15.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>카카오 알뜰폰 본격 시동… 스테이지파이브·페이 연계</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004190262?sid=105</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>카카오 알뜰폰 '스테이지파이브'카카오페이와 연계해 간편 가입[서울경제] 카카오 계열의 알뜰폰 사업자 스테이지파이브가 카카오페이와 연계한 가입자 모집에 나선다. 토스모바일과 유사하게 금융·결제와 알뜰폰을 연계해 본격적인 사업 확장에 나서는 구도다.15일 스테이지파이브는 카카오톡 내 카카오페이 홈과 카카오페이 앱 내에 ‘통신·로밍’ 메뉴를 신설했다고 밝혔다. 카카오톡 사용자라면 누구나 간단히 통신·로밍 메뉴를 통해 요금제 가입과 기기 구매가 가능하다. 대부분의 요금제와 로밍은 전자심(eSIM)으로도 제공해 기기가 eSIM을 지원할 경우 다운로드만 받아서 가입할 수 있다. 상담은 카카오톡 채널을 통해 이뤄진다.스테이지파이브는 통신 3사 요금제를 저렴하게 재판매하는 ‘핀다로’, 절약형 요금제인 ‘Z시리즈’, 프리미엄 요금제 ‘프라임’ 상품 등을 준비했다. 또 오는 31일까지 가입자에게 세계 143개 국가에서 사용할 수 있는 데이터로밍 1일 무료 쿠폰을 증정한다.스테이지파이브 관계자는 “복잡하고 어려웠던 통신을 더욱 명료하고 편리하게 하고 사용자 맞춤형 혜택을 제공하는데 주력했다”며 “앞으로 새로운 통신금융 서비스를 출시하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2023.05.09.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>한 달 동안 364억분…`잘파세대`가 가장 오래 쓴 앱은?</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002799448?sid=105</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>잘파세대가 가장 오래 사용하는 스마트폰 앱 순위. 와이즈앱·리테일·굿즈 제공    잘파세대(Z세대+알파세대 합성어)가 가장 오래 이용하는 스마트폰 앱은 '유튜브', 가장 많이·자주 사용하는 앱은 '카카오톡'이라는 조사 결과가 나왔다.앱·리테일 분석 서비스 와이즈앱·리테일·굿즈는 지난달 한국인 스마트폰 사용자(안드로이드+iOS)를 표본 조사한 결과를 9일 발표했다.조사 결과 잘파세대가 가장 오래 사용한 스마트폰 앱은 유튜브로 사용시간이 364억분에 달하는 것으로 나타났다. 그 뒤는 △카카오톡(106억분) △인스타그램(81억분) △네이버(55억분) △틱톡(36억분) △네이버웹툰(31억분) △트위터(31억분) △로블록스(20억분) △페이스북(9억분) △넷플릭스(8억분)가 차지했다.잘파세대는 1990년대 중반~2000년 초반에 태어난 Z세대와 2010년 이후 출생자인 알파세대를 의미한다. MZ세대(1980∼2000년대 출생)에 이어 새로운 소비층으로 각광받고 있는 잘파세대는 다른 세대에 비해 SNS, 디지털 미디어, 콘텐츠 소비에 적극적이다. 실제 가장 많이, 가장 오래, 가장 자주 사용하는 스마트폰 앱 상위 10개 중 엔터테인먼트·SNS 앱이 절반 이상을 차지했다.잘파세대가 가장 많이 사용한 앱은 카카오톡으로 사용자가 1445만명으로 집계됐다. 이어 △유튜브(1420만명) △네이버(1284만명) △인스타그램(941만명) △쿠팡(766만명) △네이버지도(749만명) △배달의민족(677만명) △네이버웹툰(676만명) △토스(673만명) △당근마켓(482만명) 순이었다.가장 자주 사용한 앱 역시 카카오톡이었다. 카카오톡의 실행횟수는 270억회에 달했다. 그 다음은 △인스타그램(81억회) △유튜브(60억회) △네이버(42억회) △트위터(34억회) △에브리타임(19억회) △캐시워크(15억회) △토스(13억회) △네이버웹툰(12억회) △틱톡(7억회)으로 확인됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2023.05.09.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>한은 “애플페이 외 애플 금융서비스, 단기 국내 진출 어려울 듯”</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003222405?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>애플페이. 연합뉴스 자료사진애플페이가 국내 서비스를 본격적으로 시작했지만 애플캐시와 애플카드, 애플페이레이터(Apple Pay Later), 애플통장 등 나머지 애플의 금융서비스는 법·제도적 한계 등으로 단기적으로 국내 시장 진출이 어려울 것으로 한국은행이 전망했다. 또 애플을 비롯한 글로벌 빅테크의 국내 금융업 진출이 본격화될 경우 빅테크에 대한 규제를 강화해야 한다는 요구가 커지고, 국내 은행권의 금산분리 규제 완화가 다시 쟁점이 될 가능성도 제기된다.한국은행이 지난 8일 발표한 ‘애플사의 금융업 진출 현황 및 시사점’ 보고서를 보면 애플은 기존 금융회사와의 제휴 방식으로 여러 금융서비스를 제공하고 있다.가장 대표적 서비스인 애플페이는 아이폰과 가맹점의 근거리무선통신(NFC) 단말기를 통한 비접촉식 결제서비스다. 2014년 출시돼 현재 글로벌 1위 간편결제서비스로 자리 잡았고, 지난 3월 현대카드와 제휴해 국내에도 도입됐다.애플캐시는 제휴은행의 애플캐시 계좌 잔액을 이용해 애플페이를 통한 결제(온·오프라인 및 인앱결제), 개인 간 송금 및 은행 계좌이체 기능을 제공한다. 애플카드 사용 시 돌려주는 데일리 캐시를 적립하거나 아이폰 지갑에 등록된 직불카드 계좌에서 이체해 충전하면 된다. 제휴은행인 그린닷은행(Green dot bank)이 미 연방예금보험공사 회원이기 때문에 잔액은 예금자보호 대상에 들어간다. 국내에서는 네이버페이나 카카오페이가 선불충전금을 통한 오프라인 결제, 개인 간 송금서비스를 지원하고 있다.애플페이레이터는 수수료나 이자 없이 결제금액을 6주 동안 4번에 걸쳐 나눠 상환할 수 있는 선구매·후결제(BNPL, Buy Now Pay Later) 서비스로 지난 3월 출시됐다. 국내 유사 서비스로는 네이버파이낸셜, 카카오페이, 비바리퍼플리카(토스)의 후불결제 서비스가 있다.지난 4월 애플이 미 골드만삭스은행(GSBU)과 제휴해 내놓은 애플통장은 애플카드 이용자만 가입할 수 있는 저축예금 계좌다. 이자율이 지난달 17일 기준 연 4.15%로 시장평균금리 수준을 크게 웃도는 데다 계좌 개설에 따른 수수료와 최소 예금유지 조건이 없어 출시와 함께 큰 관심을 모았다.보고서는 이러한 애플 금융서비스가 단기적으로 국내 시장에 진출할 가능성은 낮은 것으로 평가했다.우선 애플페이를 제외한 나머지 애플 금융서비스는 미국 내에서만 서비스 중이며 타국가 진출계획은 아직 확인되지 않았다. 특히 애플이 애플페이 외 나머지 금융서비스로 국내시장에 진출하기 위해서는 국내 법·제도적 문제가 선결돼야 하는 상황이다.애플통장, 애플페이레이터 등의 국내 서비스가 가능하려면 금융위원회 혁신금융서비스 지정이 필요한 상황으로 풀이된다.보고서는 또 국내에서 이미 네이버와 카카오 등 빅테크 기업이 애플 금융서비스와 유사한 서비스를 제공하고 있는 만큼 경쟁에 어려움이 있을 것으로 예상했다. 다만 애플페이 사례처럼 젊은 세대를 중심으로 아이폰에 대한 높은 선호도 등에 힘입어 국내 시장에서 상당한 점유율을 차지할 가능성도 있을 것으로 전망했다.또 보고서는 애플 등 글로벌 빅테크의 국내 금융업 진출이 본격화될 경우 금융안정 위험, 독과점 심화, 금융소비자 보호 약화 등 빅테크 관련 문제점이 부각되면서 사회적으로 규제강화 요구가 증대될 가능성이 있다고 지적했다. 동시에 빅테크에 비해 규제상 역차별을 주장하는 은행권에서는 오히려 금산분리 규제 완화 요구를 쟁점화할 수 있다고 진단했다.보고서는 “빅테크가 지급결제제도와 금융안정 리스크 요인으로 작용할 수 있으므로 이에 대한 중앙은행의 공동검사권 확보. ‘시스템적 중요성이 큰 빅테크 지급서비스’에 대한 감시체계 마련 노력을 지속하고, 국제기구 및 주요국 동향에 대한 모니터링을 강화할 필요가 있다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2023.05.11.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>"반값에서 또"…편의점에 무슨 일이</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001100725?sid=103</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>고물가 속 '가성비 소비'를 앞세운 편의점 업계의 초저가 경쟁이 뜨거운 가운데, 자체 물류망을 활용한 택배 서비스로도 가격 전쟁이 확대되고 있다.편의점 CU는 오는 15일부터 이달 말까지 멤버십 애플리케이션에서 '알뜰택배'(반값택배) 요금을 할인한다고 11일 밝혔다.CU의 알뜰택배는 편의점의 자체 물류 차량을 활용한 택배 서비스로 매장에서 물건을 보내고 찾아가야 하지만 일반 택배보다 가격이 최대 40% 저렴해 이용객이 늘고 있다.특히 최근에는 1인 가구가 늘고 중고 거래가 활성화되면서 지난달 이용 건수는 서비스 첫해인 2020년보다 27.9배나 증가했다.CU는 이런 수요를 반영해 행사 기간 멤버십 앱에서 반값택배 할인 쿠폰을 매일 1장씩 발급한다. 쿠폰을 적용하면 최대 55% 할인받을 수 있고, 500g 이하짜리 소형 택배는 800원에 이용할 수 있다.CU는 또 카카오맵에서 일반 택배 예약 서비스를 출시하고 네이버 스튜던트 멤버십 회원과 토스 앱 이용객에게도 반값택배 할인 쿠폰을 발급한다.GS25도 5월 한 달간 반값택배 비용을 최대 31% 할인하고 있다.'우리동네GS' 앱으로 예약하면 5kg 이하까지 1천800원 균일가로 이용할 수 있다.편의점 업계는 최근 가성비 도시락을 잇달아 출시하며 편의점에서 끼니를 해결하는 '편도족'을 공략하고 있다.또 매달 먹거리 할인이나 1+1 증정 행사를 선보이고 가격이 저렴한 B급 채소나 초저가 상품을 내놓으며 소비심리 공략에 힘쓰고 있다.(사진=CU)</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2023.05.04.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>[인문학 칼럼] 5월 하늘에 퍼지는 하프 연주자의 노래</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/658/0000040042?sid=110</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>죽음을 사색함으로써 삶의 즐거움을 되새긴 옛 이집트의 노래처럼생명의 계절인 5월에 생각하는 죽음의 의미유성환 서울대 아시아언어문명학부 강의교수·이집트학 박사고대 이집트인들이 남긴 여러 유물이나 문헌을 보면 이들이 죽음을 ‘본향으로의 귀환’이나 ‘평온한 안식’으로 여겼다는 인상을 준다.그러나 이들이 죽음을 언제나 긍정적으로 생각한 것은 아니었다. 이들 역시 필멸의 운명을 부여받은 인간의 처지를 탄식했으며 아무도 그 실체를 알 수 없는 죽음 뒤의 불확실한 상황에 전전긍긍하면서 부활과 영생을 위한 준비에 모든 에너지를 쏟아붓는 것보다는 ‘지금 그리고 여기’에서 누릴 수 있는 삶의 모든 기쁨과 쾌락을 누리는 것이 낫다는 생각도 가지고 있었다.이런 생각은 이집트 문학 중 ‘하프 연주자의 노래’라는 장르에 잘 반영되어 있는데, 이 명칭은 귀족들의 주연이나 장례식의 절차 중 하나로 행해지던 장례 연회에서 다른 악사 무희들과 함께 활약했던 맹인 연주자가 하프를 연주하는 장면과 함께 그가 음송했던 가사가 분묘의 내벽이나 석비에 새겨지거나 그려진 데 착안해 현대 이집트학자들이 붙인 것이다. 특히, 같은 종교적 시가의 범주로 분류될 수 있는 찬가와는 달리 공식적인 신전 의례 등에서 낭송되지 않았기 때문에 ‘하프 연주자의 노래’에서는 삶과 죽음에 대한 편견 없는 이해와 진솔한 감정을 보다 자유롭게 드러내는 것이 가능했다.이들 ‘하프 연주자의 노래’ 중 가장 널리 알려진 것이 ‘인테프 왕묘의 하프 연주자의 노래’인데 이 작품에서는 이집트에서 전형적으로 나타나는 죽음에 대한 긍정적인 시각과는 다른 회의적인 정서가 부각된다.“아무도 그곳에서 돌아오지 않았네, / 자신들의 처지를 말해주고자, 자신들의 운명을 말해주고자, / 우리의 심장을 달래 주고자, 우리가 그들이 떠나간 곳으로 가기 전까지는! // 그러니 그대의 심장을 기쁘게 하라! / 염려하지 않는 것이 좋은 것이니, 살아 있는 동안 그대의 심장을 따르라. / 머리에 몰약을 바르고 고운 아마 옷을 입고 / 몸에는 신에게 어울리는 귀한 기름을 바르라. / 즐거움을 높이고 심장이 가라앉지 않게 하라. / 심장이 원하는 대로 지상에서의 일을 행하라. / 그대를 애도할 날이 왔을 때 심장이 지친 이는 그들의 애도를 듣지 않으며 / 그들의 울음이 사람의 심장을 무덤으로부터 구하지 못하니.”이런 노래가 흥겨운 연회 도중에 울려 퍼졌다면 확실히 분위기는 싸해졌을 것이다. 그런데 이 대목에서 이집트의 다양한 풍습을 기록했던 헤로도토스를 빼놓을 수 없다. ‘역사’에서 그는 이집트에는 이처럼 연회의 분위기를 숙연하게 만드는 관례가 있다고 기록한 바 있다.“저녁 식사 후 개최되는 아이깁토스의 부자들의 연회에서는 한 남자가 나무로 시신처럼 보이게 만든 것을 관에 넣고 방 안을 도는데, 실감 나게 색칠하고 조각한 이 시신을 길이가 1 내지 2페퀴스쯤 된다. 그 남자는 연회에 참석한 손님 한 사람마다 그것을 보여주며 말한다. ‘이것을 보시며 즐겁게 마시세요. 당신도 죽으면 이렇게 될 테니까요.’ 아이깁토스인들은 연회 때 그렇게 한다.”실제로 파라오 시대의 연회에도 이런 관례가 있었는지 알 수 없지만 이와 유사한 파토스를 유발하는 공연이 연회의 일부를 이루었을 것이라는 합리적인 추론은 가능하다. 그런데 흥미롭게도 기원전 1000년 이후에는 ‘하프 연주자의 노래’라는 장르가 명맥을 잇지 못하고 소멸해 버린다. 장르가 소멸했다는 것은 죽음에 대한 사람들의 정서가 바뀌었다는 것을 시사한다. 하지만 여기서 주의할 것은 시대에 따라 변화를 보이는 장르의 생성과 소멸에도 불구하고 죽음에 대한 이집트인들의 태도가 전향적으로 바뀌지는 않았다는 점이다. 죽음이라는 것이 항구적이고 보편적인 사건인 만큼, 그에 대한 반응도 대체로 항구적이고 보편적일 수밖에 없을 것이다.한때나마 ‘하프 연주자의 노래’라는 장르가 존재했다는 사실은 이집트에서는 죽음이 언제나 바람직한 것으로 여겨졌으며 이집트인들은 죽음에만 집착했다는 것은 아니라는 반증으로 보아야 할 것이다. 요컨대, ‘인테프 왕묘의 하프 연주자의 노래’가 삶의 즐거움 쪽으로 가파른 기울기를 보인다고 할 수 있다. 이집트인들이 내세에서의 영생을 희구한 것도 사실이지만 그렇다고 해서 현세에서 누릴 수 있는 쾌락과 행복을 부정하거나 배격한 것은 아니다. 이들에게는 서로 다른 존재의 두 양태가 모두 똑같이 소중했던 것이었다.계절의 여왕 5월에 불쑥 죽음이라는 달갑지 않은 주제를 꺼내 보았다. 만물이 되살아나고 약동하는 시기에 차분히 모든 것의 종말을 잠시나마 곱씹어 보는 것도 나쁘지 않을 것이다.“그러니 그대의 심장을 기쁘게 하라! / 염려하지 않는 것이 좋은 것이니, 살아 있는 동안 그대의 심장을 따르라.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2023.05.10.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>알체라, BNK부산은행 '비대면 신분증 원본 검증 시스템' 구축</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003097466?sid=004</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>제공:알체라영상인식 인공지능(AI) 전문기업 알체라(대표 황영규)가 BNK부산은행(은행장 방성빈)의 '비대면 신분증 원본 검증 시스템' 구축사업에 선정됐다고 10일 밝혔다.BNK부산은행은 알체라의 솔루션을 도입해 비대면 금융거래에서 본인 확인 시, 제출된 신분증의 도용이나 위·변조를 신속하게 판별하고 고객의 안전한 금융생활을 보장할 전망이다.알체라는 금융결제원의 신분증 진위확인시스템을 통해 △주민등록증 △운전면허증 △여권을 포함한 신분증 3종에 게재된 사진과 문자를 모두 검증하는 국내 유일 업체다. 신분증 내 정보를 광학문자인식(OCR)을 통해 자동 추출하고, 고화질 인쇄본 및 모니터 촬영본 등을 사본으로 정확히 구분하는 서비스를 제공하고 있다. 문자정보만을 대조해 사진위조에 취약한 기존 솔루션과 달리, 금융결제원 데이터와 연계해 위·변조된 신분증의 사진까지 대조하고 얼굴인식 기술을 통해 신분증 실소유자를 판별한다.BNK부산은행은 알체라의 신분증 OCR, 사본판별, 진위확인 솔루션을 모두 도입함으로써 신분증 도용을 예방할 수 있는 기술을 선제적으로 확보하고, 보안성을 한층 강화할 수 있게 됐다.알체라 솔루션은 1초 내외로 신속한 검출속도를 자랑하며, 다양한 카메라 촬영 환경에서도 평균 99.99% 이상의 검증 정확도를 제공하고 있다. 수천만 장의 신분증 이미지 데이터 학습을 통해 정확도를 높였으며, 타 시스템 대비 실패율이 98%가량 낮은 점이 특징이다.황영규 알체라 대표는 "최근 비대면 금융거래의 활성화로 금융사고가 잇따르면서 이를 예방할 수 있는 기술에 대한 수요가 높아졌다"며 "신속하고 정확한 기술력을 갖춘 알체라 솔루션을 통해 안전하고 편리한 금융 서비스를 지원할 것"이라고 전했다.한편, 알체라는 신분증 OCR, 사본판별, 진위확인 솔루션뿐만 아니라 얼굴인식을 비롯한 자사 솔루션을 외교부, 법무부, 행정안전부 등 정부기관과 토스뱅크, 신한카드, 현대해상을 포함한 금융사에 공급하고 있다. 얼굴인식 기술의 경우 '미국 국립표준기술연구소 얼굴인식 벤더 테스트(NIST FRVT)'에서 1초 이내에 99.99%의 정확도로 국내 1위를 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2023.05.08.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>[클라우드+] "9시 장 시작 후 30분간 트래픽 70% 발생...클라우드로 대응"</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000745062?sid=105</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>오창훈 토스증권 CTO 인터뷰 "AWS클라우드로 MTS 구축, 가용성 및 안전성 확보"애자일한 조직 운영…고객 요구사항에 즉각적 대처 가능디지털 전환은 코로나19 팬데믹을 거치며 거스를 수 없는 시대적 흐름으로 자리잡았다. 그 중심에는 클라우드가 있다. 기술적인 완성도와 비즈니스 모델의 다변화로 클라우드 산업은 양적 질적 성장의 문턱에 서 있다. 아이뉴스24는 연중기획으로 국내외 클라우드 산업과 정책을 살펴보고 'K-클라우드 생태계'가 나아가야 할 방향을 모색해본다. [편집자주]"토스증권의 모바일트레이딩시스템(MTS)을 클라우드 상에 구현함으로써 실시간 시세 서비스를 안정적으로 제공하고 있다."오창훈 토스증권 최고기술책임자(CTO)는 최근 열린 AWS서밋 서울에서 아이뉴스24 기자와 만나 인터뷰하고 있다. [사진=아마존웹서비스 코리아]오창훈 토스증권 최고기술책임자(CTO)는 최근 열린 AWS서밋 서울에서 아이뉴스24와 만나 "아마존웹서비스(AWS) 클라우드를 활용한 시세 인프라를 구축해 특정 시간에 몰리는 트래픽에 효율적으로 대처할 수 있게 됐다"면서 출범 2년만에 성장한 비결을 이같이 설명했다.지난 2021년 설립된 토스증권은 출범 1년 6개월만인 지난해 3분기 영업이익 흑자 전환에 성공했으며, 지난달 기준 480만 고객을 확보하는 등 안정적인 성장세를 보이고 있다.코로나19 팬데믹 기간 중 출범한 토스증권의 시작은 순탄치만은 않았다. 금융업의 특성상 업무망, 개발망, 폐쇄망 등 망구성별 지속적인 장비 수급이 필요했지만  코로나19 기간 공급망 이슈로 장비 공급이 원할하게 이뤄지지 못했던 것이다. 이런 상황에서 토스증권이 선택한 전략은 '금융 맥락에 맞는 클라우드 인프라를 최대한 활용하는 것'이다.오창훈 CTO는 "코로나19의 공급망 이슈로 네트워크 장비 하나 얻기 힘든 상황에서 무한한 용량을 쓸 수 있는 클라우드 환경을 통해 네트워크와 개발 인프라의 가용성을 확보할 수 있었다"면서 "개인정보적인 성격을 지니지 않고 외부에 공개할 수 있는 분야에 한해서 클라우드를 최대한 활용하려고 한다"고 덧붙였다. 이런 조건을 충족시키는 대표적인 사례가 MTS 구축이다.그는 "MTS 핵심인 실시간 시세 서비스의 경우, 9시 장이 시작된 후 30분 간 몰리는 시세 트래픽이 전체의 70% 차지할 정도로 짧은 시간에 엄청난 트래픽이 발생한다"면서 "이와 동시에 종목조회, 뉴스 제공 등 여러 서비스를 제공하려면 무한한 트래픽 가용성을 확보해 둬야 한다"고 말했다.실시간 트래픽 처리에 풍부한 경험을 갖추고 있는 AWS와의 클라우드 협력을 통해 토스증권이 막대한 양의 트래픽에도 안정적인 시세 서비스를 제공하고 있다는 게 그의 설명이다.토스증권은 투자 초보자부터 전문가까지 모두가 편리하게 활용할 수 있는 모바일 증권 서비스를 제공하겠다는 포부다. 그는 회사의 '애자일 조직문화'를 통해 실현할 수 있다고 강조했다. 회사 내 각각의 팀들이 물리적으로 독립된 조직으로 운영되고 있어, 고객의 다양한 요구에 즉각적이고 적합한 대처가 가능하다는 것이다.오 CTO는 "회사에는 화면 구성, 트레이딩 서비스, 포럼 및 커뮤니티 운영, 프로모션 제공 등 다양한 팀들이 존재하는데, 이들은 각자의 물리적 시스템을 갖춘 독립 조직으로 운영되고 있다"면서 "한 부문에서 문제가 발생해도 다른 부문에 영향을 주지 않고, 고객 요청에 따른 서비스 변경이나 수정 사항도 신속하게 반영될 수 있다"고 밝혔다.이어 그는 "이러한 애자일 조직이 효율적으로 운영되려면 클라우드 지원이 필요하다. 직접 물리적 데이터센터에 가지 않아도 언제든 필요에 따라 서버를 늘리고 줄일 수 있기 때문"이라면서 "여러 조직들이 한곳이 아닌 분산된 환경에서 운영되기 때문에 서비스 안정성도 높이고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2023.05.10.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>주4일제 바람…우리회사에는 어떤 방식이 맞을까</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004842722?sid=102</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>한경 CHO InsightMERCER와 함께하는 'HR 스토리'“10분 후면 일(Work)을 마치고, 삶(Life)으로 돌아갈 시간입니다.” 오후 1시50분, PC 화면에 뜬 업무종료 예고 메시지다. 이어 PC 차단까지 남은 시간을 알려주는 타이머가 작동한다. 오후 2시 정각, ‘오늘 하루도 수고 많으셨습니다’ 라는 메시지와 함께 모니터 전체가 파란화면으로 변한다. 주4.5일 근무제를 시행하고 있는 한 기업의 금요일 오후 풍경이다.일상이 회복되자 대부분의 조직이 오피스 근무로 업무방식을 되돌렸다. 하지만 사람들은 여전히 유연근무가 필요하다는 입장이다. 유연근무는 삶의 질을 높이면서도 업무를 효과적으로 수행하는 새로운 방식을 보여줬다. 그렇기에 일방적인 퍼스트 오피스 정책은 자신들을 신뢰하지 않는 조치라며 반발한다.하이브리드 근무, 시차출퇴근제, 근로시간계좌제 등 새로운 일하는 방식이 활발히 시도되고 있다. 이는 당연시 여겨지는 주5일 근무를 다시 돌아보는 계기가 됐다. 헨리 포드가 주5일제를 도입한지 약 100년 만의 일이다. 헨리 포드가 주5일 근무를 도입하기 이전에는 일주일에 6일, 하루 10시간 이상 노동이 일상이었다. 근로자의 건강은 열악했고 생산성 역시 낮았다. 이러한 상황에서 포드 자동차는 대량 생산라인을 도입하며 주5일제로 전환했다. 포드의 유산은 오늘날 업무방식의 표준으로 자리잡았다. 그런데 100년이 지난 지금, 주5일제를 벗어나 주4일 근무라는 새로운 바람이 곳곳에서 일고 있다.  유럽에서는 다양한 시범운영을 통해 주4일제의 장단점을 가늠하고 있다. 아이슬란드는 2015~2019년 동안 35시간 주4일제를 실험했다. 연봉은 동일하게 유지한 채 불필요한 회의와 휴식시간을 줄여 업무 효율을 높였다. 그 결과 생산성은 비슷하게 유지하면서도 근로자의 스트레스와 번아웃은 줄어 들었다. 현재 아이슬란드 기업의 약 85%가 주4일제를 실시한다.벨기에는 근무시간과 급여는 기존처럼 유지하면서 주4일 근무하는 법을 2022년 11월부터 시행했다. 하루 8시간 주5일 근무를 유지해도 되고, 하루 근무시간을 최대 10시간까지 늘려 주4일 근무로 전환할 수 있다. 근무방식 선택은 근로자 요청으로 가능하다. 회사가 이를 거절하려면 명확한 사유를 문서로 제시해야 한다. 스페인은 2022년 가을부터 주4일제 시범 참여기업에 예산을 지원한다. 희망직원에 한해 주당 근무시간을 최소 10% 줄이고 임금을 낮추는데, 급여 손해액을 정부가 일부 보전하여 임금 감소를 최소화한다.국내에서도 주5일보다 적게 일하는 기업이 속속 등장하고 있다. SK텔레콤, CJ ENM, 카카오게임즈, 비바리퍼블리카(토스) 등이 주4.5일제와 격주 4일제를 채택한 대표적 기업이다. 주4일제를 전격 도입한 기업도 있다. 휴넷은 2년간 운영해온 주4.5일제를 확대하여 2022년부터 주4일제를 운영한다. 우아한형제들은 주32시간제를 적용 중이다. 월요일 오전 근무가 없고, 화요일부터 금요일은 기존보다 30분 일찍 끝내는 방식이다.  주4일제 모델은 크게 두 가지 형태다. 4일치 업무를 하면서 기존과 동일한 임금을 받는 방식과, 5일치 업무량을 4일 동안 하는 방식이다. 일반적으로 지향하는 목표는 전자다. 기존보다 생산성 있게 일해 근무일을 4일로 단축하는 것이다. 하지만 이러한 방식이 모든 기업에 통하리라 장담하기 어렵다. 특히 공장을 가동하는 제조업이나 정해진 기간 내에 물품과 서비스를 제공하는 비즈니스의 경우, 일하는 시간 자체를 줄이면 생산량과 품질 저하로 이어질 수 있다. 결국 5일치 근무량을 4일에 압축적으로 일하는 후자로 흐른다. 실제로 주4일제를 시행하며 하루 근무시간을 8시간에서 10시간으로 늘려 생산성을 유지하는 사례를 쉽게 발견할 수 있다.또 다른 중요한 이슈는 임금감소 가능성이다. 주4일제는 기본적으로는 임금 삭감없는 근무일 축소를 가정한다. 하지만 근무시간이 줄면 그에 따라 임금을 삭감해야 하는지를 고려할 수밖에 없는 게 HR의 입장이다. 한국리서치가 실시한 조사결과에 따르면, 주4일제를 반기는 사람일지라도 임금이 감소하면 주4일제에 참여하지 않는다고 답한 응답자가 44%에 달한다. 임금수준 유지는 주4일제 도입의 핵심 쟁점으로, 정부 차원의 지원과 기업의 전략적 투자가 필요한 이유이기도 하다. 구성원들은 대체적으로 주4일 근무를 반기는 분위다. 그렇다고 줄어든 근무일에 맞춰 구성원이 알아서 생산성 있게 일할 것이라는 안일한 접근은 위험하다. 헨리 포드가 대량 생산라인을 바탕으로 주5일 근무 전환을 이끌어냈듯, 변화를 뒷받침할 새로운 일하는 방식과 세심한 고민이 필요하다.테크기업와 스타트업은 원격 또는 하이브리드로 일하는 경우가 많다. 조직운영에 민첩성과 혁신을 중요시 여긴다. 이런 이유로 주4일제 도입에 대한 거부감이 상대적으로 낮다. 이에 회의 없는 날 등과 같은 간편한 조치로 업무 집중력을 높여 근무시간을 단축하는 주4일제 전환을 시도해 볼 수 있다. 총 근무시간을 단축하는 주4일제 적용이 부담된다면 압축근무로 시작해 볼 수 있다. 주당 40시간 근무는 유지하되, 이를 4일에 걸쳐 압축적으로 일하고 하루를 더 쉬는 방식이다.다른 산업에서도 근무일 단축은 가능하다. 하지만 오랜 시간에 걸쳐 확립된 일하는 방식을 재고해야 한다. 예를 들어 컨설팅과 로펌은 보통 시간 단위로 일하고 비용을 청구한다. 적은 시간을 일한다는 것은 자칫 수입이 줄어든다는 걸 의미할 수 있다. 비용 청구 방식을 시간 단위에서 프로젝트의 가치 단위로 전환하거나, 고객 업무에 보다 집중할 수 있도록 간접 업무를 줄이는 준비가 필요하다.조직 외부와의 업무보다는 조직 내부 업무 비중이 높은 기업은 모든 직원이 같은 날에 근무하고 함께 쉬는 주4일제가 효율적이다. 반대로 일주일 내내 일이 돌아가야 하거나 고객과의 협업이 많은 비즈니스도 있다. 이런 경우에는 구성원마다 주4일 근무일을 다르게 설정할 필요가 있다. 고객과 파트너 입장에서 주5일 근무와 다를 바 없게 비춰져야 한다. 이를 위해서는 사전에 근무일을 설정하는 원칙과 더불어, 동료가 쉬는 날의 대처 방안이 준비돼야 한다.선택형 주4일제 근무도 고려해 볼 만하다. 동료와의 교류, 소속감, 대면 근무의 생산성, 오피스에서의 집중감 등의 이유로 주5일제를 선호하는 사람이 있다. 다른 누군가는 압축적인 근무와 긴 휴식, 가정생활에 보다 많은 시간 할애 등의 이유로 주4일제를 희망한다. 주4일제에 대한 선호가 구성원마다 갈리는 경우, 주4일 근무 여부를 개인에게 맡기는 게 낫다. 자신의 취향과 상황에 맞는 일하는 방식을 스스로 선택할 때 업무에 보다 몰입할 수 있다. 특히 개인화 성향이 강한 요즘 세대에게는 선택형 주4일제가 보다 적합하다. 논란과 이슈에도 불구하고 주4일 근무는 점차 확산될 것으로 보인다. 물론 근무시간만 줄고 생산성은 떨어질 것이라는 우려도 있다. 그러나 정해진 근무시간을 채운다고 기대하는 생산성을 보장할 순 없다. 관점의 변화가 필요한 시점이다.경제협력개발기구(OECD)에 따르면 2021년 기준 한국의 연평균 노동시간은 38개국 중 5번째로 많다. 반면 시간당 노동생산성은 29위에 그쳤다. 성과는 근로시간에 비례하지 않는 듯하다. 북유럽과 스칸디나비아 국가들은 연간 근무시간은 적은데 생산성이 높다. 비결이 뭘까? 어쩌면 적은 근무시간 그 자체일지도 모른다.업무 효율을 높여 일하는 시간을 줄이는 실험이 본격화됐다. 주5일제가 지금의 모든 근무방식을 대표하지 않듯, 주 4일제 역시 모든 상황에 적합한 일하는 방식이 될 수 없다. 어떠한 일하는 방식이 우리 조직에 맞는지 실행해 보고 조금씩 개선해 나가는 것이 보다 유효한 시대다. 남들보다 한발 앞선 주4일 근무를 고민해보자. 김주수 MERCER Korea 부사장/HR컨설팅 서비스 리더</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2023.05.12.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>인뱅이 장악한 모임통장…시중은행도 가세</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011855161?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>기사내용 요약국민, 모임통장 출시…하나도 준비금리 0.1% 불과…저비용 수신 확보[서울=뉴시스]이주혜 기자 = 카카오뱅크와 토스뱅크 등 인터넷은행이 장악한 '모임통장' 시장에 시중은행이 가세하고 있다. 국민은행이 모임통장 서비스를 출시했으며 하나은행도 준비에 나섰다. 예적금에 비해 금리가 낮은 모임통장은 은행이 적은 비용으로 수신을 확보하는 데 유리하다. 12일 금융권에 따르면 KB국민은행은 전날 모임통장을 운영할 수 있는 'KB국민총무서비스'를 출시했다. 기존에 쓰던 통장에 모임 관리 기능을 추가하는 방식이다. 이 서비스는 납부자와 미납자를 확인하는 '정기회비 현황카드'와 미납자에게 알림을 보내는 '콕콕찌르기', 모임회비 현황을 보여주는 '월별 리포트' 등을 제공한다.하나은행도 모임통장 출시를 준비 중이다. 최근 특허청에 '하나 모임통장'으로 상표권을 출원했다. 하나은행은 지난해 2월 관련 서비스를 중단한 바 있다. 중단 1년여 만에 서비스 재개에 나선 것이다.NH농협은행은 모임 및 회비관리를 위한 'NH모여라통장'을 운영하고 있다.현재는 인터넷은행들이 주로 모임통장 서비스를 제공한다. 카카오뱅크는 2018년 12월 모임통장을 출시해 앞서 시장을 확보했다. 카카오뱅크 모임통장 고객은 3월 말 기준 880만명, 잔액은 5조5000억원으로 늘었다. 토스뱅크도 올해 2월 '공동 모임장'을 차별점으로 내세우며 모임통장 시장에 합류했다. 케이뱅크도 출시를 계획하고 있다.모임통장이란 동아리, 동호회 등 단체 모임의 회비를 모으고 비용을 관리할 수 있는 통장이다. 은행별 상품에 따라 회비 조회·관리, 구성원 관리와 회비 내역 조회 등의 서비스를 제공한다. 주로 수시입출금통장 형식으로 이자는 연 0.1% 수준이다. 은행 입장에서는 비용이 거의 들지 않는 저원가성 예금을 유치하기에 좋은 '효자 상품'이다. 카카오뱅크는 모임통장의 성장에 힘입어 수신 경쟁력을 확보했다. 1분기 기준 모임통장 잔액이 저원가성 예금(22조9000억원)의 24.3%를 차지했다. 카카오뱅크는 1분기 실적을 발표하며 "은행권 대비 경쟁력 있는 수신구조를 유지하고 있다"고 언급했다. 카카오뱅크의 수신 잔액 중 저원가성 예금 비중은 56.8%로 은행권 전체 수신 중 저원가성 예금이 차지하는 비중인 39.4%에 비해 17.4%포인트 높다. 시중은행들이 모임통장 시장에 나선 것도 저비용 수신 확보 차원으로 풀이된다. 은행권 관계자는 "모임통장은 예금이나 적금처럼 이자를 주는 상품이 아니다 보니 은행 입장에서는 조달 비용이 싼 상품"이라며 "인터넷은행뿐만 아니라 대다수 시중은행들도 나설만한 이점"이라고 설명했다. 모바일 뱅킹 앱 이용이 늘면서 모임통장에 다양한 기능을 추가할 수 있는 환경도 조성됐다.그는 "주거래 은행, 신뢰성 등을 이유로 시중은행을 선호하는 고객들의 모임통장 수요도 있다"고 덧붙였다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2023.05.12.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>금융위원장 “온라인 대환대출 소비자 수수료 부담 과도하면 안돼”</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003223130?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>31일 온라인·원스톱 대환대출 인프라 개시53개 금융사 대출 온라인 갈아타기 가능해진다김주현 금융위원장이 12일 오전 서울 정부서울청사에서 개최된 대환대출 인프라 사전점검 간담회에서 발언하고 있다. | 금융위원회 제공김주현 금융위원장이 온라인·원스톱 대환대출 인프라 개시를 앞두고 “대환대출 제도 목적에 맞지 않게 소비자에게 과도한 수수료 부담을 지우지 않아야 한다”고 당부했다.금융위원회는 오는 31일 출시되는 ‘온라인·원스톱 대환대출 인프라’의 구축상황 점검을 위한 간담회를 12일 개최했다. 이날 간담회에는 5대 은행(KB국민·신한·우리·하나·NH농협) 행장 및 부행장과 4개 플랫폼사(토스·카카오페이·네이버파이낸셜·핀다) 대표가 참석했다.김 위원장은 모두 발언에서 “이번 인프라는 세계 최초로 시도되는 것이며, 최근 금융시장의 여러 불확실성을 감안하면 이 제도의 성공적 안착을 위해 세심한 관리와 노력이 필요하다”고 금융사와 플랫폼사에 당부했다.이어 “금융업계와 핀테크 업계는 이번 대환대출 인프라 구축의 목적은 투명하고 공정한 경쟁을 통해 소비자의 이익을 증진시키키 위한 것임을 명심해 달라”며 “목적에 맞지 않게 과도한 수수료 부담을 소비자에 지우거나, 금융업계의 건전한 영업과 시장 안정을 저해하는 행태가 나타나지 않도록 각별히 유의해 주시길 부탁드린다”고 덧붙였다.오는 31일 온라인·원스톱 대환대출 인프라가 개시되면 소비자는 53개 금융회사에서 받은 대출을 영업점 방문 없이 다른 금융사 대출로 갈아 탈 수 있게 된다. 금융회사들은 자체 경영전략, 플랫폼의 경쟁력 등을 고려해 제휴 플랫폼을 선택하고, 이들 플랫폼을 통해 소비자들에게 신규 대출상품을 제시하게 된다.금융위는 이달 말 신용대출을 시작으로 연말에는 주택담보대출까지 온라인·원스톱 대환대출 인프라 대상 대출을 확대할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2023.05.03.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>높아지는 연체율에…금융사들 '역대급' 충당금 쌓는다</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011837148?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 고승민 기자 = 한국은행이 국회 기획재정위원회 양경숙(더불어민주당) 의원에게 제출한 '가계대출 현황' 자료에 따르면 코로나19 이후 3년 동안 빚이 가장 많이 늘어난 계층이 2,30대인 것으로 알려졌다. 이들 대출 잔액은 지난해 4분기 은행권과 2금융권을 합해 모두 514조 5,000억 원으로 추산됐다. 2019년 4분기 404조원보다 27.4％ 늘어났다. 사진은 30일 서울의 한 시중은행 대출광고 모습. 2023.04.30. kkssmm99@newsis.com[서울=뉴시스] 정옥주 기자 = 경기 악화와 고금리 등에 따른 대출 부실 가능성에 대비해 금융사들이 충당금을 대거 쌓으며 리스크 관리에 집중하고 있다.3일 금융권에 따르면 KB국민·신한·하나·우리금융지주 4대 금융지주는 올 1분기 역대 최대 규모로 충당금을 쌓았다. KB금융이 1분기 6682억원의 대손충당금을 전입하며 가장 많이 쌓았다. 이는 지난해 1분기 1439억원보다 358.3% 급증한 규모다. 신한금융도 지난해 1분기 2434억원보다 89.4% 늘어난 4610억원을 전입했다. 하나금융의 1분기 대손충당금 등 전입액은 3432억원으로 전년 동기(1646억원)대비 108.5%를 더 쌓았다. 우리금융도 대손충당금 등으로 1분기 2614억원을 전입했다.이처럼 은행권이 충당금을 대폭 확대하는 이유는 경기 악화로 인한 금융 부실에 대비해 충당금 규모를 확대하라는 금융당국의 주문에 따른 것이다. 신용회복위원회(신복위)에 따르면 빚을 갚지 못해 채무조정을 신청한 취약차주가 1분기 4만6067명에 달해 1년 전 보다 44% 급증한 것으로 나타났다.실제 연체율도 최근 오르는 조짐을 나타내고 있다. 금융감독원에 따르면 국내은행의 원화대출 연체율이 0.36%로 전월말(0.31%) 대비 0.05%포인트 상승했다. 국내은행의 연체율은 코로나19 확산에도 역대 최저 수준을 유지해 왔지만, 지난해 하반기부터 꿈틀대는 조짐을 보이고 있다. 올 1월 말 전월대비 0.06%포인트 올라 상승 전환한데 이어, 2월 말에도 뛰어오르며 지난 2020년 8월(0.38%) 이후 30개월 만에 가장 높은 수치를 기록했다.저축은행도 연체율이 크게 뛰었다. 저축은행중앙회에 따르면 올 1분기 저축은행 연체율은 5.1%로 지난해 말(3.4%) 대비 1.7%포인트 상승했다. 연체율 추이를 보면 2016년 말 5.8%, 2018년 말 4.3%, 2020년 말 3.3%로 하락하다가 지난해 말 3.4%로 상승한 뒤 올 들어 급등하는 모습이다. 아울러 올 1분기 전국 79개 저축은행의 순손실(잠정)은 약 600억원 규모로 추정된다. 저축은행이 적자를 내는 것은 지난 2014년 이후 9년 만으로, 순손실이 예상되는 저축은행은 약 25개로 자산규모가 큰 대형사도 포함됐다. 카드사들의 사정도 다르지 않다. 금감원이 지난달 3일 발표한 지난해 '여전사 영업실적(잠정)'에 따르면 148개 국내 여전사의 지난해 말 기준 연체율은 1.25%로 전년 말 대비 0.39%포인트 상승했다. 여전사 연체율은 2019년말 1.68%, 2020년말 1.26%, 2021년말 0.86%로 점차 줄어들었지만 지난해 말 증가세로 반전했다. 이들 여전사의 당기순이익은 3조4067억원으로 전년(4조4562억원) 대비 23.6%(1조495억원) 줄었다.네이버페이와 카카오페이, 토스 등 빅테크 3사가 제공하는 '후불결제 대출서비스(BNPL)'의 연체율에도 경고등이 켜졌다. 금감원이 국회 정무위원회 소속 최승재 국민의힘 의원에게 제출한 자료에 따르면 네이버·카카오·토스의 올 1분기 기준 BNPL 연체채권 규모는 총 19억3790만원으로 연체율은 4.4%에 달했다. 일반적으로 1% 수준인 신용카드의 연체율과 비교하면 BNPL의 연체율은 우려할 만한 수준이라는 지적이 나온다.특히 금융권 안팎에서는 지난 3년간 이어진 코로나 대출 이자상환 유예 조치가 종료되는 오는 9월 이후 연체율이 더욱 치솟기 시작할 것이란 우려가 나오고 있다.이에 따라 금융지주들은 다가오는 부실을 막기 위해 앞으로도 충당금 추가 적립에 적극적으로 나설 것으로 보인다. 방동권 신한금융 부사장(CRO)은 최근 1분기 실적발표 컨퍼런스콜에서 "연체 증가 추세가 지속되고 있고 부동산 프로젝트파이낸싱(PF) 리스크도 하반기에 더 늘어나지 않을까 싶다"며 "충당금을 조금 더 보수적으로 쌓을지 고민하고 있다"고 말했다. 박장근 우리금융 리스크관리부문(CRO) 상무도 컨퍼펀스콜에서 "감독당국에서 충당금을 충분히 쌓으란 요구가 있었고 적극 대응했다"며 "지금 쌓인 충당금은 개별 평가 부문을 선반영한 상태로 하반기 추가 요구가 있으면 적극 대응할 예정"이라고 밝혔다.저축은행중앙회도 리스크 관리 강화 등을 위해 고위험대출을 축소했고, 대손충당금 적립률도 법정기준 100%를 초과해 적립하는 등 선제적인 대비에 나선 상태다.신용상 한국금융연구원 금융리스크연구센터장은 "특히 고금리 제2금융권 다중채무가 빠르게 증가하며 차주의 소비여력을 위축시키고 상환부담을 높이고 있는데, 감내 수준을 넘길 경우 부실로 연결될 가능성이 높아진다"며 "이러한 잠재부실위험이 현재화되는 것을 예방하기 위해 금융기관은 자본 및 대손충당금 등 손실흡수능력을 확충해 나가야 할 것"이라고 말했다.한편 금융당국은 "아직 관리가능한 수준"이라면서도 부실 가능성에 대비해 충당금 확대 외에도 지연되고 있는 부실채권 매각과 상각 절차를 해결하기 위한 방안을 논의 중이다.이복현 금감원장은 지난달 28일 기자들과 만난 자리에서 "시스템 리스크로 발전할 수 있는 가능성을 중심으로 보면 일부 지표의 악화에도 저축은행과 관련 특정 포트폴리오는 여전히 관리 가능한 수준"이라며 "다만 연체율이 꾸준히 올라가고 있는 것은 신규 연체 발생 부분도 있지만, 보유하고 있는 상각 대상 자산의 매각, 상각 절차가 지연되고 있는 부분이 있어 금융기관들이 부담을 떨어낼 방법이 있는지 금융회사 및 협회와 논의 중"이라고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2023.05.02.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>토스뱅크 '먼저 이자 받는 정기예금' 1조 돌파</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002708398?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>17일부터 '1인1좌' 제한 폐지토스뱅크 먼저 이자 받는 정기예금 관련 포스터. ⓒ토스뱅크[데일리안 = 김효숙 기자] 토스뱅크는 '먼저 이자 받는 정기예금'이 출시 약 한달 만에 판매액 1조원을 돌파했다고 2일 밝혔다.토스뱅크에 따르면 먼저 이자 받는 정기예금은 지난달 24일 출시 이후 나흘 만에 1000억원, 15일 만에 5000억원을 돌파해 일 평균 약 303억원씩 유입되고 있다.먼저 이자 받는 정기예금은 가입과 동시에 이자를 먼저 제공한다. 금리는 연 3.5%(세전, 만기일에 세금 차감)로, 가입한도는 최소 100만 원에서 최대 10억 원 까지다. 가입 기간도 3개월 또는 6개월로 짧게 유지해 고객 편의에 따라 운용할 수 있다는 장점이 있다.전체 가입 고객 데이터를 분석한 결과, 가입 기간을 3개월로 선택한 고객이 전체 고객의 약 67%에 달하며, 나머지 약 33%의 고객은 6개월 기간을 선택했다. 또한 연령대 분포를 보면 40대(30.5%)가 가장 높았으며, 50대 이상(26.8%), 30대(26.1%), 20대(15.6%) 10대(1.0%) 순으로 나타나는 것으로 확인됐다.먼저 이자 받는 정기예금은 고객들이 가입하는 동시에 즉시 이자를 받는다. 예로 1억원을 3개월간(92일 기준) 맡기는 고객은 세전 금액인 약 88만 원을 즉시 받는다. 이에 먼저 이자를 받은 고객은 이를 즉시 재투자에 활용하는 등 자유롭게 불릴 수 있게 했다.만기를 채운 고객은 자동 재가입 서비스를 통해, 최대 3회까지 간편하게 재가입할 수 있다. 또한 중도해지도 고객이 원할 때 언제든 가능하다. 단, 먼저 받은 이자에서 중도해지 이자(가입기간에 비례)를 제외한 금액이 원금에서 차감된다.먼저 이자 받는 정기예금은 오는 17일부터 자금 운용의 유연성을 높여 달라는 고객의 니즈에 따라 1인 1계좌 가입제한을 없앨 예정이다. 이에 고객은 목돈 예치의 목적에 따라 계좌 개설 제한 없이 원하는 수만큼 정기예금에 가입할 수 있게 된다.토스뱅크 관계자는 "그동안 고객들이 정기예금에 가입해도 만기일까지 이자금액을 투명하게 알지 못했던 반면 먼저 받는 정기예금은 고객들의 보다 투명하고 직관적으로 이자 혜택을 누릴 수 있도록 했다"며 "토스뱅크는 앞으로도 고객이 즉각 체감할 수 있는 혜택과 금융 서비스를 제공할 수 있도록 지속 노력하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2023.05.05.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>10대 고객 확보 나선 인터넷은행…카카오뱅크 "연내 대상 연령 확대"</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/088/0000812618?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>윤호영 카카오뱅크 대표이사가 18일 오전 서울 영등포구 페어몬트 앰배서더 호텔에서 열린 2023 카카오뱅크 프레스톡(기자간담회)에서 발표를 하고 있다. 연합뉴스인터넷전문은행인 카카오뱅크와 토스뱅크가 10대 고객 확보에 나서고 있다. 이들 은행이 선보인 선불전자지급 서비스가 어린이·청소년 고객 사이에서 인기를 끌고 있다.5일 은행권에 따르면 카카오뱅크가 운영하는 만 14∼18세 청소년 대상 선불전자지급 서비스인 카카오뱅크 미니(mini) 가입자 수는 지난달 말 기준 약 174만명을 기록했다.카카오뱅크 미니는 2020년 10월 출시된 청소년 전용 선불전자지급서비스다. 최대 50만원 한도로 충전해 편의점, 배달음식 결제, 대중교통 이용 등에 사용할 수 있다.2020년 말 59만명이던 가입자 수는 2021년 말 115만명, 지난해 말 161만명으로 가파르게 늘었다.이 같은 상황이 카카오뱅크 수익에도 긍정적으로 작용한다. 카카오뱅크는 올 1분기 순이익 1천19억원 기록, 작년 같은 기간에 비해 53% 증가하며 역대 최대 실적을 올렸다. 전 분기 대비 이자이익이 감소했음에도 체크카드 실적 확대, 미니의 꾸준한 고객 수 확대와 이용액 증가세가 주효했다.카카오뱅크 관계자는 "청소년 고객 사이에서 카카오뱅크에 대한 관심이 높다 보니 만 14세 생일에 카카오뱅크 미니를 개설하는 청소년 중 절반가량이 밤 12시에서 오전 2시 사이에 가입한다"고 설명했다.김석 최고운영책임자(COO)는 지난 3일 1분기 실적발표 콘퍼런스콜에서 "3분기 미니 대상 고객을 확대해 더 많은 청소년에게 금융 생활을 제공할 것"이라고 밝혔다.토스의 어린이·청소년용 선불카드인 '유스카드'도 지난달 말까지 누적 발급량 107만장을 돌파했다.토스가 지난해 2월 출시한 유스카드는 만 7∼16세 대상 충전식 카드다. 선불 전자지급 수단인 토스머니와 연동해 체크카드처럼 사용할 수 있다. 편의점 CU에서 현금을 충전하는 방식으로도 이용할 수 있다.만 7∼18세 토스 사용자는 지난달 말 194만명을 돌파했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2023.05.04.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>스캇 리 대표 "니어 프로토콜, 웹2.5 지향…연내 천만 유저 목표"</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004841012?sid=105</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>스캇 리 니어 코리아 허브 대표 인터뷰"웹3 생태계 아직 극초기…웹2 유저 끌어올 것""한국은 콘텐츠 강국…좋은 프로젝트 많아 진출"블록체인 학회 기반 주니어 개발자 양성에 집중스캇 리(Scott Lee) 니어 코리아 허브 대표 / 사진=조연우 블루밍비트 기자"웹2 유저들의 웹3 온보딩을 도와 올해 말까지 1000만 유저(이용자), 궁극적으로는 10억 유저 달성을 이뤄내겠다"스캇 리(Scott Lee) 니어 코리아 허브 대표는 4일 블루밍비트와의 인터뷰에서 이같은 포부를 밝혔다.이더리움(ETH)의 확장성 문제를 해결하기 위해 출범한 레이어1 플랫폼 니어 프로토콜(Near Protocol·NEAR)은 지난해 11월 한국에 아시아 지역 사업을 총괄하는 '니어 코리아 허브'를 설립했다.니어 코리아 허브는 글로벌 메인넷, 웹3 주요 프로젝트 뿐 아니라 웹2로 일컬어지는 기존 대기업 출신으로 구성돼 있다. 이러한 웹3 전문성과 웹2에 대한 이해도를 바탕으로 많은 기업들과 유저들이 웹3에 온보딩하는 것을 돕는 역할을 하고 있다.다음은 스캇 리(Scott Lee) 대표와의 일문일답.Q. 니어 프로토콜(Near Protocol)에 대한 소개니어는 웹2.5를 지향하고 있다. 웹2 유저들이 니어를 통해서 아직 유저가 많이 부족한 웹3로 갈 수 있게 돕고 싶다. 사용자경험(UX) 관점에서 편안한 환경을 제공하기 위해 이번에 BOS(Blockchain Operating System)라는 서비스를 출시했다. BOS를 통하면 웹3 서비스 사용을 위해 반드시 가상자산(암호화폐)이 있어야 할 필요가 없고, 로그인 자체도 디지털 지갑을 통하지 않고 이메일 계정의 형태, 소셜 로그인을 통해 가능하다. 또한 니어 호라이즌(Near Horizon)이라는 액셀러레이팅 프로그램을 통해 웹3 스타트업을 지원하고 있다. 해당 프로그램을 활용하면 개발팀들은 니어 생태계에서 새로운 프로젝트를 쉽게 구축할 수 있다.스타트업들은 니어 BOS 위에 구현된 마켓플레이스를 통해 니어 호라이즌과 상호 작용할 수 있다. 현재는 니어 체인에 온보딩하는 팀들에 초점을 맞추고 있는데 향후 웹3 산업 종사자들 모두가 니어 호라이즌 마켓플레이스를 활용할 수 있도록 개방할 예정이다.Q. 니어 코리아 허브의 출범 계기는구글 엔지니어 출신인 일리야 폴로수킨(Illia Polosukhin) 니어 프로토콜 공동창립자가 작년 비들 아시아 행사 때 니어 코리아 허브를 론칭하겠다고 발표한 후, 지난 11월 출범했다. 니어 코리아 허브의 구성원은 15명 정도이며 이는 메인넷 중에서는 국내에서 가장 큰 규모다. 니어가 국내에 진출한 이유는 한국은 게임을 포함한 콘텐츠 강국이며 정말 좋은 디앱(dApp), 프로젝트들이 많기 때문이다. 또한 유저들도 새로운 기술에 적응이 빠른 편이다. 더불어 니어 코리아 허브는 국내 블록체인 학회들과 협업해 블록체인 개발자 양성을 통한 인재 확보에도 주력하고 있다. 블록체인 학회들과의 파트너십을 통해 니어에 대한 인지도 향상 및 주니어 개발자 커뮤니티 형성이 가능할 것이라고 기대한다.Q. 최근 국내 블록체인 학회 12곳과 업무협약(MOU)을 맺었는데사진=니어 코리아 허브크게 세 가지 파트가 있다. 첫째는 학회에서 진행하는 니어 프로토콜 리서치와 스터디를 지원하는 프로그램이다. 니어와 관련한 리서치를 작성하거나 스터디를 통한 아티클 작성, 니어 문서의 한글 번역 작업 시 소정의 그랜트(보상)를 지급한다.둘째는 개발 측면에서 학회원들의 니어 온보딩을 위한 교육 프로그램 제작 및 디앱 개발을 지원한다. 나아가 파트너 학회를 대상으로 공모전, 학회 행사 후원, 세션 진행 등 기타 지원을 진행한다. 학회원을 우선적으로 인턴에 채용하기도 한다. 이번에 채용한 인턴 두 분도 모두 학회 출신이다. 이를 통해 니어와 니어의 프로그래밍 언어인 러스트(Rust)를 알릴 수 있을 것으로 기대한다. 또한 장기적 관점에서 니어의 생태계, 나아가 웹3 시장을 건강하게 확장할 수 있을 것이라고 생각한다. Q. 웹3 대중화를 실현하고 싶다고 했는데, 어떤 분야를 주로 보고 있나웹3 대중화는 게임 쪽에서 이뤄질 것이라고 생각한다. 니어가 한국 지사를 설립한 것도 한국이 게임 강국이라는 점이 크게 작용했다. 한국의 게임 유저들은 이미 아이템을 거래한다거나 그 안에서 포인트를 써서 P2E(플레이투언·게임하면서 돈 벌기)를 자연스럽게 받아들이고 있다.Q. 현재 국내에서 협업 및 논의 중인 기업은현재 위메이드와 카카오게임즈 보라 측과 협업 중이다. 이외 대형 게임사부터 중소형사까지 다양한 게임사들을 만나고 있다.또한 엔터테인먼트 업체들과도 활발히 소통 중인데 팬덤을 가지고 있는 IP(지식재산권)들을 확보하기 위해서다. 기존의 웹2 회사들 중에는 블록체인 이니셔티브가 있는 대기업들의 미팅 요청이 많이 들어오고 있는 편이다. 콘텐츠 회사들부터 금융사들까지 논의를 진행하고 있다.Q. 한국의 P2E 게임 규제가 엄격한데 대응 방안은한국이 사실 게임 산업에서 전세계 패권을 잡을 수도 있는 경쟁력을 가졌다고 생각하는데, 규제가 그에 맞지 않아 굉장히 안타깝다. 당국이 샌드박스 차원으로라도 관련 규제를 자유롭게 완화해줘야 한다고 생각한다. P2E에서 중요한 것은 사실 앞의 P다. 이용자들이 즐겁게 플레이할 수 있는 게임을 만드는 게 중요한 것. 이용자들이 웹2 게임을 즐겼던 방식대로, 웹3에서도 꼭 크립토와 연관 없이도 재미있는 경험을 할 수 있게 만들어주고 싶다. 사실 웹3는 이미 게임 시장에 존재하는 블랙 마켓에 블록체인을 도입해 음지의 영역을 투명하게 양지로 끌어올릴 수 있다. 국내 게임사들이 현재 규제로 인해 국내외 게임 정책을 다르게 가져가고 있는데, 니어 또한 한국 시장은 기존 웹2 방식으로 진행하고 외국 시장은 웹3 방식을 도입하는 등의 방안을 계속 모색하고 있다.Q. 타 메인넷 대비 니어가 가진 강점은첫째는 웹2 친화적인 인프라다. 웹3 유저는 너무 한정적이기 때문에 니어는 웹2 유저가 웹3로 전환할 수 있는 환경을 마련했다.둘째는 니어 코리아 허브가 지사의 개념으로 있고 국내에 팀원이 많다는 점이다. 의사결정 과정에서 재단의 컨펌을 받기보다는 내부에서 처리할 수 있어 다른 메인넷 대비 비즈니스 속도가 빠르다.마지막으로 구성원들이 웹3뿐 아니라 웹2에 대한 이해도가 높다는 점이다. 현대카드, 네이버, 토스, 쏘카, 넷마블, 카카오 등 다양한 대기업 출신의 구성원들이 있다. 따라서 대기업과의 커뮤니케이션에 있어서 그들의 언어를 쉽게 이해할 수 있고 소통이 원활하다는 장점이 있다.Q. 니어의 생태계 확장 전략은TVL(Total Value Locked, 총 예치 자산)을 포함 생태계 확장이 필요하다는 점은 당연히 인지하고 있다. 니어 체인은 그동안 인프라와 기술 개발에 집중했기 때문에 아직 모멘텀이 없었다고 생각한다. 올해나 내년에는 니어에도 모멘텀이 오지 않을까 기대하고 있다. 특히 TVL은 대부분 탈중앙화 금융(DeFi, 디파이)에서 기인을 하는데, 다른 체인들의 경우 고레버리지의 디파이가 많이 작동을 하고 있다. 반면 니어는 안정성이 높은 프로젝트와 오더북 등 진보된 모델이 많이 존재하고 있다. 현재로서는 TVL이 약간 낮을 수 있지만, 다음 모멘텀이 왔을 때 크게 성장할 수 있는 잠재력을 보유하고 있다고 생각한다.Q. 향후 니어의 계획은올해나 내년 초에 '니어 코리아 펀드'를 출범할 계획이다. 니어는 기본적으로 웹3 파이를 키우는데 초점을 맞추고 있기 때문에 니어를 우선으로 배정하되 다른 메인넷도 포함해 펀드를 운영하는 방향으로 생각하고 있다.나아가 니어에 온보딩할 수 있는 좋은 개발자들을 만나기 위해 해커하우스를 오픈할 계획이다. 프로스포츠 구단으로 보면 어린이 회원같은 느낌이다. 해커하우스를 통해 니어와 함께 갈 수 있는 개발자들과의 소통을 강화할 예정이다. 이같은 노력을 통해 올해 말까지 1000만 유저, 궁극적으로는 10억 유저 달성을 이뤄낼 계획이다.&lt;블록체인·가상자산(코인) 투자 정보 플랫폼(앱) '블루밍비트'에서 더 많은 소식을 받아보실 수 있습니다&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2023.05.11.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>NH농협은행도 대환대출 플랫폼 참여…KB만 남았다</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003097998?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>게티이미지뱅크(c)이달 말 출범하는 대환대출 플랫폼에 NH농협은행 역시 참여하기로 결정했다. NH농협은행의 합류로 대환대출 플랫폼에는 주요 5대 시중은행 중 신한·우리·하나·NH농협까지 4개 은행이 참여하게 됐다.NH농협은행은 KB국민은행과 함께 빅테크가 주도하는 대환대출 플랫폼 참여에 가장 보수적인 반응을 보여왔던 은행이다. 성공적인 플랫폼 출범을 위해 금융당국이 설득 의지를 보인 것이 NH농협은행의 입장 선회에 영향을 끼친 것으로 해석된다. 이와 더불어 출범 마지막까지 KB국민은행이 불참 입장을 홀로 고수할 지 여부에도 관심이 모아진다.11일 업계에 따르면 오는 12일 금융위원회 주재로 진행되는 대환대출 플랫폼 간담회에 5대 시중은행 및 핀테크 4개사(네이버파이낸셜, 카카오페이, 토스, 핀다)가 참여할 예정이다. 업계는 이번 간담회가 사실상 5대 시중은행의 빅테크 플랫폼 참여를 확정짓는 행사일 것으로 추측하고 있다.이와 관련 NH농협은행 측은 “대환대출 플랫폼에 참여하는 것으로 결론을 내고 진행하고 있다”고 밝혔으나, KB국민은행은 “대환대출 플랫폼 참여 여부에 대해 아직 확인된 바 없다”며 선을 그었다.금융당국이 추진 중인 대환대출 플랫폼은 온라인으로 쉽게 대출을 갈아탈 수 있는 제도다. 앱이나 웹을 통해 각 금융사 대출을 비교하고 금리가 낮은 상품으로 갈아탈 수 있다. 소비자에게는 득이 되는 제도이나, 주요 금융사들은 수수료 문제나 빅테크 플랫폼에 주도권을 빼앗길 수 있다는 우려 때문에 참여를 주저해왔다.빅테크의 과독점 문제를 우려하는 것은 중소형 핀테크 업체들도 마찬가지다. 이들은 주요 시중은행들이 네·카·토 빅테크 대환대출 플랫폼에만 입점할 경우 핀테크 업계 내에서도 쏠림 현상이 심화될 것을 우려하고 있다.실제로 대환대출 플랫폼 개발을 완료했음에도 시중 은행들과 제휴에 어려움을 겪는 중소형 핀테크사들이 적지 않다. 상점 공사는 끝냈는데 팔 물건이 없어 개점을 못 할 상황에 이른 것이다. 정부가 앞장서 빅테크 플랫폼에 시중은행을 연결해준 모양새를 취한 것이 과도한 시장개입이라며 비판하는 목소리도 높다.앞서 지난 10일 중소형 핀테크 10개사는 한 자리에 모여 해당 문제에 대해 해법을 찾는 간담회를 진행했다. 이들은 실질적으로 주요 은행과 중소형 핀테크사의 제휴가 더 활발하게 이뤄질 수 있도록 다양한 개선책을 마련하는 것에 동의했다.현재까지 거론된 개선책은 핀테크사들이 대환대출 플랫폼을 위한 ‘표준 앱프로그래밍인터페이스(API)’를 구축하는 방안, 여러개의 핀테크사들이 모여 은행과 ‘통합계약’을 맺는 방안 등이다. 실질적으로 은행 측이 들일 부담을 줄여주자는 취지다.중소형 핀테크 관계자는 “네카토로 대표되는 빅테크 위주로 시장이 구성되면 서비스가 획일화되고 소비자 후생에서도 부정적일 수 있다”며 “금융사들 입장에서도 다양한 중소형 플랫폼으로 채널을 다양화하는 것이 더욱 긍정적인 효과를 가져올 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2023.05.08.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>[단독]신세계, 멤버십 무료배송 안 한다...계열사 혜택으로 보상</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004884476?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>(인천=뉴스1) 장수영 기자 = 정용진 신세계 부회장이 3일 오후 리뉴얼 된 인천 이마트 연수점을 찾아 육류 코너에서 직원을 향해 손하트를 하고 있다.    지난 3월 30일 재오픈한 이마트 연수점은 장보기부터 외식 및 레저 문화 활동이 가능한 복합 문화 공간으로 리뉴얼 했다. (공동취재) 2023.5.3/뉴스1  Copyright (C) 뉴스1. All rights reserved. 무단 전재 및 재배포 금지.신세계그룹이 쓱닷컴(SSG.com)과 G마켓 멤버십 무료배송 서비스를 중단한다. 새 통합 멤버십 '신세계 유니버스 클럽' 출시와 함께 멤버십 혜택을 재조정하면서다.  '쿠팡'으로부터 촉발한 무료배송 경쟁이 사실상 지속가능하지 않다고 보고 다른 혜택을 강화하는 쪽으로 방향을 잡았다. 신세계 그룹은 없어진 무료배송 혜택 대신 계열사 연계혜택을 강화한다는 방침이다.신세계그룹은 다음달 7일 출시 예정인 온·오프라인 통합 멤버십 이름을 '신세계 유니버스 클럽'으로 정했다고 8일 밝혔다.신세계그룹은 지난해 5월부터 SSG닷컴과 G마켓 2개 사를 통합한 유료 멤버십 '스마일클럽'을 운영중이다. 여기에 이마트, 백화점, 면세점, 스타벅스 등 신세계그룹의 오프라인 유통채널을 추가해 온·오프라인 시너지 효과를 극대화한 새로운 멤버십을 내놓을 예정이다. 신세계 관계자는 "소비자가 온·오프라인에서의 모든 일상을 신세계그룹 내에서 모두 해결 가능할 수 있도록 설계된 에코시스템(생태계)"이라며 "신세계의 서비스와 상품, 공간 안에서 먹고 자고 보고 사고 즐기는 것을 지향한다"고 말했다.신세계그룹은 '신세계 유니버스 클럽' 출범을 위해 혜택 재조정 작업에 돌입했다. 스마일클럽 유료멤버십 회원을 대상으로 제공되던 무료배송 혜택을 없앴다. G마켓은 그동안 스마일배송 카테고리에서 1만5000원 이상 구매 시 무제한 무료배송 서비스를 제공해왔다. 스마일 배송은 저녁 8시까지 주문하면 익일배송을 보장하는 서비스다.신세계그룹은 스마일클럽으로 가입하면 제공하던 쓱닷컴 월 2회 무료배송 서비스도 없앴다. 4만원이상 구매시 무료배송 서비스는 그대로 유지한다.  사실상 그룹 내 온라인 멤버십 무료배송 서비스를 모두 없앤 셈이다. SSG닷컴과 G마켓을 통합해 운영중인 스마일클럽은 연회비 3만원을 내고 가입하면 3만5000원의 '웰컴기프트 포인트'를 지급해왔다.  하지만 다음달 7일부터는 웰컴기프트 포인트도 3만원으로 축소된다. 신세계는 다음달부터 G마켓 이용시 제공하던 스마일배송(1%), 스마일프레시(5%) 적립혜택도 없애고 신세계포인트(0.1%) 적립혜택을 신설했다. 신세계그룹은 대신 그룹사 6곳에서 멤버십 추가혜택을 제공할 계획이다. G마켓에서는 5% 할인쿠폰(최대 1만원)이 무제한 지급되는 혜택이 신설됐다. 쓱닷컴에서는 VIP급에게 매월 10% 할인 쿠폰을 8장씩 지급한다. 이마트, 백화점, 면세점, 스타벅스에서 사용가능한 추가혜택은 아직 공개되지 않았다. 신세계 관계자는 "신규 멤버십 도입에 따라 혜택을 재배치한 것으로, 고객 활용도와 선호도를 감안해 기존 혜택 일부를 조정하고, 신세계 관계사 연계 혜택을 강화한 것"이라며 "관계사 연계 혜택은 6월 7일 공개 예정"이라고 말했다. 신세계그룹은 향후 통합 멤버십 혜택을 또 다른 관계사들로 확장하고 외부와도 제휴를 맺겠다는 계획이다. 네이버와 멤버십 통합이 이뤄질지가 관심사다. 2021년 신세계는 네이버와 지분교환을 추진하고 G마켓 공동 인수에 나서면서 손을 잡았다. 당시 신세계와 네이버가 멤버십 통합을 통해 포인트적립, 이용을 함께 할 수 있도록 할 것이라는 관측이 나왔다. 하지만 G마켓 인수 작업에서 네이버가 빠지면서 멤버십 통합은 중단됐다.최근 신세계가 쓱페이와 스마일페이 매각작업을 추진하면서 일각에서는 네이버와 멤버십 통합을 재추진할 것이라는 관측이 나왔다.현재 간편결제 서비스 시장은 카카오, 삼성, 네이버가 90%에 가까운 점유율을 차지하고 있다. 하지만 네이버는 온라인 결제 시장에만 중점이 맞춰져 있어 오프라인 결제시장은 사실상 삼성페이가 독주하고 있다.  네이버가 지분교환 등을 통해 쓱페이를 인수할 경우 네이버페이가 신세계그룹사 오프라인 결제가 가능한 시장을 갖게 된다는 시나리오다. 신세계는 사실상 업계 최저 수준의 수수료를 통해 지급되는 네이버 포인트 적립 혜택을 신세계 유니버스 클럽 멤버들이 함께 누릴 수 있도록 할 수 있다는 구상이 나온다.신세계는 실제로 네이버, 토스와 각각 매각협상을 벌인 것으로 알려졌다. 현재로선 협상이 중단된 것으로 알려졌지만 완전히 결렬된 것은 아니어서 성사될 가능성은 남아있는 것으로 전해졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2023.05.12.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>온투업 ‘숙원’ 기관투자 열린다…업계는 투자 유치 ‘잰걸음’</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000044751?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>[온투업, 별들 날은 언제] ② 금융위 법령해석으로 업권법 충돌 해소어니스트펀드, 유권해석 당일 BNK저축은행과 MOU개인투자 한도액 3000만→4000만원…업계 “숨통 트여”[사진 게티이미지뱅크][이코노미스트 윤형준 기자] 온라인투자연계금융업(온투업·옛 P2P금융)의 오랜 원한이었던 기관투자의 길이 열렸다. 금융당국이 온투업법과 개별 업권법이 충돌하는 지점을 해소하는 유권해석을 내렸기 때문이다. 일찍이 주요 업체들은 저축은행·캐피탈사 등 금융기관과 손잡고 기관투자 유치에 속도를 내고 있다. 여기에 개인투자자의 투자 한도액도 늘어나면서 온투업 활성화에 대한 기대감이 점차 커지고 있다.금융위원회는 지난 3월 29일 ‘온투업자의 금융기관 대상 차입자 정보 제공이 투자자 부당차별 행위에 해당하는지 여부’의 법령해석 회신문을 공개했다. 회신문에 따르면 금융위는 “온투업자가 온투업법 제35조에 따라 연계투자를 하는 여신금융기관 등에 차입자의 개인식별정보(실명, 주민등록번호 등)를 제공하는 것은 특정한 이용자를 부당하게 우대하거나 차별하지 않는다”며 “온투업법 제12조 제8항(투자자간 부당한 차별 금지)을 위반하지 않는다”고 판단했다.현재 온투업법 제35조에 따르면 온투업자는 금융기관, 법인투자자, 전문투자자 등으로부터 모집금액의 40%까지, 부동산담보대출 연계상품은 20%까지 조달할 수 있다. 사실 온투업법상으로는 기관투자자 모집이 허용되고 있던 것이다.그러나 개별 업권법과 충돌, 유권해석 부재 등으로 실제로는 기관투자자 모집이 사실상 불가했다. 여신금융기관은 연계투자를 ‘투자’가 아닌 ‘대출’로 간주하기 때문에 대출심사를 위해 차입자의 실명 등 개인식별정보가 필요하지만, 온투업법에 따르면 온투업자는 이용자 보호를 위해 여신금융기관에 차입자 정보를 줄 수 없었다. 그런데 이번 유권해석으로 법 간의 충돌이 해소된 것이다.업계에 따르면 온투업 기관투자에 대한 구체적인 가이드라인은 늦어도 상반기 중에 정리돼 나올 전망이다.저축은행·캐피탈 등 기관투자자 모시기 ‘속도전’기관투자의 활로가 열린 만큼 온투업계에서도 투자 유치를 위해 발 빠르게 움직이고 있다. 1위 업체인 피플펀드에게는 JB우리캐피탈 등 7곳이 투자의향을 표명한 것으로 알려졌다. 피플펀드 관계자는 “7곳 외에도 여러 금융사에 계속 접하고 있다”며 “기관투자가 확실하게 열리면 대외적으로 알리기 위해 저축은행중앙회·금융위·온투협회와 긴밀하게 소통하며 가이드라인을 만드는 데 노력하고 있다”고 말했다.3월 29일 오후 어니스트펀드 본사에서 진행된 업무협약식에서 서상훈 어니스트펀드 대표(오른쪽)와 위장환 BNK저축은행 디지털본부장이 협약 체결 후 기념촬영을 하고 있다. [사진 어니스트펀드]어니스트펀드의 경우 금융위의 법령해석이 내려진 당일 BNK저축은행과 연계투자 관련 업무협약(MOU)을 맺어 주목받았다. 어니스트펀드 관계자는 “아직 업체명을 밝힐 수는 없지만 다른 금융기관과도 계속 소통을 진행하고 있다”며 “다른 상위 업체들도 기관투자 유치를 위해 노력하고 있는 것으로 알고 있다”고 전했다.8퍼센트는 금융기관투자 활성화 시나리오를 염두에 두고 지난해 인재 채용을 진행한 바 있다. 데일리펀딩은 지난해 12월 기관투자 유치 관련 태스크포스(TF)를 꾸려 국내 1금융권, 저축은행, 캐피탈사 등에 지속 접촉은 물론, 상품 시나리오를 구성해 해외 투자은행(IB)에도 접근하고 있다.다만 아직 피플펀드와 어니스트펀드를 제외하곤 구체적인 기관명이 언급되며 기관투자 유치가 가시화된 곳은 없다. 이유는 크게 두 가지다. 우선 기관투자 허용에 대한 유권해석은 내려졌지만, 아직 금융당국의 최종 가이드라인이 내려오지 않았기 때문에 이를 보고 판단하려는 업체들이 많아서다.또 다른 이유로는 일부 온투업체들의 연체율이 상승하는 등 좋지 않은 경기 상황이 꼽힌다. 한 중소형 온투업체 관계자는 “경기 악화로 투자 자체가 소극적으로 움츠러든 측면이 있다”며 “예년보다 온투업 상품을 세일즈하기 어려운 환경이어서 대형 업체들도 금융기관과 기술 부문부터 협력을 하고 있는 것”이라고 설명했다.개인투자 한도 1000만원 ↑…플랫폼 광고도 허용최근에는 개인투자자의 연계투자 규모도 확대됐다. 지난 4월 28일 금융위는 ‘온투업 감독규정’ 일부를 개정함에 있어 그 개정 이유와 주요 내용을 예고했다. 이에 따라 5월 중 온투업 개인투자자 연계투자 한도는 기존 3000만원에서 4000만원으로 확대된다.부동산을 담보로 하는 연계대출 상품에 대해서도 기존 1000만원에서 2000만원으로 투자 한도가 늘어난다. 다만 부동산 프로젝트 파이낸싱(PF) 대출 상품은 1000만원 한도를 유지하기로 했다.온투업계 관계자는 “당초 기대했던 5000만원 한도에는 못 미쳐 아쉬움이 있으나 금융당국에서 온투업에 대한 신뢰를 일부 확인해 준 것”이라며 “기관투자에 이어 개인투자자 한도 확대라는 긍정적인 신호가 연달아 나와 침체된 온투업 산업에 숨통이 트일 것으로 기대된다”고 말했다.한편 온투업의 카카오페이, 토스 등 외부플랫폼 광고를 허용하는 법령해석도 나왔다. 그 동안은 외부플랫폼을 통한 개인투자자 유치는 온투법 시행령의 투자자 모집 등 위탁금지 조항에 저촉될 가능성이 있어 각 업체의 앱을 통해서만 투자자를 유치해왔다. 하지만 지난 3월 29일 금융위는 금융소비자법상 광고는 온투업법에서 위탁을 금지하고 있는 ‘투자자 모집’에 해당하지 않는다고 판단했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2023.05.09.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>회사채·발행어음 투자…토뱅 '목돈 굴리기' 2조 돌파</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000334900?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>토스뱅크는 오늘(9일) 고객들의 효율적 투자를 지원하기 위해 선보인 '목돈 굴리기'가 출시 9개월 여만에 상품 소개 금액 2조원을 돌파했다고 밝혔습니다.  '목돈 굴리기' 서비스는 시장 내 금융투자상품들 중 경쟁력 있는 상품을 토스뱅크가 자체 선별해 소개하고, 고객이 해당 상품 판매사를 통해 가입할 수 있는 서비스입니다. 평소 고객들이 접하기 어려운 발행어음이나 국고채, 은행채, 한전채 등 우량등급의 회사채 중에서도 금리 경쟁력이 높은 채권 상품들을 토스뱅크가 자체 선별해 소개하는 게 특징입니다. 현재 '목돈 굴리기'를 통해 소개한 상품의 금융투자상품은 모두 2조80억원 규모에 달합니다. 고객들이 가장 선호한 금융투자상품은 발행어음으로 누적 금액이 1조3천300억원을 기록했습니다. 안정성이 높은 국고채부터 은행채 등 우량 회사채의 누적 소개금액은 6천800억원에 달했습니다. 특히, 1개월 3.9%의 수익률로 최근 소개된 현대자동차 채권의 경우 오픈 40분 만에 완판이 되기도 했습니다. 토스뱅크 '목돈 굴리기'에는 한국투자증권, KB증권 등 국내 대형 금융투자회사들이 입점해 있습니다. 국내 대형 증권사들의 경쟁력 있는 금융상품을 토스뱅크에서 편리하게 만나볼 수 있는 만큼 토스뱅크는 향후에도 다양한 제휴 금융사와 제휴를 통해 상품 라인업을 계속 확대해 나갈 방침입니다.토스뱅크는 시장 상황에 따라 투자에 도움이 되는 다양한 컨텐츠와 자산관리에 참고할 수 있는 정보들을 모아 적시에 알림으로 받을 수 있는 서비스도 상반기 중에 선보일 계획입니다.토스뱅크 관계자는 "복잡하고 많은 금융상품들들 속에서 고객들이 양질의 정보를 취득할 수 있고, 안정성과 수익성을 모두 추구할 수 있는 다양한 상품과 서비스를 제공해 나갈 것"이라며 "고객들의 금융투자생활에 도움이 되는 서비스를 제공할 수 있도록 계속 노력할 것"이라고 말했습니다. 당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2023.05.06.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>“대출자들 다 모여라” 상품·신용점수별 금리 제일 낮은 은행은 어디[머니뭐니]</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002139659?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>서울 한 거리에 주요 시중은행들의 현금자동입출금기(ATM)가 놓여 있다.[연합][헤럴드경제=김광우 기자] “내가 받으려는 대출, 이자가 가장 저렴한 은행은 어디일까?”은행을 찾는 이들의 ‘금리 민감도’가 최고조에 이르렀다. 지난해 본격화된 기준금리 인상의 여파가 가계의 부담으로 이어진 영향이다. 소폭의 금리 혜택을 위해 은행 앞 새벽 줄을 서는 일도 흔해졌다. 하지만 대출의 경우 금리 비교가 쉽지만은 않다. 각종 우대금리, 신용점수 등 산정에 고려되는 요소가 많은 탓이다. 제휴사가 부족한 대출비교플랫폼도 한계가 있다. 그렇다고 모든 은행을 방문할 수는 없는 노릇, 은행 선택에 도움이 될 참고자료를 살펴보자.3일 은행연합회에 따르면 5대 시중은행(KB국민·신한·하나·우리·NH농협)과 인터넷은행 3곳(카카오뱅크·케이뱅크·토스뱅크) 중 지난 3월 중 취급된 신용대출의 평균금리가 가장 낮은 은행은 카카오뱅크인 것으로 나타났다. 카카오뱅크의 평균금리는 5.11%로 5대 시중은행(5.57~6.00%)과 비교해 최대 0.9%p가량 낮은 것으로 집계됐다.은행연합회 소비자포털 캡처.하지만 신용점수 구간별로 비교했을 때, 결과는 다소 달랐다. 카카오뱅크는 신용점수(KCB기준) 851점 이상 차주에 대해서는 가장 낮은 수준의 평균금리(4.61~5.21%)를 제공했지만, 구간이 낮아질수록 시중은행 대비 높은 금리를 적용했다.신용점수 751~850점 구간에서는 우리은행의 평균금리 수준(6.46~7.11%)이 가장 낮았다. 신용점수 651~750점 구간의 경우 케이뱅크가 가장 낮은 평균금리(7.74%)를 제공했다. 601~650점 구간은 농협은행(8.39%)이, 600점 이하 구간에서는 하나은행이 최저 수준의 평균금리(9.89%)를 제공했다.토스뱅크를 제외한 주요 은행들의 금리구간별 취급비중을 살펴보면, 고신용자에 적용되는 4~6%대 금리의 대출 비중이 80% 정도로 가장 높았다. 다만 신용점수 구간 전체에서 가장 높은 수준의 금리를 제공한 토스뱅크의 경우 7%대 이상 금리가 전체 대출의 66%가량을 차지한 것으로 나타났다. 금리 수준이 높은 만큼, 중저신용자의 대출 접근성이 높게 나타난 셈이다.은행연합회 소비자포털 캡처.신용한도대출(마이너스통장)의 경우도 카카오뱅크의 평균금리(5.59%)가 가장 낮은 수준인 것으로 집계됐다. 이 외에는 하나은행(5.87%), 신한은행(5.93%), 케이뱅크(5.97%) 등이 뒤를 이었다.마이너스통장의 신용점수별 금리는 신용대출과 유사한 양상을 보였다. 신용점수 851점 이상 대출자에 대해서는 카카오뱅크가 가장 낮은 금리(5.1~5.37%)를 제공했다. 그러나 신용점수 850점 이하 구간에서는 시중은행의 전반적인 금리 수준이 더 낮았다.특히 하나은행의 선전이 돋보였다. 하나은행의 신용점수 801~850점 구간 마이너스통장 평균금리는 5.74%로 타 주요 은행(6.20~7.67%)과 비교해 뚜렷한 차이를 보였다. 751~800점 구간에서도 유일하게 5%대 금리를 제공했다. 다만 600점 이하 저신용자 구간에서는 국민은행의 금리(6.24%)가 가장 낮은 수준을 기록했다.은행연합회 소비자포털 캡처.주택담보대출에서도 인터넷은행의 금리 매력도가 눈에 띄었다. 카카오뱅크가 지난 3월 중 취급한 주택담보대출(만기 10년 이상)의 평균금리는 4.04%로 5대 시중은행(4.48~5.23%)과 비교해 최대 1%p 이상 낮은 것으로 집계됐다. 케이뱅크도 4.09%의 최저 수준 금리를 제공했다. 다만 주담대의 경우 신용점수 구간 별로는 큰 차이가 나지 않았다. 개인의 신용보다 담보물의 가치를 주요하게 평가하는 주담대의 특성 때문이다.금융권 관계자는 “은행들에서 공시하는 대출금리나, 은행연합회의 취급금리 공시는 신용점수 외 대출자의 부채 등 다양한 요소를 세세히 가려낼 수 없다”며 “자료를 참고용으로 살펴본 뒤, 각 은행의 모바일 애플리케이션 등을 활용해 한도 및 금리를 조회해보는 게 좋을 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2023.05.01.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>벤처기업 복수의결권 도입, 창업자 1주는 가치 10배 된다?  [국회 다니는 변호사]</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/002/0002284285?sid=100</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>[국회 다니는 변호사] 벤처기업육성에 관한 특별조치법안녕하세요, 독자 여러분. 이번 주에 다룰 내용은 벤처기업 관계자들에게 매우 민감한 사안이었던 벤처기업의 복수의결권 제도에 관한 내용입니다. 내용 자체는 단순합니다. 제가 정당과 청와대에 있을 때 치열한 쟁점이 되었던 사안인데, 드디어 이번달 27일 본회의서에서 처리가 되었습니다. 이 법안은 더불어민주당 양경숙 의원(2020.6.5.)이 처음 발의해, 국민의힘 이영 의원(2020.8.20, 현 중소벤처기업부 장관), 문재인 정부 당시 정부안 발의(2020.12.23.), 민주당 김병욱 의원(2021.5.26.), 마지막으로 국민의힘 윤영석 의원(2021.11.18.)안으로 발의될 정도로 의원들로부터도 뜨거운 관심이 있었습니다. 벤처기업은 사실 인력과 노력으로 승부하는 기업입니다. 어떠한 특정한 기술 또는 아이디어를 가지고 스타트업(start-up)을 시작해, 시제품을 생산해보고, 그 시제품을 마케팅해서 시장에 출시하죠. 그 과정에서 사실 어마어마한 인내력을 쏟아야 합니다. 물건을 어디에 내놓든 잘 거들떠 보지도 않기도 하고, 투자를 받는 것도 눈물나는 일이죠. 투자를 받아 스케일업을 하고, 최종적으로 조 단위(기업가치, EV)의 유니콘 기업에 오르기까지 이 분들의 노력은 그야말로 피와 땀입니다. 그렇게 유니콘 기업까지 성장하면, 대학생들의 취업 희망 기업 1순위가 되지요? 네카쿠라배당토(네이버, 카카오, 쿠팡, 라인, 배달의 민족, 당근마켓, 토스)라는 표현도 있던가요? 이러한 성공의 이면에도 불구하고, 중소벤처기업부가 조사한 '벤처기업 정밀 실태조사(2022)'자료를 보면, 다수의 벤처기업 경영인들은 여러 어려움을 호소합니다. 조사내용 중 어려움을 겪는다는 답변을 살펴보면, 자금조달·운용·관리(57.9%), 국내판로개척(52.8%), 개발된 기술의 사업화(51.9%), 신기술개발(48.8%), 해외시장개착(47.8%), 필요인력확보(46.7%), 기술유출·상표도용(24.5%)등 다양하게 어려움을 호소합니다. 이 설문에 대한 답변 중에 '보통'(대체적으로 30~35%수준)이나 '그렇지 않다'는 답변을 합치면 절반쯤이고, 어려움을 겪는 사람이 그보다 훨씬 많다는 것입니다. 가장 큰 어려움은 자금조달·운용·관리이죠. 제가 아는 중소기업·벤처기업인도 여럿 있는데, 이 분들의 가장 큰 어려움이 ‘돈 구하러 다니는’것이고, 저한테도 여러차례 투자를 권유하기도 했습니다. 오래 알았던 사이니 모아놓은 돈을 갖고 도와드리기도 하는데, 솔직히 '이 돈 언제 돌려 받을까' 이런 생각이 드는 것도 사실이죠. 요컨대 벤처기업 생멸(生滅)의 주요원인은 결국 자금난입니다. 아무리 아이디어가 좋더라도 벤처기업 창업자가 재벌 오너가 아닌 이상, 벤처 창업자의 자금에 의존하는 것은 한계가 있고, 직원고용-시제품화-시설투자-마케팅-해외투자 등 단계 단계로 나아갈수록, 창업자가 보유한 회사 주식은 계속 희석(dilution)될 수밖에 없기 마련이죠. 실제로 유니콘 기업의 대주주의 지분율은 5%남짓 수준입니다. 기업가치 조 단위 회사가 되기까지 계속 지분율을 희석할 수밖에 없는거죠. 자기 지분을 팔아서 회사가 필요한 돈을 마련해야 하니까요. 희석되는 것은 그렇다 치더라도, 경영권에 위협을 받는 상황까지 오게 되면 큰 문제가 됩니다. 자신이 10년 가까이 고생해서 회사를 키워왔더니, 지분이 거의 제로에 가깝게 희석되고, 본인이 보상받는 비중은 극히 떨어지게 되는 셈이죠. 그리고 적대적 기업 인수합병(M&amp;A)의 위기에 놓이게 되지요. 벤처기업 복수의결권 개념은 바로 이러한 문제를 해결해보자고 등장한 개념입니다. 문제는 상법에서 정한 '주주 평등 원칙'상 1주당 의결권을 1개로 제한하고 있었다는 점(상법 제369조)입니다. 물론 상법상 무의결권주나, 의결권제한주식을 활용할 수 있으나, 실무에서 거의 활용되지 않고 있었습니다. 그렇다면 '벤처기업 오너의 주식 1개의 가치를 2~3배, 많게는 10배 또는 그 이상으로도 할 수 있는 것 아닌가', '벤처기업 오너의 핵심적인 역량이 그 정도의 보상은 받을 수 있게 해야 하는 것 아닌가' 하는 생각이 싹트게 된 거죠. 그리하여, 미·영·프 등 OECD 36개국 중 17개국이 이미 복수의결권주식제도를 도입하고 있습니다. 최근에 쿠팡이 미 증시에 상장하면서 이러한 복수의결권(class B, 29배의 차등의결권 인정)을 인정받기도 했는데, 미 증시에서도 활발하게 활용되고 있는 것이죠. 다만 문제는 기존 투자자들이 이를 용인해줄 것인가입니다. 유능한 창업자라면 모르겠지만, 회사 경영권에만 욕심을 갖고 더 이상 회사의 기업가치를 성장시키기 어려운 창업자에게 의결권의 차등을 줄 수는 없는 노릇입니다. 이에 이번 벤처기업육성에 관한 특별조치법(벤처기업육성법)을 개정하면서, 주주총회의 3/4이상의 결의로만 이를 가능할 수 있게 했습니다. 투자자를 보호하는 조치라고 볼 수 있는 것이죠. 행사 요건도 꽤나 까다롭습니다. ①창업자가 설립 당시 발기인이어야 하고, ②복수의결권주식발생당시 회사의 상무에 종사하는 이사여야 하고, ③최소 30%의 지분을 보유하고 있어야 합니다. 복수의결권의 수는 2~10개까지 허용하게 했고요. 복수의결권 기간 또한 발행일로부터 10년의 제한을 두었고, 보유기간 내에 상장한다고 하더라도 3년의 유예기간은 보장해주는 것으로 했습니다. 상장하면 이제 그러한 보호를 더 이상 해줄 필요는 없고, 창업자도 엑시트(자금회수)할 기회를 보장받게 되는 것이라는 취지죠. 이에 대해서는 지금까지 많은 찬성과 반대의 토론도 있었습니다. 대체로 국민의힘에서는 반대 의견은 없었지만, 민주당과 정의당에서의 반대의견(이용우·오기형·류호정 의원 등)이 있었습니다. 찬성 의견을 내신(김병욱·김경만·이성만·이영·윤영석 의원 등) 쪽에서는 역시 벤처 기업인의 보호에는 의결권의 차등화가 가장 좋은 접근 방법이라는 의견이었죠. 특히 벤처기업 경험이 많으신 분들이 이러한 점을 역설하신 것 같습니다. 반대 의견은 소액주주 보호 운동 등을 펼쳐온, 주로 시민사회에서부터 제기되었던 것 같습니다. 주요 논지는 소액주주에 대한 보호장치가 취약한 국내 주식시장 여건에서 이러한 제도를 도입하는 것이 타당한지, 내지는 상법상의 원칙을 허문 것이 아닌지, 이것이 장래 재벌 대기업 오너의 경영권 숭계로 연결될 우려가 있는지 여부였습니다. 다만 이 법안에 대해서는 민주당도 2020년 총선 공약으로 제기하기도 했고, 윤석열 정부에서도 국정과제로 선정한 이상 양쪽의 당론이 찬반으로 갈린 것이 아니었습니다. 결국 찬성(173표)이 반대(44표, 기권 43명)보다는 우세하게 4월 27일 본회의서 처리되었습니다. 사견으로 저는 이 법안에 대해서는 찬성하는 입장입니다. 어떠한 창업에 들어가는 기회비용이라는 것은 다른 형태로 보상받기 어렵다고 생각합니다. 자본주의가 성숙할수록, 그 참여자에게 합법적인 테두리에서 보상이 이루어지는 방법을 찾아주어야 합니다. 이러한 인센티브체계가 갖추어지지 못할 때, 다수의 시장참여자들은 시장을 신뢰하지 않거나 시장을 왜곡하는 형태의 행태를 보이게 됩니다.  이 법안의 처리에 이르는 과정까지 민주주의적인 토론이 여러 차례 전개되었고, 그 결과 다수의 벤처기업인 창업자들을 보호할 수 있는 방안이 만들어졌다고 생각합니다. 소액주주에 대한 보호 입법에 대해서는 다른 회차에서 설명드릴 기회가 있을 것 같습니다. ▲IT 스타트업 기업을 소재로 한 2020년 한국 tvN 방송 드라마 &lt;스타트업&gt;의 한 장면. ⓒtvN 홈페이지</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2023.05.11.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>‘미성년 개미 잡아라’...증권사 비대면 계좌 개설 유치전 치열</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002711776?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>작년말 75만명 주식 보유...주식붐 타고 4년새 8배↑스마트폰으로 간편하게...인기 속 행사 조기 마감ⓒ픽사베이[데일리안 = 백서원 기자] 미성년자 자녀 명의의 계좌 개설이 비대면으로 가능해지면서 이들을 고객으로 잡기 위한 증권업계 경쟁이 치열해지고 있다. 최근 증시를 둘러싼 대내외 불확실성이 커진 만큼 이 기회에 장기 고객을 확보하려는 증권사들의 영업 전략이 강화될 전망이다.11일 한국예탁결제원에 따르면 지난해 말 기준 상장법인 주식을 소유한 미성년자 주주는 75만5670명을 기록했다.1년 전(65만6340명)에 비해 10만명 늘었고 지난 2019년 말(9만8612명)과 비교하면 8배 가까이 늘었다. 전체 개인 주주 가운데 미성년자가 차지하는 비율도 4.8%에서 5.3%로 늘었다.국내 증시를 대표하는 대장주인 삼성전자 주주 중 20세 미만은 작년 말 기준 43만1642여명으로 전체의 7.42%를 차지했다. 지난 2019년 말 1만8301명에서 3년 만에 약 24배나 뛴 것이다.미래에셋증권이 지난달 말 집계한 자사의 미성년 고객 보유 자산 구성에서도 국내 주식의 경우 삼성전자·카카오·삼성전자 우선주 순으로 대형주에 대한 선호도가 높은 것으로 확인됐다. 해외주식은 애플·테슬라·마이크로소프트 등의 순이었다.미성년자 계좌는 부모들이 자녀가 성인이 될 때 목돈을 마련해주기 위한 목적으로 운용되는 경우가 많다. 장기 투자 성격이 강한 만큼 안정적인 대형주에 자금이 몰린 것으로 분석된다.증권사들은 부모가 주식을 증여하거나 재테크 교육에 나서는 사례가 늘고 있어 미성년 주식투자자 수가 더 빠르게 증가할 것으로 보고 있다.특히 금융위원회가 지난달 10일 부모가 비대면으로 미성년 자녀의 계좌를 대신 개설할 수 있도록 ‘비대면 실명확인 가이드라인’을 개편한 것이 이러한 움직임을 앞당길 것이라는 전망이 나온다.그동안 자녀 계좌를 개설하기 위해서는 신분증과 가족관계증명서 등을 지참해 금융회사 영업점에 직접 방문해야 했지만 이제는 스마트폰으로 계좌 개설이 가능해지면서 증권사 입장에서도 미성년자들을 고객으로 확보하는 것이 한층 수월해진 것이다.이에 따라 미래에셋증권과 NH투자증권, KB증권, 키움증권이 지난달 미성년자 비대면 주식계좌 개설 서비스를 도입했다. 이어 삼성증권이 관련 계좌 개설을 개시했고 신한투자증권도 신한은행과 연계한 미성년자 전용 증권계좌를 선보였다.특히 이들은 서비스 출시와 함께 이벤트를 진행하면서 고객 유치전에 돌입했다.KB증권은 개설된 자녀 비대면 계좌로 애플·테슬라·마이크로소프트·삼성전자·LG에너지솔루션·현대차 중 1만원 상당의 소수점 주식을 증정하는 이벤트를 진행 중이다.NH투자증권이 실시한 미성년 자녀 계좌 개설 사전 신청 행사는 사흘 만에 선착순 4000계좌 달성에 성공하며 조기 마감됐다. 이에 사측은 행사 기간을 연장하기도 했다.이외에도 한국투자증권과 하나증권, 유안타증권, 토스증권 등이 연내 미성년 자녀 비대면 계좌개설 서비스를 출시할 계획이다.한국투자증권 관계자는 “금융투자의 접근성이 좋아지고 젊은 세대의 투자 비중이 높아지는 만큼 미성년 고객도 계속 증가할 것으로 예상된다”며 “미성년 고객에게 건전한 투자 문화와 경험을 제공하는 서비스로 금융시장 활성화를 이끌 수 있도록 노력할 것”이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2023.05.05.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>"어린이날 선물 대신 주식"...미성년 계좌 유치에 증권사 '분주'</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002304493?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>◆…클립아트코리아 제공올해 어린이날에는 증권사 지점에 가지 않고도 미성년자 자녀 명의의 계좌를 만들 수 있게 됐다. 증권업계는 마케팅을 강화하며 미래 고객 모시기에 분주한 모습이다.   5일 금융투자업계에 따르면 금융위원회는 지난달 10일 부모가 비대면으로 자녀 계좌를 대신 개설할 수 있도록 '비대면 실명확인 가이드라인'을 개편했다. 기존엔 증권사 영업점에 방문해 서류를 제출해야 하는 번거로움이 있었다.   이제는 부모의 스마트폰과 신분증, 가족관계증명서, 기본증명서만 준비하면 1~2영업일 안에 비대면 계좌 개설이 가능하다.   부모는 자녀가 성인이 될 때까지 최대 4000만원을 비과세로 증여할 수 있다. 1~10살까지, 11~20살까지 2000만원씩 공제받을 수 있다. 주식이나 펀드 투자로 생긴 수익과 배당금은 증여세가 부과되지 않는다.   증권사들은 잠재적 투자자인 미성년자 고객을 선점하기 위해 열띤 마케팅을 펼치고 있다. 현재 서비스를 도입한 곳은 KB증권과 NH투자증권, 미래에셋증권, 키움증권이다.   KB증권은 6개 종목(애플, 테슬라, 마이크로소프트, 삼성전자, LG에너지솔루션, 현대차) 중 1만원 상당의 소수점 주식 1개 종목을 증정한다. 국내 또는 해외주식 정기구매 서비스에 가입하면 해외주식쿠폰 1만원도 제공한다.   NH투자증권은 2만원 상당의 소수점 주식을 선착순 증정한다. 애플, 테슬라, 마이크로소프트, 알파벳 등 해외주식 종목 중 하나를 선택할 수 있다. 최초 개설에 한해 1회 주식거래 시 30달러의 투자지원금도 지급한다.   미래에셋증권은 최초 개설 고객에게 투자지원금 2만원을 지급한다. 부모계좌와 가족결합을 하면 추가 1만원, 해외주식 100만원 이상 매수하면 추가 3만원 등 최대 6만원까지 지원한다.   키움증권은 최초 개설 시 국내주식 1주와 미국 소수점 주식 1종목을 제공한다. 조건을 충족한 고객에게는 국내주식 3주와 미국 소수점 주식 10종목을 추가로 준다. 미국주식 투자 이벤트를 신청하면 40달러의 투자지원금도 지급한다.   이밖에도 삼성증권과 한국투자증권, 신한투자증권, 하나증권, 유안타증권, 토스증권, 이베스트투자증권 등은 연내에 서비스를 선보일 예정이다. 메리츠증권, 유진투자증권, 카카오페이증권, 하이투자증권, 상상인증권, 케이프투자증권 등은 내년 중 출시할 계획이다.    ◆…미성년자 비대면 계좌개설 방법 및 절차 [금융위,금투협 제공]</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2023.05.03.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>메인넷 공개에 너도나도 상장…'수이' 블록체인 뭐길래</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006785864?sid=105</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>해외 대형 거래소 동시 상장…국내선 코인원·코빗이 앞다퉈 홍보메타 출신 개발진이 '디엠(구 리브라)' 강점 살려 개발한 '레이어1' 블록체인출처=수이 트위터(Sui Twitter)(서울=뉴스1) 박현영 기자 = 레이어1 블록체인 플랫폼 '수이(SUI)'가 3일 메인넷을 출시한다. 메인넷 출시와 동시에 수이 토큰(SUI)은 바이낸스, 쿠코인, 오케이엑스, 후오비, 바이비트 등 해외 대형 가상자산(암호화폐) 거래소에 한꺼번에 상장된다. 국내 거래소들도 일제히 '수이 상장' 전략을 택하는 모양새다. 코인원은 3일 수이 상장을 예고하며 소셜미디어에 '국내 최초 수이 상장'이라는 홍보 문구까지 내걸었다. 코빗도 바통을 이어받아 빠르게 수이 상장을 예고했다. 통상 가상자산 거래소들은 각사의 기준에 맞게 상장 심사를 거친 후 특정 프로젝트를 상장한다. 따라서 한 프로젝트가 메인넷 출시와 동시에 여러 거래소에 일제히 상장되는 것은 이례적이다. 그만큼 수이에 시장의 관심이 쏠렸다는 의미다. ◇메타 출신 개발진이 '디엠' 장점 살려 개발수이는 지난해부터 앱토스와 더불어 유망한 레이어1 블록체인 플랫폼으로 꼽혔다. 두 프로젝트 모두 메타(구 페이스북) 출신들이 개발했다는 공통점이 있기 때문이다. 레이어1 블록체인이란 해당 블록체인을 기반으로 스마트컨트랙트를 작성, 서비스를 개발할 수 있는 플랫폼을 말한다.단순히 '메타 출신' 개발진이 만든 게 아니라, 두 프로젝트는 메타의 디엠(구 리브라) 프로젝트에서 파생된 플랫폼이기도 하다. 앞서 페이스북은 지난 2019년 리브라 백서를 공개하며 리브라를 스테이블코인으로 상용화하고, 그 기반인 리브라 블록체인은 여러 서비스를 개발할 수 있는 블록체인 플랫폼으로 성장시키겠다고 밝힌 바 있다. 하지만 리브라는 이후 디엠으로 리브랜딩했음에도 규제에 막혀 끝내 좌초됐다. 프로젝트는 성공하지 못했으나 디엠 팀은 '무브(Move)'라는 스마트컨트랙트 프로그래밍 언어를 남겼다. 무브는 디엠 팀이 자체 개발한 프로그래밍 언어로, 이더리움의 언어인 솔리디티보다 보안성이 뛰어날뿐더러 개발자 친화적이라는 평가를 받고 있다. 수이와 앱토스 모두 이 무브를 프로그래밍 언어로 채택했다.앱토스와의 공통점이 있다면, 수이만의 특징도 있다. 블록 생성 및 거래 처리 방식을 효율화해 레이어1 블록체인으로서의 기능을 끌어올린 게 특징이다. 수이는 블록체인 상에서 발생하는 거래를 두 종류로 나눈다. 단순한 스마트컨트랙트와 복잡한 스마트컨트랙트로 나눠 처리하는 방식이다. 송금 같은 단순한 스마트컨트랙트는 노드(블록체인 네트워크 참여자) 전체의 합의를 거치지 않고, '패스트페이(Fastpay)'라는 결제에 특화된 알고리즘을 통해 검증한다. 복잡한 스마트컨트랙트를 처리할 땐 '대그(DAG)'라 불리는 '방향성 비순환 그래프(Directed Acyclic Graph)' 방식을 사용한다. 기존 블록체인 상에서 여러 거래 기록이 하나의 블록에 묶이는 것과 달리, DAG 알고리즘으로 처리되는 거래 기록들은 뒤에 추가되는 거래 기록이 앞선 거래 기록을 검증하는 방식으로 처리된다. 예를 들어 a라는 거래 기록을 뒤에 추가된 b, c가 검증하고 b, c 거래 기록을 뒤에 추가되는 d, e가 검증하는 방식이다. 이로써 d, e는 간접적으로 a를 검증하게 된다. 이 같은 방식으로 거래 기록을 병렬적으로 처리함으로써 수이는 거래 처리 속도를 크게 끌어올렸다. 거래 처리 속도가 빨라지면 레이어1 블록체인의 고질적 문제였던 확장성 부족도 어느 정도 개선된다. 이런 특징을 기반으로 수이는 지난해 9월 주요 벤처캐피탈(VC)로부터 3억달러(약 4000억원) 투자를 유치하고, 20억달러(약 2조 6744억원) 가치를 인정받았다.◇바이낸스 런치풀 '대박'…인지도 더 높인 수이기술적 특징으로 알려졌던 수이는 지난 1일 수이 토큰(SUI)이 바이낸스 런치풀의 프로젝트로 선정되면서 더 업계의 주목을 받기 시작했다. 런치풀은 바이낸스가 선보인 탈중앙화금융(디파이) 서비스로, 바이낸스가 지정한 가상자산을 특정 풀에 예치하면 그 보상으로 신규 토큰이 지급되는 서비스다. 최근 바이낸스는 바이낸스코인(BNB) 또는 TUSD를 예치하고 그 보상으로 수이 토큰을 지급하겠다고 공지했다.이에 더해 쿠코인 등 대형 거래소도 수이(SUI) 가상자산거래소공개(IEO)에 나서면서 수이의 인지도는 더욱 높아졌다.바이낸스 런치풀의 참여도는 거셌다. 예치 대상 가상자산인 TUSD의 시가총액 규모는 지난 1일을 기점으로 20억달러에서 25억달러까지 뛰었다. 이른바 '수이 효과'다.수이 측은 메인넷 출시 소식을 알리며 이전에 존재했던 레이어1 블록체인과는 차별화된 플랫폼임을 강조했다. 또 개발 문서를 통해 △병렬적인 거래 처리 방식 △컴포저블 NFT도 지원하는 프로그래밍 언어 '무브' △개발자 경험에 최적화된 무브 등 3가지 특징을 근거로 "수이는 이전의 블록체인들과 다르다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2023.05.10.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>'빅테크 규제' 연말 나온다…"카카오·토스, 금융규제 대상 되나" 초긴장</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004842636?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>당국 '빅테크 규제 TF' 향후 일정안 입수금융위도 TF 참여키로…제도개정 염두에 둔듯오는 10월까지 운영…연말에 최종 규제안 공개경기 성남시 소재 카카오 아지트. 사진=연합뉴스금융당국이 카카오 등 빅테크(대형 정보기술 기업)에 대해 '강경 규제' 기조로 가닥을 잡았다. 당초 금융감독원 주도로만 꾸려갈 것으로 전망됐던 빅테크 규제 태스크포스(TF)에 금융위원회까지 합류하면서다.금감원은 건전성과 소비자보호 문제가 없게끔 개별 금융회사들을 감시하고, 금융위는 이러한 관리감독이 가능하게끔 법적·제도적 근거를 만든다. 때문에 시장에선 금융위 참여를 당국의 빅테크 규제 의지로 풀이하고 있다.10일 한경닷컴이 입수한 당국 '빅테크 감독 TF 킥오프 회의 결과자료'에 따르면 금감원과 금융위는 지난달 17일 오후 외부 자문그룹과 만나 TF 논의 주제와 방식, 향후 일정 등을 확정했다. 앞서 같은달 초 금감원은 빅테크에 대한 종합 규제체계를 마련하기 위해 업계와 연구계, 법조계가 참여하는 합동 TF를 꾸린 바 있다(▶2023년 4월6일 보도 [단독] 금감원, 네카토에 칼 꺼낸다…'빅테크 규제' TF 출범).이 자료에 따르면 TF는 4월17일 킥오프해 오는 10월까지 총 6차례 회의를 진행할 예정이다. 회차당 당국이나 특정 기관이 현안을 발제한 뒤 의견을 나누는 식으로 운영된다. 세부적으로 보면 △5월 중 빅테크의 금융업 진출현황·국제 규제기준 조사 △6월 중 빅테크의 영위 희망 업무 제안 △7월 중 빅테크 규제 방향 △9월 중 빅테크 정의와 위험요인 분석 △10월 중 감독대상 빅테크 선정기준과 감독지표 마련 순이다. 금감원은 6차에 걸쳐 이뤄진 회의 내용을 바탕으로 최종 결과물을 마련, 연말에 발표할 방침이다.기업 규제법 중 하나인 '금융복합기업집단법'을 통해 빅테크 규제가 이뤄지는 방안이 유력하게 검토되는 만큼, 이 법을 담당하는 금융그룹감독실이 TF 논의를 주도한다. 빅테크 유관 부서인 디지털금융혁신국과 IT검사국도 회의에 참여한다. 외부에선 연구계(금융연구원·자본시장연구원)와 업계(디지털경제금융연구원), 법조계(법무법인 세종) 등이 합류한다.여기에 금융위가 TF에 '깜짝 합류'한 게 포인트다. 당초 빅테크 대표들을 모아 TF 구성을 알릴 때만 해도 금융위 참여는 계획에 없었다. 하지만 첫 회의부터 금융위 금융정책과와 산하 금융제도운영팀 각 사무관들이 참여했다. 당국이 TF를 통해 제도 개정까지 염두에 뒀다는 것을 알 수 있는 대목이다.현행 금융복합기업집단법에 따르면 여수신업·금융투자업·보험업 중 2개 이상의 금융업을 영위하는 기업집단 중 자산총액이 5조원 이상인 경우 금융복합기업집단으로 지정한다. 다만 비주력 금융 업종의 자산 합계가 5조원 미만이면 제외된다.카카오의 경우 자산총액 5조원 이상이지만, 비주력업종 자산이 5조원 미만이란 이유로 매번 지정되지 않아왔다. 하지만 시장에선 "여러 금융계열사로 내부통제와 위험관리 필요성이 큰데도 규제를 받지 않는 것은 시장 전반에 위험을 전이시킬 수 있다"면서 금융복합기업집단 지정 요건 개정을 주장하고 있다. TF에 참여한 한 관계자는 "금감원 TF로 시작했는데 금융위가 합류한다고 공지를 받아 놀랐다"며 "금융정책을 결정하고 관련 법을 제·개정하는 역할을 하는 금융위가 나섰다는 것은 사실상 카카오나 토스 등이 금융그룹감독 대상이 될 것이란 의미 아니겠느냐. 이런 방향으로 TF에서 입법방향이 결정될 가능성이 높다"고 귀띔했다.금융당국 관계자도 "기존의 금융복합기업집단법으로 (빅테크 기업들) 포섭이 가능한지 등을 비롯해 여러 안을 검토해 보고 있다. TF 운영으로 빅테크 규제의 밑바탕을 그려보는 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2023.05.09.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>애플페이는 상륙했지만…'연 4.15%' 애플통장은 안되는 이유</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004842182?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>사진=연합뉴스애플페이 서비스가 본격적으로 시작됐지만 애플통장과 페이레이터, 캐시 등 다른 금융서비스의 국내 시장 진출은 당분간 어려울 것이란 전망이 나왔다. 국내 법이나 제도와 충돌하는 지점이 있어서다. 빅테크의 금융서비스 진출이 확대되면 국내 은행들의 금산분리 규제 완화 목소리가 커질 것이란 예측도 나온다.9일 한국은행은 금융결제국이 쓴 '애플사(社)의 금융업 진출 현황 및 시사점' 보고서를 통해 애플 금융서비스의 국내 진출 가능성과 이에 따른 이슈를 점검했다.애플은 미국을 중심으로 각종 금융서비스를 확대하고 있다. 애플페이는 아이폰과 가맹점의 근거리무선통신(NFC) 단말기를 통한 비접촉식 결제서비스로, 2014년 출시돼 현재 글로벌 1위 간편결제서비스로 자리 잡았다. 지난 3월 현대카드와 제휴해 국내에도 도입됐다. 국내 유사 서비스로는 삼성페이가 있으나 결제데이터 전송방식에서 차이가 있다.애플캐시는 제휴은행의 애플캐시 계좌 잔액을 이용해 애플페이를 통한 결제(온·오프라인 및 인앱결제), 개인 간 송금 및 은행 계좌이체 기능을 제공한다. 애플카드 사용 시 돌려주는 데일리 캐시를 적립하거나 아이폰 지갑에 등록된 직불카드 계좌에서 이체해 충전하면 된다. 제휴은행인 그린닷은행(Green dot bank)이 미 연방예금보험공사 회원이기 때문에 잔액은 예금자보호 대상에 들어간다. 국내에서는 네이버페이나 카카오페이가 선불충전금을 통한 오프라인 결제, 개인 간 송금서비스를 지원하고 있다.애플카드는 애플과 제휴한 미 골드만삭스은행(GSBU)에서 발급을 지원해 아이폰지갑에 탑재하는 신용카드다. 일종의 상업자표시신용카드(PLCC)로, 애플은 플랫폼과 브랜드를 제공하고 실질적인 카드발급 및 약정체결은 GSBU가 담당한다.애플페이레이터는 수수료나 이자 없이 결제금액을 6주 동안 4번에 걸쳐 나눠 상환할 수 있는 선구매·후결제(BNPL:Buy Now Pay Later) 서비스로 지난 3월 출시됐다. 신용카드에 비해 이용한도 및 지급 기간이 제한적이나 신용평가가 엄격하지 않아 저신용 소비자도 무이자로 이용할 수 있다는 점에서 금융포용의 성격이 있다. 국내 유사 서비스로는 네이버파이낸셜, 카카오페이, 비바리퍼플리카(토스)의 후불결제 서비스가 있다.가장 최근인 지난 4월 애플이 GSBU와 제휴해 내놓은 애플통장은 애플카드 이용자만 가입할 수 있는 저축예금 계좌다. 이자율이 지난달 17일 기준 연 4.15%로 시장평균금리 수준을 크게 상회하는 데다 계좌 개설에 따른 수수료와 최소 예금유지 조건이 없어 출시되자마자 큰 관심을 모았다. 역시 GSBU에 의해 제공·관리되므로 연방예금보험공사 예금자보호 대상에 들어간다.사진=연합뉴스애플의 이같은 금융서비스는 최근 서비스를 시작한 애플페이를 제외하고는 당분간 한국에 도입되지 못할 것이라는 게 한은 금융결제국의 판단이다.우선 애플의 해외 진출 의지가 관측되지 않고 있다. 페이는 우리나라를 비롯한 전 세계에서 서비스되고 있지만 나머지 애플 금융서비스는 미국 내에서만 서비스 중이며 타국가 진출계획은 확인되지 않았다는 것이다.애플이 애플페이 외 나머지 금융서비스로 국내시장에 진출하기 위해서는 국내 법·제도적 문제가 선결돼야 한다는 점이 걸림돌이다. 애플통장의 경우 국내에도 유사한 서비스인 '네이버페이 머니 하나통장'이 있다. 지난해 9월 금융혁신지원특별법에 따라 금융위원회 혁신금융서비스로 지정돼 금융상품 판매대리중개업자 등록 없이 서비스를 제공하고 있다. 애플통장도 국내 서비스를 위해서는 혁신금융서비스 지정 절차가 필요하며, 이 경우 통장계좌 발급수 제한, 지정기간 등의 여러 제약조건 하에서만 영업활동이 가능할 것으로 전망됐다.일종의 후불결제인 애플페이레이터 역시 혁신금융서비스 지정이 필요할 것으로 내다봤다. 유사한 국내 서비스인 '네이버페이 후불결제' 등은 금융위가 혁신금융서비스로 지정, 여신전문금융업법상 신용카드업 허가 없이 후불결제 서비스를 제공 중이기 때문이다.애플캐시의 경우 선불충전금을 통한 재화와 용역 구매 등 간편결제 서비스 구조를 갖고 있어 전자금융거래법상 선불전자지급수단 발행업자 등록이 필요할 것으로 판단했다.애플카드의 경우 국내에 이미 다양한 상업자표시신용카드(PLCC)가 보급돼 있고, 신용카드와 결합된 애플페이 서비스도 시작된 만큼 국내 카드발급사와 제휴하면 시장 진출이 가능할 것으로 내다봤다. 일각에서는 이미 애플페이를 도입하고, PLCC 서비스에도 적극적인 현대카드가 애플과 제휴해 애플카드를 내놓을 것으로 예상하고 있다.국내의 핀테크 경쟁이 치열하다는 점도 문제다. 이미 네이버와 카카오 등 빅테크 기업이 애플 금융서비스와 유사한 서비스를 제공하고 있는 만큼 경쟁에 어려움이 있을 것으로 예상했다. 다만 애플페이 사례처럼 젊은 세대를 중심으로 아이폰에 대한 높은 선호도 등에 힘입어 국내 시장에서 상당한 점유율을 차지할 가능성도 있을 것으로 전망했다.애플 등 글로벌 빅테크의 국내 금융업 진출이 본격화될 경우 금융안정 위험, 독과점 심화, 금융소비자 보호 약화 등 빅테크 관련 문제점이 부각되면서 사회적으로 규제강화 요구가 증대될 가능성이 있다고 지적했다.그러면서 빅테크에 비해 규제상 역차별을 주장하는 은행권에서는 오히려 금산분리 규제 완화 요구를 쟁점화할 수 있다고 진단했다.보고서는 "빅테크가 지급결제제도와 금융안정 리스크 요인으로 작용할 수 있으므로 이에 대한 중앙은행의 공동검사권 확보. '시스템적 중요성이 큰 빅테크 지급서비스'에 대한 감시체계 마련 노력을 지속하고, 국제기구 및 주요국 동향에 대한 모니터링을 강화할 필요가 있다"고 주장했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2023.05.12.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>시중은행서 끝난 ‘역머니무브’…인터넷은행서 계속된다</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000044756?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>5대 은행 정기예금 3개월 새 13.5조 감소…4월도 감소 진행카카오뱅크 1분기 정기예금 규모 42.6%↑토스뱅크 신상품 내놓을 때마다 1조원이상 자금 유치(위에서부터) 카카오뱅크, 케이뱅크, 토스뱅크 로고. [사진 각 사][이코노미스트 이용우 기자] 은행으로의 자금 이동을 말하는 ‘역머니무브’가 인터넷은행에서 계속되고 있다. 반면 시중은행에서는 자금 이탈이 올해부터 시작했다. 예금 금리가 연 3% 초반까지 떨어진 영향인데 높은 물가 탓에 ‘예금을 할수록 손해’가 되는 상황이다. 반면 인터넷은행들은 시중은행보다 금리가 높고, 기존에 볼 수 없었던 상품들을 만들어내면서 고객 관심을 받고 있다. 5대 은행서 자금 이탈할 때…인뱅 3사 자금 유치 성공11일 금융권에 따르면 KB국민은행·신한은행·하나은행·우리은행·NH농협은행 등 5대 은행의 올해 1분기 정기예금 잔액은 총 824조3000억원으로 한 분기만에 13조5000억원(1.6%) 감소했다. 지난해 4분기에 은행권 수신 잔액이 연 5%에 달하는 정기예금 금리 영향으로 한 분기만에 25조원이나 증가한 것과 비교하면 자금 유입 현상이 급반전됐다는 분석이다. 기존 은행권에서의 자금 이탈은 2분기에도 계속되는 분위기다. 한국은행이 발표한 ‘2023년 4월중 금융시장 동향’에 따르면 국내은행의 정기예금은 4월 들어 6조4000억원 감소했다. 올해 2월에는 정기예금이 2조4000억원 증가하며 증가세를 이어왔지만, 3월 들어와 8조8000억원 줄고, 4월에도 감소하면서 은행 정기예금이 계속 축소되고 있다. 주요 금융기관 수신 추이 [제공 한국은행]은행의 정기예금이 올해 초부터 감소하기 시작한 이유는 고객 입장에서 높은 물가로 더 이상 예금에 자금을 예치할 매력이 사라졌기 때문이다. 은행연합회에 공시된 정기예금 금리를 보면 NH농협은행의 ‘NH고향사랑기부예금’ 금리는 최고 연 3.80%로 가장 높았고, 하나은행의 ‘하나의정기예금’는 최고 연 3.40%를 기록했다. 특히 우대금리를 뺄 경우 하나은행의 정기예금은 연 2.60%, 신한은행의 ‘쏠편한 정기예금’은 연 2.90%로 낮아진다. 통계청에 따르면 4월 소비자물가 상승률은 전년 동기 대비 3.7%를 기록했고, 소비자물가의 먹거리 구성 품목 10개 중 3개 물가 상승률은 10%를 웃돌았다. 정기예금 금리보다 물가가 높은 상황이라 고객 입장에서는 자금을 은행에 묶어둘수록 손해를 보는 상황이다. 카카오뱅크 1Q 수신액 7.1조원 확대카카오뱅크의 수신 잔액 추이 [제공 카카오뱅크]시중은행과 달리 인터넷은행으로는 자금이 빠르게 유입되고 있다. 카카오뱅크에 따르면 올해 1분기 정기예금 잔액은 총 12조6000억원으로 지난해 말보다 3조7000억원(42.6%) 증가했다. 요구불예금과 정기적금 등을 모두 합한 수신 총액은 40조2000억원으로 3개월만에 7조1000억원(21.5%) 확대됐다. 자금 유입이 계속 진행되면서 카카오뱅크의 자금조달 비용률은 1분기에 2.26%를 기록해 업계 평균인 1.51%를 웃돌았다. 예금 잔액이 증가할수록 이자비용이 증가한 탓인데, 대출을 확대해야 하는 입장에서 비용 증가가 불가피한 부분이라는 평가가 나온다. 카카오뱅크만 아니라 다른 인터넷은행에도 공통적으로 자금이 빠르게 유입되고 있다. 토스뱅크에 따르면 ‘목돈 굴리기’가 출시 9개월여만에 상품 소개 금액 2조원을 돌파했고, ‘먼저 이자 받는 정기예금’은 출시 33일만에 판매액 1조원을 넘었다. 토스뱅크는 ‘먼저 이자 받는 정기예금’을 은행권에서 유일하게 운영하고 있다. 만기가 아닌 가입 시 이자를 제공해 고객의 재투자를 돕는다는 아이디어로 출시됐다. KT는 올해 1분기 실적 발표를 하면서 케이뱅크의 1분기 수신 잔액이 전년 동기 대비 44.2% 증가한 16조6000억원이라고 전했다. 인뱅 신상품 쏟아지며 고객 넘어 대형 은행도 관심↑은행연합회에 따르면 카카오뱅크와 토스뱅크, 케이뱅크의 정기예금 금리는 기본금리 기준으로도 각각 연 3.40%, 3.50%, 3.60%를 기록하고 있다. 적금 금리도 시중은행보다 높은데, 카카오뱅크의 26주적금 금리는 최고 7.0%를 기록했고, 케이뱅크의 ‘코드K자유적금’은 연 6.0%다. 토스뱅크가 최근 내놓은 ‘굴비적금’은 6개월에 최고 5.0%를 받을 수 있다. 토스뱅크가 업계 최초로 시작한 ‘지금 이자 받기’ 상품은 흥행을 이어가며 다른 인터넷은행에서도 같은 서비스가 나왔고, 지난 4월에는 수협은행도 이 서비스를 내놓으면서 기존 금융권으로 퍼지는 모습이다. 시중은행들은 이 서비스를 시작하지 않고 있지만, 인터넷은행으로 자금이 계속 유입될 경우 관련 서비스 도입을 고민할 수 있다는 입장이다. 한 시중은행 관계자는 “일반 은행 직원들 중에서도 인터넷은행 계좌가 있고 대출을 받은 사람이 많을 정도”라며 “간편한 서비스를 경험했기 때문에 시중은행이 인터넷은행에서 흥행하는 상품을 따라 만드는 상황도 충분히 가능하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2023.05.09.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>'목돈 굴리기' 고민 덜어준 토스… 상품 소개 2조 돌파</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005009545?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>서비스 출시 9개월… 성장세안정성 높은 채권 선별해 눈길  토스뱅크가 고객들의 효율적 투자를 지원하기 위해 선보인 '목돈 굴리기'가 출시 9개월 만에 상품 소개 금액 2조원을 돌파했다고 9일 밝혔다.   목돈 굴리기 서비스는 시장 내 금융투자상품들 중 경쟁력 있는 상품을 토스뱅크가 자체 선별해 소개하고, 고객이 해당 상품 판매사를 통해 가입할 수 있는 서비스다. 평소 고객들이 접하기 어려운 발행어음이나 국고채, 은행채, 한전채 등 우량등급의 회사채 중에서도 금리 경쟁력이 높은 채권 상품들을 토스뱅크가 자체 선별해 소개하고 있다.   현재 목돈 굴리기를 통해 소개한 상품의 금융투자상품 총 규모는 2조80억원이며 고객이 가장 선호한 금융투자상품은 발행어음으로 누적 금액이 1조3300억원을 기록했다.   안정성이 높은 국고채부터 은행채 등 우량 회사채의 경우 누적 소개금액이 6800억원에 달했다. 특히, 1개월 3.9%의 수익률로 최근 소개된 현대자동차 채권은 출시 40분 만에 완판되는 등 높은 인기를 보였다. 토스뱅크는 시장 상황에 따라 투자에 도움이 될 수 있는 다양한 컨텐츠와 자산관리에 참고할 수 있는 정보들을 모아 적시에 알림으로 받을 수 있는 서비스도 상반기 중에 선보일 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2023.05.09.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>국산 서브컬처 게임, 글로벌 시장서 통했다</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002291555?sid=105</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>니케·블루아카이브, 흥행 쌍끌이…5월 출시 신작도 기대치 높아국산 서브컬처 게임이 글로벌 시장에서 뛰어난 성과를 보이고 있다. 몇 년 전까지만 해도 일본·중국이 해당 장르를 양분하는 모습을 보였지만, 최근에는 한국 게임사가 개발한 서브컬처 게임의 경쟁력이 매우 높아진 상황이다.특히 시프트업이 개발한 '승리의 여신: 니케(니케)', 넥슨게임즈가 개발한 블루 아카이브의 경우 서브컬처의 본산이라 불리는 일본시장에서도 막대한 인기를 얻었다. 올해 초 출시된 나인아크의 에버소울도 많은 사랑을 받고 있다.이밖에 빅게임스튜디오의 블랙클로버 모바일, 브이에이게임즈가 개발한 아우터플레인도 기대를 모으는 서브컬처 신작이다.미국 뉴욕 타임스퀘어 전광판에 나온 ‘승리의 여신: 니케’ 광고.9일 게임업계에 따르면 니케는 지난달 출시 반주년 업데이트 이후 글로벌 시장에서 반등하는 모습을 보였다. 시프트업에 따르면 업데이트 이후 니케는 한국 앱스토어에서 매출 4위를 기록했으며 일본 2위, 대만 5위, 미국 13위 등의 성과를 거뒀다.니케는 시프트업이 개발하고 레벨 인피니트가 서비스하는 세계 탈환을 위한 미소녀 건슈팅 액션 게임이다. 이 작품은 포스트 아포칼립스 세계관에서 기계생명체 랩쳐와 맞서 싸우는 니케와 지휘관(이용자)의 이야기를 그리고 있다. 국내를 포함해 일본·대만과 같은 해외 시장에서도 매출 순위 1위를 기록했다.시장조사업체 센서타워에 따르면 니케는 출시 한 달만에 글로벌 매출만 1억 달러(약 1천300억원)를 벌어들였다. 글로벌 매출에 가장 크게 이바지한 '매출 기여도 1위 시장'은 일본인 것으로 밝혀졌다. 센서타워 스토어 인텔리전스는 국가별 점유율을 살펴보았을 때, 전체의 43.3%에 달하는 약 5천만 달러(약 654억 원)의 매출이 일본 시장에서 발생했다고 전했다.블루 아카이브 대표 이미지넥슨게임즈의 블루 아카이브도 글로벌 시장에서 두각을 드러내고 있다. 블루 아카이브는 수많은 학교가 모여있는 거대 학원도시 키보토스를 무대로 학생들의 일상을 다룬다. 이용자는 연방 수사 동아리 샬레의 고문 교사로 활동하며 학생들과 소통한다.블루 아카이브는 애니메이션을 연상시키는 세계관과 매력적인 캐릭터, 탄탄한 스토리를 바탕으로 일본 서브컬처 게임 시장에서 인기 순위와 매출 순위 1위를 기록하는 등 돋보이는 성과를 거뒀다. 다양한 컬래버레이션과 굿즈, 코믹북 등 지식재산권(IP) 생태계를 확장한 것은 물론 일본 TV 애니메이션 제작도 진행 중이다.센서타워는 출시 이후 올해 1월까지 블루 아카이브의 글로벌 누적 매출이 2억4천만 달러(약 3천100억원)라고 발표했다. 특히 일본 점유율은 75%로 다른 국가와 비교해도 매우 높은 편이다. 블루 아카이브가 일본에 1년여 정도 먼저 출시된 영향도 있다.블루 아카이브는 지난 3월 외자판호를 받으면서 중국 진출을 준비하고 있다. 현재 이 게임은 중국 현지에서 사전예약자 수 130만명을 넘겼다. 업계에선 출시 전까지 블루 아카이브의 예약자가 300만 명가량 몰릴 것으로 추정하고 있다.카카오게임즈 '에버소울' 이미지나인아크가 개발하고 카카오게임즈가 서비스하는 에버소울도 글로벌 시장에서 꾸준한 인기를 누리고 있다. 지난 1월 출시된 이 게임은 지구 종말 이후 미래의 지구로 설정된 에덴을 살아가는 정령들의 이야기를 담은 판타지 세계관을 배경으로 하는 수집형 RPG다.에버소울은 한국을 포함해 미국과 유럽, 동남아 등 글로벌 시장에서 동시 서비스를 시작했다. 카카오게임즈에 따르면 이 게임은 출시 당시  싱가포르, 대만, 홍콩, 태국 등에서 인기 순위 1위에 오르는 등 돋보이는 성적을 기록했다. 또한 현재도 동남아, 북미, 유럽 등 글로벌 매출 비중 60% 정도를 유지하며 해외에서 좋은 반응을 얻고 있다. 에버소울은 하반기 중 일본 출시를 계획 중이다.블랙클로버 모바일 이미지.빅게임스튜디오가 개발 중인 블랙클로버 모바일은 일본 인기 애니메이션 '블랙클로버' 지식재IP를 계승한 수집형 RPG다. 이 게임은 애니메이션을 플레이하는 듯한 고퀄리티의 그래픽과 몰입감 높은 스토리텔링 등이 특징이다. 블랙클로버 모바일은 이달 중 한국과 일본시장에서 동시 출시될 예정이다.브이에이게임즈가 개발하고 스마일게이트가 서비스하는 아우터플레인도 이달 출시를 앞두고 있다. 이 게임은 턴제 RPG와 액션 RPG를 더한 것이 특징이다. 이 게임은 지난달 18일 동남아시아 3개국(싱가포르, 말레이시아, 필리핀)에 출시됐고, 이달 말 한국을 포함한 글로벌 지역으로 서비스 권역을 확대한다.업계 한 관계자는 "그동안 한국 서브컬처 게임은 일본이나 중국 작품에 밀려 이렇다 할 영향력을 보여주지 못했다. 특히 최근 몇 년 동안은 '원신', '붕괴', '그랑블루' 등 걸출한 대작에 밀려 국산 게임이 힘을 쓰지 못했다"면서 "하지만 이제 한국 서브컬처 시장 규모가 커지면서, 국산 작품들도 경쟁력을 갖추게 됐다. 현재 서비스하고 있는 작품들이 든든하게 버텨주면서, 유망 신작이 계속해서 출시되면 한국도 서브컬처 게임 강국 반열에 오를 것 같다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2023.05.08.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>토스뱅크, ‘인뱅 최초’ 사장님 위한 ‘노란우산공제’ 가입서비스 출시</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002304600?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>8일 오후 12시부터 가입 가능‥6월 30일까지 가입자 전원에 현금 3만원 혜택 제공 토스뱅크 “모바일로 편리하게 노란우산 가입 가능…소상공인 지원위한 노력 계속할 것” ◆…토스뱅크는 소기업·소상공인 사업주를 대상으로 모바일에서 가입과 납입, 관리까지 편리하게 이용할 수 있는 '노란우산공제' 가입 서비스를 제공한다. 사진=토스뱅크 제공토스뱅크는 소기업·소상공인 사업주를 대상으로 모바일에서 가입과 납입, 관리까지 편리하게 이용할 수 있는 '노란우산공제' 가입 서비스를 제공한다고 8일 밝혔다.   토스뱅크는 이번 출시를 맞아 토스뱅크에서 '노란우산공제'에 가입한 신규 가입자 전원에게 현금 3만원을 제공하는 프로모션도 진행한다. 프로모션은 6월 30일까지 진행되, 혜택은 가입 후 한 달 뒤 토스뱅크 계좌로 지급된다.   '노란우산공제'는 소기업·소상공인이 폐업이나 노령 등 생계 위협이 가능한 상황에서 생활의 안정을 기하고 사업재기의 기회를 제공받을 수 있도록 만들어진 공제제도로 중소벤처기업부가 감독하고 중소기업중앙회가 운영한다.   토스뱅크는 인터넷전문은행 중 최초로 '노란우산공제' 가입서비스를 출시하고 토스뱅크가 가진 편리하고 직관적인 사용자 경험을 공제 가입부터 납입, 관리 절차에 접목해 사업에 바쁜 사장님들이 퇴직금이나 목돈마련을 위해 편리하게 이용할 수 있도록 했다.   소기업이나 소상공인 범위에 포함되는 개인사업자라면 누구나 토스뱅크를 통해 '노란우산공제' 서비스에 가입할 수 있다. 단 전 금융권에서 1인 1개 사업체만 가입이 가능하다. 무등록 소상공인이나 개업 1년 미만으로 매출액 증빙이 가능하지 않은 경우는 노란우산 모바일 앱 또는 노란우산 홈페이지를 통해 가입할 수 있다.   토스뱅크를 통한 '노란우산공제' 가입은 평일 오전 9시부터 오후 6시까지 이고 서비스가 출시되는 오늘 8일 오후 12시부터 바로 이용이 가능하다. 가입신청만 가능한 시간도 저녁 10시까지로 노란우산공제 가입이 가능한 금융기관 중 가장 길다.   납입금액은 월5만원부터 100만원까지이고 3개월 분기납입의 경우 15만원부터 300만원까지 납입할 수 있다. 공제금 지급 사유 발생시 까지 가입 기간에 별도 제한이 없다.   현재 기준 이율은 연 3%이고 폐업, 사망 공제 이율은 연 3.3%를 제공한다.   납부부금액에 대해서는 기존 소득공제상품과 별도로 최대 연 500만원까지 추가로 소득공제가 가능하기 때문에 절세 효과도 동시에 누릴 수 있다. 예를 들어 사업주의 연간 사업소득금액이 5000만원일 때 매달 25만원씩 납입하면 약 79만원의 절세 혜택을 받을 수 있다.   토스뱅크 관계자는 "바쁜 사장님들이 은행 지점에 직접 방문하지 않아도 토스뱅크에서 모바일로 편리하게 '노란우산공제' 가입이 가능해진 만큼 더 많은 사장님들이 혜택을 누릴 수 있기를 바란다"며 "중기중앙회와 함께 소기업·소상공인의 사회안전망 구축을 위한 노력을 계속내 갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2023.05.01.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>선구매후결제 ‘디지털 외상’ 연체율 급등…신용카드의 3~4배</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003276900?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>네이버·카카오·토스 등이 운영하는 선구매후결제(BNPL·Buy Now Pay Later) 서비스의 연체율이 급등했다. 경기 둔화 영향으로 신용카드의 연체율이 오름세를 보이는 가운데 청년 세대가 많이 이용하는 BNPL의 연체율까지 높아지면서 관리가 필요하다는 지적이 나오고 있다.      30일 금융감독원이 최승재 국민의힘 의원에 제출한 자료를 보면 BNPL 서비스를 제공하는 네이버파이낸셜·카카오페이·비바리퍼블리카(토스) 등 3개사 중 토스의 연체율이 5%(3월 기준)로 가장 높았다.      그래픽=차준홍 기자 cha.junhong@joongang.co.kr           지난해 3월 서비스를 시작한 토스는 3개사 가운데 가장 많은 이용자를 확보하는 동시에 채권액(BNPL 대금)도 가장 많은 319억5100만원으로 불렸다. 이중 연체 채권이 15억9800만원(5%) 발생한 상황이다. 토스의 연체율은 서비스 시작 이후 꾸준히 올라 지난 2월 5.02%까지 상승했다. 올 1분기 기준 주요 신용카드사의 연체율이 1%대를 기록하고 있다는 점과 비교하면 3~4배 높은 연체율이다.      네이버파이낸셜(채권액 124억1100만원)의 BNPL 연체율은 지난해 3월 1.26%에서 올 3월 2.7%로 2배 이상 상승했다. 상대적으로 이용이 적은 카카오페이(채권액 1억7400만원)의 BNPL 연체율은 3월 0.51%를 기록했다.      BNPL은 구매 거래를 할 때 결제 사업자가 소비자 대신 가맹점에 대금을 내고, 소비자는 나중에 여러 차례에 나눠서 결제 사업자에 돈을 갚을 수 있도록 하는 ‘디지털 외상’ 서비스다. 신용카드와 구조가 비슷하지만, 소비자의 신용등급이나 소득에 제한이 없고 할부 이자와 수수료를 내지 않아도 돼 청년 세대 사이 인기를 끌었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2023.05.04.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>[단독] 20대, 인터넷은행으로 '부채 무브'…손쉽게 신용대출 받아 빚투</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004841016?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>대출잔액 年 159% 급증지난해 시중은행 대출 2.8조 줄고카카오·케이·토스뱅크 1.4조 늘어인터넷은행 연체율 두 배 치솟아건전성 우려…"충당금 더 쌓아야"사진=연합뉴스20대 청년층의 신용대출 잔액이 지난해 시중은행에선 40% 가까이 줄어들었지만 인터넷전문은행에서는 2.5배 넘게 증가한 것으로 나타났다. 암호화폐와 주식 등 ‘빚투’(빚내서 투자)에 나선 청년층이 비대면으로 손쉽게 대출받을 수 있는 인터넷은행에 몰린 결과로 풀이된다. 신용대출 연체율이 치솟으면서 인터넷은행의 건전성을 우려하는 목소리가 커지고 있다. ◆나 홀로 신용대출 늘린 20대4일 금융감독원이 윤창현 국민의힘 의원에게 제출한 ‘시중은행 및 인터넷은행 가계 신용대출 현황’ 자료를 분석한 결과 지난해 말 카카오뱅크 케이뱅크 토스뱅크 등 인터넷은행 3사의 29세 이하 차주 신용대출 잔액은 2조3011억원으로 집계됐다. 1년 전(8882억원)에 비해 159.1%(1조4129억원) 급증했다. 토스뱅크의 20대 차주 신용대출 잔액이 25배 넘게 증가한 9703억원에 달했고, 카카오뱅크(8129억원)와 케이뱅크(5179억원)도 전년보다 50% 넘게 늘었다.반면 국민 신한 하나 우리 농협 등 5대 시중은행의 20대 차주 신용대출 잔액은 같은 기간 7조8315억원에서 4조9935억원으로 36.2%(2조8380억원) 감소했다.전 세대에서 20대 신용대출 차주가 유일하게 증가했다. 인터넷은행 3사의 29세 이하 신용대출 차주 수는 2021년 11만4000명에서 작년 30만5000명으로 167.5%(19만1000명) 급증한 것으로 집계됐다. 5대 시중은행에서의 20대 신용대출 차주가 같은 기간 40만2000명에서 28만3000명으로 29.6%(11만9000명) 줄어든 것과 대비된다.인터넷은행 3사의 20대 신용대출 차주 증가폭이 5대 은행의 감소폭을 웃돌면서 전체 여덟 개 은행의 작년 말 29세 이하 신용대출 차주 수는 58만8000명으로 전년(51만5000명)보다 14.2%(7만3000명) 늘었다. 반면 같은 기간 30대(-7.6%) 40대(-2.4%) 50대(-3.0%) 신용대출 차주 수는 감소했다. ◆연체율 관리 강화해야통계청에 따르면 지난해 가구주 나이가 29세 이하인 청년들의 가구당 평균 신용대출 보유액은 1053만원으로 전년(648만원)보다 62.5%(405만원) 증가했다. 전 연령층 평균 증가율(4.4%)과 비교해 청년층의 신용대출이 15배나 빠른 속도로 불어난 것이다. 청년층의 신용대출이 급속도로 증가한 배경엔 인터넷은행이 있다고 금융권은 보고 있다. 정보통신기술(ICT)을 활용해 “은행 문턱을 넘지 못했던 중·저신용자 대출을 취급하겠다”며 문을 연 인터넷은행들이 청년층에 신용대출을 적극적으로 내주고 있다는 이유에서다.20대 청년층 신용대출을 늘린 결과 인터넷은행의 연체율도 고개를 들고 있다. 카카오뱅크의 연체율은 2021년 말 0.22%에서 작년 말 0.49%로 두 배로 뛰었다. 2021년 설립 인가를 받은 토스뱅크도 같은 기간 0%에서 0.72%로 뛰었다. 케이뱅크의 연체율은 0.41%에서 0.85%로 높아졌다. 국내 전체 은행권 대출 연체율은 지난 2월 말 기준 0.36%로 인터넷은행의 절반 수준에 그쳤다.인터넷은행들은 연체율 상승에 따른 부실에 대비해 충당금을 충분히 쌓았고, 현재 연체율도 관리가 가능한 수준인 만큼 건전성 훼손 우려는 과도하다고 해명했다. 소득뿐만 아니라 통신비 내역과 같은 ‘대안정보’를 신용평가 모델에 활용해 상환 능력을 엄밀하게 평가하므로 대규모 부실이 발생할 가능성이 작다고 했다.하지만 코로나19 사태 후 3년간 만기 연장과 원리금 상환 유예로 막아왔던 자영업자·중소기업 대출 연체율이 상승하는 상황에서 20대 신용대출 연체율까지 치솟으면 금융권의 부담이 한층 가중될 것이란 우려도 나온다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2023.05.03.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>토스뱅크, 내달 전세자금대출 상품 출시 고삐</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003096135?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>카카오·케이뱅크와 경쟁 예고향후 주담대까지 여신상품 확장은행권 최저 금리 앞세운 카뱅2분만에 실행 케이뱅크에 맞불출처 게티이미지뱅크토스뱅크가 이르면 6월 인터넷은행 전세자금대출 마지막 주자로 합류한다. 여신상품 포트폴리오를 확장하며 카카오뱅크와 케이뱅크가 선두로 나선 전세대출 시장에서 치열한 경쟁을 예고했다.토스뱅크는 6월 말 상품출시를 목표로 전세자금대출 출시 준비에 고삐를 죄고 있다. 늦어도 8월 전 상품을 출시하고 향후 주택담보대출 상품까지 출시해 전세·주담대·사업자 대출로 이어지는 여신 대표 상품 라인업을 갖춘다는 목표다.토스뱅크는 지금까지 수신상품에 포트폴리오가 집중됐다는 지적을 받았다. 토스뱅크 올해 3월 기준 수신 잔액은 23조2000억원, 여신 잔액은 9조3000억원이다. 특히 신용대출에 집중된 탓에 대손충당금 적립율도 높다. 대손충당금은 금융회사가 대출 이후 예상되는 상환 불이행에 대비해 미리 적립금으로 쌓아두는 금액이다. 토스뱅크 대손충당금은 1960억원으로 적립률이 405%에 달한다. 이는 은행권 평균인 225%의 2배에 가까운 수치다. 토스뱅크가 전세 자금 대출, 담보 대출을 출시하면서 신규 여신 규모 대비 충당금 비율은 낮아질 것으로 보인다.토스뱅크 전세자금대출 출시로 인터넷전문은행 3사 간 경쟁은 한층 치열해질 전망이다. 인터넷전문은행은 시중은행 대비 낮은 금리와 비대면 가입 편의성을 강점으로 고객을 유입하고 있다.2018년 1월 가장 먼저 비대면·모바일 전월세보증금 대출을 출시한 카카오뱅크가 선두주자다. 카카오뱅크는 금융 비용 절감을 위해 대출금리 경쟁력을 앞세웠다. 주택금융공사 주별 공시에 따르면 지난주(4월 17∼23일) 카카오뱅크 전세대출 평균 적용 금리는 3.45%다. 인터넷은행을 포함한 전체 은행 중 가장 낮은 수준이다. 카카오뱅크 전월세대출 잔액은 2020년 말 4조5000억원에서 2021년 9조1000억원으로 빠르게 증가, 지난해 말에는 12조1000억원까지 늘었다. 청년 전세보증대출에서도 강세를 띄어, 지난해 14개 시중은행 취급 대출액 중 62.1%를 카카오뱅크가 차지했다.케이뱅크는 2021년 전세대출 상품을 출시한지 1년만인 지난해 11월 전세대출 잔액 1조원을 돌파했다. 2분만에 실행되는 편의성에 금리 인하 조치가 빠른 수요 증가를 견인했다. 지난 3월에는 인터넷은행 최초로 고정금리형 전세대출 상품을 출시하며 금리 인하 기조를 유지 중이다.토스뱅크는 부동산 시장 침체와 선두 업체 시장 장악 속 상품 차별화를 통한 고객 확보를 노린다. 후발주자로 시장에 진입하는 만큼 선례를 반면교사 삼아 보완점을 개선할 수 있다는 설명이다. 최근 '깡통전세' '전세 사기' 등 리스크로 부동산 시장이 경색됨에 따라 이를 방지하기 위한 대응책 마련에도 부심하고 있다.토스뱅크 관계자는 “최근 전세시장 상황과 기존 상품들을 면밀히 분석해 모니터링하며 개선점을 고민해 상품을 출시하기 위해 채비 중”이라며 “구체적으로 말하기는 어렵지만, 금리경쟁력뿐만 아니라 부실이나 리스크 관리 등에 힘써 기존 상품과 차별화를 꾀할 계획”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2023.05.15.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>금융권 중간 연봉에 취업제한까지... 금감원 인기 '뚝'</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004887359?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>금융권에서 가장 좋은 처우를 받는 것으로 알려졌던 금융감독원의 평균 연봉 수준이 시중은행에 미치지 못하는 것으로 나타났다. 취업제한 기준도 공공성을 띠는 다른 기관들보다 까다로운 탓에 금감원의 인기가 예전만 못하다는 목소리가 나온다.  15일 금감원에 따르면 지난해 금감원 직원의 평균 연봉은 1억1006만원으로 집계됐다. 2018년 평균 연봉이 1억538만원을 기록한 것과 비교하면 4년간 468만원 오른 셈이다. 금감원은 올해 예산으로 직원 평균 연봉을 1억328만원으로 잡았다. 성과급을 지난해 수준인 550만~600만원 정도 받는다고 가정하면 지난해와 연봉 수준은 비슷할 전망이다. 반면 지난해 하나은행의 평균 연봉은 1억1700만원이었고, KB국민은행의 경우 1억1600만원이었다. 같은 기간 인터넷은행인 카카오뱅크의 평균 연봉은 1억4600만원, 토스뱅크의 경우 1억1900만원이었다. 2금융권인 카드사를 봐도 삼성카드의 평균 연봉이 1억3900만원으로 금감원 평균 연봉보다 높았다. 신한카드과 KB국민카드도 각각 1억2700만원으로 조사됐다. 보험사의 경우에도 삼성화재의 평균 연봉이 1억3600만원, 신한라이프의 평균 연봉은 1억2400만원이었다. 금감원의 연봉 수준 자체가 다른 대기업보다도 낮은 건 아니지만 과거보다 경쟁력은 떨어졌다는 지적이 나온다. 실제로 2018년 금감원의 평균 연봉은 1억538만원인 반면 당시 5대 시중은행 중에서는 평균 연봉이 1억원을 넘는 곳은 없었다. 더불어 금감원 직원에 적용되는 취업제한 요건이 다른 기관들보다 엄격한 점도 금감원의 경쟁력을 낮춘다는 불만이 나온다. 한국은행이나 예금보험공사 직원은 2급 이상 직원만 취업제한을 받는다. 반면 금감원의 경우 4급 이상 직원은 퇴직일로부터 3년 동안 원칙적으로 업무 관련성이 있는 기업에 재취업을 할 수 없다. 또 관할 공직자윤리위원회 심사를 받아 퇴직 전 5년 동안 담당했던 업무와 재취업 기관 사이 업무 관련성이 없단 걸 인정해야 재취업을 할 수 있다. 20대에 대학 졸업 후 5급으로 입사하면 선임조사역이 되는 30대 초반부터 취업 제한에 걸리는 셈이다.  특히 회계사, 변호사 등 전문 자격증을 가진 이들을 중심으로 금감원 취업을 굳이 선택하지 않는 분위기가 강해지고 있다. 한 금감원 관계자는 "최근 회계법인의 연봉이 크게 올라 회계사 자격증 보유자들의 금감원 지원이 줄어드는 추세"라고 설명했다. 인력난이 이어지자 금감원은 지난 2월에 이어 지난 4월에도 경력직 채용을 진행하고 있다. 신입 채용 인원도 기존보다 늘릴 계획이다. 금감원은 최근 채용업무 대행 용역 공고를 통해 내년도 신입 공채 모집에서 5급 필기시험 응시인원을 지난해보다 50명 늘린 2400명으로 잡았다. 이에 따라 금감원이 역대 최대 규모로 신입직원을 뽑을 것이란 관측도 나온다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2023.05.10.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>진에어, 국제선 대상으로 진심여행상점 오픈</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005482360?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>할인 코드 입력 시 7% 운임 할인어린이 승객은 14% 할인 혜택 제공[이데일리 손의연 기자] 진에어가 5월 가정의 달을 맞이해 국제선 대상으로 진심여행상점을 진행한다고 10일 밝혔다. 진심여행상점은 고객들에게 다양한 여행 혜택을 제공하기 위해 분기마다 운영하는 진에어의 정기 프로모션이다. 이번 진심여행상점은 23일까지 홈페이지 및 모바일 웹·앱을 통해 진행된다.우선 진에어는 15일부터 10월 28일 사이에 운항하는 국제선 항공편(일부 노선 제외)을 대상으로 항공 운임 7% 즉시 할인 프로모션을 진행한다. 만 2세부터 만 12세 미만의 어린이 승객에게는 가족 단위 여행객 비중이 높은 동남아, 부산~괌 노선 한정으로 14% 운임 할인이 적용된다. 이용 방법은 진에어 홈페이지 등을 통해 항공권 예매 시 할인코드 ‘FAMILY7’을 입력하면 운임 할인이 즉시 적용된다. 또한 카카오페이·토스페이 간편결제서비스 이용 고객 대상으로는 최대 2만원 할인 혜택이 추가 적용된다.이와 더불어 △동남아·괌 노선 전용 사전주문기내식 3000원 할인쿠폰 △‘여기 어때’ 제휴를 통한 해외 취항지 호텔 할인 이벤트도 함께 진행된다. 특히 인천~방콕 노선의 경우에는 사전주문기내식 구매 시 카카오와 브랜드 협업 일환으로 제작된 ‘니니즈 트래블키트’도 함께 제공한다.진에어 관계자는 “이번 기회를 잘 활용하시어 가족과 함께 소중한 시간을 나눌 수 있는 알찬 여행 준비하시기를 바란다”고 말했다.기타 자세한 내용은 진에어 온라인 채널을 통해 확인 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2023.05.06.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>저축은행-네파 맞손...신규 대출비교 수수료도 낮아지나</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004883754?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>[이슈속으로]저축은행중앙회와 네이버파이낸셜이 업무협약을 맺고 비대면 대환대출 중개수수료율을 낮추기로 했다. 양측은 이미 서비스중인 신규대출 비교 중개수수료율의 인하 논의 가능성도 열어놓은 것으로 알려졌다. 중개수수료율을 내리는 만큼 고객에게 돌아갈 금리 혜택이 커질 수 있어서다. 금융업권에서는 중개수수료율 인하 분위기가 플랫폼사 전체로 확대될지 주목하고 있다.6일 금융업권에 따르면 저축은행중앙회와 네이버파이낸셜은 지난 2일 '상생 금융 실천을 위한 포괄적 업무 협약'을 맺었다. 네이버파이낸셜이 오는 5월말 시작하는 비대면 대환대출 서비스에서 자체적으로 책정한 중개수수료율을 낮춘다는 내용이다. 저축은행중앙회는 중개수수료가 낮아진 만큼 이를 금융소비자의 부담 완화에 쓰겠다는 방침이다.나아가 양측은 비대면 대환대출 외 신규대출 비교 중개수수료율 인하 논의 가능성도 열어뒀다. 신규대출 비교는 2019년 금융위원회가 인정한 혁신금융서비스다. 토스, 카카오페이, 핀다 등 플랫폼 등이 중심이 돼 서비스를 영위하고 있다. 고객이 새 대출을 받을 때 플랫폼에서 한눈에 여러 대출상품을 비교한 뒤 간편하게 대출을 받을 수 있다. 고객이 보유하고 있는 기존 대출을 비대면 방식을 통해 새 대출로 갈아타는 대환대출 서비스는 이달말 시작 예정이다. 기존에는 대환대출을 하려면 영업점 창구를 직접 방문해야 하는 등 번거로움이 많았는데 앞으로는 한 앱에서 다양한 대환대출 상품 비교와 실행까지 한 번에 가능할 전망이다. 저축은행중앙회와 네이버파이낸셜은 신규대출 비교 중개수수료율 인하를 통해 고객 혜택을 늘릴 수 있다고 보고 있다. 현재 저축은행이 플랫폼사에 내는 신규대출 비교 중개수수료율은 1.7% 수준인데, 이를 1% 수준으로 낮춘다면 저축은행들은 그만큼 줄어드는 비용을 고객에게 돌려줄 수 있다고 설명했다. 앞서 저축은행들은 올 초 카카오페이, 토스 등 플랫폼사에 신규대출 비교 중개수수료율을 낮춰달라고 요구했지만 거절당했다. 저축은행들은 대출비교 서비스에서 은행은 0.2~0.5%의 중개수수료율 적용받는데 본인들은 1.7%에 달하는 수수료율을 내야 하는 게 부당하다고 주장했다. 이에 대해 플랫폼사들은 "지금까지 오프라인 대출모집인 시장에서 평균적으로 2.5%포인트(p)나 차이가 나던 은행-2금융권 간 중개수수료 차이가 플랫폼 등장 이후 1.3p% 수준으로 줄어들었다"며 "기존에 형성된 2금융권의 중개수수료율을 더 낮춘 플랫폼들의 노력을 간과해서는 안 된다"고 반박했다.저축은행과 네이버파이낸셜이 신규대출 비교 중개수수료율 인하도 논의를 시작하면 분위기는 다른 플랫폼사까지 확대될 가능성이 있다. 네이버파이낸셜은 네이버라는 거대 플랫폼을 등에 업고 있다. 상대적으로 낮은 금리로 공격적인 영업을 한다면 신규 대출비교 시장의 판도가 흔들릴 수도 있다는 뜻이다. 현재 신규 대출비교 시장에서는 토스·카카오페이·핀다 등 3사의 점유율이 90%를 넘는 것으로 알려졌다.  대출비교 시장의 후발주자인 네이버파이낸셜 입장에서도 저축은행과의 협업을 통해 시장 점유율을 확대할 수 있다는 이점이 있다. 2019년부터 신규대출 비교를 시작했던 다른 플랫폼사와 달리 네이버파이낸셜은 지난해 11월 서비스를 선보였다. 다른 플랫폼사의 고객을 뺏어오기 위해서는 그들보다 낮은 금리를 제공하는 등 공격적인 전략이 필수적인 상황이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2023.05.10.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>한달이자 1269원…최고금리 6%에도 '찬밥'인 이 상품</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005481940?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>신한·국민·하나 등 시중은행 1개월 만기적금 내놨지만1000원도 안되는 이자총액에 소비자 반응 ’싸늘‘후속상품 준비하는 은행들도 흥행 가능성 ’의문‘재미·팬심을 자극한 이색 예·적금 상품이 트렌드로[이데일리 문승용 기자][이데일리 정두리 기자] 지난달부터 최소 1개월 만기의 초단기 정기적금 출시가 가능해지면서 은행권이 관련 적금을 잇달아 내놓고 있지만 고객 반응은 싸늘하다. 금리가 높아도 가입 기간이 짧을뿐더러 납입액 한도도 낮아 사실상 이자 혜택을 체감하기가 어려워 상품 메리트가 떨어진다는 반응이다. 오히려 재미와 팬심을 자극해 자발적인 저금을 유도하는 이색 예·적금 상품들이 인기를 끌고 있다. 9일 은행권에 따르면 현재 신한은행, KB국민은행, 하나은행, 케이뱅크, 토스뱅크, IBK기업은행 등이 6개월 이하 만기의 초단기적금 상품을 운영하고 있지만 이렇다할 성과는 거두지 못하고 있다. 한국은행 금융통화위원회는 지난해 11월 ‘금융기관 여수신이율 등에 관한 규정’ 개정을 통해 올해 4월부터 은행권이 정기적금과 상호부금의 최소 만기를 기존 6개월에서 1개월로 단축할 수 있도록 했다. 이는 최근 20~30대 단기 납입을 선호하는 소비자 요구가 반영된 것으로, 관련 상품 출시로 금융소비자들의 적금 운용 패턴도 다변화할 것으로 예상됐다. 하지만 막상 뚜껑을 열어보니 한달간 반응은 신통치 않다. 금리가 높다고 하더라도 월 최대 납입액이 20만~50만원에 그쳐 이자 혜택을 누리기 어렵기 때문이다.현재까지 나온 1개월 만기 적금 상품 가운데 가장 금리가 높은 국민은행의 ‘KB 특별한 적금’은 최고 금리가 6%지만 월 최대 납입액이 30만원이다. 최고 금리 적용시에도 만기 때 수령 이자는 세후 1269원에 불과하다. 50만원까지 납입이 가능한 하나은행의 ‘하나 타이밍 적금’은 3.95%로 만기 시 이자는 1392원 수준에 그친다.  신한은행도 최근 초단기 적금 ‘한 달부터 적금’을 내놨다. 이 상품은 한 달동안 영업일 기준 매일 최대 2만원 혹은 매주 10만원의 납입이 가능하고, 최대금리는 4.5%다. 한 달동안 최대 5주간 10만원씩 총 5회차를 납입한다고 가정 시 만기 이자는 999원이다. NH농협은행과 우리은행, 카카오뱅크 등 다른 은행들도 초단기 적금을 준비하고 있지만 내부적으론 흥행 가능성엔 의문이 붙고 있다. 은행권 관계자는 “초단기적금은 고객 선택권을 높이기 위한 상품 라인업 확대 차원”이라고 설명했다. 이보다는 재미와 팬심을 자극해 자발적인 저금을 유도하는 이색 예·적금 상품들이 새로운 트렌드로 부상하고 있다. 토스뱅크는 지난달 최고 연 5%의 금리를 제공하는 자유적립식 상품 ‘굴비적금’을 출시했다. 고객이 적금 계좌에 입금할 때마다 천장에 매달려 있는 굴비가 바닥에 놓여 있는 밥상으로 이동하는 ‘절약왕 굴비’ 이미지가 SNS에서 입소문을 타며 가입고객이 빠르게 늘고 있다. 이날 기준 누적 계좌개설 27만좌로, 하루 평균 약 1만좌가 가입되는 셈이다. 팬심을 활용한 상품도 인기다. 신한은행이 출시한 ‘신한 프로야구 적금’은 좋아하는 야구팀이 정규리그에서 승리할 경우 최대 연 4.6% 금리를 받을 수 있다. 10개 구단 중 응원할 구단을 선택해 월 50만원 이하로 자유롭게 저축하는 만기 12개월 적금 상품이다.카카오뱅크는 최근 저축과 아이돌 팬덤 문화를 결합한 기록통장 ‘최애적금’을 출시했다. 좋아하는 아이돌 구성원이 특정 행동을 할 때마다 일정 금액을 저축하는 구조로, 하루만 맡겨도 연 2.0%의 이자를 받을 수 있다. 카카오뱅크 관계자는 “앞으로 아기, 반려견, 운동, 야근 관련 적금 등 고객이 원하는 니즈에 맞춰 기록통장 서비스를 확장해 나갈 계획”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2023.05.04.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>업비트·바이낸스 앞다퉈 상장한 '수이'…앱토스처럼 100배 뛸까</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011839782?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>기사내용 요약앱토스, 바이낸스 상장 직후 100배 올라국내 5대 원화거래소, 수이 상장 '공지'[서울=뉴시스] 수이가 한국시간으로 3일 오후 9시 메인넷을 공식 출시했다. (사진=수이 트위터 캡처) *재판매 및 DB 금지[서울=뉴시스]이지영 기자 = 업비트와 바이낸스 등 국내외 1위 코인거래소가 앞다퉈 상장한 '수이(SUI)'에 관심이 쏠린다. 수이는 앱토스와 함께 '메타(구 페이스북) 출신 개발자들이 만든 코인'으로 유명해진 가상자산이다.4일 업계에 따르면 수이는 전날 오후 9시(한국시간) 메인넷을 공식 출시한 이후 국내외 주요 거래소에 상장됐다. 우선 국내 5대 대형 원화거래소(업비트·빗썸·코인원·코빗·고팍스) 모두 전날 수이 상장을 공지하며 '줄상장'을 예고했다. 또 바이낸스와 후오비, 쿠코인, 오케이엑스 등 글로벌 대형 거래소들도 수이 상장 대열에 합류했다.이번 수이 '줄상장' 배경으로는 지난해 말 불었던 '앱토스 열풍'이 꼽힌다. 앱토스 열풍을 목격한 국내외 대형 거래소들이 '수이' 또한 비슷한 관심을 받을 것으로 보고 있기 때문이다.앱토스는 '메타 코인'과 '경력직 신입'으로 명성을 얻으며 메인넷 출시 전부터 4300억 규모의 투자를 유치한 가상자산이다. 특히 지난해 10월 17일 메인넷 출시 직후 바이낸스와 업비트 등 국내외 1위 거래소에 잇달아 상장되며 폭등세를 보여 주목받았다. 바이낸스 상장(지난해 10월 19일) 직후 장중 상장가 1달러 대비 최고 100배 오른 100달러를 기록한 것이다. 이외에도 오케이엑스에서는 상장가로부터 15배, 후오비에서는 16배 각각 뛰기도 했다.당시 앱토스 메인넷 출시 직후 유일하게 거래를 지원했던 업비트 역시 열풍 효과를 톡톡히 봤다. 앱토스 거래만으로 하루 2억원이 넘는 수수료를 거둔 것이다. 현재는 빗썸과 코빗 또한 앱토스 거래를 지원 중이다.아울러 주요 가상자산 벤처캐피털(VC)은 이미 수이와 앱토스를 대표적인 '레이어1 코인'으로 함께 분류하며 유망성을 인정한 상태다. 레이어1에서 레이어는 말 그대로 쌓여있는 층(Layer)을 말한다. 즉 다른 네트워크의 개입 없이 기존에 존재했던 네트워크란 뜻이다. 탈중앙화금융(디파이)과 대체불가토큰(NFT) 등 블록체인 서비스가 개발될 수 있도록 뒷받침하는 인프라 역할을 하고 있다.국내 주요 가상자산 VC 임원 A씨는 "메타 출신들이 새로운 프로그래밍 언어인 '무브'를 활용하여 시작한 수이와 앱토스는 많은 블록체인 생태계 참여자들이 기대하고 참여하려 하고 있다"며 "생태계에 참가하는 투자사의 질과 수 역시 높은 편이다. 생태계의 활성도가 높아질 가능성이 높다고 볼 수 있다"고 진단했다.국내 주요 가상자산 VC 임원 B씨 역시 "수이와 앱토스 등은 지난해와 올해 가장 주목 받은 프로젝트"라며 "금리 인상 등 통제 불가한 변수를 제외하고 장기적 관점에서 보더라도 지켜볼 가치가 있다"고 분석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2023.05.10.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>'학력·경력 모두 가짜' 美산토스 의원 기소…이르면 10일 법정 출두</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006797179?sid=104</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>구체적인 기소 내용은 알려지지 않아…선거자금 유용 ·성희롱 의혹도 받는 중조지 산토스 미 연방 하원의원 당선인. 산토스 당선인은 그간 학력과 경력, 재산 등에 대한 자신의 주장이 거짓이었음을 지난해 인정했다. ⓒ 로이터=뉴스1 ⓒ News1 김현 특파원(서울=뉴스1) 김민수 기자 = 가짜 학력과 경력을 기재한 이력서를 바탕으로 뉴욕주 제3선거구에서 당선된 공화당 조지 산토스 하원의원(34)이 법무부에 의해 기소됐다고 AFP통신이 9일(현지시간) 보도했다.조지 산토스에 대한 구체적인 기소 내용은 알려지지 않았다.미국 CNN은 해당 사안에 정통한 3명의 소식통을 인용해 산토스가 이르면 10일 법정에 출두할 수 있다고 전했다.지난해 뉴욕타임스는 산토스 의원의 이력서를 입수해 공개했다. 이력서에는 그가 뉴욕 바루크대학을 졸업한 뒤 뉴욕대학교에서 경영전문대학원(MBA)에 진학, 골드만삭스와 씨티은행 등 월가에서 일한 것으로 기재돼 있다. 그러나 학위와 직업은 모두 가짜였던 것으로 드러났다.아울러 산토스 의원은 선거자금을 자기 아파트 월세와 항공권 구입 등에 사용하는 등 선거자금의 개인적 사용을 금지한 법 규정을 위반했다는 의혹도 받고 있다.그는 또한 자신의 의원실에서 인턴직원을 성희롱했다는 의혹도 받고 있다.유권자들과 일부 공화당원, 민주당 당원들은 사퇴를 촉구하고 있지만 산토스 의원은 이를 거부하고 있다.올해 초 한 방소에서 산토스 의원은 자기 이력서에 몇 가지 거짓말을 했다고 인정했다. 그는 당시 "난 끔찍한 거짓말쟁이였다"며 "이것은 사람들을 속이려는 것이 아니라 당에서 인정받기 위한 것이었다"고 해명했다.케빈 매카시 미 하원의장은 산토스를 의회에서 제명 할지 여부를 고려하기 전에 그의 혐의를 자세히 살펴볼 것이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2023.05.09.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>토스뱅크, ‘목돈 굴리기’ 선보인지 9개월 만에 2조원 돌파</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001100202?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>토스뱅크의 ‘목돈 굴리기’가 출시 9개월 여만에 상품 소개 금액 2조원을 돌파했다.‘목돈 굴리기’는 시장 내 금융투자상품들 중 경쟁력 있는 상품을 토스뱅크가 자체 선별해 소개하고, 고객이 해당 상품 판매사를 통해 가입할 수 있는 서비스이다.평소 고객들이 접하기 어려운 발행어음이나 국고채, 은행채, 한전채 등 우량등급의 회사채 중에서도 금리 경쟁력이 높은 채권 상품들을 토스뱅크가 자체 선별해 소개하고 있다.현재 ‘목돈 굴리기’를 통해 소개한 상품의 금융투자상품 총 규모는 2조 80억원에 달한다.고객이 가장 선호한 금융투자상품은 발행어음으로 누적 금액이 1조 3,300억원을 기록했고, 안정성이 높은 국고채부터 은행채 등 우량 회사채의 누적 소개금액은 6,800억원에 달했다.특히, 1개월 3.9%의 수익률로 최근 소개된 현대자동차 채권의 경우 오픈 40분만에 완판이 되기도 했다.예금보다 수익성이 높은 금융투자 상품에 대한 고객의 요구가 높아진 상황에서 업계 최고 수준의 상품을 자체 선별해 소개했던 것이 금융소비자들의 자금을 끌어모은 주된 배경으로 지목된다.현재 토스뱅크 ‘목돈 굴리기’에는 한국투자증권, KB증권 등 국내 대형 금융투자회사들이 입점해 있는데, 토스뱅크는 향후에도 다양한 제휴 금융사와 제휴를 통해 상품 라인업을 계속 확대해 나간다는 계획이다.더불어 시장 상황에 따라 투자에 도움이 되는 다양한 컨텐츠와 자산관리에 참고할 수 있는 정보들을 모아 적시에 알림으로 받을 수 있는 서비스도 상반기 중에 선보일 예정이다.토스뱅크 관계자는 “복잡하고 많은 금융상품들들 속에서 고객들이 양질의 정보를 취득할 수 있고, 안정성과 수익성을 모두 추구할 수 있는 다양한 상품과 서비스를 제공해 나갈 것”이라며 “토스뱅크의 편리성과 높은 고객경험을 바탕으로 고객들의 금융투자생활에 도움이 되는 서비스를 제공할 수 있도록 계속 노력할 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2023.05.11.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>‘엔데믹 선언’에 상인들 매출 증가 기대…직장인들은 회식 늘어날까 걱정</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000900657?sid=102</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>자영업자 환영… “규제 풀리면 손님 더 늘어날 것”직장인들은 재택근무 사라지고 회식 늘어날까 걱정정부가 완전한 일상회복을 선언한 11일 오전 서울 지하철 4호선 명동역 인근에 위치한 토스트 가게를 찾는 사람들./소가윤 기자        11일 정부가 입원 병실이 있는 병원 외 모든 장소에서 마스크 착용 의무를 해제하는 한편 확진자 ‘7일 격리 의무’를 ‘5일 권고’로 전환하는 등 완전한 일상회복을 선언했다.정부가 사실상 엔데믹(풍토병으로 굳어진 감염병)을 선언하면서 자영업자들은 대체로 환영하는 분위기였다. 서울 강남구에서 케밥집을 운영하고 있는 40대 터키인 A씨는 “인근이 다 회사라 손님은 꾸준히 있었다”면서도 “엔데믹으로 바뀌면서 규제가 완화되면 손님도 더 많이 올 것 같다”고 말했다.케밥집 인근 일식당에서 근무하고 있는 B씨는 “실내 마스크 의무 착용이 해제된 이후에 금방 손님이 늘었다”며 “지금 당장은 아니겠지만 점차 (손님이) 늘어나지 않겠냐”고 했다.서울 지하철 4호선 명동역 인근에서 20년 넘게 토스트집을 운영하고 있는 C씨도 엔데믹을 환영했다. 그는 “음식을 만드는 입장에서는 위생상 마스크를 쓴다”면서도 “손님들은 마스크를 안 쓰는 게 소통하기에 좋을 것 같다”고 말했다. 인근 상가 관리인 연모(58)씨도 “격리든 마스크 착용이든 개인 자율에 맡기는 게 맞다”고 거들었다.11일 오전 서울 강남구에 위치한 한 카페를 가기 위해 시민들이 줄을 서 있다./조연우 기자        반면 직장인들은 다소 아쉬운 표정이었다. 확진자 7일 격리 의무가 5일 권고로 바뀌면서 재택근무가 사라지고 다시 회식이 늘어날까 걱정했다.직장인 이모(34)씨는 “회식을 거의 안 하는 분위기인데 다시 늘어날까 걱정된다”며 “격리도 안 하게 되면 이를 계기로 회식을 요구하는 경우가 많아질 것 같다. 아직 주변에 감염되는 사람이 좀 나온다”고 우려했다. 20대 직장인 유모씨도 “7일 격리는 너무 길지 않나 생각했다”면서도 “재택근무는 나름 편했는데, 그게 사라진 것이 다소 아쉽다”고 말했다.다만 엔데믹 선언은 이르다는 반응도 나왔다. 명동 거리에서 마스크를 착용하고 있던 이모(65)씨는 “대중교통에서는 사람들 간 거리가 가깝기 때문에 마스크를 착용했으면 좋겠다”며 “마스크를 쓰면서 감기에 덜 걸려 쓰고 다니는 게 습관이 돼 앞으로도 계속 쓸 것 같다”고 했다.또 다른 직장인 이모(28)씨는 “나처럼 젊은 사람들은 괜찮다”면서도 “아이들이나 할머니·할아버지들이 코로나에 걸리면 위험하지 않겠냐”고 반문했고, 직장인 D씨는 “다니는 회사에도 아직 감염자가 많기 때문에 (엔데믹 선언은) 조금 이른 것 같다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2023.05.12.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>[포토] 대환대출 인프라 점검 간담회 참석한 은행장들</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005258216?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>12일 서울 종로구 정부서울청사에서 열린 온라인, 원스톱 대환대출 인프라 점검 간담회에 참석한 이원덕 우리은행장(왼쪽부터), 이승열 하나은행장, 이승건 토스, 대표, 신원근 카카오페이 대표, 이혜민 핀다 공동대표, 박상진 네이버파이낸셜 대표 등 금융권 참석자들이 심각한 표정으로 김주현 금융위원장 발언을 듣고 있다. 사진=</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2023.05.08.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>모임통장·기록통장…금리보다 재미 “좋아요”</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003222262?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>카뱅·토스 등 수시입출식 상품적금보다 금리 낮아도 인기몰이인터넷은행엔 새로운 효자 상품카카오뱅크가 대표 상품인 ‘모임통장’에 이어 ‘기록통장’을 출시하는 등 수시입출식 통장 위주로 수신상품의 진용을 확장하고 있다. 토스뱅크도 ‘모임통장’을 선보이며 저원가 예금 시장에 뛰어들었다. 수시입출식 통장은 정기 예·적금에 비해 금리가 낮아 은행 입장에선 저비용의 알짜 상품이다. 재미와 편의성을 앞세운 저금리 수신상품이 인터넷은행들의 새로운 효자 상품이 될지 주목된다.8일 금융권에 따르면 카카오뱅크는 지난달 18일 수시입출식 통장인 ‘기록통장’을 출시했다. 가입자가 기념하고 싶은 순간을 각자 정하고 그때마다 돈을 납입하는 재미 요소를 앞세운 상품이다.카카오뱅크에 따르면 이 상품은 정식 출시 전에 사전 신청에만 40만명이 몰릴 정도로 인기를 끌었다. 애초 카카오뱅크가 이 상품을 ‘자신이 좋아하는 배우·가수의 특별한 날을 기념할 수 있는 최애적금’이라고 홍보했기 때문으로 보인다. 그러나 실제로 이 상품은 만기가 정해져 있는 적금이 아니라 언제든 돈을 넣고 뺄 수 있는 수시입출식 통장이다. 금리가 연 2%로, 은행의 일반적인 요구불예금 금리(0.1%)보다 높지만 적금(카카오뱅크 기준 최고 4%)보다는 낮다. 그러나 금리가 낮더라도 재미있는 것을 선호하는 젊은층이 이 상품에 돈을 넣고 있다.은행으로선 적금보다 기록통장이 더 많이 팔리는 게 유리하다. 자금조달 비용이 낮은 저원가 상품이기 때문이다. 저원가 예금은 은행의 이익 수준을 결정하는 주요 요소다. 그래서 ‘핵심예금’이라고도 불린다. 금리가 연 0.1%에 불과한 모임통장이 저원가 예금의 대표 상품이다. 금리는 낮지만 모임회비 관리가 필요한 소비자들이 찾고 있다. 모임통장이 카카오뱅크 요구불예금에서 차지하는 비중은 2020년 18.9%에서 올해 1분기 24.3%로 증가했다. 금액으로도 같은 기간 2조5000억원에서 5조5000억원으로 불었다.카카오뱅크의 성공을 지켜본 토스뱅크도 지난 2월 모임통장을 새로 선보이면서 저원가 예금 시장 공략에 뛰어들었다. 토스뱅크 모임통장은 금리가 연 2.3%로, 일반 요구불예금이나 카카오뱅크 모임통장보다 높다. 그러나 토스뱅크의 기존 적금(최고 연 4.5%)보다는 금리가 낮아 자금조달 비용이 덜 소요된다. 토스뱅크 모임통장은 금리 경쟁력, 사용 편의성 등에 힘입어 출시 일주일 만에 7만 계좌를 돌파하는 등 인기몰이를 했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
